--- a/oiadsites.xlsx
+++ b/oiadsites.xlsx
@@ -3921,21 +3921,17 @@
   </sheetPr>
   <dimension ref="A1:I444"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A406" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A443" activeCellId="0" pane="topLeft" sqref="A443"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C26" activeCellId="0" pane="topLeft" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.9098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="98.0196078431372"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="49.9098039215686"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9686274509804"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.9098039215686"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.5607843137255"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="0" width="49.9098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.0313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0352941176471"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.6156862745098"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="1">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="1" s="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3961,7 +3957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
@@ -3981,7 +3977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
         <v>13</v>
       </c>
@@ -4001,7 +3997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
         <v>17</v>
       </c>
@@ -4024,7 +4020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
         <v>21</v>
       </c>
@@ -4047,7 +4043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
         <v>23</v>
       </c>
@@ -4070,7 +4066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
         <v>26</v>
       </c>
@@ -4093,7 +4089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
         <v>28</v>
       </c>
@@ -4116,7 +4112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
         <v>31</v>
       </c>
@@ -4139,7 +4135,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
         <v>34</v>
       </c>
@@ -4162,7 +4158,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
         <v>37</v>
       </c>
@@ -4182,7 +4178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.05" outlineLevel="0" r="12">
       <c r="A12" s="0" t="s">
         <v>40</v>
       </c>
@@ -4205,7 +4201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.05" outlineLevel="0" r="13">
       <c r="A13" s="0" t="s">
         <v>43</v>
       </c>
@@ -4228,7 +4224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.05" outlineLevel="0" r="14">
       <c r="A14" s="0" t="s">
         <v>46</v>
       </c>
@@ -4251,7 +4247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.05" outlineLevel="0" r="15">
       <c r="A15" s="0" t="s">
         <v>49</v>
       </c>
@@ -4274,7 +4270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.05" outlineLevel="0" r="16">
       <c r="A16" s="0" t="s">
         <v>52</v>
       </c>
@@ -4297,7 +4293,7 @@
         <v>55</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17">
       <c r="A17" s="0" t="s">
         <v>56</v>
       </c>
@@ -4320,7 +4316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="18">
       <c r="A18" s="0" t="s">
         <v>60</v>
       </c>
@@ -4343,7 +4339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19">
       <c r="A19" s="0" t="s">
         <v>63</v>
       </c>
@@ -4363,7 +4359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="20">
       <c r="A20" s="0" t="s">
         <v>66</v>
       </c>
@@ -4383,7 +4379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.05" outlineLevel="0" r="21">
       <c r="A21" s="0" t="s">
         <v>68</v>
       </c>
@@ -4406,7 +4402,7 @@
         <v>71</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="22">
       <c r="A22" s="0" t="s">
         <v>72</v>
       </c>
@@ -4429,7 +4425,7 @@
         <v>74</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="23">
       <c r="A23" s="0" t="s">
         <v>75</v>
       </c>
@@ -4449,7 +4445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="24">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="24">
       <c r="A24" s="0" t="s">
         <v>77</v>
       </c>
@@ -4472,7 +4468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="25">
       <c r="A25" s="0" t="s">
         <v>80</v>
       </c>
@@ -4495,7 +4491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.05" outlineLevel="0" r="26">
       <c r="A26" s="0" t="s">
         <v>83</v>
       </c>
@@ -4503,7 +4499,7 @@
         <v>84</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>25</v>
@@ -4518,7 +4514,7 @@
         <v>85</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.05" outlineLevel="0" r="27">
       <c r="A27" s="0" t="s">
         <v>86</v>
       </c>
@@ -4541,7 +4537,7 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.05" outlineLevel="0" r="28">
       <c r="A28" s="0" t="s">
         <v>89</v>
       </c>
@@ -4564,7 +4560,7 @@
         <v>91</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="29">
       <c r="A29" s="0" t="s">
         <v>92</v>
       </c>
@@ -4584,7 +4580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="30">
       <c r="A30" s="0" t="s">
         <v>94</v>
       </c>
@@ -4607,7 +4603,7 @@
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="31">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.05" outlineLevel="0" r="31">
       <c r="A31" s="0" t="s">
         <v>97</v>
       </c>
@@ -4630,7 +4626,7 @@
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="32">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.05" outlineLevel="0" r="32">
       <c r="A32" s="0" t="s">
         <v>99</v>
       </c>
@@ -4653,7 +4649,7 @@
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
         <v>102</v>
       </c>
@@ -4679,7 +4675,7 @@
         <v>105</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.05" outlineLevel="0" r="34">
       <c r="A34" s="0" t="s">
         <v>106</v>
       </c>
@@ -4699,7 +4695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="35">
       <c r="A35" s="0" t="s">
         <v>109</v>
       </c>
@@ -4722,7 +4718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="36">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="36">
       <c r="A36" s="0" t="s">
         <v>113</v>
       </c>
@@ -4742,7 +4738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="37">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="37">
       <c r="A37" s="0" t="s">
         <v>115</v>
       </c>
@@ -4765,7 +4761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="38">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="38">
       <c r="A38" s="0" t="s">
         <v>118</v>
       </c>
@@ -4785,7 +4781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="39">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.05" outlineLevel="0" r="39">
       <c r="A39" s="0" t="s">
         <v>120</v>
       </c>
@@ -4805,7 +4801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="40">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.05" outlineLevel="0" r="40">
       <c r="A40" s="0" t="s">
         <v>122</v>
       </c>
@@ -4831,7 +4827,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="41">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.05" outlineLevel="0" r="41">
       <c r="A41" s="0" t="s">
         <v>125</v>
       </c>
@@ -4851,7 +4847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="42">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="42">
       <c r="A42" s="0" t="s">
         <v>128</v>
       </c>
@@ -4871,7 +4867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="43">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="43">
       <c r="A43" s="0" t="s">
         <v>130</v>
       </c>
@@ -4894,7 +4890,7 @@
         <v>132</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="44">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="44">
       <c r="A44" s="0" t="s">
         <v>133</v>
       </c>
@@ -4914,7 +4910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="45">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="45">
       <c r="A45" s="0" t="s">
         <v>135</v>
       </c>
@@ -4937,7 +4933,7 @@
         <v>137</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="46">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="46">
       <c r="A46" s="0" t="s">
         <v>138</v>
       </c>
@@ -4957,7 +4953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="47">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="47">
       <c r="A47" s="0" t="s">
         <v>140</v>
       </c>
@@ -4980,7 +4976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="48">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="48">
       <c r="A48" s="0" t="s">
         <v>143</v>
       </c>
@@ -5003,7 +4999,7 @@
         <v>145</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="49">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="49">
       <c r="A49" s="0" t="s">
         <v>146</v>
       </c>
@@ -5029,7 +5025,7 @@
         <v>149</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="50">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="50">
       <c r="A50" s="0" t="s">
         <v>150</v>
       </c>
@@ -5052,7 +5048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="51">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="51">
       <c r="A51" s="0" t="s">
         <v>153</v>
       </c>
@@ -5075,7 +5071,7 @@
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="52">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="52">
       <c r="A52" s="0" t="s">
         <v>156</v>
       </c>
@@ -5098,7 +5094,7 @@
         <v>158</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="53">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="53">
       <c r="A53" s="0" t="s">
         <v>159</v>
       </c>
@@ -5118,7 +5114,7 @@
         <v>161</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="54">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="54">
       <c r="A54" s="0" t="s">
         <v>162</v>
       </c>
@@ -5138,7 +5134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="55">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="55">
       <c r="A55" s="0" t="s">
         <v>164</v>
       </c>
@@ -5161,7 +5157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="56">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="56">
       <c r="A56" s="0" t="s">
         <v>167</v>
       </c>
@@ -5184,7 +5180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="57">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="57">
       <c r="A57" s="0" t="s">
         <v>169</v>
       </c>
@@ -5207,7 +5203,7 @@
         <v>171</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="58">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="58">
       <c r="A58" s="0" t="s">
         <v>172</v>
       </c>
@@ -5227,7 +5223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="59">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="59">
       <c r="A59" s="0" t="s">
         <v>175</v>
       </c>
@@ -5250,7 +5246,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="60">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="60">
       <c r="A60" s="0" t="s">
         <v>178</v>
       </c>
@@ -5270,7 +5266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="61">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="61">
       <c r="A61" s="0" t="s">
         <v>180</v>
       </c>
@@ -5293,7 +5289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="62">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="62">
       <c r="A62" s="0" t="s">
         <v>183</v>
       </c>
@@ -5313,7 +5309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="63">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="63">
       <c r="A63" s="0" t="s">
         <v>185</v>
       </c>
@@ -5333,7 +5329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="64">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="64">
       <c r="A64" s="0" t="s">
         <v>187</v>
       </c>
@@ -5359,7 +5355,7 @@
         <v>191</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="65">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="65">
       <c r="A65" s="0" t="s">
         <v>192</v>
       </c>
@@ -5382,7 +5378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="66">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="66">
       <c r="A66" s="0" t="s">
         <v>196</v>
       </c>
@@ -5405,7 +5401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="67">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="67">
       <c r="A67" s="0" t="s">
         <v>199</v>
       </c>
@@ -5428,7 +5424,7 @@
         <v>201</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="68">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="68">
       <c r="A68" s="0" t="s">
         <v>202</v>
       </c>
@@ -5451,7 +5447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="69">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="69">
       <c r="A69" s="0" t="s">
         <v>205</v>
       </c>
@@ -5477,7 +5473,7 @@
         <v>208</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="70">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="70">
       <c r="A70" s="0" t="s">
         <v>209</v>
       </c>
@@ -5497,7 +5493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="71">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="71">
       <c r="A71" s="0" t="s">
         <v>211</v>
       </c>
@@ -5517,7 +5513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="72">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="72">
       <c r="A72" s="0" t="s">
         <v>213</v>
       </c>
@@ -5543,7 +5539,7 @@
         <v>216</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="73">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="73">
       <c r="A73" s="0" t="s">
         <v>217</v>
       </c>
@@ -5566,7 +5562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="74">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="74">
       <c r="A74" s="0" t="s">
         <v>220</v>
       </c>
@@ -5589,7 +5585,7 @@
         <v>222</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="75">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="75">
       <c r="A75" s="0" t="s">
         <v>223</v>
       </c>
@@ -5612,7 +5608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="76">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="76">
       <c r="A76" s="0" t="s">
         <v>226</v>
       </c>
@@ -5635,7 +5631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="77">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="77">
       <c r="A77" s="0" t="s">
         <v>229</v>
       </c>
@@ -5658,7 +5654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="78">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="78">
       <c r="A78" s="0" t="s">
         <v>232</v>
       </c>
@@ -5681,7 +5677,7 @@
         <v>235</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="79">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="79">
       <c r="A79" s="0" t="s">
         <v>236</v>
       </c>
@@ -5701,7 +5697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="80">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="80">
       <c r="A80" s="0" t="s">
         <v>239</v>
       </c>
@@ -5724,7 +5720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="81">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="81">
       <c r="A81" s="0" t="s">
         <v>243</v>
       </c>
@@ -5750,7 +5746,7 @@
         <v>208</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="82">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="82">
       <c r="A82" s="0" t="s">
         <v>246</v>
       </c>
@@ -5770,7 +5766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="83">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="83">
       <c r="A83" s="0" t="s">
         <v>248</v>
       </c>
@@ -5793,7 +5789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="84">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.05" outlineLevel="0" r="84">
       <c r="A84" s="0" t="s">
         <v>251</v>
       </c>
@@ -5816,7 +5812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="85">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="85">
       <c r="A85" s="0" t="s">
         <v>254</v>
       </c>
@@ -5836,7 +5832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="86">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="86">
       <c r="A86" s="0" t="s">
         <v>256</v>
       </c>
@@ -5859,7 +5855,7 @@
         <v>258</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="87">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="87">
       <c r="A87" s="0" t="s">
         <v>259</v>
       </c>
@@ -5882,7 +5878,7 @@
         <v>261</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="88">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="88">
       <c r="A88" s="0" t="s">
         <v>262</v>
       </c>
@@ -5905,7 +5901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="89">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="89">
       <c r="A89" s="0" t="s">
         <v>265</v>
       </c>
@@ -5931,7 +5927,7 @@
         <v>268</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="90">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="90">
       <c r="A90" s="0" t="s">
         <v>269</v>
       </c>
@@ -5951,7 +5947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="91">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="91">
       <c r="A91" s="0" t="s">
         <v>271</v>
       </c>
@@ -5971,7 +5967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="92">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="92">
       <c r="A92" s="0" t="s">
         <v>273</v>
       </c>
@@ -5994,7 +5990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="93">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="93">
       <c r="A93" s="0" t="s">
         <v>276</v>
       </c>
@@ -6014,7 +6010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="94">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="94">
       <c r="A94" s="0" t="s">
         <v>278</v>
       </c>
@@ -6040,7 +6036,7 @@
         <v>281</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="95">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="95">
       <c r="A95" s="0" t="s">
         <v>282</v>
       </c>
@@ -6063,7 +6059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="96">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="96">
       <c r="A96" s="0" t="s">
         <v>286</v>
       </c>
@@ -6086,7 +6082,7 @@
         <v>289</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="97">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="97">
       <c r="A97" s="0" t="s">
         <v>290</v>
       </c>
@@ -6109,7 +6105,7 @@
         <v>292</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="98">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="98">
       <c r="A98" s="0" t="s">
         <v>293</v>
       </c>
@@ -6132,7 +6128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="99">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="99">
       <c r="A99" s="0" t="s">
         <v>296</v>
       </c>
@@ -6152,7 +6148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="100">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="100">
       <c r="A100" s="0" t="s">
         <v>298</v>
       </c>
@@ -6172,7 +6168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="101">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="101">
       <c r="A101" s="0" t="s">
         <v>300</v>
       </c>
@@ -6192,7 +6188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="102">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="102">
       <c r="A102" s="0" t="s">
         <v>302</v>
       </c>
@@ -6212,7 +6208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="103">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="103">
       <c r="A103" s="0" t="s">
         <v>304</v>
       </c>
@@ -6235,7 +6231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="104">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="104">
       <c r="A104" s="0" t="s">
         <v>307</v>
       </c>
@@ -6258,7 +6254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="105">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="105">
       <c r="A105" s="0" t="s">
         <v>310</v>
       </c>
@@ -6281,7 +6277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="106">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="106">
       <c r="A106" s="0" t="s">
         <v>313</v>
       </c>
@@ -6304,7 +6300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="107">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="107">
       <c r="A107" s="0" t="s">
         <v>316</v>
       </c>
@@ -6324,7 +6320,7 @@
         <v>318</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="108">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="108">
       <c r="A108" s="0" t="s">
         <v>319</v>
       </c>
@@ -6347,7 +6343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="109">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="109">
       <c r="A109" s="0" t="s">
         <v>322</v>
       </c>
@@ -6367,7 +6363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="110">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="110">
       <c r="A110" s="0" t="s">
         <v>324</v>
       </c>
@@ -6387,7 +6383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="111">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="111">
       <c r="A111" s="0" t="s">
         <v>326</v>
       </c>
@@ -6410,7 +6406,7 @@
         <v>328</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="112">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="112">
       <c r="A112" s="0" t="s">
         <v>329</v>
       </c>
@@ -6433,7 +6429,7 @@
         <v>328</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="113">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="113">
       <c r="A113" s="0" t="s">
         <v>331</v>
       </c>
@@ -6456,7 +6452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="114">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="114">
       <c r="A114" s="0" t="s">
         <v>334</v>
       </c>
@@ -6476,7 +6472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="115">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="115">
       <c r="A115" s="0" t="s">
         <v>336</v>
       </c>
@@ -6502,7 +6498,7 @@
         <v>339</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="116">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="116">
       <c r="A116" s="0" t="s">
         <v>340</v>
       </c>
@@ -6531,7 +6527,7 @@
         <v>344</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="117">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="117">
       <c r="A117" s="0" t="s">
         <v>345</v>
       </c>
@@ -6551,7 +6547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="118">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="118">
       <c r="A118" s="0" t="s">
         <v>348</v>
       </c>
@@ -6577,7 +6573,7 @@
         <v>351</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="119">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="119">
       <c r="A119" s="0" t="s">
         <v>352</v>
       </c>
@@ -6597,7 +6593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="120">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="120">
       <c r="A120" s="0" t="s">
         <v>354</v>
       </c>
@@ -6617,7 +6613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="121">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="121">
       <c r="A121" s="0" t="s">
         <v>356</v>
       </c>
@@ -6637,7 +6633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="122">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="122">
       <c r="A122" s="0" t="s">
         <v>358</v>
       </c>
@@ -6660,7 +6656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="123">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="123">
       <c r="A123" s="0" t="s">
         <v>361</v>
       </c>
@@ -6680,7 +6676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="124">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="124">
       <c r="A124" s="0" t="s">
         <v>363</v>
       </c>
@@ -6703,7 +6699,7 @@
         <v>365</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="125">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="125">
       <c r="A125" s="0" t="s">
         <v>366</v>
       </c>
@@ -6726,7 +6722,7 @@
         <v>368</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="126">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="126">
       <c r="A126" s="0" t="s">
         <v>369</v>
       </c>
@@ -6749,7 +6745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="127">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="127">
       <c r="A127" s="0" t="s">
         <v>372</v>
       </c>
@@ -6769,7 +6765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="128">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="128">
       <c r="A128" s="0" t="s">
         <v>374</v>
       </c>
@@ -6792,7 +6788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="129">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="129">
       <c r="A129" s="0" t="s">
         <v>378</v>
       </c>
@@ -6815,7 +6811,7 @@
         <v>380</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="130">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="130">
       <c r="A130" s="0" t="s">
         <v>381</v>
       </c>
@@ -6838,7 +6834,7 @@
         <v>383</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="131">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="131">
       <c r="A131" s="0" t="s">
         <v>384</v>
       </c>
@@ -6858,7 +6854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="132">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="132">
       <c r="A132" s="0" t="s">
         <v>387</v>
       </c>
@@ -6881,7 +6877,7 @@
         <v>389</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="133">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="133">
       <c r="A133" s="0" t="s">
         <v>390</v>
       </c>
@@ -6901,7 +6897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="134">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="134">
       <c r="A134" s="0" t="s">
         <v>392</v>
       </c>
@@ -6921,7 +6917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="135">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.05" outlineLevel="0" r="135">
       <c r="A135" s="0" t="s">
         <v>394</v>
       </c>
@@ -6941,7 +6937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="136">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="136">
       <c r="A136" s="0" t="s">
         <v>396</v>
       </c>
@@ -6964,7 +6960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="137">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="137">
       <c r="A137" s="0" t="s">
         <v>399</v>
       </c>
@@ -6984,7 +6980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="138">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="138">
       <c r="A138" s="0" t="s">
         <v>401</v>
       </c>
@@ -7004,7 +7000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="139">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="139">
       <c r="A139" s="0" t="s">
         <v>403</v>
       </c>
@@ -7030,7 +7026,7 @@
         <v>328</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="140">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="140">
       <c r="A140" s="0" t="s">
         <v>406</v>
       </c>
@@ -7056,7 +7052,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="141">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="141">
       <c r="A141" s="0" t="s">
         <v>409</v>
       </c>
@@ -7076,7 +7072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="142">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="142">
       <c r="A142" s="0" t="s">
         <v>411</v>
       </c>
@@ -7102,7 +7098,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="143">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="143">
       <c r="A143" s="0" t="s">
         <v>414</v>
       </c>
@@ -7125,7 +7121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="144">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="144">
       <c r="A144" s="0" t="s">
         <v>417</v>
       </c>
@@ -7154,7 +7150,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="145">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="145">
       <c r="A145" s="0" t="s">
         <v>421</v>
       </c>
@@ -7177,7 +7173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="146">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="146">
       <c r="A146" s="0" t="s">
         <v>425</v>
       </c>
@@ -7200,7 +7196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="147">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="147">
       <c r="A147" s="0" t="s">
         <v>428</v>
       </c>
@@ -7220,7 +7216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="148">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="148">
       <c r="A148" s="0" t="s">
         <v>430</v>
       </c>
@@ -7240,7 +7236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="149">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="149">
       <c r="A149" s="0" t="s">
         <v>432</v>
       </c>
@@ -7263,7 +7259,7 @@
         <v>434</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="150">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="150">
       <c r="A150" s="0" t="s">
         <v>435</v>
       </c>
@@ -7286,7 +7282,7 @@
         <v>434</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="151">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="151">
       <c r="A151" s="0" t="s">
         <v>437</v>
       </c>
@@ -7309,7 +7305,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="152">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="152">
       <c r="A152" s="0" t="s">
         <v>439</v>
       </c>
@@ -7332,7 +7328,7 @@
         <v>441</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="153">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="153">
       <c r="A153" s="0" t="s">
         <v>442</v>
       </c>
@@ -7352,7 +7348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="154">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="154">
       <c r="A154" s="0" t="s">
         <v>444</v>
       </c>
@@ -7375,7 +7371,7 @@
         <v>446</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="155">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="155">
       <c r="A155" s="0" t="s">
         <v>447</v>
       </c>
@@ -7395,7 +7391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="156">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="156">
       <c r="A156" s="0" t="s">
         <v>449</v>
       </c>
@@ -7418,7 +7414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="157">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="157">
       <c r="A157" s="0" t="s">
         <v>452</v>
       </c>
@@ -7444,7 +7440,7 @@
         <v>455</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="158">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="158">
       <c r="A158" s="0" t="s">
         <v>456</v>
       </c>
@@ -7467,7 +7463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="159">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="159">
       <c r="A159" s="0" t="s">
         <v>459</v>
       </c>
@@ -7487,7 +7483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="160">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="160">
       <c r="A160" s="0" t="s">
         <v>461</v>
       </c>
@@ -7507,7 +7503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="161">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="161">
       <c r="A161" s="0" t="s">
         <v>463</v>
       </c>
@@ -7527,7 +7523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="162">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="162">
       <c r="A162" s="0" t="s">
         <v>465</v>
       </c>
@@ -7547,7 +7543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="163">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="163">
       <c r="A163" s="0" t="s">
         <v>467</v>
       </c>
@@ -7567,7 +7563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="164">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="164">
       <c r="A164" s="0" t="s">
         <v>469</v>
       </c>
@@ -7590,7 +7586,7 @@
         <v>471</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="165">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="165">
       <c r="A165" s="0" t="s">
         <v>472</v>
       </c>
@@ -7613,7 +7609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="166">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="166">
       <c r="A166" s="0" t="s">
         <v>475</v>
       </c>
@@ -7636,7 +7632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="167">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="167">
       <c r="A167" s="0" t="s">
         <v>478</v>
       </c>
@@ -7659,7 +7655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="168">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="168">
       <c r="A168" s="0" t="s">
         <v>481</v>
       </c>
@@ -7682,7 +7678,7 @@
         <v>483</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="169">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="169">
       <c r="A169" s="0" t="s">
         <v>484</v>
       </c>
@@ -7705,7 +7701,7 @@
         <v>486</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="170">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="170">
       <c r="A170" s="0" t="s">
         <v>487</v>
       </c>
@@ -7731,7 +7727,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="171">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="171">
       <c r="A171" s="0" t="s">
         <v>490</v>
       </c>
@@ -7757,7 +7753,7 @@
         <v>493</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="172">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="172">
       <c r="A172" s="0" t="s">
         <v>494</v>
       </c>
@@ -7780,7 +7776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="173">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="173">
       <c r="A173" s="0" t="s">
         <v>497</v>
       </c>
@@ -7803,7 +7799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="174">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="174">
       <c r="A174" s="0" t="s">
         <v>500</v>
       </c>
@@ -7823,7 +7819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="175">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="175">
       <c r="A175" s="0" t="s">
         <v>503</v>
       </c>
@@ -7846,7 +7842,7 @@
         <v>505</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="176">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="176">
       <c r="A176" s="0" t="s">
         <v>506</v>
       </c>
@@ -7869,7 +7865,7 @@
         <v>508</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="177">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="177">
       <c r="A177" s="0" t="s">
         <v>509</v>
       </c>
@@ -7889,7 +7885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="178">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="178">
       <c r="A178" s="0" t="s">
         <v>511</v>
       </c>
@@ -7912,7 +7908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="179">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="179">
       <c r="A179" s="0" t="s">
         <v>514</v>
       </c>
@@ -7923,7 +7919,7 @@
         <v>516</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="180">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="180">
       <c r="A180" s="0" t="s">
         <v>517</v>
       </c>
@@ -7946,7 +7942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="181">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="181">
       <c r="A181" s="0" t="s">
         <v>520</v>
       </c>
@@ -7969,7 +7965,7 @@
         <v>522</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="182">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="182">
       <c r="A182" s="0" t="s">
         <v>523</v>
       </c>
@@ -7989,7 +7985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="183">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="183">
       <c r="A183" s="0" t="s">
         <v>526</v>
       </c>
@@ -8012,7 +8008,7 @@
         <v>528</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="184">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="184">
       <c r="A184" s="0" t="s">
         <v>529</v>
       </c>
@@ -8032,7 +8028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="185">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="185">
       <c r="A185" s="0" t="s">
         <v>532</v>
       </c>
@@ -8052,7 +8048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="186">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="186">
       <c r="A186" s="0" t="s">
         <v>534</v>
       </c>
@@ -8075,7 +8071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="187">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="187">
       <c r="A187" s="0" t="s">
         <v>537</v>
       </c>
@@ -8095,7 +8091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="188">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="188">
       <c r="A188" s="0" t="s">
         <v>539</v>
       </c>
@@ -8118,7 +8114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="189">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="189">
       <c r="A189" s="0" t="s">
         <v>542</v>
       </c>
@@ -8141,7 +8137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="190">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="190">
       <c r="A190" s="0" t="s">
         <v>545</v>
       </c>
@@ -8161,7 +8157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="191">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="191">
       <c r="A191" s="0" t="s">
         <v>548</v>
       </c>
@@ -8181,7 +8177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="192">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="192">
       <c r="A192" s="0" t="s">
         <v>551</v>
       </c>
@@ -8204,7 +8200,7 @@
         <v>554</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="193">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="193">
       <c r="A193" s="0" t="s">
         <v>555</v>
       </c>
@@ -8227,7 +8223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="194">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="194">
       <c r="A194" s="0" t="s">
         <v>558</v>
       </c>
@@ -8250,7 +8246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="195">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="195">
       <c r="A195" s="0" t="s">
         <v>561</v>
       </c>
@@ -8273,7 +8269,7 @@
         <v>563</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="196">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="196">
       <c r="A196" s="0" t="s">
         <v>561</v>
       </c>
@@ -8296,7 +8292,7 @@
         <v>563</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="197">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="197">
       <c r="A197" s="0" t="s">
         <v>565</v>
       </c>
@@ -8319,7 +8315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="198">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="198">
       <c r="A198" s="0" t="s">
         <v>568</v>
       </c>
@@ -8345,7 +8341,7 @@
         <v>571</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="199">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="199">
       <c r="A199" s="0" t="s">
         <v>572</v>
       </c>
@@ -8365,7 +8361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="200">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="200">
       <c r="A200" s="0" t="s">
         <v>574</v>
       </c>
@@ -8391,7 +8387,7 @@
         <v>577</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="201">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="201">
       <c r="A201" s="0" t="s">
         <v>578</v>
       </c>
@@ -8417,7 +8413,7 @@
         <v>581</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="202">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="202">
       <c r="A202" s="0" t="s">
         <v>582</v>
       </c>
@@ -8437,7 +8433,7 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="203">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="203">
       <c r="A203" s="0" t="s">
         <v>584</v>
       </c>
@@ -8457,7 +8453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="204">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="204">
       <c r="A204" s="0" t="s">
         <v>586</v>
       </c>
@@ -8480,7 +8476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="205">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="205">
       <c r="A205" s="0" t="s">
         <v>589</v>
       </c>
@@ -8503,7 +8499,7 @@
         <v>591</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="206">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="206">
       <c r="A206" s="0" t="s">
         <v>592</v>
       </c>
@@ -8526,7 +8522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="207">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="207">
       <c r="A207" s="0" t="s">
         <v>595</v>
       </c>
@@ -8549,7 +8545,7 @@
         <v>597</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="208">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="208">
       <c r="A208" s="0" t="s">
         <v>598</v>
       </c>
@@ -8572,7 +8568,7 @@
         <v>600</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="209">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="209">
       <c r="A209" s="0" t="s">
         <v>601</v>
       </c>
@@ -8592,7 +8588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="210">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="210">
       <c r="A210" s="0" t="s">
         <v>603</v>
       </c>
@@ -8615,7 +8611,7 @@
         <v>605</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="211">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="211">
       <c r="A211" s="0" t="s">
         <v>606</v>
       </c>
@@ -8635,7 +8631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="212">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="212">
       <c r="A212" s="0" t="s">
         <v>608</v>
       </c>
@@ -8655,7 +8651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="213">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="213">
       <c r="A213" s="0" t="s">
         <v>610</v>
       </c>
@@ -8675,7 +8671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="214">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="214">
       <c r="A214" s="0" t="s">
         <v>612</v>
       </c>
@@ -8695,7 +8691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="215">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="215">
       <c r="A215" s="0" t="s">
         <v>614</v>
       </c>
@@ -8715,7 +8711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="216">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="216">
       <c r="A216" s="0" t="s">
         <v>616</v>
       </c>
@@ -8735,7 +8731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="217">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="217">
       <c r="A217" s="0" t="s">
         <v>618</v>
       </c>
@@ -8755,7 +8751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="218">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="218">
       <c r="A218" s="0" t="s">
         <v>620</v>
       </c>
@@ -8778,7 +8774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="219">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="219">
       <c r="A219" s="0" t="s">
         <v>623</v>
       </c>
@@ -8804,7 +8800,7 @@
         <v>626</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="220">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="220">
       <c r="A220" s="0" t="s">
         <v>627</v>
       </c>
@@ -8830,7 +8826,7 @@
         <v>630</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="221">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="221">
       <c r="A221" s="0" t="s">
         <v>631</v>
       </c>
@@ -8856,7 +8852,7 @@
         <v>630</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="222">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="222">
       <c r="A222" s="0" t="s">
         <v>634</v>
       </c>
@@ -8882,7 +8878,7 @@
         <v>630</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="223">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="223">
       <c r="A223" s="0" t="s">
         <v>637</v>
       </c>
@@ -8908,7 +8904,7 @@
         <v>640</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="224">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="224">
       <c r="A224" s="0" t="s">
         <v>641</v>
       </c>
@@ -8931,7 +8927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="225">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="225">
       <c r="A225" s="0" t="s">
         <v>644</v>
       </c>
@@ -8957,7 +8953,7 @@
         <v>647</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="226">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="226">
       <c r="A226" s="0" t="s">
         <v>648</v>
       </c>
@@ -8980,7 +8976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="227">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="227">
       <c r="A227" s="0" t="s">
         <v>651</v>
       </c>
@@ -9000,7 +8996,7 @@
         <v>653</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="228">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="228">
       <c r="A228" s="0" t="s">
         <v>654</v>
       </c>
@@ -9023,7 +9019,7 @@
         <v>656</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="229">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="229">
       <c r="A229" s="0" t="s">
         <v>657</v>
       </c>
@@ -9046,7 +9042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="230">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="230">
       <c r="A230" s="0" t="s">
         <v>660</v>
       </c>
@@ -9069,7 +9065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="231">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="231">
       <c r="A231" s="0" t="s">
         <v>663</v>
       </c>
@@ -9092,7 +9088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="232">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="232">
       <c r="A232" s="0" t="s">
         <v>666</v>
       </c>
@@ -9112,7 +9108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="233">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="233">
       <c r="A233" s="0" t="s">
         <v>668</v>
       </c>
@@ -9135,7 +9131,7 @@
         <v>670</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="234">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="234">
       <c r="A234" s="0" t="s">
         <v>671</v>
       </c>
@@ -9161,7 +9157,7 @@
         <v>675</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="235">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="235">
       <c r="A235" s="0" t="s">
         <v>676</v>
       </c>
@@ -9184,7 +9180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="236">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="236">
       <c r="A236" s="0" t="s">
         <v>679</v>
       </c>
@@ -9204,7 +9200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="237">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="237">
       <c r="A237" s="0" t="s">
         <v>681</v>
       </c>
@@ -9224,7 +9220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="238">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="238">
       <c r="A238" s="0" t="s">
         <v>683</v>
       </c>
@@ -9244,7 +9240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="239">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="239">
       <c r="A239" s="0" t="s">
         <v>685</v>
       </c>
@@ -9264,7 +9260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="240">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="240">
       <c r="A240" s="0" t="s">
         <v>687</v>
       </c>
@@ -9284,7 +9280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="241">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="241">
       <c r="A241" s="0" t="s">
         <v>689</v>
       </c>
@@ -9304,7 +9300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="242">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="242">
       <c r="A242" s="0" t="s">
         <v>691</v>
       </c>
@@ -9327,7 +9323,7 @@
         <v>693</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="243">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="243">
       <c r="A243" s="0" t="s">
         <v>694</v>
       </c>
@@ -9350,7 +9346,7 @@
         <v>696</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="244">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="244">
       <c r="A244" s="0" t="s">
         <v>697</v>
       </c>
@@ -9376,7 +9372,7 @@
         <v>700</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="245">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="245">
       <c r="A245" s="0" t="s">
         <v>701</v>
       </c>
@@ -9396,7 +9392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="246">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="246">
       <c r="A246" s="0" t="s">
         <v>703</v>
       </c>
@@ -9419,7 +9415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="247">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="247">
       <c r="A247" s="0" t="s">
         <v>706</v>
       </c>
@@ -9445,7 +9441,7 @@
         <v>630</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="248">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="248">
       <c r="A248" s="0" t="s">
         <v>710</v>
       </c>
@@ -9468,7 +9464,7 @@
         <v>712</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="249">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="249">
       <c r="A249" s="0" t="s">
         <v>713</v>
       </c>
@@ -9491,7 +9487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="250">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="250">
       <c r="A250" s="0" t="s">
         <v>716</v>
       </c>
@@ -9514,7 +9510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="251">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="251">
       <c r="A251" s="0" t="s">
         <v>719</v>
       </c>
@@ -9537,7 +9533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="252">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="252">
       <c r="A252" s="0" t="s">
         <v>721</v>
       </c>
@@ -9560,7 +9556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="253">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="253">
       <c r="A253" s="0" t="s">
         <v>722</v>
       </c>
@@ -9583,7 +9579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="254">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="254">
       <c r="A254" s="0" t="s">
         <v>725</v>
       </c>
@@ -9606,7 +9602,7 @@
         <v>727</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="255">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="255">
       <c r="A255" s="0" t="s">
         <v>728</v>
       </c>
@@ -9626,7 +9622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="256">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="256">
       <c r="A256" s="0" t="s">
         <v>730</v>
       </c>
@@ -9652,7 +9648,7 @@
         <v>734</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="257">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="257">
       <c r="A257" s="0" t="s">
         <v>735</v>
       </c>
@@ -9675,7 +9671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="258">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="258">
       <c r="A258" s="0" t="s">
         <v>738</v>
       </c>
@@ -9701,7 +9697,7 @@
         <v>741</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="259">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="259">
       <c r="A259" s="0" t="s">
         <v>742</v>
       </c>
@@ -9721,7 +9717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="260">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="260">
       <c r="A260" s="0" t="s">
         <v>744</v>
       </c>
@@ -9744,7 +9740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="261">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="261">
       <c r="A261" s="0" t="s">
         <v>747</v>
       </c>
@@ -9770,7 +9766,7 @@
         <v>750</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="262">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="262">
       <c r="A262" s="0" t="s">
         <v>751</v>
       </c>
@@ -9796,7 +9792,7 @@
         <v>755</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="263">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="263">
       <c r="A263" s="0" t="s">
         <v>756</v>
       </c>
@@ -9822,7 +9818,7 @@
         <v>759</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="264">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="264">
       <c r="A264" s="0" t="s">
         <v>760</v>
       </c>
@@ -9842,7 +9838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="265">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="265">
       <c r="A265" s="0" t="s">
         <v>762</v>
       </c>
@@ -9868,7 +9864,7 @@
         <v>765</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="266">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="266">
       <c r="A266" s="0" t="s">
         <v>766</v>
       </c>
@@ -9891,7 +9887,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="267">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="267">
       <c r="A267" s="0" t="s">
         <v>770</v>
       </c>
@@ -9917,7 +9913,7 @@
         <v>773</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="268">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="268">
       <c r="A268" s="0" t="s">
         <v>774</v>
       </c>
@@ -9940,7 +9936,7 @@
         <v>776</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="269">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="269">
       <c r="A269" s="0" t="s">
         <v>777</v>
       </c>
@@ -9951,7 +9947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="270">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="270">
       <c r="A270" s="0" t="s">
         <v>779</v>
       </c>
@@ -9971,7 +9967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="271">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="271">
       <c r="A271" s="0" t="s">
         <v>781</v>
       </c>
@@ -9991,7 +9987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="272">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="272">
       <c r="A272" s="0" t="s">
         <v>782</v>
       </c>
@@ -10017,7 +10013,7 @@
         <v>785</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="273">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="273">
       <c r="A273" s="0" t="s">
         <v>786</v>
       </c>
@@ -10046,7 +10042,7 @@
         <v>789</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="274">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="274">
       <c r="A274" s="0" t="s">
         <v>790</v>
       </c>
@@ -10069,7 +10065,7 @@
         <v>785</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="275">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="275">
       <c r="A275" s="0" t="s">
         <v>792</v>
       </c>
@@ -10089,7 +10085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="276">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="276">
       <c r="A276" s="0" t="s">
         <v>794</v>
       </c>
@@ -10112,7 +10108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="277">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="277">
       <c r="A277" s="0" t="s">
         <v>797</v>
       </c>
@@ -10132,7 +10128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="278">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="278">
       <c r="A278" s="0" t="s">
         <v>799</v>
       </c>
@@ -10152,7 +10148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="279">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="279">
       <c r="A279" s="0" t="s">
         <v>801</v>
       </c>
@@ -10172,7 +10168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="280">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="280">
       <c r="A280" s="0" t="s">
         <v>803</v>
       </c>
@@ -10198,7 +10194,7 @@
         <v>806</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="281">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="281">
       <c r="A281" s="0" t="s">
         <v>807</v>
       </c>
@@ -10221,7 +10217,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="282">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="282">
       <c r="A282" s="0" t="s">
         <v>809</v>
       </c>
@@ -10244,7 +10240,7 @@
         <v>810</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="283">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="283">
       <c r="A283" s="0" t="s">
         <v>811</v>
       </c>
@@ -10267,7 +10263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="284">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="284">
       <c r="A284" s="0" t="s">
         <v>814</v>
       </c>
@@ -10290,7 +10286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="285">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="285">
       <c r="A285" s="0" t="s">
         <v>817</v>
       </c>
@@ -10313,7 +10309,7 @@
         <v>819</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="286">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="286">
       <c r="A286" s="0" t="s">
         <v>820</v>
       </c>
@@ -10333,7 +10329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="287">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="287">
       <c r="A287" s="0" t="s">
         <v>823</v>
       </c>
@@ -10353,7 +10349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="288">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="288">
       <c r="A288" s="0" t="s">
         <v>825</v>
       </c>
@@ -10376,7 +10372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="289">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="289">
       <c r="A289" s="0" t="s">
         <v>828</v>
       </c>
@@ -10399,7 +10395,7 @@
         <v>830</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="290">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="290">
       <c r="A290" s="0" t="s">
         <v>831</v>
       </c>
@@ -10422,7 +10418,7 @@
         <v>833</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="291">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="291">
       <c r="A291" s="0" t="s">
         <v>834</v>
       </c>
@@ -10442,7 +10438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="292">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="292">
       <c r="A292" s="0" t="s">
         <v>836</v>
       </c>
@@ -10465,7 +10461,7 @@
         <v>838</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="293">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="293">
       <c r="A293" s="0" t="s">
         <v>839</v>
       </c>
@@ -10488,7 +10484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="294">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="294">
       <c r="A294" s="0" t="s">
         <v>842</v>
       </c>
@@ -10511,7 +10507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="295">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="295">
       <c r="A295" s="0" t="s">
         <v>843</v>
       </c>
@@ -10531,7 +10527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="296">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="296">
       <c r="A296" s="0" t="s">
         <v>845</v>
       </c>
@@ -10557,7 +10553,7 @@
         <v>848</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="297">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="297">
       <c r="A297" s="0" t="s">
         <v>849</v>
       </c>
@@ -10583,7 +10579,7 @@
         <v>852</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="298">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="298">
       <c r="A298" s="0" t="s">
         <v>853</v>
       </c>
@@ -10609,7 +10605,7 @@
         <v>852</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="299">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="299">
       <c r="A299" s="0" t="s">
         <v>854</v>
       </c>
@@ -10635,7 +10631,7 @@
         <v>857</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="300">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="300">
       <c r="A300" s="0" t="s">
         <v>858</v>
       </c>
@@ -10658,7 +10654,7 @@
         <v>860</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="301">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="301">
       <c r="A301" s="0" t="s">
         <v>861</v>
       </c>
@@ -10681,7 +10677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="302">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="302">
       <c r="A302" s="0" t="s">
         <v>864</v>
       </c>
@@ -10704,7 +10700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="303">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="303">
       <c r="A303" s="0" t="s">
         <v>867</v>
       </c>
@@ -10727,7 +10723,7 @@
         <v>869</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="304">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="304">
       <c r="A304" s="0" t="s">
         <v>870</v>
       </c>
@@ -10747,7 +10743,7 @@
         <v>872</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="305">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="305">
       <c r="A305" s="0" t="s">
         <v>873</v>
       </c>
@@ -10770,7 +10766,7 @@
         <v>875</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="306">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="306">
       <c r="A306" s="0" t="s">
         <v>876</v>
       </c>
@@ -10793,7 +10789,7 @@
         <v>878</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="307">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="307">
       <c r="A307" s="0" t="s">
         <v>879</v>
       </c>
@@ -10819,7 +10815,7 @@
         <v>883</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="308">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="308">
       <c r="A308" s="0" t="s">
         <v>884</v>
       </c>
@@ -10845,7 +10841,7 @@
         <v>887</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="309">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="309">
       <c r="A309" s="0" t="s">
         <v>888</v>
       </c>
@@ -10868,7 +10864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="310">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="310">
       <c r="A310" s="0" t="s">
         <v>891</v>
       </c>
@@ -10888,7 +10884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="311">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="311">
       <c r="A311" s="0" t="s">
         <v>893</v>
       </c>
@@ -10911,7 +10907,7 @@
         <v>895</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="312">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="312">
       <c r="A312" s="0" t="s">
         <v>896</v>
       </c>
@@ -10934,7 +10930,7 @@
         <v>895</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="313">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="313">
       <c r="A313" s="0" t="s">
         <v>899</v>
       </c>
@@ -10957,7 +10953,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="314">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="314">
       <c r="A314" s="0" t="s">
         <v>901</v>
       </c>
@@ -10977,7 +10973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="315">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="315">
       <c r="A315" s="0" t="s">
         <v>903</v>
       </c>
@@ -11003,7 +10999,7 @@
         <v>906</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="316">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="316">
       <c r="A316" s="0" t="s">
         <v>907</v>
       </c>
@@ -11026,7 +11022,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="317">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="317">
       <c r="A317" s="0" t="s">
         <v>909</v>
       </c>
@@ -11052,7 +11048,7 @@
         <v>912</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="318">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="318">
       <c r="A318" s="0" t="s">
         <v>913</v>
       </c>
@@ -11078,7 +11074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="319">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="319">
       <c r="A319" s="0" t="s">
         <v>916</v>
       </c>
@@ -11098,7 +11094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="320">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="320">
       <c r="A320" s="0" t="s">
         <v>918</v>
       </c>
@@ -11124,7 +11120,7 @@
         <v>921</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="321">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="321">
       <c r="A321" s="0" t="s">
         <v>922</v>
       </c>
@@ -11150,7 +11146,7 @@
         <v>925</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="322">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="322">
       <c r="A322" s="0" t="s">
         <v>926</v>
       </c>
@@ -11173,7 +11169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="323">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="323">
       <c r="A323" s="0" t="s">
         <v>929</v>
       </c>
@@ -11196,7 +11192,7 @@
         <v>931</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="324">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="324">
       <c r="A324" s="0" t="s">
         <v>932</v>
       </c>
@@ -11219,7 +11215,7 @@
         <v>934</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="325">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="325">
       <c r="A325" s="0" t="s">
         <v>935</v>
       </c>
@@ -11239,7 +11235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="326">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="326">
       <c r="A326" s="0" t="s">
         <v>937</v>
       </c>
@@ -11259,7 +11255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="327">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="327">
       <c r="A327" s="0" t="s">
         <v>939</v>
       </c>
@@ -11282,7 +11278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="328">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="328">
       <c r="A328" s="0" t="s">
         <v>942</v>
       </c>
@@ -11302,7 +11298,7 @@
         <v>944</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="329">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="329">
       <c r="A329" s="0" t="s">
         <v>945</v>
       </c>
@@ -11325,7 +11321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="330">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="330">
       <c r="A330" s="0" t="s">
         <v>948</v>
       </c>
@@ -11345,7 +11341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="331">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="331">
       <c r="A331" s="0" t="s">
         <v>950</v>
       </c>
@@ -11365,7 +11361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="332">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="332">
       <c r="A332" s="0" t="s">
         <v>952</v>
       </c>
@@ -11385,7 +11381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="333">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="333">
       <c r="A333" s="0" t="s">
         <v>954</v>
       </c>
@@ -11405,7 +11401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="334">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="334">
       <c r="A334" s="0" t="s">
         <v>956</v>
       </c>
@@ -11428,7 +11424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="335">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="335">
       <c r="A335" s="0" t="s">
         <v>959</v>
       </c>
@@ -11451,7 +11447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="336">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="336">
       <c r="A336" s="0" t="s">
         <v>962</v>
       </c>
@@ -11471,7 +11467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="337">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="337">
       <c r="A337" s="0" t="s">
         <v>964</v>
       </c>
@@ -11494,7 +11490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="338">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="338">
       <c r="A338" s="0" t="s">
         <v>967</v>
       </c>
@@ -11514,7 +11510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="339">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="339">
       <c r="A339" s="0" t="s">
         <v>969</v>
       </c>
@@ -11537,7 +11533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="340">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="340">
       <c r="A340" s="0" t="s">
         <v>972</v>
       </c>
@@ -11560,7 +11556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="341">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="341">
       <c r="A341" s="0" t="s">
         <v>975</v>
       </c>
@@ -11583,7 +11579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="342">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="342">
       <c r="A342" s="0" t="s">
         <v>978</v>
       </c>
@@ -11603,7 +11599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="343">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="343">
       <c r="A343" s="0" t="s">
         <v>980</v>
       </c>
@@ -11629,7 +11625,7 @@
         <v>983</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="344">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="344">
       <c r="A344" s="0" t="s">
         <v>984</v>
       </c>
@@ -11652,7 +11648,7 @@
         <v>986</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="345">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="345">
       <c r="A345" s="0" t="s">
         <v>987</v>
       </c>
@@ -11675,7 +11671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="346">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="346">
       <c r="A346" s="0" t="s">
         <v>990</v>
       </c>
@@ -11695,7 +11691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="347">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="347">
       <c r="A347" s="0" t="s">
         <v>992</v>
       </c>
@@ -11718,7 +11714,7 @@
         <v>994</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="348">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="348">
       <c r="A348" s="0" t="s">
         <v>995</v>
       </c>
@@ -11741,7 +11737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="349">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="349">
       <c r="A349" s="0" t="s">
         <v>998</v>
       </c>
@@ -11764,7 +11760,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="350">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="350">
       <c r="A350" s="0" t="s">
         <v>998</v>
       </c>
@@ -11787,7 +11783,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="351">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="351">
       <c r="A351" s="0" t="s">
         <v>1001</v>
       </c>
@@ -11810,7 +11806,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="352">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="352">
       <c r="A352" s="0" t="s">
         <v>1004</v>
       </c>
@@ -11830,7 +11826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="353">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="353">
       <c r="A353" s="0" t="s">
         <v>1006</v>
       </c>
@@ -11856,7 +11852,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="354">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="354">
       <c r="A354" s="0" t="s">
         <v>1010</v>
       </c>
@@ -11876,7 +11872,7 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="355">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="355">
       <c r="A355" s="0" t="s">
         <v>1012</v>
       </c>
@@ -11899,7 +11895,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="356">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="356">
       <c r="A356" s="0" t="s">
         <v>1015</v>
       </c>
@@ -11919,7 +11915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="357">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="357">
       <c r="A357" s="0" t="s">
         <v>1017</v>
       </c>
@@ -11939,7 +11935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="358">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="358">
       <c r="A358" s="0" t="s">
         <v>1019</v>
       </c>
@@ -11959,7 +11955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="359">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="359">
       <c r="A359" s="0" t="s">
         <v>1021</v>
       </c>
@@ -11979,7 +11975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="360">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="360">
       <c r="A360" s="0" t="s">
         <v>1023</v>
       </c>
@@ -12005,7 +12001,7 @@
         <v>208</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="361">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="361">
       <c r="A361" s="0" t="s">
         <v>1026</v>
       </c>
@@ -12028,7 +12024,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="362">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="362">
       <c r="A362" s="0" t="s">
         <v>1029</v>
       </c>
@@ -12048,7 +12044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="363">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="363">
       <c r="A363" s="0" t="s">
         <v>1031</v>
       </c>
@@ -12071,7 +12067,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="364">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="364">
       <c r="A364" s="0" t="s">
         <v>1034</v>
       </c>
@@ -12097,7 +12093,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="365">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="365">
       <c r="A365" s="0" t="s">
         <v>1037</v>
       </c>
@@ -12120,7 +12116,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="366">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="366">
       <c r="A366" s="0" t="s">
         <v>1040</v>
       </c>
@@ -12140,7 +12136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="367">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="367">
       <c r="A367" s="0" t="s">
         <v>1042</v>
       </c>
@@ -12160,7 +12156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="368">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="368">
       <c r="A368" s="0" t="s">
         <v>1044</v>
       </c>
@@ -12180,7 +12176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="369">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="369">
       <c r="A369" s="0" t="s">
         <v>1046</v>
       </c>
@@ -12203,7 +12199,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="370">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="370">
       <c r="A370" s="0" t="s">
         <v>1049</v>
       </c>
@@ -12226,7 +12222,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="371">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="371">
       <c r="A371" s="0" t="s">
         <v>1052</v>
       </c>
@@ -12252,7 +12248,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="372">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="372">
       <c r="A372" s="0" t="s">
         <v>1056</v>
       </c>
@@ -12279,7 +12275,7 @@
       </c>
       <c r="I372" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="373">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="373">
       <c r="A373" s="0" t="s">
         <v>1057</v>
       </c>
@@ -12305,7 +12301,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="374">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="374">
       <c r="A374" s="0" t="s">
         <v>1058</v>
       </c>
@@ -12331,7 +12327,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="375">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="375">
       <c r="A375" s="0" t="s">
         <v>1059</v>
       </c>
@@ -12357,7 +12353,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="376">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="376">
       <c r="A376" s="0" t="s">
         <v>1060</v>
       </c>
@@ -12383,7 +12379,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="377">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="377">
       <c r="A377" s="0" t="s">
         <v>1061</v>
       </c>
@@ -12403,7 +12399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="378">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="378">
       <c r="A378" s="0" t="s">
         <v>1063</v>
       </c>
@@ -12426,7 +12422,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="379">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="379">
       <c r="A379" s="0" t="s">
         <v>1066</v>
       </c>
@@ -12452,7 +12448,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="380">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="380">
       <c r="A380" s="0" t="s">
         <v>1070</v>
       </c>
@@ -12472,7 +12468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="381">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="381">
       <c r="A381" s="0" t="s">
         <v>1072</v>
       </c>
@@ -12496,7 +12492,7 @@
       </c>
       <c r="I381" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="382">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="382">
       <c r="A382" s="0" t="s">
         <v>1075</v>
       </c>
@@ -12516,7 +12512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="383">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="383">
       <c r="A383" s="0" t="s">
         <v>1077</v>
       </c>
@@ -12536,7 +12532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="384">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="384">
       <c r="A384" s="0" t="s">
         <v>1079</v>
       </c>
@@ -12562,7 +12558,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="385">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="385">
       <c r="A385" s="0" t="s">
         <v>1082</v>
       </c>
@@ -12582,7 +12578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="386">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="386">
       <c r="A386" s="0" t="s">
         <v>1084</v>
       </c>
@@ -12605,7 +12601,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="387">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="387">
       <c r="A387" s="0" t="s">
         <v>1087</v>
       </c>
@@ -12628,7 +12624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="388">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="388">
       <c r="A388" s="0" t="s">
         <v>1090</v>
       </c>
@@ -12648,7 +12644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="389">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="389">
       <c r="A389" s="0" t="s">
         <v>1092</v>
       </c>
@@ -12671,7 +12667,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="390">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="390">
       <c r="A390" s="0" t="s">
         <v>1095</v>
       </c>
@@ -12694,7 +12690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="391">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="391">
       <c r="A391" s="0" t="s">
         <v>1098</v>
       </c>
@@ -12714,7 +12710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="392">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="392">
       <c r="A392" s="0" t="s">
         <v>1100</v>
       </c>
@@ -12737,7 +12733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="393">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="393">
       <c r="A393" s="0" t="s">
         <v>1103</v>
       </c>
@@ -12760,7 +12756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="394">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="394">
       <c r="A394" s="0" t="s">
         <v>1106</v>
       </c>
@@ -12786,7 +12782,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="395">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="395">
       <c r="A395" s="0" t="s">
         <v>1110</v>
       </c>
@@ -12809,7 +12805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="396">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="396">
       <c r="A396" s="0" t="s">
         <v>1113</v>
       </c>
@@ -12829,7 +12825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="397">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="397">
       <c r="A397" s="0" t="s">
         <v>1115</v>
       </c>
@@ -12852,7 +12848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="398">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="398">
       <c r="A398" s="0" t="s">
         <v>1118</v>
       </c>
@@ -12875,7 +12871,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="399">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="399">
       <c r="A399" s="0" t="s">
         <v>1121</v>
       </c>
@@ -12895,7 +12891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="400">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="400">
       <c r="A400" s="0" t="s">
         <v>1123</v>
       </c>
@@ -12919,7 +12915,7 @@
       </c>
       <c r="I400" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="401">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="401">
       <c r="A401" s="2" t="s">
         <v>1126</v>
       </c>
@@ -12940,7 +12936,7 @@
       </c>
       <c r="H401" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="402">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="402">
       <c r="A402" s="0" t="s">
         <v>1128</v>
       </c>
@@ -12960,7 +12956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="403">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="403">
       <c r="A403" s="0" t="s">
         <v>1130</v>
       </c>
@@ -12980,7 +12976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="404">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="404">
       <c r="A404" s="0" t="s">
         <v>1132</v>
       </c>
@@ -13000,7 +12996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="405">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="405">
       <c r="A405" s="0" t="s">
         <v>1134</v>
       </c>
@@ -13020,7 +13016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="406">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="406">
       <c r="A406" s="0" t="s">
         <v>1136</v>
       </c>
@@ -13043,7 +13039,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="407">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="407">
       <c r="A407" s="0" t="s">
         <v>1139</v>
       </c>
@@ -13063,7 +13059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="408">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="408">
       <c r="A408" s="0" t="s">
         <v>1141</v>
       </c>
@@ -13086,7 +13082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="409">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="409">
       <c r="A409" s="0" t="s">
         <v>1144</v>
       </c>
@@ -13106,7 +13102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="410">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="410">
       <c r="A410" s="0" t="s">
         <v>1146</v>
       </c>
@@ -13126,7 +13122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="411">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="411">
       <c r="A411" s="0" t="s">
         <v>1148</v>
       </c>
@@ -13149,7 +13145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="412">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="412">
       <c r="A412" s="0" t="s">
         <v>1151</v>
       </c>
@@ -13169,7 +13165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="413">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="413">
       <c r="A413" s="0" t="s">
         <v>1153</v>
       </c>
@@ -13192,7 +13188,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="414">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="414">
       <c r="A414" s="0" t="s">
         <v>1156</v>
       </c>
@@ -13215,7 +13211,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="415">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="415">
       <c r="A415" s="0" t="s">
         <v>1159</v>
       </c>
@@ -13235,7 +13231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="416">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="416">
       <c r="A416" s="0" t="s">
         <v>1161</v>
       </c>
@@ -13255,7 +13251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="417">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="417">
       <c r="A417" s="0" t="s">
         <v>1163</v>
       </c>
@@ -13278,7 +13274,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="418">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="418">
       <c r="A418" s="0" t="s">
         <v>1166</v>
       </c>
@@ -13301,7 +13297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="419">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="419">
       <c r="A419" s="0" t="s">
         <v>1169</v>
       </c>
@@ -13321,7 +13317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="420">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="420">
       <c r="A420" s="0" t="s">
         <v>1171</v>
       </c>
@@ -13341,7 +13337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="421">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="421">
       <c r="A421" s="0" t="s">
         <v>1173</v>
       </c>
@@ -13364,7 +13360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="422">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="422">
       <c r="A422" s="0" t="s">
         <v>1176</v>
       </c>
@@ -13387,7 +13383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="423">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="423">
       <c r="A423" s="0" t="s">
         <v>1179</v>
       </c>
@@ -13410,7 +13406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="424">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="424">
       <c r="A424" s="0" t="s">
         <v>1182</v>
       </c>
@@ -13433,7 +13429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="425">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="425">
       <c r="A425" s="0" t="s">
         <v>1185</v>
       </c>
@@ -13459,7 +13455,7 @@
         <v>208</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="426">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="426">
       <c r="A426" s="0" t="s">
         <v>1188</v>
       </c>
@@ -13479,7 +13475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="427">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="427">
       <c r="A427" s="0" t="s">
         <v>1190</v>
       </c>
@@ -13499,7 +13495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="428">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="428">
       <c r="A428" s="0" t="s">
         <v>1192</v>
       </c>
@@ -13522,7 +13518,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="429">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="429">
       <c r="A429" s="0" t="s">
         <v>1195</v>
       </c>
@@ -13545,7 +13541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="430">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="430">
       <c r="A430" s="0" t="s">
         <v>1198</v>
       </c>
@@ -13568,7 +13564,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="431">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="431">
       <c r="A431" s="0" t="s">
         <v>1201</v>
       </c>
@@ -13591,7 +13587,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="432">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="432">
       <c r="A432" s="0" t="s">
         <v>1204</v>
       </c>
@@ -13614,7 +13610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="433">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="433">
       <c r="A433" s="0" t="s">
         <v>1207</v>
       </c>
@@ -13634,7 +13630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="434">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.05" outlineLevel="0" r="434">
       <c r="A434" s="0" t="s">
         <v>1209</v>
       </c>
@@ -13657,7 +13653,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="435">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="435">
       <c r="A435" s="0" t="s">
         <v>1212</v>
       </c>
@@ -13680,7 +13676,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="436">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="436">
       <c r="A436" s="0" t="s">
         <v>1214</v>
       </c>
@@ -13703,7 +13699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="437">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="437">
       <c r="A437" s="0" t="s">
         <v>1217</v>
       </c>
@@ -13726,7 +13722,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="438">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="438">
       <c r="A438" s="0" t="s">
         <v>1220</v>
       </c>
@@ -13749,7 +13745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="439">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="439">
       <c r="A439" s="0" t="s">
         <v>1223</v>
       </c>
@@ -13772,7 +13768,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="440">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="440">
       <c r="A440" s="0" t="s">
         <v>1226</v>
       </c>
@@ -13798,7 +13794,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="441">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="441">
       <c r="A441" s="0" t="s">
         <v>1229</v>
       </c>
@@ -13824,7 +13820,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="442">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="442">
       <c r="A442" s="0" t="s">
         <v>1232</v>
       </c>
@@ -13847,7 +13843,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="443">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="443">
       <c r="A443" s="0" t="s">
         <v>1235</v>
       </c>
@@ -13873,7 +13869,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="444">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="444">
       <c r="A444" s="0" t="s">
         <v>1239</v>
       </c>
@@ -13939,7 +13935,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13964,7 +13960,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/oiadsites.xlsx
+++ b/oiadsites.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3023" uniqueCount="1242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3023" uniqueCount="1244">
   <si>
     <t>Site Name</t>
   </si>
@@ -871,762 +871,762 @@
     <t>http://dailycigardeal.com/</t>
   </si>
   <si>
+    <t>http://dailycigardeal.com/dailydeal/ccCigarDealsRss.asp</t>
+  </si>
+  <si>
+    <t>Daily Gem Deals</t>
+  </si>
+  <si>
+    <t>http://www.dailygemdeals.com/</t>
+  </si>
+  <si>
+    <t>Done( images in desc)</t>
+  </si>
+  <si>
+    <t>http://www.dailygemdeals.com/affiliate.htm</t>
+  </si>
+  <si>
+    <t>Daily Imprint</t>
+  </si>
+  <si>
+    <t>http://www.dailyimprint.com/</t>
+  </si>
+  <si>
+    <t>http://www.dailyimprint.com/affiliates/</t>
+  </si>
+  <si>
+    <t>Daily Memoires</t>
+  </si>
+  <si>
+    <t>http://www.dailymemories.com/</t>
+  </si>
+  <si>
+    <t>http://www.dailymemories.com/rss.php</t>
+  </si>
+  <si>
+    <t>Daily Sales For You Mens</t>
+  </si>
+  <si>
+    <t>http://www.dailysalesforyou.com/Mens-Watch-Deal</t>
+  </si>
+  <si>
+    <t>Daily Sales For You Special</t>
+  </si>
+  <si>
+    <t>http://www.dailysalesforyou.com/Special-Watch-Deal</t>
+  </si>
+  <si>
+    <t>Daily Sales For You Womens</t>
+  </si>
+  <si>
+    <t>http://www.dailysalesforyou.com/Womens-Watch-Deal</t>
+  </si>
+  <si>
+    <t>Daily Shades</t>
+  </si>
+  <si>
+    <t>http://www.dailyshades.com/</t>
+  </si>
+  <si>
+    <t>Daily Steals</t>
+  </si>
+  <si>
+    <t>http://www.dailysteals.com/</t>
+  </si>
+  <si>
+    <t>http://www.dailysteals.com/RSS.aspx</t>
+  </si>
+  <si>
+    <t>Daily Steals Home</t>
+  </si>
+  <si>
+    <t>http://home.dailysteals.com/</t>
+  </si>
+  <si>
+    <t>http://home.dailysteals.com/RSS.aspx</t>
+  </si>
+  <si>
+    <t>Daily Steals Luxury</t>
+  </si>
+  <si>
+    <t>http://luxury.dailysteals.com/</t>
+  </si>
+  <si>
+    <t>http://luxury.dailysteals.com/RSS.aspx</t>
+  </si>
+  <si>
+    <t>Daily Steals Mobile</t>
+  </si>
+  <si>
+    <t>http://mobile.dailysteals.com/</t>
+  </si>
+  <si>
+    <t>http://mobile.dailysteals.com/RSS.aspx</t>
+  </si>
+  <si>
+    <t>Daily Steals Toys</t>
+  </si>
+  <si>
+    <t>http://toys.dailysteals.com/</t>
+  </si>
+  <si>
+    <t>http://toys.dailysteals.com/RSS.aspx</t>
+  </si>
+  <si>
+    <t>dailydeals.net</t>
+  </si>
+  <si>
+    <t>http://www.dailydeals.net/</t>
+  </si>
+  <si>
+    <t>http://www.dailydeals.net/x-rss.products.aspx</t>
+  </si>
+  <si>
+    <t>Deal a Day</t>
+  </si>
+  <si>
+    <t>http://www.dealaday.org/</t>
+  </si>
+  <si>
+    <t>Deal a Day Golf</t>
+  </si>
+  <si>
+    <t>http://dealadaygolf.com/</t>
+  </si>
+  <si>
+    <t>Deal a Day Golf Past</t>
+  </si>
+  <si>
+    <t>http://dealadaygolf.com/pastdeals.php</t>
+  </si>
+  <si>
+    <t>Multiple Deals - See site</t>
+  </si>
+  <si>
+    <t>Deal A Day Golf Weekly</t>
+  </si>
+  <si>
+    <t>http://dealadaygolf.com/weeklydeals.php</t>
+  </si>
+  <si>
+    <t>Deal a Day Wake</t>
+  </si>
+  <si>
+    <t>http://www.dealadaywake.com/</t>
+  </si>
+  <si>
+    <t>http://feeds2.feedburner.com/DealADayWakeProducts</t>
+  </si>
+  <si>
+    <t>Deal Only</t>
+  </si>
+  <si>
+    <t>http://www.dealonly.com/</t>
+  </si>
+  <si>
+    <t>dealdotcom</t>
+  </si>
+  <si>
+    <t>http://www.dealdotcom.com/home</t>
+  </si>
+  <si>
+    <t>http://feeds.feedburner.com/dealdotcom</t>
+  </si>
+  <si>
+    <t>http://www.dealdotcom.com/blog/category/affiliate-stuff/</t>
+  </si>
+  <si>
+    <t>DealExtreme</t>
+  </si>
+  <si>
+    <t>http://www.dealextreme.com/</t>
+  </si>
+  <si>
+    <t>http://www.dealextreme.com/rss.dx</t>
+  </si>
+  <si>
+    <t>http://www.dealextreme.com/affiliates/</t>
+  </si>
+  <si>
+    <t>Post multiple deals</t>
+  </si>
+  <si>
+    <t>Dealko</t>
+  </si>
+  <si>
+    <t>http://www.dealko.com/sale</t>
+  </si>
+  <si>
+    <t>http://www.dealko.com/rss.php</t>
+  </si>
+  <si>
+    <t>DealPulp</t>
+  </si>
+  <si>
+    <t>http://dealpulp.com/</t>
+  </si>
+  <si>
+    <t>http://feeds.feedburner.com/dealpulp?format=xml</t>
+  </si>
+  <si>
+    <t>http://dealpulp.com/info/affiliate</t>
+  </si>
+  <si>
+    <t>Deals Click</t>
+  </si>
+  <si>
+    <t>http://www.dealsclick.com/</t>
+  </si>
+  <si>
+    <t>dealxpress</t>
+  </si>
+  <si>
+    <t>http://www.dealxpress.us/</t>
+  </si>
+  <si>
+    <t>Deep Discount</t>
+  </si>
+  <si>
+    <t>http://www.deepdiscount.com/deals_daily-deep-deal/</t>
+  </si>
+  <si>
+    <t>Delight</t>
+  </si>
+  <si>
+    <t>http://www.delight.com/</t>
+  </si>
+  <si>
+    <t>https://feeds.feedburner.com/delight/eTJS</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>http://accessories.us.dell.com/sna/sna.aspx?c=us&amp;cs=19&amp;l=en&amp;s=dhs&amp;~topic=daily_deals_available&amp;~srd=true&amp;sk=Daily_Deals&amp;scat=prod&amp;~srd=true&amp;sk=daily_deals&amp;scat=prod</t>
+  </si>
+  <si>
+    <t>Denali</t>
+  </si>
+  <si>
+    <t>http://www.shop-denali.com/Default.aspx</t>
+  </si>
+  <si>
+    <t>http://www.shop-denali.com/Affliate.aspx</t>
+  </si>
+  <si>
+    <t>Dept of Deals</t>
+  </si>
+  <si>
+    <t>http://www.deptofdeals.com/</t>
+  </si>
+  <si>
+    <t>2nd deal on the site - see site</t>
+  </si>
+  <si>
+    <t>Desert Shaman</t>
+  </si>
+  <si>
+    <t>http://onedaydeal.net/Ancient-Incense-Smoke-Shop/index.php</t>
+  </si>
+  <si>
+    <t>http://feeds.feedburner.com/desertshaman?format=xml</t>
+  </si>
+  <si>
+    <t>Design By Humans</t>
+  </si>
+  <si>
+    <t>http://www.designbyhumans.com/</t>
+  </si>
+  <si>
+    <t>DiamondShark</t>
+  </si>
+  <si>
+    <t>http://www.diamondshark.com/</t>
+  </si>
+  <si>
+    <t>Done but Cannot open with PHP</t>
+  </si>
+  <si>
+    <t>http://feeds.feedburner.com/Diamondshark-DailyDealRssFeed?format=xml</t>
+  </si>
+  <si>
+    <t>dillyeo</t>
+  </si>
+  <si>
+    <t>http://www.dillyeo.com/</t>
+  </si>
+  <si>
+    <t>http://dillyeo.com/affiliates</t>
+  </si>
+  <si>
+    <t>DinoDirect</t>
+  </si>
+  <si>
+    <t>http://www.dinodirect.com/DailyDeal</t>
+  </si>
+  <si>
+    <t>5 Deals on site - see site</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>http://www.directron.com/</t>
+  </si>
+  <si>
+    <t>Done Image only</t>
+  </si>
+  <si>
+    <t>Discount Watch Store</t>
+  </si>
+  <si>
+    <t>http://dailydeal.discountwatchstore.com/cust/dailydealsteal.asp?d=0</t>
+  </si>
+  <si>
+    <t>http://www.shareasale.com/shareasale.cfm?merchantID=14490</t>
+  </si>
+  <si>
+    <t>DOD Genie</t>
+  </si>
+  <si>
+    <t>http://www.dodgenie.com</t>
+  </si>
+  <si>
+    <t>DOD Hero</t>
+  </si>
+  <si>
+    <t>http://www.dodhero.com</t>
+  </si>
+  <si>
+    <t>DOD Hero Sidekick</t>
+  </si>
+  <si>
+    <t>http://www.dodhero.com/index.php?main_page=index&amp;cPath=9</t>
+  </si>
+  <si>
+    <t>DownLowTooSlow</t>
+  </si>
+  <si>
+    <t>http://www.downlowtooslow.com/</t>
+  </si>
+  <si>
+    <t>http://feeds.feedburner.com/DownLowTooSlow?format=xml</t>
+  </si>
+  <si>
+    <t>dtagifts</t>
+  </si>
+  <si>
+    <t>http://www.dtagifts.com/</t>
+  </si>
+  <si>
+    <t>EarlsTees</t>
+  </si>
+  <si>
+    <t>http://www.earlstees.com/shop/catalog/</t>
+  </si>
+  <si>
+    <t>Eastwood</t>
+  </si>
+  <si>
+    <t>http://www.eastwood.com/clearance.html/</t>
+  </si>
+  <si>
+    <t>http://www.eastwood.com/rss/catalog/category/cid/32/store_id/1/</t>
+  </si>
+  <si>
+    <t>EasyStreetDeals</t>
+  </si>
+  <si>
+    <t>http://www.easystreetdeals.com/</t>
+  </si>
+  <si>
+    <t>http://www.easystreetdeals.com/login.asp</t>
+  </si>
+  <si>
+    <t>eBags</t>
+  </si>
+  <si>
+    <t>http://www.ebags.com/</t>
+  </si>
+  <si>
+    <t>eBay Daily Deals</t>
+  </si>
+  <si>
+    <t>http://deals.ebay.com/</t>
+  </si>
+  <si>
+    <t>http://deals.ebay.com/feeds/rss</t>
+  </si>
+  <si>
+    <t>Eco Baby Buys</t>
+  </si>
+  <si>
+    <t>https://www.ecobabybuys.com/</t>
+  </si>
+  <si>
+    <t>https://www.ecobabybuys.com/feeds/index.xml</t>
+  </si>
+  <si>
+    <t>eCost</t>
+  </si>
+  <si>
+    <t>http://www.ecost.com/Email/HotSheet.aspx</t>
+  </si>
+  <si>
+    <t>http://feeds.feedburner.com/eCOSTDealAlert?format=xml</t>
+  </si>
+  <si>
+    <t>http://www.ecost.com/Helpdesk/Affiliates.aspx</t>
+  </si>
+  <si>
+    <t>Ecosteal</t>
+  </si>
+  <si>
+    <t>http://www.ecosteal.com/</t>
+  </si>
+  <si>
+    <t>Ecosteal is in the process of restructuring its business</t>
+  </si>
+  <si>
+    <t>http://feeds2.feedburner.com/EcostealDealOfTheDay</t>
+  </si>
+  <si>
+    <t>EjectIT</t>
+  </si>
+  <si>
+    <t>http://www.ejectit.com/</t>
+  </si>
+  <si>
+    <t>http://www.ejectit.com/rss.aspx</t>
+  </si>
+  <si>
+    <t>Electronics Expo</t>
+  </si>
+  <si>
+    <t>http://www.electronics-expo.com/</t>
+  </si>
+  <si>
+    <t>Eternal Snow</t>
+  </si>
+  <si>
+    <t>http://www.eternalsnow.com/steal-of-the-day.html</t>
+  </si>
+  <si>
+    <t>eWatches</t>
+  </si>
+  <si>
+    <t>http://www.ewatches.com/</t>
+  </si>
+  <si>
+    <t>https://signup.cj.com/member/brandedPublisherSignUp.do?air_refmerchantid=</t>
+  </si>
+  <si>
+    <t>eWatches Hourly</t>
+  </si>
+  <si>
+    <t>http://www.ewatches.com/cust/hourlydeal.asp</t>
+  </si>
+  <si>
+    <t>fab</t>
+  </si>
+  <si>
+    <t>http://fab.com/deals/</t>
+  </si>
+  <si>
+    <t>Fabric.com</t>
+  </si>
+  <si>
+    <t>http://www.fabric.com/Index.aspx</t>
+  </si>
+  <si>
+    <t>http://www.fabric.com/SitePages/Affiliate.aspx</t>
+  </si>
+  <si>
+    <t>Family Video</t>
+  </si>
+  <si>
+    <t>http://www.familyvideo.com/catalog/pod_history.php</t>
+  </si>
+  <si>
+    <t>Field Junky</t>
+  </si>
+  <si>
+    <t>http://www.fieldjunky.com/</t>
+  </si>
+  <si>
+    <t>http://www.fieldjunky.com/Affiliates-Program</t>
+  </si>
+  <si>
+    <t>Flowers to Flourishes</t>
+  </si>
+  <si>
+    <t>http://www.flowerstoflourishes.com/</t>
+  </si>
+  <si>
+    <t>Fourteen Stix</t>
+  </si>
+  <si>
+    <t>http://www.14stix.com/</t>
+  </si>
+  <si>
+    <t>http://feeds2.feedburner.com/14stix</t>
+  </si>
+  <si>
+    <t>Fraction Price</t>
+  </si>
+  <si>
+    <t>http://www.fractionprice.com/cust/dailydealsteal.asp</t>
+  </si>
+  <si>
+    <t>http://www.fractionprice.com/cust/RSSDDS.ASP</t>
+  </si>
+  <si>
+    <t>http://www.fractionprice.com/cust/affiliatesignup.asp?d=0&amp;rid=TDxISTuGgFA-nwkvFlmftfQqwcpgUP6XLQ</t>
+  </si>
+  <si>
+    <t>Fragrance Brand</t>
+  </si>
+  <si>
+    <t>http://www.fragrancebrand.com/</t>
+  </si>
+  <si>
+    <t>http://www.fragrancebrand.com/feed/</t>
+  </si>
+  <si>
+    <t>Friends and Family Circle</t>
+  </si>
+  <si>
+    <t>https://www.friendsandfamilycircle.com/</t>
+  </si>
+  <si>
+    <t>Froobi</t>
+  </si>
+  <si>
+    <t>http://www.froobi.com/</t>
+  </si>
+  <si>
+    <t>Froobi Watch</t>
+  </si>
+  <si>
+    <t>http://www.froobi.com/watch-1.html</t>
+  </si>
+  <si>
+    <t>Fruper!</t>
+  </si>
+  <si>
+    <t>http://fruper.com/</t>
+  </si>
+  <si>
+    <t>Fububling</t>
+  </si>
+  <si>
+    <t>http://www.fububling.com/</t>
+  </si>
+  <si>
+    <t>Game Access</t>
+  </si>
+  <si>
+    <t>http://gameaccess.ca/Game-Store-DealOfTheDay.htm</t>
+  </si>
+  <si>
+    <t>http://www.gameaccesscash.com/</t>
+  </si>
+  <si>
+    <t>Game Deal Daily</t>
+  </si>
+  <si>
+    <t>http://www.gamedealdaily.com/</t>
+  </si>
+  <si>
+    <t>http://www.gamedealdaily.com/rss/</t>
+  </si>
+  <si>
+    <t>Game du jour</t>
+  </si>
+  <si>
+    <t>http://www.gamedujour.com/</t>
+  </si>
+  <si>
+    <t>http://www.gamedujour.com/feed</t>
+  </si>
+  <si>
+    <t>Game Giveaway of the Day</t>
+  </si>
+  <si>
+    <t>http://game.giveawayoftheday.com/</t>
+  </si>
+  <si>
+    <t>http://game.giveawayoftheday.com/feed/</t>
+  </si>
+  <si>
+    <t>Gardens Alive!</t>
+  </si>
+  <si>
+    <t>http://www.gardensalive.com/</t>
+  </si>
+  <si>
+    <t>http://www.gardensalive.com/article.asp?ai=175</t>
+  </si>
+  <si>
+    <t>gearSlash</t>
+  </si>
+  <si>
+    <t>http://www.gearslash.com/</t>
+  </si>
+  <si>
+    <t>http://www.solsticesupply.com/servlet/the-template/affiliate_program/Page</t>
+  </si>
+  <si>
+    <t>GearXS</t>
+  </si>
+  <si>
+    <t>http://www.gearxs.com/store/</t>
+  </si>
+  <si>
+    <t>(bottom of page)</t>
+  </si>
+  <si>
+    <t>Geeks.com</t>
+  </si>
+  <si>
+    <t>http://www.geeks.com/one-day-deal/</t>
+  </si>
+  <si>
+    <t>http://feeds.feedburner.com/GeekscomPromotionsBlog?format=xml</t>
+  </si>
+  <si>
+    <t>http://www.geeks.com/affiliates/</t>
+  </si>
+  <si>
+    <t>Gemnation</t>
+  </si>
+  <si>
+    <t>http://www.gemnation.com/watches/Deal-Of-The-Day.html</t>
+  </si>
+  <si>
+    <t>http://www.gemnation.com/watches/Deal-Of-The-Day.rss</t>
+  </si>
+  <si>
+    <t>Get A Jacket Now</t>
+  </si>
+  <si>
+    <t>http://www.getajacketnow.com/</t>
+  </si>
+  <si>
+    <t>http://www.getajacketnow.com/rss.xml</t>
+  </si>
+  <si>
+    <t>Get a Rock</t>
+  </si>
+  <si>
+    <t>http://getarock.com/</t>
+  </si>
+  <si>
+    <t>No products available!</t>
+  </si>
+  <si>
+    <t>getzs</t>
+  </si>
+  <si>
+    <t>http://www.getzs.com/</t>
+  </si>
+  <si>
+    <t>http://www.getzs.com/Commision-Junction/help/58/</t>
+  </si>
+  <si>
+    <t>Giftsprings</t>
+  </si>
+  <si>
+    <t>http://www.giftsprings.com/index.html</t>
+  </si>
+  <si>
+    <t>http://www.giftsprings.com/Merchant2/merchant.mv?Screen=CTGY&amp;Category_Code=AFFILPGM</t>
+  </si>
+  <si>
+    <t>Give Me Jewels</t>
+  </si>
+  <si>
+    <t>http://www.givemejewels.com/</t>
+  </si>
+  <si>
+    <t>Giveaway of the Day</t>
+  </si>
+  <si>
+    <t>http://www.giveawayoftheday.com/</t>
+  </si>
+  <si>
+    <t>http://www.giveawayoftheday.com/feed/</t>
+  </si>
+  <si>
+    <t>GoDaddy.com</t>
+  </si>
+  <si>
+    <t>(need to sign up for it)</t>
+  </si>
+  <si>
+    <t>Needs login</t>
+  </si>
+  <si>
+    <t>goingTODAY</t>
+  </si>
+  <si>
+    <t>http://www.goingtoday.com/</t>
+  </si>
+  <si>
+    <t>http://www.goingtoday.com/rssfeed.cfm</t>
+  </si>
+  <si>
+    <t>Golf Discount</t>
+  </si>
+  <si>
+    <t>http://www.golfdiscount.com/deal_of_the_day</t>
+  </si>
+  <si>
+    <t>http://www.golfdiscount.com/affiliate</t>
+  </si>
+  <si>
+    <t>golfballs.com</t>
+  </si>
+  <si>
+    <t>http://www.golfballs.com/DealADay.aspx</t>
+  </si>
+  <si>
+    <t>Cannot parse site</t>
+  </si>
+  <si>
+    <t>Golfsmith</t>
+  </si>
+  <si>
+    <t>http://www.golfsmith.com/</t>
+  </si>
+  <si>
+    <t>https://signup.cj.com/member/brandedPublisherSignUp.do?air_refmerchantid=1169237</t>
+  </si>
+  <si>
+    <t>Good Deals 18</t>
+  </si>
+  <si>
+    <t>http://www.gooddeals18.com/category/deal_of_the_day/</t>
+  </si>
+  <si>
+    <t>Flash, data</t>
+  </si>
+  <si>
+    <t>Grab My Deal</t>
+  </si>
+  <si>
+    <t>http://www.grabmydeal.com/index.php/current-deal.html</t>
+  </si>
+  <si>
+    <t>GraveyardMall</t>
+  </si>
+  <si>
+    <t>http://www.graveyardmall.com/categories/Daily-Deal/</t>
+  </si>
+  <si>
     <t>Multiple items</t>
   </si>
   <si>
-    <t>http://dailycigardeal.com/dailydeal/ccCigarDealsRss.asp</t>
-  </si>
-  <si>
-    <t>Daily Gem Deals</t>
-  </si>
-  <si>
-    <t>http://www.dailygemdeals.com/</t>
-  </si>
-  <si>
-    <t>Done( images in desc)</t>
-  </si>
-  <si>
-    <t>http://www.dailygemdeals.com/affiliate.htm</t>
-  </si>
-  <si>
-    <t>Daily Imprint</t>
-  </si>
-  <si>
-    <t>http://www.dailyimprint.com/</t>
-  </si>
-  <si>
-    <t>http://www.dailyimprint.com/affiliates/</t>
-  </si>
-  <si>
-    <t>Daily Memoires</t>
-  </si>
-  <si>
-    <t>http://www.dailymemories.com/</t>
-  </si>
-  <si>
-    <t>http://www.dailymemories.com/rss.php</t>
-  </si>
-  <si>
-    <t>Daily Sales For You Mens</t>
-  </si>
-  <si>
-    <t>http://www.dailysalesforyou.com/Mens-Watch-Deal</t>
-  </si>
-  <si>
-    <t>Daily Sales For You Special</t>
-  </si>
-  <si>
-    <t>http://www.dailysalesforyou.com/Special-Watch-Deal</t>
-  </si>
-  <si>
-    <t>Daily Sales For You Womens</t>
-  </si>
-  <si>
-    <t>http://www.dailysalesforyou.com/Womens-Watch-Deal</t>
-  </si>
-  <si>
-    <t>Daily Shades</t>
-  </si>
-  <si>
-    <t>http://www.dailyshades.com/</t>
-  </si>
-  <si>
-    <t>Daily Steals</t>
-  </si>
-  <si>
-    <t>http://www.dailysteals.com/</t>
-  </si>
-  <si>
-    <t>http://www.dailysteals.com/RSS.aspx</t>
-  </si>
-  <si>
-    <t>Daily Steals Home</t>
-  </si>
-  <si>
-    <t>http://home.dailysteals.com/</t>
-  </si>
-  <si>
-    <t>http://home.dailysteals.com/RSS.aspx</t>
-  </si>
-  <si>
-    <t>Daily Steals Luxury</t>
-  </si>
-  <si>
-    <t>http://luxury.dailysteals.com/</t>
-  </si>
-  <si>
-    <t>http://luxury.dailysteals.com/RSS.aspx</t>
-  </si>
-  <si>
-    <t>Daily Steals Mobile</t>
-  </si>
-  <si>
-    <t>http://mobile.dailysteals.com/</t>
-  </si>
-  <si>
-    <t>http://mobile.dailysteals.com/RSS.aspx</t>
-  </si>
-  <si>
-    <t>Daily Steals Toys</t>
-  </si>
-  <si>
-    <t>http://toys.dailysteals.com/</t>
-  </si>
-  <si>
-    <t>http://toys.dailysteals.com/RSS.aspx</t>
-  </si>
-  <si>
-    <t>dailydeals.net</t>
-  </si>
-  <si>
-    <t>http://www.dailydeals.net/</t>
-  </si>
-  <si>
-    <t>http://www.dailydeals.net/x-rss.products.aspx</t>
-  </si>
-  <si>
-    <t>Deal a Day</t>
-  </si>
-  <si>
-    <t>http://www.dealaday.org/</t>
-  </si>
-  <si>
-    <t>Deal a Day Golf</t>
-  </si>
-  <si>
-    <t>http://dealadaygolf.com/</t>
-  </si>
-  <si>
-    <t>Deal a Day Golf Past</t>
-  </si>
-  <si>
-    <t>http://dealadaygolf.com/pastdeals.php</t>
-  </si>
-  <si>
-    <t>Multiple Deals - See site</t>
-  </si>
-  <si>
-    <t>Deal A Day Golf Weekly</t>
-  </si>
-  <si>
-    <t>http://dealadaygolf.com/weeklydeals.php</t>
-  </si>
-  <si>
-    <t>Deal a Day Wake</t>
-  </si>
-  <si>
-    <t>http://www.dealadaywake.com/</t>
-  </si>
-  <si>
-    <t>http://feeds2.feedburner.com/DealADayWakeProducts</t>
-  </si>
-  <si>
-    <t>Deal Only</t>
-  </si>
-  <si>
-    <t>http://www.dealonly.com/</t>
-  </si>
-  <si>
-    <t>dealdotcom</t>
-  </si>
-  <si>
-    <t>http://www.dealdotcom.com/home</t>
-  </si>
-  <si>
-    <t>http://feeds.feedburner.com/dealdotcom</t>
-  </si>
-  <si>
-    <t>http://www.dealdotcom.com/blog/category/affiliate-stuff/</t>
-  </si>
-  <si>
-    <t>DealExtreme</t>
-  </si>
-  <si>
-    <t>http://www.dealextreme.com/</t>
-  </si>
-  <si>
-    <t>http://www.dealextreme.com/rss.dx</t>
-  </si>
-  <si>
-    <t>http://www.dealextreme.com/affiliates/</t>
-  </si>
-  <si>
-    <t>Post multiple deals</t>
-  </si>
-  <si>
-    <t>Dealko</t>
-  </si>
-  <si>
-    <t>http://www.dealko.com/sale</t>
-  </si>
-  <si>
-    <t>http://www.dealko.com/rss.php</t>
-  </si>
-  <si>
-    <t>DealPulp</t>
-  </si>
-  <si>
-    <t>http://dealpulp.com/</t>
-  </si>
-  <si>
-    <t>http://feeds.feedburner.com/dealpulp?format=xml</t>
-  </si>
-  <si>
-    <t>http://dealpulp.com/info/affiliate</t>
-  </si>
-  <si>
-    <t>Deals Click</t>
-  </si>
-  <si>
-    <t>http://www.dealsclick.com/</t>
-  </si>
-  <si>
-    <t>dealxpress</t>
-  </si>
-  <si>
-    <t>http://www.dealxpress.us/</t>
-  </si>
-  <si>
-    <t>Deep Discount</t>
-  </si>
-  <si>
-    <t>http://www.deepdiscount.com/deals_daily-deep-deal/</t>
-  </si>
-  <si>
-    <t>Delight</t>
-  </si>
-  <si>
-    <t>http://www.delight.com/</t>
-  </si>
-  <si>
-    <t>https://feeds.feedburner.com/delight/eTJS</t>
-  </si>
-  <si>
-    <t>Dell</t>
-  </si>
-  <si>
-    <t>http://accessories.us.dell.com/sna/sna.aspx?c=us&amp;cs=19&amp;l=en&amp;s=dhs&amp;~topic=daily_deals_available&amp;~srd=true&amp;sk=Daily_Deals&amp;scat=prod&amp;~srd=true&amp;sk=daily_deals&amp;scat=prod</t>
-  </si>
-  <si>
-    <t>Denali</t>
-  </si>
-  <si>
-    <t>http://www.shop-denali.com/Default.aspx</t>
-  </si>
-  <si>
-    <t>http://www.shop-denali.com/Affliate.aspx</t>
-  </si>
-  <si>
-    <t>Dept of Deals</t>
-  </si>
-  <si>
-    <t>http://www.deptofdeals.com/</t>
-  </si>
-  <si>
-    <t>2nd deal on the site - see site</t>
-  </si>
-  <si>
-    <t>Desert Shaman</t>
-  </si>
-  <si>
-    <t>http://onedaydeal.net/Ancient-Incense-Smoke-Shop/index.php</t>
-  </si>
-  <si>
-    <t>http://feeds.feedburner.com/desertshaman?format=xml</t>
-  </si>
-  <si>
-    <t>Design By Humans</t>
-  </si>
-  <si>
-    <t>http://www.designbyhumans.com/</t>
-  </si>
-  <si>
-    <t>DiamondShark</t>
-  </si>
-  <si>
-    <t>http://www.diamondshark.com/</t>
-  </si>
-  <si>
-    <t>Done but Cannot open with PHP</t>
-  </si>
-  <si>
-    <t>http://feeds.feedburner.com/Diamondshark-DailyDealRssFeed?format=xml</t>
-  </si>
-  <si>
-    <t>dillyeo</t>
-  </si>
-  <si>
-    <t>http://www.dillyeo.com/</t>
-  </si>
-  <si>
-    <t>http://dillyeo.com/affiliates</t>
-  </si>
-  <si>
-    <t>DinoDirect</t>
-  </si>
-  <si>
-    <t>http://www.dinodirect.com/DailyDeal</t>
-  </si>
-  <si>
-    <t>5 Deals on site - see site</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>http://www.directron.com/</t>
-  </si>
-  <si>
-    <t>Done Image only</t>
-  </si>
-  <si>
-    <t>Discount Watch Store</t>
-  </si>
-  <si>
-    <t>http://dailydeal.discountwatchstore.com/cust/dailydealsteal.asp?d=0</t>
-  </si>
-  <si>
-    <t>http://www.shareasale.com/shareasale.cfm?merchantID=14490</t>
-  </si>
-  <si>
-    <t>DOD Genie</t>
-  </si>
-  <si>
-    <t>http://www.dodgenie.com</t>
-  </si>
-  <si>
-    <t>DOD Hero</t>
-  </si>
-  <si>
-    <t>http://www.dodhero.com</t>
-  </si>
-  <si>
-    <t>DOD Hero Sidekick</t>
-  </si>
-  <si>
-    <t>http://www.dodhero.com/index.php?main_page=index&amp;cPath=9</t>
-  </si>
-  <si>
-    <t>DownLowTooSlow</t>
-  </si>
-  <si>
-    <t>http://www.downlowtooslow.com/</t>
-  </si>
-  <si>
-    <t>http://feeds.feedburner.com/DownLowTooSlow?format=xml</t>
-  </si>
-  <si>
-    <t>dtagifts</t>
-  </si>
-  <si>
-    <t>http://www.dtagifts.com/</t>
-  </si>
-  <si>
-    <t>EarlsTees</t>
-  </si>
-  <si>
-    <t>http://www.earlstees.com/shop/catalog/</t>
-  </si>
-  <si>
-    <t>Eastwood</t>
-  </si>
-  <si>
-    <t>http://www.eastwood.com/clearance.html/</t>
-  </si>
-  <si>
-    <t>http://www.eastwood.com/rss/catalog/category/cid/32/store_id/1/</t>
-  </si>
-  <si>
-    <t>EasyStreetDeals</t>
-  </si>
-  <si>
-    <t>http://www.easystreetdeals.com/</t>
-  </si>
-  <si>
-    <t>http://www.easystreetdeals.com/login.asp</t>
-  </si>
-  <si>
-    <t>eBags</t>
-  </si>
-  <si>
-    <t>http://www.ebags.com/</t>
-  </si>
-  <si>
-    <t>eBay Daily Deals</t>
-  </si>
-  <si>
-    <t>http://deals.ebay.com/</t>
-  </si>
-  <si>
-    <t>http://deals.ebay.com/feeds/rss</t>
-  </si>
-  <si>
-    <t>Eco Baby Buys</t>
-  </si>
-  <si>
-    <t>https://www.ecobabybuys.com/</t>
-  </si>
-  <si>
-    <t>https://www.ecobabybuys.com/feeds/index.xml</t>
-  </si>
-  <si>
-    <t>eCost</t>
-  </si>
-  <si>
-    <t>http://www.ecost.com/Email/HotSheet.aspx</t>
-  </si>
-  <si>
-    <t>http://feeds.feedburner.com/eCOSTDealAlert?format=xml</t>
-  </si>
-  <si>
-    <t>http://www.ecost.com/Helpdesk/Affiliates.aspx</t>
-  </si>
-  <si>
-    <t>Ecosteal</t>
-  </si>
-  <si>
-    <t>http://www.ecosteal.com/</t>
-  </si>
-  <si>
-    <t>Ecosteal is in the process of restructuring its business</t>
-  </si>
-  <si>
-    <t>http://feeds2.feedburner.com/EcostealDealOfTheDay</t>
-  </si>
-  <si>
-    <t>EjectIT</t>
-  </si>
-  <si>
-    <t>http://www.ejectit.com/</t>
-  </si>
-  <si>
-    <t>http://www.ejectit.com/rss.aspx</t>
-  </si>
-  <si>
-    <t>Electronics Expo</t>
-  </si>
-  <si>
-    <t>http://www.electronics-expo.com/</t>
-  </si>
-  <si>
-    <t>Eternal Snow</t>
-  </si>
-  <si>
-    <t>http://www.eternalsnow.com/steal-of-the-day.html</t>
-  </si>
-  <si>
-    <t>eWatches</t>
-  </si>
-  <si>
-    <t>http://www.ewatches.com/</t>
-  </si>
-  <si>
-    <t>https://signup.cj.com/member/brandedPublisherSignUp.do?air_refmerchantid=</t>
-  </si>
-  <si>
-    <t>eWatches Hourly</t>
-  </si>
-  <si>
-    <t>http://www.ewatches.com/cust/hourlydeal.asp</t>
-  </si>
-  <si>
-    <t>fab</t>
-  </si>
-  <si>
-    <t>http://fab.com/deals/</t>
-  </si>
-  <si>
-    <t>Fabric.com</t>
-  </si>
-  <si>
-    <t>http://www.fabric.com/Index.aspx</t>
-  </si>
-  <si>
-    <t>http://www.fabric.com/SitePages/Affiliate.aspx</t>
-  </si>
-  <si>
-    <t>Family Video</t>
-  </si>
-  <si>
-    <t>http://www.familyvideo.com/catalog/pod_history.php</t>
-  </si>
-  <si>
-    <t>Field Junky</t>
-  </si>
-  <si>
-    <t>http://www.fieldjunky.com/</t>
-  </si>
-  <si>
-    <t>http://www.fieldjunky.com/Affiliates-Program</t>
-  </si>
-  <si>
-    <t>Flowers to Flourishes</t>
-  </si>
-  <si>
-    <t>http://www.flowerstoflourishes.com/</t>
-  </si>
-  <si>
-    <t>Fourteen Stix</t>
-  </si>
-  <si>
-    <t>http://www.14stix.com/</t>
-  </si>
-  <si>
-    <t>http://feeds2.feedburner.com/14stix</t>
-  </si>
-  <si>
-    <t>Fraction Price</t>
-  </si>
-  <si>
-    <t>http://www.fractionprice.com/cust/dailydealsteal.asp</t>
-  </si>
-  <si>
-    <t>http://www.fractionprice.com/cust/RSSDDS.ASP</t>
-  </si>
-  <si>
-    <t>http://www.fractionprice.com/cust/affiliatesignup.asp?d=0&amp;rid=TDxISTuGgFA-nwkvFlmftfQqwcpgUP6XLQ</t>
-  </si>
-  <si>
-    <t>Fragrance Brand</t>
-  </si>
-  <si>
-    <t>http://www.fragrancebrand.com/</t>
-  </si>
-  <si>
-    <t>http://www.fragrancebrand.com/feed/</t>
-  </si>
-  <si>
-    <t>Friends and Family Circle</t>
-  </si>
-  <si>
-    <t>https://www.friendsandfamilycircle.com/</t>
-  </si>
-  <si>
-    <t>Froobi</t>
-  </si>
-  <si>
-    <t>http://www.froobi.com/</t>
-  </si>
-  <si>
-    <t>Froobi Watch</t>
-  </si>
-  <si>
-    <t>http://www.froobi.com/watch-1.html</t>
-  </si>
-  <si>
-    <t>Fruper!</t>
-  </si>
-  <si>
-    <t>http://fruper.com/</t>
-  </si>
-  <si>
-    <t>Fububling</t>
-  </si>
-  <si>
-    <t>http://www.fububling.com/</t>
-  </si>
-  <si>
-    <t>Game Access</t>
-  </si>
-  <si>
-    <t>http://gameaccess.ca/Game-Store-DealOfTheDay.htm</t>
-  </si>
-  <si>
-    <t>http://www.gameaccesscash.com/</t>
-  </si>
-  <si>
-    <t>Game Deal Daily</t>
-  </si>
-  <si>
-    <t>http://www.gamedealdaily.com/</t>
-  </si>
-  <si>
-    <t>http://www.gamedealdaily.com/rss/</t>
-  </si>
-  <si>
-    <t>Game du jour</t>
-  </si>
-  <si>
-    <t>http://www.gamedujour.com/</t>
-  </si>
-  <si>
-    <t>http://www.gamedujour.com/feed</t>
-  </si>
-  <si>
-    <t>Game Giveaway of the Day</t>
-  </si>
-  <si>
-    <t>http://game.giveawayoftheday.com/</t>
-  </si>
-  <si>
-    <t>http://game.giveawayoftheday.com/feed/</t>
-  </si>
-  <si>
-    <t>Gardens Alive!</t>
-  </si>
-  <si>
-    <t>http://www.gardensalive.com/</t>
-  </si>
-  <si>
-    <t>http://www.gardensalive.com/article.asp?ai=175</t>
-  </si>
-  <si>
-    <t>gearSlash</t>
-  </si>
-  <si>
-    <t>http://www.gearslash.com/</t>
-  </si>
-  <si>
-    <t>http://www.solsticesupply.com/servlet/the-template/affiliate_program/Page</t>
-  </si>
-  <si>
-    <t>GearXS</t>
-  </si>
-  <si>
-    <t>http://www.gearxs.com/store/</t>
-  </si>
-  <si>
-    <t>(bottom of page)</t>
-  </si>
-  <si>
-    <t>Geeks.com</t>
-  </si>
-  <si>
-    <t>http://www.geeks.com/one-day-deal/</t>
-  </si>
-  <si>
-    <t>http://feeds.feedburner.com/GeekscomPromotionsBlog?format=xml</t>
-  </si>
-  <si>
-    <t>http://www.geeks.com/affiliates/</t>
-  </si>
-  <si>
-    <t>Gemnation</t>
-  </si>
-  <si>
-    <t>http://www.gemnation.com/watches/Deal-Of-The-Day.html</t>
-  </si>
-  <si>
-    <t>http://www.gemnation.com/watches/Deal-Of-The-Day.rss</t>
-  </si>
-  <si>
-    <t>Get A Jacket Now</t>
-  </si>
-  <si>
-    <t>http://www.getajacketnow.com/</t>
-  </si>
-  <si>
-    <t>http://www.getajacketnow.com/rss.xml</t>
-  </si>
-  <si>
-    <t>Get a Rock</t>
-  </si>
-  <si>
-    <t>http://getarock.com/</t>
-  </si>
-  <si>
-    <t>No products available!</t>
-  </si>
-  <si>
-    <t>getzs</t>
-  </si>
-  <si>
-    <t>http://www.getzs.com/</t>
-  </si>
-  <si>
-    <t>http://www.getzs.com/Commision-Junction/help/58/</t>
-  </si>
-  <si>
-    <t>Giftsprings</t>
-  </si>
-  <si>
-    <t>http://www.giftsprings.com/index.html</t>
-  </si>
-  <si>
-    <t>http://www.giftsprings.com/Merchant2/merchant.mv?Screen=CTGY&amp;Category_Code=AFFILPGM</t>
-  </si>
-  <si>
-    <t>Give Me Jewels</t>
-  </si>
-  <si>
-    <t>http://www.givemejewels.com/</t>
-  </si>
-  <si>
-    <t>Giveaway of the Day</t>
-  </si>
-  <si>
-    <t>http://www.giveawayoftheday.com/</t>
-  </si>
-  <si>
-    <t>http://www.giveawayoftheday.com/feed/</t>
-  </si>
-  <si>
-    <t>GoDaddy.com</t>
-  </si>
-  <si>
-    <t>(need to sign up for it)</t>
-  </si>
-  <si>
-    <t>Needs login</t>
-  </si>
-  <si>
-    <t>goingTODAY</t>
-  </si>
-  <si>
-    <t>http://www.goingtoday.com/</t>
-  </si>
-  <si>
-    <t>http://www.goingtoday.com/rssfeed.cfm</t>
-  </si>
-  <si>
-    <t>Golf Discount</t>
-  </si>
-  <si>
-    <t>http://www.golfdiscount.com/deal_of_the_day</t>
-  </si>
-  <si>
-    <t>http://www.golfdiscount.com/affiliate</t>
-  </si>
-  <si>
-    <t>golfballs.com</t>
-  </si>
-  <si>
-    <t>http://www.golfballs.com/DealADay.aspx</t>
-  </si>
-  <si>
-    <t>Cannot parse site</t>
-  </si>
-  <si>
-    <t>Golfsmith</t>
-  </si>
-  <si>
-    <t>http://www.golfsmith.com/</t>
-  </si>
-  <si>
-    <t>https://signup.cj.com/member/brandedPublisherSignUp.do?air_refmerchantid=1169237</t>
-  </si>
-  <si>
-    <t>Good Deals 18</t>
-  </si>
-  <si>
-    <t>http://www.gooddeals18.com/category/deal_of_the_day/</t>
-  </si>
-  <si>
-    <t>Flash, data</t>
-  </si>
-  <si>
-    <t>Grab My Deal</t>
-  </si>
-  <si>
-    <t>http://www.grabmydeal.com/index.php/current-deal.html</t>
-  </si>
-  <si>
-    <t>GraveyardMall</t>
-  </si>
-  <si>
-    <t>http://www.graveyardmall.com/categories/Daily-Deal/</t>
-  </si>
-  <si>
     <t>http://www.graveyardmall.com/pages/RSS.html</t>
   </si>
   <si>
@@ -2107,6 +2107,9 @@
     <t>http://www.macmall.com/n/Deal-Of-The-Day/macCustomPages-961?store=macmall</t>
   </si>
   <si>
+    <t>Multiple categories</t>
+  </si>
+  <si>
     <t>http://www.macmall.com/n/Affiliate-Network/macmsc-macmsc.67</t>
   </si>
   <si>
@@ -2198,6 +2201,9 @@
   </si>
   <si>
     <t>http://www.mikasa.com/</t>
+  </si>
+  <si>
+    <t>Image only</t>
   </si>
   <si>
     <t>http://www.mikasa.com/Affiliate-Program/MIKASA_AFFILIATE_PROGRAM,default,pg.html</t>
@@ -3921,8 +3927,8 @@
   </sheetPr>
   <dimension ref="A1:I444"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C26" activeCellId="0" pane="topLeft" sqref="C26"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A290" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A316" activeCellId="0" pane="topLeft" sqref="A316"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -6044,16 +6050,16 @@
         <v>283</v>
       </c>
       <c r="C95" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" s="0" t="s">
         <v>284</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95" s="0" t="s">
-        <v>285</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>12</v>
@@ -6061,13 +6067,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="96">
       <c r="A96" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B96" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="C96" s="0" t="s">
         <v>287</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>288</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>25</v>
@@ -6079,38 +6085,38 @@
         <v>19</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="97">
       <c r="A97" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B97" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="C97" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" s="0" t="s">
         <v>291</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H97" s="0" t="s">
-        <v>292</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="98">
       <c r="A98" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B98" s="0" t="s">
         <v>293</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>294</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>15</v>
@@ -6122,7 +6128,7 @@
         <v>19</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>12</v>
@@ -6130,10 +6136,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="99">
       <c r="A99" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B99" s="0" t="s">
         <v>296</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>297</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>15</v>
@@ -6150,10 +6156,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="100">
       <c r="A100" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B100" s="0" t="s">
         <v>298</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>299</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>15</v>
@@ -6170,10 +6176,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="101">
       <c r="A101" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B101" s="0" t="s">
         <v>300</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>301</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>15</v>
@@ -6190,10 +6196,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="102">
       <c r="A102" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B102" s="0" t="s">
         <v>302</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>303</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>15</v>
@@ -6210,22 +6216,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="103">
       <c r="A103" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B103" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="C103" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" s="0" t="s">
         <v>305</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F103" s="0" t="s">
-        <v>306</v>
       </c>
       <c r="G103" s="0" t="s">
         <v>12</v>
@@ -6233,10 +6239,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="104">
       <c r="A104" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B104" s="0" t="s">
         <v>307</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>308</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>15</v>
@@ -6248,7 +6254,7 @@
         <v>19</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>12</v>
@@ -6256,10 +6262,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="105">
       <c r="A105" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="B105" s="0" t="s">
         <v>310</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>311</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>15</v>
@@ -6271,7 +6277,7 @@
         <v>19</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G105" s="0" t="s">
         <v>12</v>
@@ -6279,10 +6285,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="106">
       <c r="A106" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B106" s="0" t="s">
         <v>313</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>314</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>15</v>
@@ -6294,7 +6300,7 @@
         <v>19</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G106" s="0" t="s">
         <v>12</v>
@@ -6302,10 +6308,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="107">
       <c r="A107" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B107" s="0" t="s">
         <v>316</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>317</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>15</v>
@@ -6317,27 +6323,27 @@
         <v>19</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="108">
       <c r="A108" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B108" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="C108" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F108" s="0" t="s">
         <v>320</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F108" s="0" t="s">
-        <v>321</v>
       </c>
       <c r="G108" s="0" t="s">
         <v>12</v>
@@ -6345,10 +6351,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="109">
       <c r="A109" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B109" s="0" t="s">
         <v>322</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>323</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>15</v>
@@ -6365,10 +6371,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="110">
       <c r="A110" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B110" s="0" t="s">
         <v>324</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>325</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>15</v>
@@ -6385,13 +6391,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="111">
       <c r="A111" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="B111" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="B111" s="0" t="s">
-        <v>327</v>
-      </c>
       <c r="C111" s="0" t="s">
-        <v>284</v>
+        <v>15</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>16</v>
@@ -6403,18 +6409,18 @@
         <v>12</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="112">
       <c r="A112" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B112" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="B112" s="0" t="s">
-        <v>330</v>
-      </c>
       <c r="C112" s="0" t="s">
-        <v>284</v>
+        <v>15</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>16</v>
@@ -6426,15 +6432,15 @@
         <v>12</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="113">
       <c r="A113" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B113" s="0" t="s">
         <v>331</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>332</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>15</v>
@@ -6446,7 +6452,7 @@
         <v>19</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G113" s="0" t="s">
         <v>12</v>
@@ -6454,10 +6460,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="114">
       <c r="A114" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B114" s="0" t="s">
         <v>334</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>335</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>15</v>
@@ -6474,39 +6480,39 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="115">
       <c r="A115" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B115" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="C115" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F115" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="C115" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E115" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F115" s="0" t="s">
+      <c r="G115" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H115" s="0" t="s">
         <v>338</v>
-      </c>
-      <c r="G115" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H115" s="0" t="s">
-        <v>339</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="116">
       <c r="A116" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="B116" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="B116" s="0" t="s">
-        <v>341</v>
-      </c>
       <c r="C116" s="0" t="s">
-        <v>284</v>
+        <v>15</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>30</v>
@@ -6515,33 +6521,33 @@
         <v>19</v>
       </c>
       <c r="F116" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="G116" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H116" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="G116" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H116" s="0" t="s">
+      <c r="I116" s="0" t="s">
         <v>343</v>
-      </c>
-      <c r="I116" s="0" t="s">
-        <v>344</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="117">
       <c r="A117" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="B117" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="C117" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F117" s="0" t="s">
         <v>346</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E117" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F117" s="0" t="s">
-        <v>347</v>
       </c>
       <c r="G117" s="0" t="s">
         <v>12</v>
@@ -6549,36 +6555,36 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="118">
       <c r="A118" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B118" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="C118" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F118" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="C118" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="D118" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E118" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F118" s="0" t="s">
+      <c r="G118" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" s="0" t="s">
         <v>350</v>
-      </c>
-      <c r="G118" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H118" s="0" t="s">
-        <v>351</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="119">
       <c r="A119" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B119" s="0" t="s">
         <v>352</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>353</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>15</v>
@@ -6595,10 +6601,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="120">
       <c r="A120" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="B120" s="0" t="s">
         <v>354</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>355</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>15</v>
@@ -6615,10 +6621,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="121">
       <c r="A121" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="B121" s="0" t="s">
         <v>356</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>357</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>15</v>
@@ -6635,10 +6641,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="122">
       <c r="A122" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="B122" s="0" t="s">
         <v>358</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>359</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>111</v>
@@ -6650,7 +6656,7 @@
         <v>19</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G122" s="0" t="s">
         <v>12</v>
@@ -6658,10 +6664,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="123">
       <c r="A123" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="B123" s="0" t="s">
         <v>361</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>362</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>54</v>
@@ -6678,10 +6684,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="124">
       <c r="A124" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B124" s="0" t="s">
         <v>363</v>
-      </c>
-      <c r="B124" s="0" t="s">
-        <v>364</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>54</v>
@@ -6696,38 +6702,38 @@
         <v>19</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="125">
       <c r="A125" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B125" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="C125" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" s="0" t="s">
         <v>367</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I125" s="0" t="s">
-        <v>368</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="126">
       <c r="A126" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="B126" s="0" t="s">
         <v>369</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>370</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>54</v>
@@ -6739,7 +6745,7 @@
         <v>19</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G126" s="0" t="s">
         <v>12</v>
@@ -6747,13 +6753,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="127">
       <c r="A127" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B127" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="B127" s="0" t="s">
-        <v>373</v>
-      </c>
       <c r="C127" s="0" t="s">
-        <v>284</v>
+        <v>54</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>25</v>
@@ -6767,13 +6773,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="128">
       <c r="A128" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="B128" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="C128" s="0" t="s">
         <v>375</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>376</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>25</v>
@@ -6782,7 +6788,7 @@
         <v>19</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G128" s="0" t="s">
         <v>19</v>
@@ -6790,59 +6796,59 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="129">
       <c r="A129" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B129" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="C129" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H129" s="0" t="s">
         <v>379</v>
-      </c>
-      <c r="C129" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E129" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G129" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H129" s="0" t="s">
-        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="130">
       <c r="A130" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B130" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="C130" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I130" s="0" t="s">
         <v>382</v>
-      </c>
-      <c r="C130" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E130" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I130" s="0" t="s">
-        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="131">
       <c r="A131" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B131" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="C131" s="0" t="s">
         <v>385</v>
-      </c>
-      <c r="C131" s="0" t="s">
-        <v>386</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>30</v>
@@ -6854,15 +6860,15 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="132">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.05" outlineLevel="0" r="132">
       <c r="A132" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B132" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="B132" s="0" t="s">
-        <v>388</v>
-      </c>
       <c r="C132" s="0" t="s">
-        <v>284</v>
+        <v>111</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>25</v>
@@ -6874,15 +6880,15 @@
         <v>19</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="133">
       <c r="A133" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B133" s="0" t="s">
         <v>390</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>391</v>
       </c>
       <c r="C133" s="0" t="s">
         <v>15</v>
@@ -6899,10 +6905,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="134">
       <c r="A134" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B134" s="0" t="s">
         <v>392</v>
-      </c>
-      <c r="B134" s="0" t="s">
-        <v>393</v>
       </c>
       <c r="C134" s="0" t="s">
         <v>15</v>
@@ -6919,10 +6925,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.05" outlineLevel="0" r="135">
       <c r="A135" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B135" s="0" t="s">
         <v>394</v>
-      </c>
-      <c r="B135" s="0" t="s">
-        <v>395</v>
       </c>
       <c r="C135" s="0" t="s">
         <v>15</v>
@@ -6939,10 +6945,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="136">
       <c r="A136" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B136" s="0" t="s">
         <v>396</v>
-      </c>
-      <c r="B136" s="0" t="s">
-        <v>397</v>
       </c>
       <c r="C136" s="0" t="s">
         <v>15</v>
@@ -6954,7 +6960,7 @@
         <v>19</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G136" s="0" t="s">
         <v>12</v>
@@ -6962,10 +6968,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="137">
       <c r="A137" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="B137" s="0" t="s">
         <v>399</v>
-      </c>
-      <c r="B137" s="0" t="s">
-        <v>400</v>
       </c>
       <c r="C137" s="0" t="s">
         <v>15</v>
@@ -6982,10 +6988,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="138">
       <c r="A138" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B138" s="0" t="s">
         <v>401</v>
-      </c>
-      <c r="B138" s="0" t="s">
-        <v>402</v>
       </c>
       <c r="C138" s="0" t="s">
         <v>15</v>
@@ -7002,10 +7008,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="139">
       <c r="A139" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="B139" s="0" t="s">
         <v>403</v>
-      </c>
-      <c r="B139" s="0" t="s">
-        <v>404</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>54</v>
@@ -7017,36 +7023,36 @@
         <v>19</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G139" s="0" t="s">
         <v>12</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="140">
       <c r="A140" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="B140" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="C140" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H140" s="0" t="s">
         <v>407</v>
-      </c>
-      <c r="C140" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D140" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E140" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H140" s="0" t="s">
-        <v>408</v>
       </c>
       <c r="I140" s="0" t="s">
         <v>33</v>
@@ -7054,10 +7060,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="141">
       <c r="A141" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="B141" s="0" t="s">
         <v>409</v>
-      </c>
-      <c r="B141" s="0" t="s">
-        <v>410</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>54</v>
@@ -7074,22 +7080,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="142">
       <c r="A142" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="B142" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="C142" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F142" s="0" t="s">
         <v>412</v>
-      </c>
-      <c r="C142" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E142" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F142" s="0" t="s">
-        <v>413</v>
       </c>
       <c r="G142" s="0" t="s">
         <v>12</v>
@@ -7100,10 +7106,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="143">
       <c r="A143" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B143" s="0" t="s">
         <v>414</v>
-      </c>
-      <c r="B143" s="0" t="s">
-        <v>415</v>
       </c>
       <c r="C143" s="0" t="s">
         <v>15</v>
@@ -7115,7 +7121,7 @@
         <v>19</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G143" s="0" t="s">
         <v>12</v>
@@ -7123,10 +7129,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="144">
       <c r="A144" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B144" s="0" t="s">
         <v>417</v>
-      </c>
-      <c r="B144" s="0" t="s">
-        <v>418</v>
       </c>
       <c r="C144" s="0" t="s">
         <v>15</v>
@@ -7138,13 +7144,13 @@
         <v>19</v>
       </c>
       <c r="F144" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="G144" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H144" s="0" t="s">
         <v>419</v>
-      </c>
-      <c r="G144" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H144" s="0" t="s">
-        <v>420</v>
       </c>
       <c r="I144" s="0" t="s">
         <v>33</v>
@@ -7152,13 +7158,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="145">
       <c r="A145" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="B145" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="C145" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>423</v>
       </c>
       <c r="D145" s="0" t="s">
         <v>36</v>
@@ -7167,7 +7173,7 @@
         <v>19</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G145" s="0" t="s">
         <v>12</v>
@@ -7175,10 +7181,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="146">
       <c r="A146" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="B146" s="0" t="s">
         <v>425</v>
-      </c>
-      <c r="B146" s="0" t="s">
-        <v>426</v>
       </c>
       <c r="C146" s="0" t="s">
         <v>15</v>
@@ -7190,7 +7196,7 @@
         <v>19</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G146" s="0" t="s">
         <v>12</v>
@@ -7198,10 +7204,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="147">
       <c r="A147" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="B147" s="0" t="s">
         <v>428</v>
-      </c>
-      <c r="B147" s="0" t="s">
-        <v>429</v>
       </c>
       <c r="C147" s="0" t="s">
         <v>15</v>
@@ -7218,10 +7224,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="148">
       <c r="A148" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B148" s="0" t="s">
         <v>430</v>
-      </c>
-      <c r="B148" s="0" t="s">
-        <v>431</v>
       </c>
       <c r="C148" s="0" t="s">
         <v>15</v>
@@ -7238,10 +7244,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="149">
       <c r="A149" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="B149" s="0" t="s">
         <v>432</v>
-      </c>
-      <c r="B149" s="0" t="s">
-        <v>433</v>
       </c>
       <c r="C149" s="0" t="s">
         <v>15</v>
@@ -7256,15 +7262,15 @@
         <v>19</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="150">
       <c r="A150" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="B150" s="0" t="s">
         <v>435</v>
-      </c>
-      <c r="B150" s="0" t="s">
-        <v>436</v>
       </c>
       <c r="C150" s="0" t="s">
         <v>15</v>
@@ -7279,15 +7285,15 @@
         <v>19</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="151">
       <c r="A151" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B151" s="0" t="s">
         <v>437</v>
-      </c>
-      <c r="B151" s="0" t="s">
-        <v>438</v>
       </c>
       <c r="C151" s="0" t="s">
         <v>54</v>
@@ -7307,10 +7313,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="152">
       <c r="A152" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="B152" s="0" t="s">
         <v>439</v>
-      </c>
-      <c r="B152" s="0" t="s">
-        <v>440</v>
       </c>
       <c r="C152" s="0" t="s">
         <v>15</v>
@@ -7325,15 +7331,15 @@
         <v>19</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="153">
       <c r="A153" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="B153" s="0" t="s">
         <v>442</v>
-      </c>
-      <c r="B153" s="0" t="s">
-        <v>443</v>
       </c>
       <c r="C153" s="0" t="s">
         <v>15</v>
@@ -7350,10 +7356,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="154">
       <c r="A154" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="B154" s="0" t="s">
         <v>444</v>
-      </c>
-      <c r="B154" s="0" t="s">
-        <v>445</v>
       </c>
       <c r="C154" s="0" t="s">
         <v>15</v>
@@ -7368,15 +7374,15 @@
         <v>19</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="155">
       <c r="A155" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="B155" s="0" t="s">
         <v>447</v>
-      </c>
-      <c r="B155" s="0" t="s">
-        <v>448</v>
       </c>
       <c r="C155" s="0" t="s">
         <v>15</v>
@@ -7393,10 +7399,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="156">
       <c r="A156" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="B156" s="0" t="s">
         <v>449</v>
-      </c>
-      <c r="B156" s="0" t="s">
-        <v>450</v>
       </c>
       <c r="C156" s="0" t="s">
         <v>15</v>
@@ -7408,7 +7414,7 @@
         <v>19</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G156" s="0" t="s">
         <v>12</v>
@@ -7416,10 +7422,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="157">
       <c r="A157" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="B157" s="0" t="s">
         <v>452</v>
-      </c>
-      <c r="B157" s="0" t="s">
-        <v>453</v>
       </c>
       <c r="C157" s="0" t="s">
         <v>15</v>
@@ -7431,21 +7437,21 @@
         <v>19</v>
       </c>
       <c r="F157" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="G157" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H157" s="0" t="s">
         <v>454</v>
-      </c>
-      <c r="G157" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H157" s="0" t="s">
-        <v>455</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="158">
       <c r="A158" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="B158" s="0" t="s">
         <v>456</v>
-      </c>
-      <c r="B158" s="0" t="s">
-        <v>457</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>54</v>
@@ -7457,7 +7463,7 @@
         <v>19</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G158" s="0" t="s">
         <v>12</v>
@@ -7465,10 +7471,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="159">
       <c r="A159" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="B159" s="0" t="s">
         <v>459</v>
-      </c>
-      <c r="B159" s="0" t="s">
-        <v>460</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>194</v>
@@ -7485,10 +7491,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="160">
       <c r="A160" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="B160" s="0" t="s">
         <v>461</v>
-      </c>
-      <c r="B160" s="0" t="s">
-        <v>462</v>
       </c>
       <c r="C160" s="0" t="s">
         <v>15</v>
@@ -7505,10 +7511,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="161">
       <c r="A161" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="B161" s="0" t="s">
         <v>463</v>
-      </c>
-      <c r="B161" s="0" t="s">
-        <v>464</v>
       </c>
       <c r="C161" s="0" t="s">
         <v>15</v>
@@ -7525,10 +7531,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="162">
       <c r="A162" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="B162" s="0" t="s">
         <v>465</v>
-      </c>
-      <c r="B162" s="0" t="s">
-        <v>466</v>
       </c>
       <c r="C162" s="0" t="s">
         <v>15</v>
@@ -7545,10 +7551,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="163">
       <c r="A163" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="B163" s="0" t="s">
         <v>467</v>
-      </c>
-      <c r="B163" s="0" t="s">
-        <v>468</v>
       </c>
       <c r="C163" s="0" t="s">
         <v>15</v>
@@ -7565,10 +7571,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="164">
       <c r="A164" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="B164" s="0" t="s">
         <v>469</v>
-      </c>
-      <c r="B164" s="0" t="s">
-        <v>470</v>
       </c>
       <c r="C164" s="0" t="s">
         <v>15</v>
@@ -7583,15 +7589,15 @@
         <v>19</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="165">
       <c r="A165" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="B165" s="0" t="s">
         <v>472</v>
-      </c>
-      <c r="B165" s="0" t="s">
-        <v>473</v>
       </c>
       <c r="C165" s="0" t="s">
         <v>15</v>
@@ -7603,7 +7609,7 @@
         <v>19</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G165" s="0" t="s">
         <v>12</v>
@@ -7611,10 +7617,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="166">
       <c r="A166" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="B166" s="0" t="s">
         <v>475</v>
-      </c>
-      <c r="B166" s="0" t="s">
-        <v>476</v>
       </c>
       <c r="C166" s="0" t="s">
         <v>15</v>
@@ -7626,7 +7632,7 @@
         <v>19</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G166" s="0" t="s">
         <v>12</v>
@@ -7634,10 +7640,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="167">
       <c r="A167" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="B167" s="0" t="s">
         <v>478</v>
-      </c>
-      <c r="B167" s="0" t="s">
-        <v>479</v>
       </c>
       <c r="C167" s="0" t="s">
         <v>15</v>
@@ -7649,7 +7655,7 @@
         <v>19</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G167" s="0" t="s">
         <v>12</v>
@@ -7657,10 +7663,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="168">
       <c r="A168" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="B168" s="0" t="s">
         <v>481</v>
-      </c>
-      <c r="B168" s="0" t="s">
-        <v>482</v>
       </c>
       <c r="C168" s="0" t="s">
         <v>15</v>
@@ -7675,15 +7681,15 @@
         <v>19</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="169">
       <c r="A169" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B169" s="0" t="s">
         <v>484</v>
-      </c>
-      <c r="B169" s="0" t="s">
-        <v>485</v>
       </c>
       <c r="C169" s="0" t="s">
         <v>15</v>
@@ -7698,18 +7704,18 @@
         <v>19</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="170">
       <c r="A170" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="B170" s="0" t="s">
         <v>487</v>
       </c>
-      <c r="B170" s="0" t="s">
-        <v>488</v>
-      </c>
       <c r="C170" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D170" s="0" t="s">
         <v>30</v>
@@ -7718,7 +7724,7 @@
         <v>19</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G170" s="0" t="s">
         <v>12</v>
@@ -7729,10 +7735,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="171">
       <c r="A171" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="B171" s="0" t="s">
         <v>490</v>
-      </c>
-      <c r="B171" s="0" t="s">
-        <v>491</v>
       </c>
       <c r="C171" s="0" t="s">
         <v>15</v>
@@ -7744,21 +7750,21 @@
         <v>19</v>
       </c>
       <c r="F171" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="G171" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H171" s="0" t="s">
         <v>492</v>
-      </c>
-      <c r="G171" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H171" s="0" t="s">
-        <v>493</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="172">
       <c r="A172" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B172" s="0" t="s">
         <v>494</v>
-      </c>
-      <c r="B172" s="0" t="s">
-        <v>495</v>
       </c>
       <c r="C172" s="0" t="s">
         <v>15</v>
@@ -7770,7 +7776,7 @@
         <v>19</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G172" s="0" t="s">
         <v>12</v>
@@ -7778,10 +7784,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="173">
       <c r="A173" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="B173" s="0" t="s">
         <v>497</v>
-      </c>
-      <c r="B173" s="0" t="s">
-        <v>498</v>
       </c>
       <c r="C173" s="0" t="s">
         <v>15</v>
@@ -7793,7 +7799,7 @@
         <v>19</v>
       </c>
       <c r="F173" s="0" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G173" s="0" t="s">
         <v>12</v>
@@ -7801,13 +7807,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="174">
       <c r="A174" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="B174" s="0" t="s">
         <v>500</v>
       </c>
-      <c r="B174" s="0" t="s">
+      <c r="C174" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>502</v>
       </c>
       <c r="D174" s="0" t="s">
         <v>25</v>
@@ -7821,10 +7827,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="175">
       <c r="A175" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="B175" s="0" t="s">
         <v>503</v>
-      </c>
-      <c r="B175" s="0" t="s">
-        <v>504</v>
       </c>
       <c r="C175" s="0" t="s">
         <v>194</v>
@@ -7839,15 +7845,15 @@
         <v>19</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="176">
       <c r="A176" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="B176" s="0" t="s">
         <v>506</v>
-      </c>
-      <c r="B176" s="0" t="s">
-        <v>507</v>
       </c>
       <c r="C176" s="0" t="s">
         <v>15</v>
@@ -7862,15 +7868,15 @@
         <v>19</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="177">
       <c r="A177" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="B177" s="0" t="s">
         <v>509</v>
-      </c>
-      <c r="B177" s="0" t="s">
-        <v>510</v>
       </c>
       <c r="C177" s="0" t="s">
         <v>15</v>
@@ -7887,10 +7893,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="178">
       <c r="A178" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="B178" s="0" t="s">
         <v>511</v>
-      </c>
-      <c r="B178" s="0" t="s">
-        <v>512</v>
       </c>
       <c r="C178" s="0" t="s">
         <v>15</v>
@@ -7902,7 +7908,7 @@
         <v>19</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G178" s="0" t="s">
         <v>12</v>
@@ -7910,33 +7916,33 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="179">
       <c r="A179" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="B179" s="0" t="s">
         <v>514</v>
       </c>
-      <c r="B179" s="0" t="s">
+      <c r="C179" s="0" t="s">
         <v>515</v>
-      </c>
-      <c r="C179" s="0" t="s">
-        <v>516</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="180">
       <c r="A180" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="B180" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="B180" s="0" t="s">
+      <c r="C180" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F180" s="0" t="s">
         <v>518</v>
-      </c>
-      <c r="C180" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D180" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E180" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F180" s="0" t="s">
-        <v>519</v>
       </c>
       <c r="G180" s="0" t="s">
         <v>12</v>
@@ -7944,10 +7950,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="181">
       <c r="A181" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="B181" s="0" t="s">
         <v>520</v>
-      </c>
-      <c r="B181" s="0" t="s">
-        <v>521</v>
       </c>
       <c r="C181" s="0" t="s">
         <v>15</v>
@@ -7962,18 +7968,18 @@
         <v>19</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="182">
       <c r="A182" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="B182" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="B182" s="0" t="s">
+      <c r="C182" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="D182" s="0" t="s">
         <v>16</v>
@@ -7987,10 +7993,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="183">
       <c r="A183" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="B183" s="0" t="s">
         <v>526</v>
-      </c>
-      <c r="B183" s="0" t="s">
-        <v>527</v>
       </c>
       <c r="C183" s="0" t="s">
         <v>15</v>
@@ -8005,18 +8011,18 @@
         <v>19</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="184">
       <c r="A184" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="B184" s="0" t="s">
         <v>529</v>
       </c>
-      <c r="B184" s="0" t="s">
+      <c r="C184" s="0" t="s">
         <v>530</v>
-      </c>
-      <c r="C184" s="0" t="s">
-        <v>531</v>
       </c>
       <c r="D184" s="0" t="s">
         <v>30</v>
@@ -8030,10 +8036,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="185">
       <c r="A185" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="B185" s="0" t="s">
         <v>532</v>
-      </c>
-      <c r="B185" s="0" t="s">
-        <v>533</v>
       </c>
       <c r="C185" s="0" t="s">
         <v>15</v>
@@ -8050,13 +8056,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="186">
       <c r="A186" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="B186" s="0" t="s">
         <v>534</v>
       </c>
-      <c r="B186" s="0" t="s">
+      <c r="C186" s="0" t="s">
         <v>535</v>
-      </c>
-      <c r="C186" s="0" t="s">
-        <v>284</v>
       </c>
       <c r="D186" s="0" t="s">
         <v>11</v>
@@ -8349,7 +8355,7 @@
         <v>573</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>284</v>
+        <v>15</v>
       </c>
       <c r="D199" s="0" t="s">
         <v>11</v>
@@ -8553,7 +8559,7 @@
         <v>599</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>284</v>
+        <v>15</v>
       </c>
       <c r="D208" s="0" t="s">
         <v>30</v>
@@ -8912,7 +8918,7 @@
         <v>642</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>284</v>
+        <v>15</v>
       </c>
       <c r="D224" s="0" t="s">
         <v>25</v>
@@ -9331,7 +9337,7 @@
         <v>695</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>284</v>
+        <v>696</v>
       </c>
       <c r="D243" s="0" t="s">
         <v>30</v>
@@ -9343,15 +9349,15 @@
         <v>19</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="244">
       <c r="A244" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C244" s="0" t="s">
         <v>15</v>
@@ -9363,21 +9369,21 @@
         <v>19</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G244" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="245">
       <c r="A245" s="0" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C245" s="0" t="s">
         <v>15</v>
@@ -9394,10 +9400,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="246">
       <c r="A246" s="0" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C246" s="0" t="s">
         <v>15</v>
@@ -9409,7 +9415,7 @@
         <v>19</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G246" s="0" t="s">
         <v>12</v>
@@ -9417,13 +9423,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="247">
       <c r="A247" s="0" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D247" s="0" t="s">
         <v>16</v>
@@ -9432,7 +9438,7 @@
         <v>19</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G247" s="0" t="s">
         <v>19</v>
@@ -9443,13 +9449,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="248">
       <c r="A248" s="0" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>284</v>
+        <v>15</v>
       </c>
       <c r="D248" s="0" t="s">
         <v>30</v>
@@ -9461,15 +9467,15 @@
         <v>19</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="249">
       <c r="A249" s="0" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C249" s="0" t="s">
         <v>54</v>
@@ -9481,7 +9487,7 @@
         <v>19</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G249" s="0" t="s">
         <v>12</v>
@@ -9489,10 +9495,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="250">
       <c r="A250" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C250" s="0" t="s">
         <v>15</v>
@@ -9504,7 +9510,7 @@
         <v>19</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G250" s="0" t="s">
         <v>12</v>
@@ -9512,22 +9518,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="251">
       <c r="A251" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="C251" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="D251" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E251" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F251" s="0" t="s">
         <v>719</v>
-      </c>
-      <c r="B251" s="0" t="s">
-        <v>717</v>
-      </c>
-      <c r="C251" s="0" t="s">
-        <v>720</v>
-      </c>
-      <c r="D251" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E251" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F251" s="0" t="s">
-        <v>718</v>
       </c>
       <c r="G251" s="0" t="s">
         <v>12</v>
@@ -9535,14 +9541,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="252">
       <c r="A252" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="C252" s="0" t="s">
         <v>721</v>
       </c>
-      <c r="B252" s="0" t="s">
-        <v>717</v>
-      </c>
-      <c r="C252" s="0" t="s">
-        <v>720</v>
-      </c>
       <c r="D252" s="0" t="s">
         <v>11</v>
       </c>
@@ -9550,7 +9556,7 @@
         <v>19</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G252" s="0" t="s">
         <v>12</v>
@@ -9558,10 +9564,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="253">
       <c r="A253" s="0" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C253" s="0" t="s">
         <v>15</v>
@@ -9573,7 +9579,7 @@
         <v>19</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G253" s="0" t="s">
         <v>12</v>
@@ -9581,13 +9587,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="254">
       <c r="A254" s="0" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>284</v>
+        <v>728</v>
       </c>
       <c r="D254" s="0" t="s">
         <v>36</v>
@@ -9599,15 +9605,15 @@
         <v>19</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="255">
       <c r="A255" s="0" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C255" s="0" t="s">
         <v>15</v>
@@ -9624,13 +9630,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="256">
       <c r="A256" s="0" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D256" s="0" t="s">
         <v>25</v>
@@ -9639,21 +9645,21 @@
         <v>19</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="G256" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H256" s="0" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="257">
       <c r="A257" s="0" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C257" s="0" t="s">
         <v>15</v>
@@ -9665,7 +9671,7 @@
         <v>19</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="G257" s="0" t="s">
         <v>12</v>
@@ -9673,10 +9679,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="258">
       <c r="A258" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C258" s="0" t="s">
         <v>15</v>
@@ -9688,21 +9694,21 @@
         <v>19</v>
       </c>
       <c r="F258" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="G258" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H258" s="0" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="259">
       <c r="A259" s="0" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C259" s="0" t="s">
         <v>15</v>
@@ -9719,10 +9725,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="260">
       <c r="A260" s="0" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C260" s="0" t="s">
         <v>15</v>
@@ -9734,7 +9740,7 @@
         <v>19</v>
       </c>
       <c r="F260" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="G260" s="0" t="s">
         <v>12</v>
@@ -9742,10 +9748,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="261">
       <c r="A261" s="0" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C261" s="0" t="s">
         <v>15</v>
@@ -9757,47 +9763,47 @@
         <v>19</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="G261" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H261" s="0" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="262">
       <c r="A262" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C262" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E262" s="0" t="s">
         <v>19</v>
       </c>
       <c r="F262" s="0" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="G262" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H262" s="0" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="263">
       <c r="A263" s="0" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C263" s="0" t="s">
         <v>15</v>
@@ -9809,21 +9815,21 @@
         <v>19</v>
       </c>
       <c r="F263" s="0" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="G263" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H263" s="0" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="264">
       <c r="A264" s="0" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C264" s="0" t="s">
         <v>15</v>
@@ -9840,13 +9846,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="265">
       <c r="A265" s="0" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>284</v>
+        <v>15</v>
       </c>
       <c r="D265" s="0" t="s">
         <v>25</v>
@@ -9855,24 +9861,24 @@
         <v>19</v>
       </c>
       <c r="F265" s="0" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G265" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H265" s="0" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="266">
       <c r="A266" s="0" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="D266" s="0" t="s">
         <v>11</v>
@@ -9881,7 +9887,7 @@
         <v>19</v>
       </c>
       <c r="F266" s="0" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="G266" s="0" t="s">
         <v>12</v>
@@ -9889,10 +9895,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="267">
       <c r="A267" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C267" s="0" t="s">
         <v>15</v>
@@ -9904,21 +9910,21 @@
         <v>19</v>
       </c>
       <c r="F267" s="0" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="G267" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H267" s="0" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="268">
       <c r="A268" s="0" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C268" s="0" t="s">
         <v>15</v>
@@ -9933,15 +9939,15 @@
         <v>19</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="269">
       <c r="A269" s="0" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C269" s="0" t="s">
         <v>15</v>
@@ -9949,10 +9955,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="270">
       <c r="A270" s="0" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C270" s="0" t="s">
         <v>54</v>
@@ -9969,10 +9975,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="271">
       <c r="A271" s="0" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C271" s="0" t="s">
         <v>15</v>
@@ -9989,10 +9995,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="272">
       <c r="A272" s="0" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C272" s="0" t="s">
         <v>15</v>
@@ -10004,24 +10010,24 @@
         <v>19</v>
       </c>
       <c r="F272" s="0" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="G272" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H272" s="0" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="273">
       <c r="A273" s="0" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>284</v>
+        <v>15</v>
       </c>
       <c r="D273" s="0" t="s">
         <v>30</v>
@@ -10030,24 +10036,24 @@
         <v>19</v>
       </c>
       <c r="F273" s="0" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="G273" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H273" s="0" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="I273" s="0" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="274">
       <c r="A274" s="0" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C274" s="0" t="s">
         <v>111</v>
@@ -10062,15 +10068,15 @@
         <v>19</v>
       </c>
       <c r="H274" s="0" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="275">
       <c r="A275" s="0" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C275" s="0" t="s">
         <v>15</v>
@@ -10087,10 +10093,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="276">
       <c r="A276" s="0" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C276" s="0" t="s">
         <v>15</v>
@@ -10102,7 +10108,7 @@
         <v>19</v>
       </c>
       <c r="F276" s="0" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="G276" s="0" t="s">
         <v>12</v>
@@ -10110,10 +10116,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="277">
       <c r="A277" s="0" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C277" s="0" t="s">
         <v>15</v>
@@ -10130,10 +10136,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="278">
       <c r="A278" s="0" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C278" s="0" t="s">
         <v>15</v>
@@ -10150,10 +10156,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="279">
       <c r="A279" s="0" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C279" s="0" t="s">
         <v>194</v>
@@ -10170,10 +10176,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="280">
       <c r="A280" s="0" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C280" s="0" t="s">
         <v>15</v>
@@ -10185,21 +10191,21 @@
         <v>19</v>
       </c>
       <c r="F280" s="0" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="G280" s="0" t="s">
         <v>12</v>
       </c>
       <c r="I280" s="0" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="281">
       <c r="A281" s="0" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C281" s="0" t="s">
         <v>15</v>
@@ -10211,7 +10217,7 @@
         <v>19</v>
       </c>
       <c r="F281" s="0" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="G281" s="0" t="s">
         <v>12</v>
@@ -10219,10 +10225,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="282">
       <c r="A282" s="0" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C282" s="0" t="s">
         <v>15</v>
@@ -10237,15 +10243,15 @@
         <v>19</v>
       </c>
       <c r="H282" s="0" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="283">
       <c r="A283" s="0" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C283" s="0" t="s">
         <v>15</v>
@@ -10257,7 +10263,7 @@
         <v>19</v>
       </c>
       <c r="F283" s="0" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="G283" s="0" t="s">
         <v>12</v>
@@ -10265,10 +10271,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="284">
       <c r="A284" s="0" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C284" s="0" t="s">
         <v>15</v>
@@ -10280,7 +10286,7 @@
         <v>19</v>
       </c>
       <c r="F284" s="0" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="G284" s="0" t="s">
         <v>12</v>
@@ -10288,10 +10294,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="285">
       <c r="A285" s="0" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C285" s="0" t="s">
         <v>54</v>
@@ -10306,18 +10312,18 @@
         <v>19</v>
       </c>
       <c r="H285" s="0" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="286">
       <c r="A286" s="0" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="D286" s="0" t="s">
         <v>30</v>
@@ -10331,10 +10337,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="287">
       <c r="A287" s="0" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C287" s="0" t="s">
         <v>15</v>
@@ -10351,10 +10357,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="288">
       <c r="A288" s="0" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C288" s="0" t="s">
         <v>15</v>
@@ -10366,7 +10372,7 @@
         <v>19</v>
       </c>
       <c r="F288" s="0" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="G288" s="0" t="s">
         <v>12</v>
@@ -10374,13 +10380,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="289">
       <c r="A289" s="0" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>284</v>
+        <v>15</v>
       </c>
       <c r="D289" s="0" t="s">
         <v>36</v>
@@ -10392,15 +10398,15 @@
         <v>19</v>
       </c>
       <c r="H289" s="0" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="290">
       <c r="A290" s="0" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C290" s="0" t="s">
         <v>108</v>
@@ -10415,15 +10421,15 @@
         <v>19</v>
       </c>
       <c r="H290" s="0" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="291">
       <c r="A291" s="0" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C291" s="0" t="s">
         <v>15</v>
@@ -10440,10 +10446,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="292">
       <c r="A292" s="0" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C292" s="0" t="s">
         <v>54</v>
@@ -10458,15 +10464,15 @@
         <v>19</v>
       </c>
       <c r="H292" s="0" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="293">
       <c r="A293" s="0" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="C293" s="0" t="s">
         <v>15</v>
@@ -10478,7 +10484,7 @@
         <v>19</v>
       </c>
       <c r="F293" s="0" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="G293" s="0" t="s">
         <v>12</v>
@@ -10486,13 +10492,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="294">
       <c r="A294" s="0" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B294" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>284</v>
+        <v>54</v>
       </c>
       <c r="D294" s="0" t="s">
         <v>11</v>
@@ -10509,10 +10515,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="295">
       <c r="A295" s="0" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C295" s="0" t="s">
         <v>15</v>
@@ -10529,10 +10535,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="296">
       <c r="A296" s="0" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C296" s="0" t="s">
         <v>15</v>
@@ -10544,24 +10550,24 @@
         <v>19</v>
       </c>
       <c r="F296" s="0" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="G296" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H296" s="0" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="297">
       <c r="A297" s="0" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>284</v>
+        <v>15</v>
       </c>
       <c r="D297" s="0" t="s">
         <v>25</v>
@@ -10570,21 +10576,21 @@
         <v>19</v>
       </c>
       <c r="F297" s="0" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="G297" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H297" s="0" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="298">
       <c r="A298" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C298" s="0" t="s">
         <v>15</v>
@@ -10596,21 +10602,21 @@
         <v>19</v>
       </c>
       <c r="F298" s="0" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="G298" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H298" s="0" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="299">
       <c r="A299" s="0" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C299" s="0" t="s">
         <v>111</v>
@@ -10622,21 +10628,21 @@
         <v>19</v>
       </c>
       <c r="F299" s="0" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="G299" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H299" s="0" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="300">
       <c r="A300" s="0" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C300" s="0" t="s">
         <v>15</v>
@@ -10651,15 +10657,15 @@
         <v>19</v>
       </c>
       <c r="H300" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="301">
       <c r="A301" s="0" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="C301" s="0" t="s">
         <v>15</v>
@@ -10671,7 +10677,7 @@
         <v>19</v>
       </c>
       <c r="F301" s="0" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="G301" s="0" t="s">
         <v>12</v>
@@ -10679,10 +10685,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="302">
       <c r="A302" s="0" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C302" s="0" t="s">
         <v>194</v>
@@ -10694,7 +10700,7 @@
         <v>19</v>
       </c>
       <c r="F302" s="0" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="G302" s="0" t="s">
         <v>12</v>
@@ -10702,13 +10708,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="303">
       <c r="A303" s="0" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D303" s="0" t="s">
         <v>16</v>
@@ -10720,15 +10726,15 @@
         <v>19</v>
       </c>
       <c r="H303" s="0" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="304">
       <c r="A304" s="0" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C304" s="0" t="s">
         <v>194</v>
@@ -10740,15 +10746,15 @@
         <v>19</v>
       </c>
       <c r="F304" s="0" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="305">
       <c r="A305" s="0" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C305" s="0" t="s">
         <v>15</v>
@@ -10763,15 +10769,15 @@
         <v>19</v>
       </c>
       <c r="H305" s="0" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="306">
       <c r="A306" s="0" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C306" s="0" t="s">
         <v>108</v>
@@ -10786,18 +10792,18 @@
         <v>19</v>
       </c>
       <c r="H306" s="0" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="307">
       <c r="A307" s="0" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="D307" s="0" t="s">
         <v>11</v>
@@ -10806,21 +10812,21 @@
         <v>19</v>
       </c>
       <c r="F307" s="0" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="G307" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H307" s="0" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="308">
       <c r="A308" s="0" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C308" s="0" t="s">
         <v>54</v>
@@ -10832,21 +10838,21 @@
         <v>19</v>
       </c>
       <c r="F308" s="0" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="G308" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H308" s="0" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="309">
       <c r="A309" s="0" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C309" s="0" t="s">
         <v>15</v>
@@ -10858,7 +10864,7 @@
         <v>19</v>
       </c>
       <c r="F309" s="0" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="G309" s="0" t="s">
         <v>12</v>
@@ -10866,13 +10872,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="310">
       <c r="A310" s="0" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>284</v>
+        <v>15</v>
       </c>
       <c r="D310" s="0" t="s">
         <v>11</v>
@@ -10886,10 +10892,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="311">
       <c r="A311" s="0" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C311" s="0" t="s">
         <v>15</v>
@@ -10904,38 +10910,38 @@
         <v>19</v>
       </c>
       <c r="H311" s="0" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="312">
       <c r="A312" s="0" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B312" s="0" t="s">
+        <v>899</v>
+      </c>
+      <c r="C312" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="D312" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E312" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G312" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H312" s="0" t="s">
         <v>897</v>
-      </c>
-      <c r="C312" s="0" t="s">
-        <v>898</v>
-      </c>
-      <c r="D312" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E312" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G312" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H312" s="0" t="s">
-        <v>895</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="313">
       <c r="A313" s="0" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C313" s="0" t="s">
         <v>15</v>
@@ -10955,10 +10961,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="314">
       <c r="A314" s="0" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C314" s="0" t="s">
         <v>15</v>
@@ -10975,10 +10981,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="315">
       <c r="A315" s="0" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="C315" s="0" t="s">
         <v>15</v>
@@ -10990,24 +10996,24 @@
         <v>19</v>
       </c>
       <c r="F315" s="0" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="G315" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H315" s="0" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="316">
       <c r="A316" s="0" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>284</v>
+        <v>535</v>
       </c>
       <c r="D316" s="0" t="s">
         <v>30</v>
@@ -11024,10 +11030,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="317">
       <c r="A317" s="0" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C317" s="0" t="s">
         <v>673</v>
@@ -11039,21 +11045,21 @@
         <v>19</v>
       </c>
       <c r="F317" s="0" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G317" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H317" s="0" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="318">
       <c r="A318" s="0" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="C318" s="0" t="s">
         <v>15</v>
@@ -11065,7 +11071,7 @@
         <v>19</v>
       </c>
       <c r="F318" s="0" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="G318" s="0" t="s">
         <v>19</v>
@@ -11076,10 +11082,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="319">
       <c r="A319" s="0" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C319" s="0" t="s">
         <v>15</v>
@@ -11096,10 +11102,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="320">
       <c r="A320" s="0" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="C320" s="0" t="s">
         <v>15</v>
@@ -11111,21 +11117,21 @@
         <v>19</v>
       </c>
       <c r="F320" s="0" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="G320" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H320" s="0" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="321">
       <c r="A321" s="0" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="C321" s="0" t="s">
         <v>15</v>
@@ -11137,21 +11143,21 @@
         <v>19</v>
       </c>
       <c r="F321" s="0" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="G321" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H321" s="0" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="322">
       <c r="A322" s="0" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="C322" s="0" t="s">
         <v>15</v>
@@ -11163,7 +11169,7 @@
         <v>19</v>
       </c>
       <c r="F322" s="0" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="G322" s="0" t="s">
         <v>12</v>
@@ -11171,10 +11177,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="323">
       <c r="A323" s="0" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="C323" s="0" t="s">
         <v>15</v>
@@ -11189,15 +11195,15 @@
         <v>19</v>
       </c>
       <c r="H323" s="0" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="324">
       <c r="A324" s="0" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C324" s="0" t="s">
         <v>15</v>
@@ -11212,18 +11218,18 @@
         <v>19</v>
       </c>
       <c r="H324" s="0" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="325">
       <c r="A325" s="0" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>284</v>
+        <v>535</v>
       </c>
       <c r="D325" s="0" t="s">
         <v>25</v>
@@ -11237,10 +11243,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="326">
       <c r="A326" s="0" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C326" s="0" t="s">
         <v>15</v>
@@ -11257,10 +11263,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="327">
       <c r="A327" s="0" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C327" s="0" t="s">
         <v>15</v>
@@ -11272,7 +11278,7 @@
         <v>19</v>
       </c>
       <c r="F327" s="0" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="G327" s="0" t="s">
         <v>12</v>
@@ -11280,10 +11286,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="328">
       <c r="A328" s="0" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C328" s="0" t="s">
         <v>194</v>
@@ -11295,15 +11301,15 @@
         <v>19</v>
       </c>
       <c r="F328" s="0" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="329">
       <c r="A329" s="0" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="C329" s="0" t="s">
         <v>15</v>
@@ -11315,7 +11321,7 @@
         <v>19</v>
       </c>
       <c r="F329" s="0" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="G329" s="0" t="s">
         <v>12</v>
@@ -11323,13 +11329,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="330">
       <c r="A330" s="0" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>284</v>
+        <v>535</v>
       </c>
       <c r="D330" s="0" t="s">
         <v>11</v>
@@ -11343,10 +11349,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="331">
       <c r="A331" s="0" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="C331" s="0" t="s">
         <v>547</v>
@@ -11363,10 +11369,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="332">
       <c r="A332" s="0" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="C332" s="0" t="s">
         <v>15</v>
@@ -11383,10 +11389,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="333">
       <c r="A333" s="0" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="C333" s="0" t="s">
         <v>15</v>
@@ -11403,10 +11409,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="334">
       <c r="A334" s="0" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="C334" s="0" t="s">
         <v>15</v>
@@ -11418,7 +11424,7 @@
         <v>19</v>
       </c>
       <c r="F334" s="0" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="G334" s="0" t="s">
         <v>12</v>
@@ -11426,10 +11432,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="335">
       <c r="A335" s="0" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C335" s="0" t="s">
         <v>15</v>
@@ -11441,7 +11447,7 @@
         <v>19</v>
       </c>
       <c r="F335" s="0" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="G335" s="0" t="s">
         <v>12</v>
@@ -11449,10 +11455,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="336">
       <c r="A336" s="0" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="C336" s="0" t="s">
         <v>15</v>
@@ -11469,10 +11475,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="337">
       <c r="A337" s="0" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="C337" s="0" t="s">
         <v>58</v>
@@ -11484,7 +11490,7 @@
         <v>19</v>
       </c>
       <c r="F337" s="0" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="G337" s="0" t="s">
         <v>19</v>
@@ -11492,10 +11498,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="338">
       <c r="A338" s="0" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C338" s="0" t="s">
         <v>15</v>
@@ -11512,10 +11518,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="339">
       <c r="A339" s="0" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="C339" s="0" t="s">
         <v>15</v>
@@ -11527,7 +11533,7 @@
         <v>19</v>
       </c>
       <c r="F339" s="0" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G339" s="0" t="s">
         <v>12</v>
@@ -11535,10 +11541,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="340">
       <c r="A340" s="0" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="C340" s="0" t="s">
         <v>15</v>
@@ -11550,7 +11556,7 @@
         <v>19</v>
       </c>
       <c r="F340" s="0" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="G340" s="0" t="s">
         <v>12</v>
@@ -11558,10 +11564,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="341">
       <c r="A341" s="0" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="C341" s="0" t="s">
         <v>194</v>
@@ -11573,7 +11579,7 @@
         <v>19</v>
       </c>
       <c r="F341" s="0" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="G341" s="0" t="s">
         <v>12</v>
@@ -11581,10 +11587,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="342">
       <c r="A342" s="0" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C342" s="0" t="s">
         <v>54</v>
@@ -11601,10 +11607,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="343">
       <c r="A343" s="0" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C343" s="0" t="s">
         <v>15</v>
@@ -11616,27 +11622,27 @@
         <v>19</v>
       </c>
       <c r="F343" s="0" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="G343" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H343" s="0" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="344">
       <c r="A344" s="0" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C344" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E344" s="0" t="s">
         <v>12</v>
@@ -11645,15 +11651,15 @@
         <v>19</v>
       </c>
       <c r="H344" s="0" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="345">
       <c r="A345" s="0" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="C345" s="0" t="s">
         <v>15</v>
@@ -11665,7 +11671,7 @@
         <v>19</v>
       </c>
       <c r="F345" s="0" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="G345" s="0" t="s">
         <v>12</v>
@@ -11673,10 +11679,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="346">
       <c r="A346" s="0" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C346" s="0" t="s">
         <v>54</v>
@@ -11693,10 +11699,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="347">
       <c r="A347" s="0" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C347" s="0" t="s">
         <v>15</v>
@@ -11711,15 +11717,15 @@
         <v>19</v>
       </c>
       <c r="H347" s="0" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="348">
       <c r="A348" s="0" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C348" s="0" t="s">
         <v>15</v>
@@ -11731,7 +11737,7 @@
         <v>19</v>
       </c>
       <c r="F348" s="0" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="G348" s="0" t="s">
         <v>12</v>
@@ -11739,13 +11745,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="349">
       <c r="A349" s="0" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>284</v>
+        <v>535</v>
       </c>
       <c r="D349" s="0" t="s">
         <v>11</v>
@@ -11757,18 +11763,18 @@
         <v>19</v>
       </c>
       <c r="H349" s="0" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="350">
       <c r="A350" s="0" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>284</v>
+        <v>535</v>
       </c>
       <c r="D350" s="0" t="s">
         <v>11</v>
@@ -11780,15 +11786,15 @@
         <v>19</v>
       </c>
       <c r="H350" s="0" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="351">
       <c r="A351" s="0" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C351" s="0" t="s">
         <v>15</v>
@@ -11803,15 +11809,15 @@
         <v>19</v>
       </c>
       <c r="H351" s="0" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="352">
       <c r="A352" s="0" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C352" s="0" t="s">
         <v>194</v>
@@ -11828,10 +11834,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="353">
       <c r="A353" s="0" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C353" s="0" t="s">
         <v>15</v>
@@ -11843,21 +11849,21 @@
         <v>19</v>
       </c>
       <c r="F353" s="0" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="G353" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H353" s="0" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="354">
       <c r="A354" s="0" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="C354" s="0" t="s">
         <v>15</v>
@@ -11874,10 +11880,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="355">
       <c r="A355" s="0" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="C355" s="0" t="s">
         <v>15</v>
@@ -11892,15 +11898,15 @@
         <v>19</v>
       </c>
       <c r="H355" s="0" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="356">
       <c r="A356" s="0" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C356" s="0" t="s">
         <v>15</v>
@@ -11917,10 +11923,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="357">
       <c r="A357" s="0" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C357" s="0" t="s">
         <v>15</v>
@@ -11937,10 +11943,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="358">
       <c r="A358" s="0" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="C358" s="0" t="s">
         <v>15</v>
@@ -11957,10 +11963,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="359">
       <c r="A359" s="0" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="C359" s="0" t="s">
         <v>15</v>
@@ -11977,10 +11983,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="360">
       <c r="A360" s="0" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C360" s="0" t="s">
         <v>15</v>
@@ -11992,7 +11998,7 @@
         <v>19</v>
       </c>
       <c r="F360" s="0" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="G360" s="0" t="s">
         <v>19</v>
@@ -12003,10 +12009,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="361">
       <c r="A361" s="0" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="C361" s="0" t="s">
         <v>15</v>
@@ -12021,15 +12027,15 @@
         <v>19</v>
       </c>
       <c r="H361" s="0" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="362">
       <c r="A362" s="0" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="C362" s="0" t="s">
         <v>15</v>
@@ -12046,10 +12052,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="363">
       <c r="A363" s="0" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C363" s="0" t="s">
         <v>15</v>
@@ -12064,15 +12070,15 @@
         <v>19</v>
       </c>
       <c r="H363" s="0" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="364">
       <c r="A364" s="0" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="C364" s="0" t="s">
         <v>15</v>
@@ -12087,7 +12093,7 @@
         <v>19</v>
       </c>
       <c r="H364" s="0" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="I364" s="0" t="s">
         <v>33</v>
@@ -12095,10 +12101,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="365">
       <c r="A365" s="0" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="C365" s="0" t="s">
         <v>15</v>
@@ -12113,15 +12119,15 @@
         <v>19</v>
       </c>
       <c r="H365" s="0" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="366">
       <c r="A366" s="0" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="C366" s="0" t="s">
         <v>15</v>
@@ -12138,10 +12144,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="367">
       <c r="A367" s="0" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="C367" s="0" t="s">
         <v>15</v>
@@ -12158,10 +12164,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="368">
       <c r="A368" s="0" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>15</v>
@@ -12178,10 +12184,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="369">
       <c r="A369" s="0" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C369" s="0" t="s">
         <v>15</v>
@@ -12196,15 +12202,15 @@
         <v>19</v>
       </c>
       <c r="H369" s="0" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="370">
       <c r="A370" s="0" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="C370" s="0" t="s">
         <v>15</v>
@@ -12219,18 +12225,18 @@
         <v>19</v>
       </c>
       <c r="H370" s="0" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="371">
       <c r="A371" s="0" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>284</v>
+        <v>535</v>
       </c>
       <c r="D371" s="0" t="s">
         <v>11</v>
@@ -12239,51 +12245,51 @@
         <v>19</v>
       </c>
       <c r="F371" s="0" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="G371" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H371" s="0" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="372">
       <c r="A372" s="0" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B372" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D372" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E372" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F372" s="0" t="s">
         <v>1056</v>
       </c>
-      <c r="B372" s="0" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C372" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D372" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E372" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F372" s="0" t="s">
-        <v>1054</v>
-      </c>
       <c r="G372" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H372" s="0" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="I372" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="373">
       <c r="A373" s="0" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>284</v>
+        <v>535</v>
       </c>
       <c r="D373" s="0" t="s">
         <v>36</v>
@@ -12292,24 +12298,24 @@
         <v>19</v>
       </c>
       <c r="F373" s="0" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="G373" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H373" s="0" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="374">
       <c r="A374" s="0" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>284</v>
+        <v>535</v>
       </c>
       <c r="D374" s="0" t="s">
         <v>11</v>
@@ -12318,24 +12324,24 @@
         <v>19</v>
       </c>
       <c r="F374" s="0" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="G374" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H374" s="0" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="375">
       <c r="A375" s="0" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>284</v>
+        <v>535</v>
       </c>
       <c r="D375" s="0" t="s">
         <v>11</v>
@@ -12344,24 +12350,24 @@
         <v>19</v>
       </c>
       <c r="F375" s="0" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="G375" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H375" s="0" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="376">
       <c r="A376" s="0" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>284</v>
+        <v>535</v>
       </c>
       <c r="D376" s="0" t="s">
         <v>25</v>
@@ -12370,21 +12376,21 @@
         <v>19</v>
       </c>
       <c r="F376" s="0" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="G376" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H376" s="0" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="377">
       <c r="A377" s="0" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="C377" s="0" t="s">
         <v>15</v>
@@ -12401,10 +12407,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="378">
       <c r="A378" s="0" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="C378" s="0" t="s">
         <v>15</v>
@@ -12419,15 +12425,15 @@
         <v>19</v>
       </c>
       <c r="H378" s="0" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="379">
       <c r="A379" s="0" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>15</v>
@@ -12439,21 +12445,21 @@
         <v>19</v>
       </c>
       <c r="F379" s="0" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="G379" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H379" s="0" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="380">
       <c r="A380" s="0" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="C380" s="0" t="s">
         <v>15</v>
@@ -12470,10 +12476,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="381">
       <c r="A381" s="0" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="C381" s="0" t="s">
         <v>15</v>
@@ -12485,7 +12491,7 @@
         <v>19</v>
       </c>
       <c r="F381" s="0" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="G381" s="2" t="s">
         <v>12</v>
@@ -12494,10 +12500,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="382">
       <c r="A382" s="0" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="C382" s="0" t="s">
         <v>54</v>
@@ -12514,10 +12520,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="383">
       <c r="A383" s="0" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="C383" s="0" t="s">
         <v>15</v>
@@ -12534,13 +12540,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="384">
       <c r="A384" s="0" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>284</v>
+        <v>535</v>
       </c>
       <c r="D384" s="0" t="s">
         <v>16</v>
@@ -12552,7 +12558,7 @@
         <v>19</v>
       </c>
       <c r="H384" s="0" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="I384" s="2" t="s">
         <v>33</v>
@@ -12560,10 +12566,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="385">
       <c r="A385" s="0" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="C385" s="0" t="s">
         <v>111</v>
@@ -12580,10 +12586,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="386">
       <c r="A386" s="0" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="C386" s="0" t="s">
         <v>15</v>
@@ -12598,15 +12604,15 @@
         <v>19</v>
       </c>
       <c r="H386" s="0" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="387">
       <c r="A387" s="0" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="C387" s="0" t="s">
         <v>15</v>
@@ -12618,7 +12624,7 @@
         <v>19</v>
       </c>
       <c r="F387" s="0" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="G387" s="0" t="s">
         <v>12</v>
@@ -12626,10 +12632,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="388">
       <c r="A388" s="0" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="C388" s="0" t="s">
         <v>15</v>
@@ -12646,16 +12652,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="389">
       <c r="A389" s="0" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="C389" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D389" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E389" s="0" t="s">
         <v>12</v>
@@ -12664,15 +12670,15 @@
         <v>19</v>
       </c>
       <c r="H389" s="0" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="390">
       <c r="A390" s="0" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="C390" s="0" t="s">
         <v>15</v>
@@ -12684,7 +12690,7 @@
         <v>19</v>
       </c>
       <c r="F390" s="0" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="G390" s="0" t="s">
         <v>12</v>
@@ -12692,10 +12698,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="391">
       <c r="A391" s="0" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="C391" s="0" t="s">
         <v>15</v>
@@ -12712,10 +12718,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="392">
       <c r="A392" s="0" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="C392" s="0" t="s">
         <v>15</v>
@@ -12727,7 +12733,7 @@
         <v>19</v>
       </c>
       <c r="F392" s="0" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="G392" s="0" t="s">
         <v>12</v>
@@ -12735,10 +12741,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="393">
       <c r="A393" s="0" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="C393" s="0" t="s">
         <v>194</v>
@@ -12750,7 +12756,7 @@
         <v>19</v>
       </c>
       <c r="F393" s="0" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="G393" s="0" t="s">
         <v>12</v>
@@ -12758,10 +12764,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="394">
       <c r="A394" s="0" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="C394" s="0" t="s">
         <v>15</v>
@@ -12773,21 +12779,21 @@
         <v>19</v>
       </c>
       <c r="F394" s="0" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="G394" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H394" s="0" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="395">
       <c r="A395" s="0" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="C395" s="0" t="s">
         <v>15</v>
@@ -12799,7 +12805,7 @@
         <v>19</v>
       </c>
       <c r="F395" s="0" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="G395" s="0" t="s">
         <v>12</v>
@@ -12807,10 +12813,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="396">
       <c r="A396" s="0" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="C396" s="0" t="s">
         <v>15</v>
@@ -12827,10 +12833,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="397">
       <c r="A397" s="0" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>15</v>
@@ -12842,7 +12848,7 @@
         <v>19</v>
       </c>
       <c r="F397" s="0" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="G397" s="2" t="s">
         <v>12</v>
@@ -12850,10 +12856,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="398">
       <c r="A398" s="0" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="C398" s="0" t="s">
         <v>15</v>
@@ -12868,15 +12874,15 @@
         <v>19</v>
       </c>
       <c r="H398" s="0" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="399">
       <c r="A399" s="0" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="C399" s="0" t="s">
         <v>15</v>
@@ -12893,10 +12899,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="400">
       <c r="A400" s="0" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="C400" s="0" t="s">
         <v>15</v>
@@ -12908,7 +12914,7 @@
         <v>19</v>
       </c>
       <c r="F400" s="0" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="G400" s="0" t="s">
         <v>12</v>
@@ -12917,10 +12923,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="401">
       <c r="A401" s="2" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="C401" s="0" t="s">
         <v>15</v>
@@ -12938,10 +12944,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="402">
       <c r="A402" s="0" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="C402" s="0" t="s">
         <v>15</v>
@@ -12958,10 +12964,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="403">
       <c r="A403" s="0" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="C403" s="0" t="s">
         <v>15</v>
@@ -12978,10 +12984,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="404">
       <c r="A404" s="0" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="C404" s="0" t="s">
         <v>15</v>
@@ -12998,10 +13004,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="405">
       <c r="A405" s="0" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="C405" s="0" t="s">
         <v>15</v>
@@ -13018,13 +13024,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="406">
       <c r="A406" s="0" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="C406" s="0" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="D406" s="0" t="s">
         <v>16</v>
@@ -13036,15 +13042,15 @@
         <v>19</v>
       </c>
       <c r="H406" s="0" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="407">
       <c r="A407" s="0" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="C407" s="0" t="s">
         <v>15</v>
@@ -13061,10 +13067,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="408">
       <c r="A408" s="0" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="C408" s="0" t="s">
         <v>15</v>
@@ -13076,7 +13082,7 @@
         <v>19</v>
       </c>
       <c r="F408" s="0" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="G408" s="2" t="s">
         <v>12</v>
@@ -13084,10 +13090,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="409">
       <c r="A409" s="0" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="C409" s="0" t="s">
         <v>15</v>
@@ -13104,10 +13110,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="410">
       <c r="A410" s="0" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>15</v>
@@ -13124,10 +13130,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="411">
       <c r="A411" s="0" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="C411" s="0" t="s">
         <v>15</v>
@@ -13139,7 +13145,7 @@
         <v>19</v>
       </c>
       <c r="F411" s="0" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="G411" s="0" t="s">
         <v>12</v>
@@ -13147,10 +13153,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="412">
       <c r="A412" s="0" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="C412" s="0" t="s">
         <v>15</v>
@@ -13167,10 +13173,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="413">
       <c r="A413" s="0" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="C413" s="0" t="s">
         <v>15</v>
@@ -13185,21 +13191,21 @@
         <v>19</v>
       </c>
       <c r="H413" s="0" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="414">
       <c r="A414" s="0" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="C414" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D414" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E414" s="0" t="s">
         <v>12</v>
@@ -13208,18 +13214,18 @@
         <v>19</v>
       </c>
       <c r="H414" s="0" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="415">
       <c r="A415" s="0" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="C415" s="0" t="s">
-        <v>284</v>
+        <v>535</v>
       </c>
       <c r="D415" s="0" t="s">
         <v>11</v>
@@ -13233,10 +13239,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="416">
       <c r="A416" s="0" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="C416" s="0" t="s">
         <v>15</v>
@@ -13253,10 +13259,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="417">
       <c r="A417" s="0" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="C417" s="0" t="s">
         <v>15</v>
@@ -13271,18 +13277,18 @@
         <v>19</v>
       </c>
       <c r="H417" s="0" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="418">
       <c r="A418" s="0" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C418" s="0" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="D418" s="2" t="s">
         <v>25</v>
@@ -13291,7 +13297,7 @@
         <v>19</v>
       </c>
       <c r="F418" s="0" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="G418" s="0" t="s">
         <v>12</v>
@@ -13299,10 +13305,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="419">
       <c r="A419" s="0" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="C419" s="0" t="s">
         <v>15</v>
@@ -13319,10 +13325,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="420">
       <c r="A420" s="0" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="C420" s="0" t="s">
         <v>15</v>
@@ -13339,10 +13345,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="421">
       <c r="A421" s="0" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="C421" s="0" t="s">
         <v>15</v>
@@ -13354,7 +13360,7 @@
         <v>19</v>
       </c>
       <c r="F421" s="0" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="G421" s="0" t="s">
         <v>12</v>
@@ -13362,10 +13368,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="422">
       <c r="A422" s="0" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="C422" s="0" t="s">
         <v>15</v>
@@ -13377,7 +13383,7 @@
         <v>19</v>
       </c>
       <c r="F422" s="0" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="G422" s="0" t="s">
         <v>12</v>
@@ -13385,22 +13391,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="423">
       <c r="A423" s="0" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="C423" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D423" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E423" s="0" t="s">
         <v>19</v>
       </c>
       <c r="F423" s="0" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="G423" s="0" t="s">
         <v>12</v>
@@ -13408,22 +13414,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="424">
       <c r="A424" s="0" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="D424" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E424" s="0" t="s">
         <v>19</v>
       </c>
       <c r="F424" s="0" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="G424" s="0" t="s">
         <v>12</v>
@@ -13431,10 +13437,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="425">
       <c r="A425" s="0" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="C425" s="0" t="s">
         <v>15</v>
@@ -13446,7 +13452,7 @@
         <v>19</v>
       </c>
       <c r="F425" s="0" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="G425" s="0" t="s">
         <v>19</v>
@@ -13457,10 +13463,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="426">
       <c r="A426" s="0" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="C426" s="0" t="s">
         <v>15</v>
@@ -13477,10 +13483,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="427">
       <c r="A427" s="0" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="C427" s="0" t="s">
         <v>15</v>
@@ -13497,10 +13503,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="428">
       <c r="A428" s="0" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="C428" s="0" t="s">
         <v>15</v>
@@ -13515,15 +13521,15 @@
         <v>19</v>
       </c>
       <c r="H428" s="0" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="429">
       <c r="A429" s="0" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>15</v>
@@ -13535,7 +13541,7 @@
         <v>19</v>
       </c>
       <c r="F429" s="0" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="G429" s="0" t="s">
         <v>12</v>
@@ -13543,10 +13549,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="430">
       <c r="A430" s="0" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="C430" s="0" t="s">
         <v>15</v>
@@ -13561,15 +13567,15 @@
         <v>19</v>
       </c>
       <c r="H430" s="0" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="431">
       <c r="A431" s="0" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="C431" s="0" t="s">
         <v>15</v>
@@ -13584,15 +13590,15 @@
         <v>19</v>
       </c>
       <c r="H431" s="0" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="432">
       <c r="A432" s="0" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="C432" s="0" t="s">
         <v>15</v>
@@ -13604,7 +13610,7 @@
         <v>19</v>
       </c>
       <c r="F432" s="0" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="G432" s="0" t="s">
         <v>12</v>
@@ -13612,10 +13618,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="433">
       <c r="A433" s="0" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="C433" s="0" t="s">
         <v>15</v>
@@ -13632,10 +13638,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.05" outlineLevel="0" r="434">
       <c r="A434" s="0" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="C434" s="0" t="s">
         <v>15</v>
@@ -13650,15 +13656,15 @@
         <v>19</v>
       </c>
       <c r="H434" s="0" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="435">
       <c r="A435" s="0" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="C435" s="0" t="s">
         <v>15</v>
@@ -13673,15 +13679,15 @@
         <v>19</v>
       </c>
       <c r="H435" s="0" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="436">
       <c r="A436" s="0" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="C436" s="0" t="s">
         <v>15</v>
@@ -13693,7 +13699,7 @@
         <v>19</v>
       </c>
       <c r="F436" s="0" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="G436" s="2" t="s">
         <v>12</v>
@@ -13701,10 +13707,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="437">
       <c r="A437" s="0" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="C437" s="0" t="s">
         <v>15</v>
@@ -13719,15 +13725,15 @@
         <v>19</v>
       </c>
       <c r="H437" s="0" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="438">
       <c r="A438" s="0" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="C438" s="0" t="s">
         <v>15</v>
@@ -13739,7 +13745,7 @@
         <v>19</v>
       </c>
       <c r="F438" s="0" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="G438" s="2" t="s">
         <v>12</v>
@@ -13747,13 +13753,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="439">
       <c r="A439" s="0" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="C439" s="0" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="D439" s="0" t="s">
         <v>11</v>
@@ -13765,18 +13771,18 @@
         <v>19</v>
       </c>
       <c r="H439" s="0" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="440">
       <c r="A440" s="0" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="C440" s="0" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="D440" s="0" t="s">
         <v>25</v>
@@ -13785,24 +13791,24 @@
         <v>19</v>
       </c>
       <c r="F440" s="0" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="G440" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H440" s="0" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="441">
       <c r="A441" s="0" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="C441" s="0" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="D441" s="0" t="s">
         <v>11</v>
@@ -13811,21 +13817,21 @@
         <v>19</v>
       </c>
       <c r="F441" s="0" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="G441" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H441" s="0" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="442">
       <c r="A442" s="0" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="C442" s="0" t="s">
         <v>15</v>
@@ -13840,15 +13846,15 @@
         <v>19</v>
       </c>
       <c r="H442" s="0" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="443">
       <c r="A443" s="0" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="C443" s="0" t="s">
         <v>111</v>
@@ -13860,21 +13866,21 @@
         <v>19</v>
       </c>
       <c r="F443" s="0" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="G443" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H443" s="0" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="444">
       <c r="A444" s="0" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="C444" s="0" t="s">
         <v>111</v>
@@ -13886,7 +13892,7 @@
         <v>19</v>
       </c>
       <c r="F444" s="0" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="G444" s="0" t="s">
         <v>12</v>

--- a/oiadsites.xlsx
+++ b/oiadsites.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3023" uniqueCount="1244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3023" uniqueCount="1242">
   <si>
     <t>Site Name</t>
   </si>
@@ -880,7 +880,7 @@
     <t>http://www.dailygemdeals.com/</t>
   </si>
   <si>
-    <t>Done( images in desc)</t>
+    <t>Done( images in description)</t>
   </si>
   <si>
     <t>http://www.dailygemdeals.com/affiliate.htm</t>
@@ -1624,9 +1624,6 @@
     <t>http://www.graveyardmall.com/categories/Daily-Deal/</t>
   </si>
   <si>
-    <t>Multiple items</t>
-  </si>
-  <si>
     <t>http://www.graveyardmall.com/pages/RSS.html</t>
   </si>
   <si>
@@ -1669,18 +1666,12 @@
     <t>http://www.harborfreight.com/deal-of-the-day.html</t>
   </si>
   <si>
-    <t>Harbor Freight has revamped Deal of the Day. Multiple items</t>
-  </si>
-  <si>
     <t>Hartford York</t>
   </si>
   <si>
     <t>http://www.hartfordyork.com/category/daily-deal</t>
   </si>
   <si>
-    <t>Done Multiple Items</t>
-  </si>
-  <si>
     <t>Two deals - see site</t>
   </si>
   <si>
@@ -3506,6 +3497,9 @@
   </si>
   <si>
     <t>http://www.vminnovations.com/</t>
+  </si>
+  <si>
+    <t>Sent by mail</t>
   </si>
   <si>
     <t>VolumeVote</t>
@@ -3927,14 +3921,19 @@
   </sheetPr>
   <dimension ref="A1:I444"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A290" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A316" activeCellId="0" pane="topLeft" sqref="A316"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A65" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C96" activeCellId="0" pane="topLeft" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.0313725490196"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0352941176471"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.6156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5137254901961"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.3764705882353"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.956862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.6745098039216"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="1" s="1">
@@ -6065,7 +6064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="96">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.05" outlineLevel="0" r="96">
       <c r="A96" s="0" t="s">
         <v>285</v>
       </c>
@@ -6860,7 +6859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.05" outlineLevel="0" r="132">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="132">
       <c r="A132" s="0" t="s">
         <v>386</v>
       </c>
@@ -8062,16 +8061,16 @@
         <v>534</v>
       </c>
       <c r="C186" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E186" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F186" s="0" t="s">
         <v>535</v>
-      </c>
-      <c r="D186" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E186" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F186" s="0" t="s">
-        <v>536</v>
       </c>
       <c r="G186" s="0" t="s">
         <v>12</v>
@@ -8079,10 +8078,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="187">
       <c r="A187" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="B187" s="0" t="s">
         <v>537</v>
-      </c>
-      <c r="B187" s="0" t="s">
-        <v>538</v>
       </c>
       <c r="C187" s="0" t="s">
         <v>15</v>
@@ -8099,10 +8098,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="188">
       <c r="A188" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="B188" s="0" t="s">
         <v>539</v>
-      </c>
-      <c r="B188" s="0" t="s">
-        <v>540</v>
       </c>
       <c r="C188" s="0" t="s">
         <v>15</v>
@@ -8114,7 +8113,7 @@
         <v>19</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G188" s="0" t="s">
         <v>12</v>
@@ -8122,10 +8121,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="189">
       <c r="A189" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="B189" s="0" t="s">
         <v>542</v>
-      </c>
-      <c r="B189" s="0" t="s">
-        <v>543</v>
       </c>
       <c r="C189" s="0" t="s">
         <v>15</v>
@@ -8137,7 +8136,7 @@
         <v>19</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G189" s="0" t="s">
         <v>12</v>
@@ -8145,13 +8144,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="190">
       <c r="A190" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="B190" s="0" t="s">
         <v>545</v>
       </c>
-      <c r="B190" s="0" t="s">
+      <c r="C190" s="0" t="s">
         <v>546</v>
-      </c>
-      <c r="C190" s="0" t="s">
-        <v>547</v>
       </c>
       <c r="D190" s="0" t="s">
         <v>36</v>
@@ -8165,13 +8164,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="191">
       <c r="A191" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="B191" s="0" t="s">
         <v>548</v>
       </c>
-      <c r="B191" s="0" t="s">
-        <v>549</v>
-      </c>
       <c r="C191" s="2" t="s">
-        <v>550</v>
+        <v>15</v>
       </c>
       <c r="D191" s="0" t="s">
         <v>36</v>
@@ -8185,13 +8184,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="192">
       <c r="A192" s="0" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>553</v>
+        <v>15</v>
       </c>
       <c r="D192" s="0" t="s">
         <v>25</v>
@@ -8203,15 +8202,15 @@
         <v>12</v>
       </c>
       <c r="I192" s="0" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="193">
       <c r="A193" s="0" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C193" s="0" t="s">
         <v>15</v>
@@ -8223,7 +8222,7 @@
         <v>19</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G193" s="0" t="s">
         <v>12</v>
@@ -8231,10 +8230,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="194">
       <c r="A194" s="0" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C194" s="0" t="s">
         <v>15</v>
@@ -8246,7 +8245,7 @@
         <v>19</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G194" s="0" t="s">
         <v>12</v>
@@ -8254,10 +8253,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="195">
       <c r="A195" s="0" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>54</v>
@@ -8272,15 +8271,15 @@
         <v>19</v>
       </c>
       <c r="H195" s="0" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="196">
       <c r="A196" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="B196" s="0" t="s">
         <v>561</v>
-      </c>
-      <c r="B196" s="0" t="s">
-        <v>564</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>54</v>
@@ -8295,15 +8294,15 @@
         <v>19</v>
       </c>
       <c r="H196" s="0" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="197">
       <c r="A197" s="0" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C197" s="0" t="s">
         <v>15</v>
@@ -8315,7 +8314,7 @@
         <v>19</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G197" s="0" t="s">
         <v>12</v>
@@ -8323,36 +8322,36 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="198">
       <c r="A198" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E198" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F198" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="G198" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H198" s="0" t="s">
         <v>568</v>
-      </c>
-      <c r="B198" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="C198" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D198" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E198" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F198" s="0" t="s">
-        <v>570</v>
-      </c>
-      <c r="G198" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H198" s="0" t="s">
-        <v>571</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="199">
       <c r="A199" s="0" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C199" s="0" t="s">
         <v>15</v>
@@ -8369,10 +8368,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="200">
       <c r="A200" s="0" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C200" s="0" t="s">
         <v>15</v>
@@ -8384,47 +8383,47 @@
         <v>19</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G200" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H200" s="0" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="201">
       <c r="A201" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D201" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E201" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F201" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="G201" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H201" s="0" t="s">
         <v>578</v>
-      </c>
-      <c r="B201" s="0" t="s">
-        <v>579</v>
-      </c>
-      <c r="C201" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D201" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E201" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F201" s="0" t="s">
-        <v>580</v>
-      </c>
-      <c r="G201" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H201" s="0" t="s">
-        <v>581</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="202">
       <c r="A202" s="0" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C202" s="0" t="s">
         <v>15</v>
@@ -8441,10 +8440,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="203">
       <c r="A203" s="0" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C203" s="0" t="s">
         <v>15</v>
@@ -8461,10 +8460,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="204">
       <c r="A204" s="0" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C204" s="0" t="s">
         <v>194</v>
@@ -8476,7 +8475,7 @@
         <v>19</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G204" s="0" t="s">
         <v>12</v>
@@ -8484,10 +8483,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="205">
       <c r="A205" s="0" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C205" s="0" t="s">
         <v>15</v>
@@ -8502,15 +8501,15 @@
         <v>19</v>
       </c>
       <c r="H205" s="0" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="206">
       <c r="A206" s="0" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C206" s="0" t="s">
         <v>15</v>
@@ -8522,7 +8521,7 @@
         <v>19</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G206" s="0" t="s">
         <v>19</v>
@@ -8530,10 +8529,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="207">
       <c r="A207" s="0" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C207" s="0" t="s">
         <v>15</v>
@@ -8548,15 +8547,15 @@
         <v>19</v>
       </c>
       <c r="H207" s="0" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="208">
       <c r="A208" s="0" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C208" s="0" t="s">
         <v>15</v>
@@ -8571,15 +8570,15 @@
         <v>19</v>
       </c>
       <c r="H208" s="0" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="209">
       <c r="A209" s="0" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C209" s="0" t="s">
         <v>15</v>
@@ -8596,10 +8595,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="210">
       <c r="A210" s="0" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C210" s="0" t="s">
         <v>15</v>
@@ -8614,15 +8613,15 @@
         <v>19</v>
       </c>
       <c r="H210" s="0" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="211">
       <c r="A211" s="0" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C211" s="0" t="s">
         <v>15</v>
@@ -8639,10 +8638,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="212">
       <c r="A212" s="0" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C212" s="0" t="s">
         <v>15</v>
@@ -8659,10 +8658,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="213">
       <c r="A213" s="0" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C213" s="0" t="s">
         <v>15</v>
@@ -8679,10 +8678,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="214">
       <c r="A214" s="0" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C214" s="0" t="s">
         <v>15</v>
@@ -8699,10 +8698,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="215">
       <c r="A215" s="0" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C215" s="0" t="s">
         <v>15</v>
@@ -8719,10 +8718,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="216">
       <c r="A216" s="0" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C216" s="0" t="s">
         <v>15</v>
@@ -8739,10 +8738,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="217">
       <c r="A217" s="0" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C217" s="0" t="s">
         <v>15</v>
@@ -8759,10 +8758,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="218">
       <c r="A218" s="0" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C218" s="0" t="s">
         <v>15</v>
@@ -8774,7 +8773,7 @@
         <v>19</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G218" s="0" t="s">
         <v>12</v>
@@ -8782,10 +8781,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="219">
       <c r="A219" s="0" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C219" s="0" t="s">
         <v>15</v>
@@ -8797,21 +8796,21 @@
         <v>19</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G219" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H219" s="0" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="220">
       <c r="A220" s="0" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C220" s="0" t="s">
         <v>15</v>
@@ -8823,21 +8822,21 @@
         <v>19</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="G220" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H220" s="0" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="221">
       <c r="A221" s="0" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C221" s="0" t="s">
         <v>15</v>
@@ -8849,21 +8848,21 @@
         <v>19</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G221" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H221" s="0" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="222">
       <c r="A222" s="0" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C222" s="0" t="s">
         <v>15</v>
@@ -8875,21 +8874,21 @@
         <v>19</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G222" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H222" s="0" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="223">
       <c r="A223" s="0" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C223" s="0" t="s">
         <v>15</v>
@@ -8901,21 +8900,21 @@
         <v>19</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="G223" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H223" s="0" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="224">
       <c r="A224" s="0" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C224" s="0" t="s">
         <v>15</v>
@@ -8927,7 +8926,7 @@
         <v>19</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G224" s="0" t="s">
         <v>12</v>
@@ -8935,36 +8934,36 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="225">
       <c r="A225" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D225" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E225" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F225" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="G225" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H225" s="0" t="s">
         <v>644</v>
-      </c>
-      <c r="B225" s="0" t="s">
-        <v>645</v>
-      </c>
-      <c r="C225" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D225" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E225" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F225" s="0" t="s">
-        <v>646</v>
-      </c>
-      <c r="G225" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H225" s="0" t="s">
-        <v>647</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="226">
       <c r="A226" s="0" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C226" s="0" t="s">
         <v>15</v>
@@ -8976,7 +8975,7 @@
         <v>19</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G226" s="0" t="s">
         <v>12</v>
@@ -8984,10 +8983,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="227">
       <c r="A227" s="0" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C227" s="0" t="s">
         <v>15</v>
@@ -8999,15 +8998,15 @@
         <v>19</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="228">
       <c r="A228" s="0" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C228" s="0" t="s">
         <v>111</v>
@@ -9022,15 +9021,15 @@
         <v>12</v>
       </c>
       <c r="I228" s="0" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="229">
       <c r="A229" s="0" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C229" s="0" t="s">
         <v>15</v>
@@ -9042,7 +9041,7 @@
         <v>19</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G229" s="0" t="s">
         <v>12</v>
@@ -9050,10 +9049,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="230">
       <c r="A230" s="0" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C230" s="0" t="s">
         <v>15</v>
@@ -9065,7 +9064,7 @@
         <v>19</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G230" s="0" t="s">
         <v>12</v>
@@ -9073,10 +9072,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="231">
       <c r="A231" s="0" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C231" s="0" t="s">
         <v>15</v>
@@ -9088,7 +9087,7 @@
         <v>19</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="G231" s="0" t="s">
         <v>12</v>
@@ -9096,10 +9095,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="232">
       <c r="A232" s="0" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C232" s="0" t="s">
         <v>54</v>
@@ -9116,10 +9115,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="233">
       <c r="A233" s="0" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C233" s="0" t="s">
         <v>15</v>
@@ -9134,18 +9133,18 @@
         <v>19</v>
       </c>
       <c r="H233" s="0" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="234">
       <c r="A234" s="0" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D234" s="0" t="s">
         <v>25</v>
@@ -9154,21 +9153,21 @@
         <v>19</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G234" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H234" s="0" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="235">
       <c r="A235" s="0" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C235" s="0" t="s">
         <v>15</v>
@@ -9180,7 +9179,7 @@
         <v>19</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G235" s="0" t="s">
         <v>12</v>
@@ -9188,10 +9187,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="236">
       <c r="A236" s="0" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C236" s="0" t="s">
         <v>15</v>
@@ -9208,10 +9207,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="237">
       <c r="A237" s="0" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C237" s="0" t="s">
         <v>15</v>
@@ -9228,10 +9227,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="238">
       <c r="A238" s="0" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C238" s="0" t="s">
         <v>15</v>
@@ -9248,10 +9247,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="239">
       <c r="A239" s="0" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C239" s="0" t="s">
         <v>15</v>
@@ -9268,10 +9267,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="240">
       <c r="A240" s="0" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C240" s="0" t="s">
         <v>15</v>
@@ -9288,10 +9287,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="241">
       <c r="A241" s="0" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C241" s="0" t="s">
         <v>54</v>
@@ -9308,10 +9307,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="242">
       <c r="A242" s="0" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C242" s="0" t="s">
         <v>54</v>
@@ -9326,18 +9325,18 @@
         <v>19</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="243">
       <c r="A243" s="0" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D243" s="0" t="s">
         <v>30</v>
@@ -9349,15 +9348,15 @@
         <v>19</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="244">
       <c r="A244" s="0" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C244" s="0" t="s">
         <v>15</v>
@@ -9369,21 +9368,21 @@
         <v>19</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G244" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="245">
       <c r="A245" s="0" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C245" s="0" t="s">
         <v>15</v>
@@ -9400,10 +9399,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="246">
       <c r="A246" s="0" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C246" s="0" t="s">
         <v>15</v>
@@ -9415,7 +9414,7 @@
         <v>19</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G246" s="0" t="s">
         <v>12</v>
@@ -9423,13 +9422,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="247">
       <c r="A247" s="0" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D247" s="0" t="s">
         <v>16</v>
@@ -9438,21 +9437,21 @@
         <v>19</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G247" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="248">
       <c r="A248" s="0" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C248" s="0" t="s">
         <v>15</v>
@@ -9467,15 +9466,15 @@
         <v>19</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="249">
       <c r="A249" s="0" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C249" s="0" t="s">
         <v>54</v>
@@ -9487,7 +9486,7 @@
         <v>19</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="G249" s="0" t="s">
         <v>12</v>
@@ -9495,10 +9494,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="250">
       <c r="A250" s="0" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C250" s="0" t="s">
         <v>15</v>
@@ -9510,7 +9509,7 @@
         <v>19</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="G250" s="0" t="s">
         <v>12</v>
@@ -9518,14 +9517,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="251">
       <c r="A251" s="0" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B251" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="C251" s="0" t="s">
         <v>718</v>
       </c>
-      <c r="C251" s="0" t="s">
-        <v>721</v>
-      </c>
       <c r="D251" s="0" t="s">
         <v>11</v>
       </c>
@@ -9533,7 +9532,7 @@
         <v>19</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="G251" s="0" t="s">
         <v>12</v>
@@ -9541,14 +9540,14 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="252">
       <c r="A252" s="0" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B252" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="C252" s="0" t="s">
         <v>718</v>
       </c>
-      <c r="C252" s="0" t="s">
-        <v>721</v>
-      </c>
       <c r="D252" s="0" t="s">
         <v>11</v>
       </c>
@@ -9556,7 +9555,7 @@
         <v>19</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="G252" s="0" t="s">
         <v>12</v>
@@ -9564,10 +9563,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="253">
       <c r="A253" s="0" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C253" s="0" t="s">
         <v>15</v>
@@ -9579,7 +9578,7 @@
         <v>19</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="G253" s="0" t="s">
         <v>12</v>
@@ -9587,13 +9586,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="254">
       <c r="A254" s="0" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D254" s="0" t="s">
         <v>36</v>
@@ -9605,15 +9604,15 @@
         <v>19</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="255">
       <c r="A255" s="0" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C255" s="0" t="s">
         <v>15</v>
@@ -9630,13 +9629,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="256">
       <c r="A256" s="0" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D256" s="0" t="s">
         <v>25</v>
@@ -9645,21 +9644,21 @@
         <v>19</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="G256" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H256" s="0" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="257">
       <c r="A257" s="0" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C257" s="0" t="s">
         <v>15</v>
@@ -9671,7 +9670,7 @@
         <v>19</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G257" s="0" t="s">
         <v>12</v>
@@ -9679,10 +9678,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="258">
       <c r="A258" s="0" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C258" s="0" t="s">
         <v>15</v>
@@ -9694,21 +9693,21 @@
         <v>19</v>
       </c>
       <c r="F258" s="0" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G258" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H258" s="0" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="259">
       <c r="A259" s="0" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C259" s="0" t="s">
         <v>15</v>
@@ -9725,10 +9724,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="260">
       <c r="A260" s="0" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C260" s="0" t="s">
         <v>15</v>
@@ -9740,7 +9739,7 @@
         <v>19</v>
       </c>
       <c r="F260" s="0" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="G260" s="0" t="s">
         <v>12</v>
@@ -9748,10 +9747,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="261">
       <c r="A261" s="0" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C261" s="0" t="s">
         <v>15</v>
@@ -9763,47 +9762,47 @@
         <v>19</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="G261" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H261" s="0" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="262">
       <c r="A262" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="C262" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D262" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="E262" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F262" s="0" t="s">
         <v>753</v>
       </c>
-      <c r="B262" s="0" t="s">
+      <c r="G262" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H262" s="0" t="s">
         <v>754</v>
-      </c>
-      <c r="C262" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D262" s="0" t="s">
-        <v>755</v>
-      </c>
-      <c r="E262" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F262" s="0" t="s">
-        <v>756</v>
-      </c>
-      <c r="G262" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H262" s="0" t="s">
-        <v>757</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="263">
       <c r="A263" s="0" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C263" s="0" t="s">
         <v>15</v>
@@ -9815,21 +9814,21 @@
         <v>19</v>
       </c>
       <c r="F263" s="0" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G263" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H263" s="0" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="264">
       <c r="A264" s="0" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C264" s="0" t="s">
         <v>15</v>
@@ -9846,10 +9845,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="265">
       <c r="A265" s="0" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C265" s="0" t="s">
         <v>15</v>
@@ -9861,33 +9860,33 @@
         <v>19</v>
       </c>
       <c r="F265" s="0" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="G265" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H265" s="0" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="266">
       <c r="A266" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="D266" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E266" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F266" s="0" t="s">
         <v>768</v>
-      </c>
-      <c r="B266" s="0" t="s">
-        <v>769</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="D266" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E266" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F266" s="0" t="s">
-        <v>771</v>
       </c>
       <c r="G266" s="0" t="s">
         <v>12</v>
@@ -9895,10 +9894,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="267">
       <c r="A267" s="0" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C267" s="0" t="s">
         <v>15</v>
@@ -9910,21 +9909,21 @@
         <v>19</v>
       </c>
       <c r="F267" s="0" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="G267" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H267" s="0" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="268">
       <c r="A268" s="0" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C268" s="0" t="s">
         <v>15</v>
@@ -9939,15 +9938,15 @@
         <v>19</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="269">
       <c r="A269" s="0" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C269" s="0" t="s">
         <v>15</v>
@@ -9955,10 +9954,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="270">
       <c r="A270" s="0" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C270" s="0" t="s">
         <v>54</v>
@@ -9975,10 +9974,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="271">
       <c r="A271" s="0" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C271" s="0" t="s">
         <v>15</v>
@@ -9995,10 +9994,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="272">
       <c r="A272" s="0" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C272" s="0" t="s">
         <v>15</v>
@@ -10010,21 +10009,21 @@
         <v>19</v>
       </c>
       <c r="F272" s="0" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="G272" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H272" s="0" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="273">
       <c r="A273" s="0" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C273" s="0" t="s">
         <v>15</v>
@@ -10036,24 +10035,24 @@
         <v>19</v>
       </c>
       <c r="F273" s="0" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="G273" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H273" s="0" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="I273" s="0" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="274">
       <c r="A274" s="0" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C274" s="0" t="s">
         <v>111</v>
@@ -10068,15 +10067,15 @@
         <v>19</v>
       </c>
       <c r="H274" s="0" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="275">
       <c r="A275" s="0" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C275" s="0" t="s">
         <v>15</v>
@@ -10093,10 +10092,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="276">
       <c r="A276" s="0" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C276" s="0" t="s">
         <v>15</v>
@@ -10108,7 +10107,7 @@
         <v>19</v>
       </c>
       <c r="F276" s="0" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="G276" s="0" t="s">
         <v>12</v>
@@ -10116,10 +10115,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="277">
       <c r="A277" s="0" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C277" s="0" t="s">
         <v>15</v>
@@ -10136,10 +10135,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="278">
       <c r="A278" s="0" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C278" s="0" t="s">
         <v>15</v>
@@ -10156,10 +10155,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="279">
       <c r="A279" s="0" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C279" s="0" t="s">
         <v>194</v>
@@ -10176,10 +10175,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="280">
       <c r="A280" s="0" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C280" s="0" t="s">
         <v>15</v>
@@ -10191,21 +10190,21 @@
         <v>19</v>
       </c>
       <c r="F280" s="0" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G280" s="0" t="s">
         <v>12</v>
       </c>
       <c r="I280" s="0" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="281">
       <c r="A281" s="0" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C281" s="0" t="s">
         <v>15</v>
@@ -10217,7 +10216,7 @@
         <v>19</v>
       </c>
       <c r="F281" s="0" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G281" s="0" t="s">
         <v>12</v>
@@ -10225,10 +10224,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="282">
       <c r="A282" s="0" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C282" s="0" t="s">
         <v>15</v>
@@ -10243,15 +10242,15 @@
         <v>19</v>
       </c>
       <c r="H282" s="0" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="283">
       <c r="A283" s="0" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C283" s="0" t="s">
         <v>15</v>
@@ -10263,7 +10262,7 @@
         <v>19</v>
       </c>
       <c r="F283" s="0" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="G283" s="0" t="s">
         <v>12</v>
@@ -10271,10 +10270,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="284">
       <c r="A284" s="0" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C284" s="0" t="s">
         <v>15</v>
@@ -10286,7 +10285,7 @@
         <v>19</v>
       </c>
       <c r="F284" s="0" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="G284" s="0" t="s">
         <v>12</v>
@@ -10294,10 +10293,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="285">
       <c r="A285" s="0" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C285" s="0" t="s">
         <v>54</v>
@@ -10312,18 +10311,18 @@
         <v>19</v>
       </c>
       <c r="H285" s="0" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="286">
       <c r="A286" s="0" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D286" s="0" t="s">
         <v>30</v>
@@ -10337,10 +10336,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="287">
       <c r="A287" s="0" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C287" s="0" t="s">
         <v>15</v>
@@ -10357,10 +10356,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="288">
       <c r="A288" s="0" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C288" s="0" t="s">
         <v>15</v>
@@ -10372,7 +10371,7 @@
         <v>19</v>
       </c>
       <c r="F288" s="0" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="G288" s="0" t="s">
         <v>12</v>
@@ -10380,10 +10379,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="289">
       <c r="A289" s="0" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C289" s="0" t="s">
         <v>15</v>
@@ -10398,15 +10397,15 @@
         <v>19</v>
       </c>
       <c r="H289" s="0" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="290">
       <c r="A290" s="0" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C290" s="0" t="s">
         <v>108</v>
@@ -10421,15 +10420,15 @@
         <v>19</v>
       </c>
       <c r="H290" s="0" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="291">
       <c r="A291" s="0" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C291" s="0" t="s">
         <v>15</v>
@@ -10446,10 +10445,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="292">
       <c r="A292" s="0" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C292" s="0" t="s">
         <v>54</v>
@@ -10464,15 +10463,15 @@
         <v>19</v>
       </c>
       <c r="H292" s="0" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="293">
       <c r="A293" s="0" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C293" s="0" t="s">
         <v>15</v>
@@ -10484,7 +10483,7 @@
         <v>19</v>
       </c>
       <c r="F293" s="0" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="G293" s="0" t="s">
         <v>12</v>
@@ -10492,7 +10491,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="294">
       <c r="A294" s="0" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B294" s="0" t="s">
         <v>11</v>
@@ -10515,10 +10514,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="295">
       <c r="A295" s="0" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C295" s="0" t="s">
         <v>15</v>
@@ -10535,10 +10534,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="296">
       <c r="A296" s="0" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C296" s="0" t="s">
         <v>15</v>
@@ -10550,21 +10549,21 @@
         <v>19</v>
       </c>
       <c r="F296" s="0" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="G296" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H296" s="0" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="297">
       <c r="A297" s="0" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C297" s="0" t="s">
         <v>15</v>
@@ -10576,21 +10575,21 @@
         <v>19</v>
       </c>
       <c r="F297" s="0" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="G297" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H297" s="0" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="298">
       <c r="A298" s="0" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C298" s="0" t="s">
         <v>15</v>
@@ -10602,21 +10601,21 @@
         <v>19</v>
       </c>
       <c r="F298" s="0" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="G298" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H298" s="0" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="299">
       <c r="A299" s="0" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C299" s="0" t="s">
         <v>111</v>
@@ -10628,21 +10627,21 @@
         <v>19</v>
       </c>
       <c r="F299" s="0" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="G299" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H299" s="0" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="300">
       <c r="A300" s="0" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C300" s="0" t="s">
         <v>15</v>
@@ -10657,15 +10656,15 @@
         <v>19</v>
       </c>
       <c r="H300" s="0" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="301">
       <c r="A301" s="0" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C301" s="0" t="s">
         <v>15</v>
@@ -10677,7 +10676,7 @@
         <v>19</v>
       </c>
       <c r="F301" s="0" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="G301" s="0" t="s">
         <v>12</v>
@@ -10685,10 +10684,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="302">
       <c r="A302" s="0" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C302" s="0" t="s">
         <v>194</v>
@@ -10700,7 +10699,7 @@
         <v>19</v>
       </c>
       <c r="F302" s="0" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="G302" s="0" t="s">
         <v>12</v>
@@ -10708,10 +10707,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="303">
       <c r="A303" s="0" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C303" s="0" t="s">
         <v>385</v>
@@ -10726,15 +10725,15 @@
         <v>19</v>
       </c>
       <c r="H303" s="0" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="304">
       <c r="A304" s="0" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C304" s="0" t="s">
         <v>194</v>
@@ -10746,15 +10745,15 @@
         <v>19</v>
       </c>
       <c r="F304" s="0" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="305">
       <c r="A305" s="0" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C305" s="0" t="s">
         <v>15</v>
@@ -10769,15 +10768,15 @@
         <v>19</v>
       </c>
       <c r="H305" s="0" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="306">
       <c r="A306" s="0" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C306" s="0" t="s">
         <v>108</v>
@@ -10792,41 +10791,41 @@
         <v>19</v>
       </c>
       <c r="H306" s="0" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="307">
       <c r="A307" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="B307" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="C307" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="D307" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E307" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F307" s="0" t="s">
         <v>881</v>
       </c>
-      <c r="B307" s="0" t="s">
+      <c r="G307" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H307" s="0" t="s">
         <v>882</v>
-      </c>
-      <c r="C307" s="0" t="s">
-        <v>883</v>
-      </c>
-      <c r="D307" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E307" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F307" s="0" t="s">
-        <v>884</v>
-      </c>
-      <c r="G307" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H307" s="0" t="s">
-        <v>885</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="308">
       <c r="A308" s="0" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C308" s="0" t="s">
         <v>54</v>
@@ -10838,21 +10837,21 @@
         <v>19</v>
       </c>
       <c r="F308" s="0" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="G308" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H308" s="0" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="309">
       <c r="A309" s="0" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C309" s="0" t="s">
         <v>15</v>
@@ -10864,7 +10863,7 @@
         <v>19</v>
       </c>
       <c r="F309" s="0" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="G309" s="0" t="s">
         <v>12</v>
@@ -10872,10 +10871,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="310">
       <c r="A310" s="0" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C310" s="0" t="s">
         <v>15</v>
@@ -10892,10 +10891,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="311">
       <c r="A311" s="0" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C311" s="0" t="s">
         <v>15</v>
@@ -10910,18 +10909,18 @@
         <v>19</v>
       </c>
       <c r="H311" s="0" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="312">
       <c r="A312" s="0" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D312" s="0" t="s">
         <v>11</v>
@@ -10933,15 +10932,15 @@
         <v>19</v>
       </c>
       <c r="H312" s="0" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="313">
       <c r="A313" s="0" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C313" s="0" t="s">
         <v>15</v>
@@ -10961,10 +10960,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="314">
       <c r="A314" s="0" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C314" s="0" t="s">
         <v>15</v>
@@ -10981,10 +10980,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="315">
       <c r="A315" s="0" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C315" s="0" t="s">
         <v>15</v>
@@ -10996,24 +10995,24 @@
         <v>19</v>
       </c>
       <c r="F315" s="0" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="G315" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H315" s="0" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="316">
       <c r="A316" s="0" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>535</v>
+        <v>15</v>
       </c>
       <c r="D316" s="0" t="s">
         <v>30</v>
@@ -11030,13 +11029,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="317">
       <c r="A317" s="0" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D317" s="0" t="s">
         <v>25</v>
@@ -11045,21 +11044,21 @@
         <v>19</v>
       </c>
       <c r="F317" s="0" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G317" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H317" s="0" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="318">
       <c r="A318" s="0" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C318" s="0" t="s">
         <v>15</v>
@@ -11071,7 +11070,7 @@
         <v>19</v>
       </c>
       <c r="F318" s="0" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="G318" s="0" t="s">
         <v>19</v>
@@ -11082,10 +11081,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="319">
       <c r="A319" s="0" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C319" s="0" t="s">
         <v>15</v>
@@ -11102,10 +11101,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="320">
       <c r="A320" s="0" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C320" s="0" t="s">
         <v>15</v>
@@ -11117,21 +11116,21 @@
         <v>19</v>
       </c>
       <c r="F320" s="0" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="G320" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H320" s="0" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="321">
       <c r="A321" s="0" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C321" s="0" t="s">
         <v>15</v>
@@ -11143,21 +11142,21 @@
         <v>19</v>
       </c>
       <c r="F321" s="0" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="G321" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H321" s="0" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="322">
       <c r="A322" s="0" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C322" s="0" t="s">
         <v>15</v>
@@ -11169,7 +11168,7 @@
         <v>19</v>
       </c>
       <c r="F322" s="0" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="G322" s="0" t="s">
         <v>12</v>
@@ -11177,10 +11176,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="323">
       <c r="A323" s="0" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C323" s="0" t="s">
         <v>15</v>
@@ -11195,15 +11194,15 @@
         <v>19</v>
       </c>
       <c r="H323" s="0" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="324">
       <c r="A324" s="0" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C324" s="0" t="s">
         <v>15</v>
@@ -11218,18 +11217,18 @@
         <v>19</v>
       </c>
       <c r="H324" s="0" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="325">
       <c r="A325" s="0" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>535</v>
+        <v>108</v>
       </c>
       <c r="D325" s="0" t="s">
         <v>25</v>
@@ -11243,10 +11242,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="326">
       <c r="A326" s="0" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C326" s="0" t="s">
         <v>15</v>
@@ -11263,10 +11262,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="327">
       <c r="A327" s="0" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C327" s="0" t="s">
         <v>15</v>
@@ -11278,7 +11277,7 @@
         <v>19</v>
       </c>
       <c r="F327" s="0" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="G327" s="0" t="s">
         <v>12</v>
@@ -11286,10 +11285,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="328">
       <c r="A328" s="0" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C328" s="0" t="s">
         <v>194</v>
@@ -11301,15 +11300,15 @@
         <v>19</v>
       </c>
       <c r="F328" s="0" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="329">
       <c r="A329" s="0" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C329" s="0" t="s">
         <v>15</v>
@@ -11321,7 +11320,7 @@
         <v>19</v>
       </c>
       <c r="F329" s="0" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="G329" s="0" t="s">
         <v>12</v>
@@ -11329,13 +11328,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="330">
       <c r="A330" s="0" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>535</v>
+        <v>15</v>
       </c>
       <c r="D330" s="0" t="s">
         <v>11</v>
@@ -11349,13 +11348,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="331">
       <c r="A331" s="0" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D331" s="0" t="s">
         <v>36</v>
@@ -11369,10 +11368,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="332">
       <c r="A332" s="0" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C332" s="0" t="s">
         <v>15</v>
@@ -11389,10 +11388,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="333">
       <c r="A333" s="0" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C333" s="0" t="s">
         <v>15</v>
@@ -11409,10 +11408,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="334">
       <c r="A334" s="0" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C334" s="0" t="s">
         <v>15</v>
@@ -11424,7 +11423,7 @@
         <v>19</v>
       </c>
       <c r="F334" s="0" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="G334" s="0" t="s">
         <v>12</v>
@@ -11432,10 +11431,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="335">
       <c r="A335" s="0" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C335" s="0" t="s">
         <v>15</v>
@@ -11447,7 +11446,7 @@
         <v>19</v>
       </c>
       <c r="F335" s="0" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="G335" s="0" t="s">
         <v>12</v>
@@ -11455,10 +11454,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="336">
       <c r="A336" s="0" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C336" s="0" t="s">
         <v>15</v>
@@ -11475,10 +11474,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="337">
       <c r="A337" s="0" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C337" s="0" t="s">
         <v>58</v>
@@ -11490,7 +11489,7 @@
         <v>19</v>
       </c>
       <c r="F337" s="0" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="G337" s="0" t="s">
         <v>19</v>
@@ -11498,10 +11497,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="338">
       <c r="A338" s="0" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C338" s="0" t="s">
         <v>15</v>
@@ -11518,10 +11517,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="339">
       <c r="A339" s="0" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C339" s="0" t="s">
         <v>15</v>
@@ -11533,7 +11532,7 @@
         <v>19</v>
       </c>
       <c r="F339" s="0" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="G339" s="0" t="s">
         <v>12</v>
@@ -11541,10 +11540,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="340">
       <c r="A340" s="0" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C340" s="0" t="s">
         <v>15</v>
@@ -11556,7 +11555,7 @@
         <v>19</v>
       </c>
       <c r="F340" s="0" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="G340" s="0" t="s">
         <v>12</v>
@@ -11564,10 +11563,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="341">
       <c r="A341" s="0" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C341" s="0" t="s">
         <v>194</v>
@@ -11579,7 +11578,7 @@
         <v>19</v>
       </c>
       <c r="F341" s="0" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="G341" s="0" t="s">
         <v>12</v>
@@ -11587,10 +11586,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="342">
       <c r="A342" s="0" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C342" s="0" t="s">
         <v>54</v>
@@ -11607,42 +11606,42 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="343">
       <c r="A343" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="B343" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="C343" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D343" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E343" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F343" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="G343" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H343" s="0" t="s">
         <v>982</v>
-      </c>
-      <c r="B343" s="0" t="s">
-        <v>983</v>
-      </c>
-      <c r="C343" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D343" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E343" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F343" s="0" t="s">
-        <v>984</v>
-      </c>
-      <c r="G343" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H343" s="0" t="s">
-        <v>985</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="344">
       <c r="A344" s="0" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="C344" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E344" s="0" t="s">
         <v>12</v>
@@ -11651,15 +11650,15 @@
         <v>19</v>
       </c>
       <c r="H344" s="0" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="345">
       <c r="A345" s="0" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="C345" s="0" t="s">
         <v>15</v>
@@ -11671,7 +11670,7 @@
         <v>19</v>
       </c>
       <c r="F345" s="0" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="G345" s="0" t="s">
         <v>12</v>
@@ -11679,10 +11678,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="346">
       <c r="A346" s="0" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C346" s="0" t="s">
         <v>54</v>
@@ -11699,10 +11698,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="347">
       <c r="A347" s="0" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C347" s="0" t="s">
         <v>15</v>
@@ -11717,15 +11716,15 @@
         <v>19</v>
       </c>
       <c r="H347" s="0" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="348">
       <c r="A348" s="0" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C348" s="0" t="s">
         <v>15</v>
@@ -11737,7 +11736,7 @@
         <v>19</v>
       </c>
       <c r="F348" s="0" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="G348" s="0" t="s">
         <v>12</v>
@@ -11745,13 +11744,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="349">
       <c r="A349" s="0" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>535</v>
+        <v>15</v>
       </c>
       <c r="D349" s="0" t="s">
         <v>11</v>
@@ -11763,18 +11762,18 @@
         <v>19</v>
       </c>
       <c r="H349" s="0" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="350">
       <c r="A350" s="0" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>535</v>
+        <v>15</v>
       </c>
       <c r="D350" s="0" t="s">
         <v>11</v>
@@ -11786,15 +11785,15 @@
         <v>19</v>
       </c>
       <c r="H350" s="0" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="351">
       <c r="A351" s="0" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C351" s="0" t="s">
         <v>15</v>
@@ -11809,15 +11808,15 @@
         <v>19</v>
       </c>
       <c r="H351" s="0" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="352">
       <c r="A352" s="0" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C352" s="0" t="s">
         <v>194</v>
@@ -11834,10 +11833,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="353">
       <c r="A353" s="0" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C353" s="0" t="s">
         <v>15</v>
@@ -11849,21 +11848,21 @@
         <v>19</v>
       </c>
       <c r="F353" s="0" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="G353" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H353" s="0" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="354">
       <c r="A354" s="0" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C354" s="0" t="s">
         <v>15</v>
@@ -11880,10 +11879,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="355">
       <c r="A355" s="0" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C355" s="0" t="s">
         <v>15</v>
@@ -11898,15 +11897,15 @@
         <v>19</v>
       </c>
       <c r="H355" s="0" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="356">
       <c r="A356" s="0" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C356" s="0" t="s">
         <v>15</v>
@@ -11923,10 +11922,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="357">
       <c r="A357" s="0" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C357" s="0" t="s">
         <v>15</v>
@@ -11943,10 +11942,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="358">
       <c r="A358" s="0" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="C358" s="0" t="s">
         <v>15</v>
@@ -11963,10 +11962,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="359">
       <c r="A359" s="0" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C359" s="0" t="s">
         <v>15</v>
@@ -11983,10 +11982,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="360">
       <c r="A360" s="0" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C360" s="0" t="s">
         <v>15</v>
@@ -11998,7 +11997,7 @@
         <v>19</v>
       </c>
       <c r="F360" s="0" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="G360" s="0" t="s">
         <v>19</v>
@@ -12009,10 +12008,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="361">
       <c r="A361" s="0" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C361" s="0" t="s">
         <v>15</v>
@@ -12027,15 +12026,15 @@
         <v>19</v>
       </c>
       <c r="H361" s="0" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="362">
       <c r="A362" s="0" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C362" s="0" t="s">
         <v>15</v>
@@ -12052,10 +12051,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="363">
       <c r="A363" s="0" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C363" s="0" t="s">
         <v>15</v>
@@ -12070,15 +12069,15 @@
         <v>19</v>
       </c>
       <c r="H363" s="0" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="364">
       <c r="A364" s="0" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C364" s="0" t="s">
         <v>15</v>
@@ -12093,7 +12092,7 @@
         <v>19</v>
       </c>
       <c r="H364" s="0" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="I364" s="0" t="s">
         <v>33</v>
@@ -12101,10 +12100,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="365">
       <c r="A365" s="0" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C365" s="0" t="s">
         <v>15</v>
@@ -12119,15 +12118,15 @@
         <v>19</v>
       </c>
       <c r="H365" s="0" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="366">
       <c r="A366" s="0" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="C366" s="0" t="s">
         <v>15</v>
@@ -12144,10 +12143,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="367">
       <c r="A367" s="0" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="C367" s="0" t="s">
         <v>15</v>
@@ -12164,10 +12163,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="368">
       <c r="A368" s="0" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>15</v>
@@ -12184,10 +12183,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="369">
       <c r="A369" s="0" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="C369" s="0" t="s">
         <v>15</v>
@@ -12202,15 +12201,15 @@
         <v>19</v>
       </c>
       <c r="H369" s="0" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="370">
       <c r="A370" s="0" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C370" s="0" t="s">
         <v>15</v>
@@ -12225,44 +12224,44 @@
         <v>19</v>
       </c>
       <c r="H370" s="0" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="371">
       <c r="A371" s="0" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D371" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E371" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F371" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G371" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H371" s="0" t="s">
         <v>1054</v>
-      </c>
-      <c r="B371" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C371" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="D371" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E371" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F371" s="0" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G371" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H371" s="0" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="372">
       <c r="A372" s="0" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>535</v>
+        <v>15</v>
       </c>
       <c r="D372" s="0" t="s">
         <v>11</v>
@@ -12271,25 +12270,25 @@
         <v>19</v>
       </c>
       <c r="F372" s="0" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="G372" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H372" s="0" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="I372" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="373">
       <c r="A373" s="0" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>535</v>
+        <v>15</v>
       </c>
       <c r="D373" s="0" t="s">
         <v>36</v>
@@ -12298,24 +12297,24 @@
         <v>19</v>
       </c>
       <c r="F373" s="0" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="G373" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H373" s="0" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="374">
       <c r="A374" s="0" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>535</v>
+        <v>15</v>
       </c>
       <c r="D374" s="0" t="s">
         <v>11</v>
@@ -12324,24 +12323,24 @@
         <v>19</v>
       </c>
       <c r="F374" s="0" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="G374" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H374" s="0" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="375">
       <c r="A375" s="0" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>535</v>
+        <v>15</v>
       </c>
       <c r="D375" s="0" t="s">
         <v>11</v>
@@ -12350,24 +12349,24 @@
         <v>19</v>
       </c>
       <c r="F375" s="0" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="G375" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H375" s="0" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="376">
       <c r="A376" s="0" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>535</v>
+        <v>15</v>
       </c>
       <c r="D376" s="0" t="s">
         <v>25</v>
@@ -12376,21 +12375,21 @@
         <v>19</v>
       </c>
       <c r="F376" s="0" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="G376" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H376" s="0" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="377">
       <c r="A377" s="0" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C377" s="0" t="s">
         <v>15</v>
@@ -12407,10 +12406,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="378">
       <c r="A378" s="0" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C378" s="0" t="s">
         <v>15</v>
@@ -12425,15 +12424,15 @@
         <v>19</v>
       </c>
       <c r="H378" s="0" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="379">
       <c r="A379" s="0" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>15</v>
@@ -12445,21 +12444,21 @@
         <v>19</v>
       </c>
       <c r="F379" s="0" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="G379" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H379" s="0" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="380">
       <c r="A380" s="0" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="C380" s="0" t="s">
         <v>15</v>
@@ -12476,10 +12475,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="381">
       <c r="A381" s="0" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="C381" s="0" t="s">
         <v>15</v>
@@ -12491,7 +12490,7 @@
         <v>19</v>
       </c>
       <c r="F381" s="0" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="G381" s="2" t="s">
         <v>12</v>
@@ -12500,10 +12499,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="382">
       <c r="A382" s="0" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="C382" s="0" t="s">
         <v>54</v>
@@ -12520,10 +12519,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="383">
       <c r="A383" s="0" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C383" s="0" t="s">
         <v>15</v>
@@ -12540,13 +12539,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="384">
       <c r="A384" s="0" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>535</v>
+        <v>15</v>
       </c>
       <c r="D384" s="0" t="s">
         <v>16</v>
@@ -12558,7 +12557,7 @@
         <v>19</v>
       </c>
       <c r="H384" s="0" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="I384" s="2" t="s">
         <v>33</v>
@@ -12566,10 +12565,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="385">
       <c r="A385" s="0" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C385" s="0" t="s">
         <v>111</v>
@@ -12586,10 +12585,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="386">
       <c r="A386" s="0" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="C386" s="0" t="s">
         <v>15</v>
@@ -12604,15 +12603,15 @@
         <v>19</v>
       </c>
       <c r="H386" s="0" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="387">
       <c r="A387" s="0" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="C387" s="0" t="s">
         <v>15</v>
@@ -12624,7 +12623,7 @@
         <v>19</v>
       </c>
       <c r="F387" s="0" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="G387" s="0" t="s">
         <v>12</v>
@@ -12632,10 +12631,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="388">
       <c r="A388" s="0" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="C388" s="0" t="s">
         <v>15</v>
@@ -12652,16 +12651,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="389">
       <c r="A389" s="0" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C389" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D389" s="0" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E389" s="0" t="s">
         <v>12</v>
@@ -12670,15 +12669,15 @@
         <v>19</v>
       </c>
       <c r="H389" s="0" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="390">
       <c r="A390" s="0" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C390" s="0" t="s">
         <v>15</v>
@@ -12690,7 +12689,7 @@
         <v>19</v>
       </c>
       <c r="F390" s="0" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="G390" s="0" t="s">
         <v>12</v>
@@ -12698,10 +12697,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="391">
       <c r="A391" s="0" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="C391" s="0" t="s">
         <v>15</v>
@@ -12718,10 +12717,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="392">
       <c r="A392" s="0" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="C392" s="0" t="s">
         <v>15</v>
@@ -12733,7 +12732,7 @@
         <v>19</v>
       </c>
       <c r="F392" s="0" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="G392" s="0" t="s">
         <v>12</v>
@@ -12741,10 +12740,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="393">
       <c r="A393" s="0" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="C393" s="0" t="s">
         <v>194</v>
@@ -12756,7 +12755,7 @@
         <v>19</v>
       </c>
       <c r="F393" s="0" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="G393" s="0" t="s">
         <v>12</v>
@@ -12764,10 +12763,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="394">
       <c r="A394" s="0" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="C394" s="0" t="s">
         <v>15</v>
@@ -12779,21 +12778,21 @@
         <v>19</v>
       </c>
       <c r="F394" s="0" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="G394" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H394" s="0" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="395">
       <c r="A395" s="0" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="C395" s="0" t="s">
         <v>15</v>
@@ -12805,7 +12804,7 @@
         <v>19</v>
       </c>
       <c r="F395" s="0" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="G395" s="0" t="s">
         <v>12</v>
@@ -12813,10 +12812,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="396">
       <c r="A396" s="0" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="C396" s="0" t="s">
         <v>15</v>
@@ -12833,10 +12832,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="397">
       <c r="A397" s="0" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>15</v>
@@ -12848,7 +12847,7 @@
         <v>19</v>
       </c>
       <c r="F397" s="0" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="G397" s="2" t="s">
         <v>12</v>
@@ -12856,10 +12855,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="398">
       <c r="A398" s="0" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C398" s="0" t="s">
         <v>15</v>
@@ -12874,15 +12873,15 @@
         <v>19</v>
       </c>
       <c r="H398" s="0" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="399">
       <c r="A399" s="0" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="C399" s="0" t="s">
         <v>15</v>
@@ -12899,10 +12898,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="400">
       <c r="A400" s="0" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C400" s="0" t="s">
         <v>15</v>
@@ -12914,7 +12913,7 @@
         <v>19</v>
       </c>
       <c r="F400" s="0" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="G400" s="0" t="s">
         <v>12</v>
@@ -12923,10 +12922,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="401">
       <c r="A401" s="2" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="C401" s="0" t="s">
         <v>15</v>
@@ -12944,10 +12943,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="402">
       <c r="A402" s="0" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="C402" s="0" t="s">
         <v>15</v>
@@ -12964,10 +12963,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="403">
       <c r="A403" s="0" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="C403" s="0" t="s">
         <v>15</v>
@@ -12984,10 +12983,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="404">
       <c r="A404" s="0" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="C404" s="0" t="s">
         <v>15</v>
@@ -13004,10 +13003,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="405">
       <c r="A405" s="0" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="C405" s="0" t="s">
         <v>15</v>
@@ -13024,13 +13023,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="406">
       <c r="A406" s="0" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="C406" s="0" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D406" s="0" t="s">
         <v>16</v>
@@ -13042,15 +13041,15 @@
         <v>19</v>
       </c>
       <c r="H406" s="0" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="407">
       <c r="A407" s="0" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="C407" s="0" t="s">
         <v>15</v>
@@ -13067,10 +13066,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="408">
       <c r="A408" s="0" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="C408" s="0" t="s">
         <v>15</v>
@@ -13082,7 +13081,7 @@
         <v>19</v>
       </c>
       <c r="F408" s="0" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G408" s="2" t="s">
         <v>12</v>
@@ -13090,10 +13089,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="409">
       <c r="A409" s="0" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C409" s="0" t="s">
         <v>15</v>
@@ -13110,10 +13109,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="410">
       <c r="A410" s="0" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>15</v>
@@ -13130,10 +13129,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="411">
       <c r="A411" s="0" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="C411" s="0" t="s">
         <v>15</v>
@@ -13145,7 +13144,7 @@
         <v>19</v>
       </c>
       <c r="F411" s="0" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="G411" s="0" t="s">
         <v>12</v>
@@ -13153,10 +13152,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="412">
       <c r="A412" s="0" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C412" s="0" t="s">
         <v>15</v>
@@ -13173,10 +13172,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="413">
       <c r="A413" s="0" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="C413" s="0" t="s">
         <v>15</v>
@@ -13191,21 +13190,21 @@
         <v>19</v>
       </c>
       <c r="H413" s="0" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="414">
       <c r="A414" s="0" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="C414" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D414" s="0" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E414" s="0" t="s">
         <v>12</v>
@@ -13214,18 +13213,18 @@
         <v>19</v>
       </c>
       <c r="H414" s="0" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="415">
       <c r="A415" s="0" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="C415" s="0" t="s">
-        <v>535</v>
+        <v>1160</v>
       </c>
       <c r="D415" s="0" t="s">
         <v>11</v>
@@ -13239,10 +13238,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="416">
       <c r="A416" s="0" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C416" s="0" t="s">
         <v>15</v>
@@ -13259,10 +13258,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="417">
       <c r="A417" s="0" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C417" s="0" t="s">
         <v>15</v>
@@ -13277,18 +13276,18 @@
         <v>19</v>
       </c>
       <c r="H417" s="0" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="418">
       <c r="A418" s="0" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C418" s="0" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D418" s="2" t="s">
         <v>25</v>
@@ -13297,7 +13296,7 @@
         <v>19</v>
       </c>
       <c r="F418" s="0" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="G418" s="0" t="s">
         <v>12</v>
@@ -13305,10 +13304,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="419">
       <c r="A419" s="0" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C419" s="0" t="s">
         <v>15</v>
@@ -13325,10 +13324,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="420">
       <c r="A420" s="0" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C420" s="0" t="s">
         <v>15</v>
@@ -13345,10 +13344,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="421">
       <c r="A421" s="0" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C421" s="0" t="s">
         <v>15</v>
@@ -13360,7 +13359,7 @@
         <v>19</v>
       </c>
       <c r="F421" s="0" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="G421" s="0" t="s">
         <v>12</v>
@@ -13368,10 +13367,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="422">
       <c r="A422" s="0" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="C422" s="0" t="s">
         <v>15</v>
@@ -13383,7 +13382,7 @@
         <v>19</v>
       </c>
       <c r="F422" s="0" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="G422" s="0" t="s">
         <v>12</v>
@@ -13391,22 +13390,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="423">
       <c r="A423" s="0" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B423" s="0" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C423" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D423" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="E423" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F423" s="0" t="s">
         <v>1181</v>
-      </c>
-      <c r="B423" s="0" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C423" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D423" s="0" t="s">
-        <v>755</v>
-      </c>
-      <c r="E423" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F423" s="0" t="s">
-        <v>1183</v>
       </c>
       <c r="G423" s="0" t="s">
         <v>12</v>
@@ -13414,22 +13413,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="424">
       <c r="A424" s="0" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="D424" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="E424" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F424" s="0" t="s">
         <v>1184</v>
-      </c>
-      <c r="B424" s="2" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C424" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="D424" s="0" t="s">
-        <v>755</v>
-      </c>
-      <c r="E424" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F424" s="0" t="s">
-        <v>1186</v>
       </c>
       <c r="G424" s="0" t="s">
         <v>12</v>
@@ -13437,10 +13436,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="425">
       <c r="A425" s="0" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C425" s="0" t="s">
         <v>15</v>
@@ -13452,7 +13451,7 @@
         <v>19</v>
       </c>
       <c r="F425" s="0" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="G425" s="0" t="s">
         <v>19</v>
@@ -13463,10 +13462,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="426">
       <c r="A426" s="0" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C426" s="0" t="s">
         <v>15</v>
@@ -13483,10 +13482,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="427">
       <c r="A427" s="0" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C427" s="0" t="s">
         <v>15</v>
@@ -13503,10 +13502,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="428">
       <c r="A428" s="0" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C428" s="0" t="s">
         <v>15</v>
@@ -13521,15 +13520,15 @@
         <v>19</v>
       </c>
       <c r="H428" s="0" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="429">
       <c r="A429" s="0" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>15</v>
@@ -13541,7 +13540,7 @@
         <v>19</v>
       </c>
       <c r="F429" s="0" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="G429" s="0" t="s">
         <v>12</v>
@@ -13549,10 +13548,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="430">
       <c r="A430" s="0" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C430" s="0" t="s">
         <v>15</v>
@@ -13567,15 +13566,15 @@
         <v>19</v>
       </c>
       <c r="H430" s="0" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="431">
       <c r="A431" s="0" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C431" s="0" t="s">
         <v>15</v>
@@ -13590,15 +13589,15 @@
         <v>19</v>
       </c>
       <c r="H431" s="0" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="432">
       <c r="A432" s="0" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C432" s="0" t="s">
         <v>15</v>
@@ -13610,7 +13609,7 @@
         <v>19</v>
       </c>
       <c r="F432" s="0" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="G432" s="0" t="s">
         <v>12</v>
@@ -13618,10 +13617,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="433">
       <c r="A433" s="0" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C433" s="0" t="s">
         <v>15</v>
@@ -13638,10 +13637,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.05" outlineLevel="0" r="434">
       <c r="A434" s="0" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C434" s="0" t="s">
         <v>15</v>
@@ -13656,15 +13655,15 @@
         <v>19</v>
       </c>
       <c r="H434" s="0" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="435">
       <c r="A435" s="0" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C435" s="0" t="s">
         <v>15</v>
@@ -13679,27 +13678,27 @@
         <v>19</v>
       </c>
       <c r="H435" s="0" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="436">
       <c r="A436" s="0" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B436" s="0" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C436" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D436" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E436" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F436" s="0" t="s">
         <v>1216</v>
-      </c>
-      <c r="B436" s="0" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C436" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D436" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E436" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F436" s="0" t="s">
-        <v>1218</v>
       </c>
       <c r="G436" s="2" t="s">
         <v>12</v>
@@ -13707,33 +13706,33 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="437">
       <c r="A437" s="0" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B437" s="0" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C437" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D437" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E437" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G437" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H437" s="0" t="s">
         <v>1219</v>
-      </c>
-      <c r="B437" s="0" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C437" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D437" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E437" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G437" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H437" s="0" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="438">
       <c r="A438" s="0" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C438" s="0" t="s">
         <v>15</v>
@@ -13745,7 +13744,7 @@
         <v>19</v>
       </c>
       <c r="F438" s="0" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="G438" s="2" t="s">
         <v>12</v>
@@ -13753,36 +13752,36 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="439">
       <c r="A439" s="0" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B439" s="0" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C439" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="D439" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E439" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G439" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H439" s="0" t="s">
         <v>1225</v>
-      </c>
-      <c r="B439" s="0" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C439" s="0" t="s">
-        <v>900</v>
-      </c>
-      <c r="D439" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E439" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G439" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H439" s="0" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="440">
       <c r="A440" s="0" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C440" s="0" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D440" s="0" t="s">
         <v>25</v>
@@ -13791,70 +13790,70 @@
         <v>19</v>
       </c>
       <c r="F440" s="0" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="G440" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H440" s="0" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="441">
       <c r="A441" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B441" s="0" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C441" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="D441" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E441" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F441" s="0" t="s">
         <v>1231</v>
       </c>
-      <c r="B441" s="0" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C441" s="0" t="s">
-        <v>900</v>
-      </c>
-      <c r="D441" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E441" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F441" s="0" t="s">
-        <v>1233</v>
-      </c>
       <c r="G441" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H441" s="0" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="442">
       <c r="A442" s="0" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B442" s="0" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C442" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D442" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E442" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G442" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H442" s="0" t="s">
         <v>1234</v>
-      </c>
-      <c r="B442" s="0" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C442" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D442" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E442" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G442" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H442" s="0" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="443">
       <c r="A443" s="0" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C443" s="0" t="s">
         <v>111</v>
@@ -13866,21 +13865,21 @@
         <v>19</v>
       </c>
       <c r="F443" s="0" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="G443" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H443" s="0" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="444">
       <c r="A444" s="0" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C444" s="0" t="s">
         <v>111</v>
@@ -13892,7 +13891,7 @@
         <v>19</v>
       </c>
       <c r="F444" s="0" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="G444" s="0" t="s">
         <v>12</v>
@@ -13941,7 +13940,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.61176470588235"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13966,7 +13965,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.61176470588235"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/oiadsites.xlsx
+++ b/oiadsites.xlsx
@@ -2131,574 +2131,574 @@
     <t>http://www.meijer.com/s/big-steals/_/N-5io?icid=hpdsthu</t>
   </si>
   <si>
+    <t>http://www3.meijer.com/bigsteals.xml</t>
+  </si>
+  <si>
+    <t>Meritline</t>
+  </si>
+  <si>
+    <t>http://www.meritline.com/dailydeals.aspx</t>
+  </si>
+  <si>
+    <t>http://www.meritline.com/t-affiliate.aspx</t>
+  </si>
+  <si>
+    <t>Micro Center</t>
+  </si>
+  <si>
+    <t>http://www.microcenter.com/</t>
+  </si>
+  <si>
+    <t>http://feeds2.feedburner.com/MicroCenterDealOfTheDay</t>
+  </si>
+  <si>
+    <t>Midnight Box</t>
+  </si>
+  <si>
+    <t>http://www.midnightbox.com/</t>
+  </si>
+  <si>
+    <t>http://www.midnightbox.com/cgi-bin/rss.pl</t>
+  </si>
+  <si>
+    <t>Midnight Box 2</t>
+  </si>
+  <si>
+    <t>ajax load</t>
+  </si>
+  <si>
+    <t>Midnight Box 3</t>
+  </si>
+  <si>
+    <t>Midnight Steal</t>
+  </si>
+  <si>
+    <t>http://www.midnightsteal.com/</t>
+  </si>
+  <si>
+    <t>http://feeds.feedburner.com/midnightsteal/FcPh?format=xml</t>
+  </si>
+  <si>
+    <t>Mikasa</t>
+  </si>
+  <si>
+    <t>http://www.mikasa.com/</t>
+  </si>
+  <si>
+    <t>Image only</t>
+  </si>
+  <si>
+    <t>http://www.mikasa.com/Affiliate-Program/MIKASA_AFFILIATE_PROGRAM,default,pg.html</t>
+  </si>
+  <si>
+    <t>Mono Price</t>
+  </si>
+  <si>
+    <t>http://www.monoprice.com/home/index.asp</t>
+  </si>
+  <si>
+    <t>Montred</t>
+  </si>
+  <si>
+    <t>http://now.montred.com/</t>
+  </si>
+  <si>
+    <t>Fatal error: ...</t>
+  </si>
+  <si>
+    <t>http://now.montred.com/feed/</t>
+  </si>
+  <si>
+    <t>http://www.montred.com/affiliates/</t>
+  </si>
+  <si>
+    <t>Moonlight Special</t>
+  </si>
+  <si>
+    <t>http://www.moonlightspecial.com/</t>
+  </si>
+  <si>
+    <t>http://www.moonlightspecial.com/rssfeed.cfm</t>
+  </si>
+  <si>
+    <t>More Beer!</t>
+  </si>
+  <si>
+    <t>http://morebeer.com/</t>
+  </si>
+  <si>
+    <t>http://feeds.feedburner.com/MoreBeerDealFeed</t>
+  </si>
+  <si>
+    <t>http://moreflavor.postaffiliatepro.com/affiliates/</t>
+  </si>
+  <si>
+    <t>Moshells.com</t>
+  </si>
+  <si>
+    <t>http://www.moshells.com/</t>
+  </si>
+  <si>
+    <t>Mountain Gear</t>
+  </si>
+  <si>
+    <t>http://www.mountaingear.com/pages/product/dod.asp?&amp;N=0</t>
+  </si>
+  <si>
+    <t>http://www.mountaingear.com/deals.xml</t>
+  </si>
+  <si>
+    <t>Mr. Watch</t>
+  </si>
+  <si>
+    <t>http://www.mrwatch.com/Hot_Deal_of_the_Day-6_sale.html</t>
+  </si>
+  <si>
+    <t>http://www.mrwatch.com/rss_text.xml</t>
+  </si>
+  <si>
+    <t>http://www.mrwatch.com/affiliate_program-13-info.html</t>
+  </si>
+  <si>
+    <t>Muscle &amp; Strength</t>
+  </si>
+  <si>
+    <t>http://www.muscleandstrength.com/store/deal.html</t>
+  </si>
+  <si>
+    <t>Health / Beauty</t>
+  </si>
+  <si>
+    <t>http://feeds.feedburner.com/muscleandstrengthstore?format=xml</t>
+  </si>
+  <si>
+    <t>http://www.muscleandstrength.com/affiliate-program.html</t>
+  </si>
+  <si>
+    <t>Musician's Friend</t>
+  </si>
+  <si>
+    <t>http://www.musiciansfriend.com/stupid</t>
+  </si>
+  <si>
+    <t>http://feeds.feedburner.com/Musicians-Friend-Stupid-Deal?format=xml</t>
+  </si>
+  <si>
+    <t>https://signup.cj.com/member/brandedPublisherSignUp.do?air_refmerchantid=1496477</t>
+  </si>
+  <si>
+    <t>My Bling Spot</t>
+  </si>
+  <si>
+    <t>http://myblingspot.dodshops.com/</t>
+  </si>
+  <si>
+    <t>My Jewelry Box</t>
+  </si>
+  <si>
+    <t>http://www.myjewelrybox.com/</t>
+  </si>
+  <si>
+    <t>http://www.myjewelrybox.com/media/rss/MyJewelryBoxcomBargainofTheDay.xml</t>
+  </si>
+  <si>
+    <t>http://www.myjewelrybox.com/?section=becomeAffiliate</t>
+  </si>
+  <si>
+    <t>My Safety Shield</t>
+  </si>
+  <si>
+    <t>http://www.mysafetyshield.com/</t>
+  </si>
+  <si>
+    <t>Account suspended</t>
+  </si>
+  <si>
+    <t>http://www.mysafetyshield.com/todaydeal_rss.asp</t>
+  </si>
+  <si>
+    <t>Nerdy Shirts</t>
+  </si>
+  <si>
+    <t>http://www.nerdyshirts.com/dailydeal</t>
+  </si>
+  <si>
+    <t>http://nerdyshirts.disqus.com/admiral_ackbars_its_a_trap_funny_t_shirt/latest.rss</t>
+  </si>
+  <si>
+    <t>http://www.nerdyshirts.com/help/affiliates</t>
+  </si>
+  <si>
+    <t>Netaya</t>
+  </si>
+  <si>
+    <t>http://deal.netaya.com/</t>
+  </si>
+  <si>
+    <t>http://www.netaya.com/affiliate.html</t>
+  </si>
+  <si>
+    <t>New Day New Deal</t>
+  </si>
+  <si>
+    <t>https://www.newdaynewdeal.com/</t>
+  </si>
+  <si>
+    <t>NewDaVincis</t>
+  </si>
+  <si>
+    <t>http://www.newdavincis.com/specials.html</t>
+  </si>
+  <si>
+    <t>NewDaVincis 30 Minute</t>
+  </si>
+  <si>
+    <t>NewEgg</t>
+  </si>
+  <si>
+    <t>http://www.newegg.com/Special/ShellShocker.aspx</t>
+  </si>
+  <si>
+    <t>http://www.newegg.com/Product/RSS.aspx?Submit=ShellShocker</t>
+  </si>
+  <si>
+    <t>http://www.newegg.com/Info/Affiliates.aspx</t>
+  </si>
+  <si>
+    <t>NewEgg Daily Deals</t>
+  </si>
+  <si>
+    <t>http://www.newegg.com/DailyDeal.aspx?name=DailyDeal</t>
+  </si>
+  <si>
+    <t>http://www.newegg.com/Product/RSS.aspx?Submit=RSSDailyDeals</t>
+  </si>
+  <si>
+    <t>48 deals - list them all</t>
+  </si>
+  <si>
+    <t>NewEgg Mall</t>
+  </si>
+  <si>
+    <t>http://www.neweggmall.com/Default.aspx</t>
+  </si>
+  <si>
+    <t>Next Day Watches</t>
+  </si>
+  <si>
+    <t>http://www.nextdaywatches.com/</t>
+  </si>
+  <si>
+    <t>Noon Day Deal</t>
+  </si>
+  <si>
+    <t>http://www.noondaydeal.com/</t>
+  </si>
+  <si>
+    <t>http://www.noondaydeal.com/rss/</t>
+  </si>
+  <si>
+    <t>Nothing But Software</t>
+  </si>
+  <si>
+    <t>http://www.nothingbutsoftware.com/dailydeal.asp</t>
+  </si>
+  <si>
+    <t>nycloseout</t>
+  </si>
+  <si>
+    <t>http://nycloseout.dodshops.com/</t>
+  </si>
+  <si>
+    <t>Oh Buy It!</t>
+  </si>
+  <si>
+    <t>http://ohbuyit.com/</t>
+  </si>
+  <si>
+    <t>Oh Loot</t>
+  </si>
+  <si>
+    <t>http://www.ohloot.com/</t>
+  </si>
+  <si>
+    <t>http://www.ohloot.com/data/deals.xml</t>
+  </si>
+  <si>
+    <t>Two deals on site - see site</t>
+  </si>
+  <si>
+    <t>Oh Loot Bonus</t>
+  </si>
+  <si>
+    <t>http://www.ohloot.com/bonusdeal/</t>
+  </si>
+  <si>
+    <t>Omaha Steaks</t>
+  </si>
+  <si>
+    <t>http://www.omahasteaks.com/servlet/OnlineShopping?Dsp=237</t>
+  </si>
+  <si>
+    <t>On Your Eyes</t>
+  </si>
+  <si>
+    <t>http://www.onyoureyes.com/</t>
+  </si>
+  <si>
+    <t>http://feeds.feedburner.com/OnYourEyes</t>
+  </si>
+  <si>
+    <t>One A Day Deal</t>
+  </si>
+  <si>
+    <t>http://www.oneadaydeal.com/</t>
+  </si>
+  <si>
+    <t>http://feeds.feedburner.com/OneADayDeal</t>
+  </si>
+  <si>
+    <t>One Call</t>
+  </si>
+  <si>
+    <t>http://www.onecall.com/</t>
+  </si>
+  <si>
+    <t>http://affiliates.onecall.com/</t>
+  </si>
+  <si>
+    <t>One Small Store</t>
+  </si>
+  <si>
+    <t>http://www.onesmallstore.com/catalog/193/1/Deal_of_the_Day!.html</t>
+  </si>
+  <si>
+    <t>STORE IS SUSPENDED</t>
+  </si>
+  <si>
+    <t>One Tool A Day</t>
+  </si>
+  <si>
+    <t>http://www.onetooladay.com/</t>
+  </si>
+  <si>
+    <t>Orange Onions</t>
+  </si>
+  <si>
+    <t>http://www.orangeonions.com/category/peel_of_the_day/</t>
+  </si>
+  <si>
+    <t>http://static.zoovy.com/rss/orangeonions/RSSDOD.xml</t>
+  </si>
+  <si>
+    <t>Organize.com</t>
+  </si>
+  <si>
+    <t>http://www.organize.com/</t>
+  </si>
+  <si>
+    <t>https://signup.cj.com/member/brandedPublisherSignUp.do?air_refmerchantid=1530314</t>
+  </si>
+  <si>
+    <t>Orion</t>
+  </si>
+  <si>
+    <t>http://www.telescope.com/control/product/~category_id=HP_DealDayZone/~pcategory=HOMEPAGE/~product_id=09925</t>
+  </si>
+  <si>
+    <t>http://www.telescope.com/rsc/img/catalog/affiliate/affiliate-imaginova.html</t>
+  </si>
+  <si>
+    <t>ORS Direct</t>
+  </si>
+  <si>
+    <t>http://www.orsdirect.com/</t>
+  </si>
+  <si>
+    <t>Out In Style</t>
+  </si>
+  <si>
+    <t>http://www.outinstyle.com/</t>
+  </si>
+  <si>
+    <t>http://www.outinstyle.com/info/affiliate.html</t>
+  </si>
+  <si>
+    <t>Outdoor Daily</t>
+  </si>
+  <si>
+    <t>http://www.outdoordaily.com/</t>
+  </si>
+  <si>
+    <t>http://www.outdoordaily.com/rss.php</t>
+  </si>
+  <si>
+    <t>Overstock.com</t>
+  </si>
+  <si>
+    <t>OverstockDrugstore</t>
+  </si>
+  <si>
+    <t>http://www.overstockdrugstore.com/index.php</t>
+  </si>
+  <si>
+    <t>PacificGeek</t>
+  </si>
+  <si>
+    <t>http://www.pacificgeek.com/nooner.asp</t>
+  </si>
+  <si>
+    <t>http://www.pacificgeek.com/rss/nooner-rss.asp</t>
+  </si>
+  <si>
+    <t>https://www.connectcommerce.com/secure/partner_app_alt.html?ccmid=21000000000237615</t>
+  </si>
+  <si>
+    <t>PacSun Mens</t>
+  </si>
+  <si>
+    <t>http://shop.pacsun.com/content.jsp?pageName=sale</t>
+  </si>
+  <si>
+    <t>http://feeds.pacsun.com/PacsunDailyDeals?format=xml</t>
+  </si>
+  <si>
+    <t>http://shop.pacsun.com/affiliates</t>
+  </si>
+  <si>
+    <t>PacSun Womens</t>
+  </si>
+  <si>
+    <t>Paws 4 Deals</t>
+  </si>
+  <si>
+    <t>http://www.paws4deals.com/</t>
+  </si>
+  <si>
+    <t>http://www.paws4deals.com/index.php?main_page=rss_feed&amp;feed=products&amp;products_id=271&amp;zenid=fa4ff92666ab22351fd99a229a0bdd5f</t>
+  </si>
+  <si>
+    <t>http://www.shareasale.com/shareasale.cfm?merchantID=21349</t>
+  </si>
+  <si>
+    <t>Paws Choice</t>
+  </si>
+  <si>
+    <t>http://www.pawschoice.com/deal-of-the-day.aspx</t>
+  </si>
+  <si>
+    <t>http://www.linkconnector.com/affiliateprogram.htm?mid=20809&amp;asid=54171&amp;lct=s</t>
+  </si>
+  <si>
+    <t>Peachy Cheap</t>
+  </si>
+  <si>
+    <t>http://www.peachycheap.com/</t>
+  </si>
+  <si>
+    <t>http://peachycheap.com/index.php?main_page=rss_feed&amp;feed=specials</t>
+  </si>
+  <si>
+    <t>Pennywise</t>
+  </si>
+  <si>
+    <t>http://www.pennywise.biz/</t>
+  </si>
+  <si>
+    <t>http://www.pennywise.biz/rss.php?PHPSESSID=scgps0n25p08rgrg5lghf6ts35</t>
+  </si>
+  <si>
+    <t>Performance Bicycle</t>
+  </si>
+  <si>
+    <t>http://www.performancebike.com/</t>
+  </si>
+  <si>
+    <t>http://www.performancebike.com/bikes/Content_10052_10551_-1_Affiliate</t>
+  </si>
+  <si>
+    <t>Perfume A Day</t>
+  </si>
+  <si>
+    <t>http://www.perfumeaday.org/</t>
+  </si>
+  <si>
+    <t>http://www.perfumeaday.org/rss/</t>
+  </si>
+  <si>
+    <t>Pet Simply</t>
+  </si>
+  <si>
+    <t>http://petsimply.com/deal/</t>
+  </si>
+  <si>
+    <t>http://petsimply.com/affiliate/</t>
+  </si>
+  <si>
+    <t>Pfaltzgraff</t>
+  </si>
+  <si>
+    <t>http://www.pfaltzgraff.com/</t>
+  </si>
+  <si>
+    <t>http://www.pfaltzgraff.com/dinnerware-cookware/AFFILIATE_PROGRAM,default,pg.html</t>
+  </si>
+  <si>
+    <t>Price Plunge</t>
+  </si>
+  <si>
+    <t>http://www.priceplunge.com/</t>
+  </si>
+  <si>
+    <t>http://feeds.feedburner.com/PricePlungeDailyDeals</t>
+  </si>
+  <si>
+    <t>http://www.priceplunge.com/Forms/13-Affiliate-Program</t>
+  </si>
+  <si>
+    <t>ProHealth</t>
+  </si>
+  <si>
+    <t>http://www.prohealth.com/index.cfm</t>
+  </si>
+  <si>
+    <t>http://feeds.prohealth.com/Prohealth_DealOfTheDay?format=xml</t>
+  </si>
+  <si>
+    <t>http://www.prohealth.com/affiliates/index.cfm</t>
+  </si>
+  <si>
+    <t>Projector People</t>
+  </si>
+  <si>
+    <t>http://www.projectorpeople.com/deal/default.asp</t>
+  </si>
+  <si>
+    <t>http://www.projectorpeople.com/deal/xmlfeed.asp</t>
+  </si>
+  <si>
+    <t>Property Room</t>
+  </si>
+  <si>
+    <t>http://propertyroom.com/Catalog.aspx?Category=Steal%20of%20the%20Day&amp;CategoryId=355</t>
+  </si>
+  <si>
+    <t>PulseTV</t>
+  </si>
+  <si>
+    <t>http://deal.pulsetv.com/</t>
+  </si>
+  <si>
+    <t>http://www2.pulsetv.com/dod.asp</t>
+  </si>
+  <si>
+    <t>PulseTV 2</t>
+  </si>
+  <si>
+    <t>http://www2.pulsetv.com/deals.asp</t>
+  </si>
+  <si>
     <t>Unparsable</t>
-  </si>
-  <si>
-    <t>http://www3.meijer.com/bigsteals.xml</t>
-  </si>
-  <si>
-    <t>Meritline</t>
-  </si>
-  <si>
-    <t>http://www.meritline.com/dailydeals.aspx</t>
-  </si>
-  <si>
-    <t>http://www.meritline.com/t-affiliate.aspx</t>
-  </si>
-  <si>
-    <t>Micro Center</t>
-  </si>
-  <si>
-    <t>http://www.microcenter.com/</t>
-  </si>
-  <si>
-    <t>http://feeds2.feedburner.com/MicroCenterDealOfTheDay</t>
-  </si>
-  <si>
-    <t>Midnight Box</t>
-  </si>
-  <si>
-    <t>http://www.midnightbox.com/</t>
-  </si>
-  <si>
-    <t>http://www.midnightbox.com/cgi-bin/rss.pl</t>
-  </si>
-  <si>
-    <t>Midnight Box 2</t>
-  </si>
-  <si>
-    <t>ajax load</t>
-  </si>
-  <si>
-    <t>Midnight Box 3</t>
-  </si>
-  <si>
-    <t>Midnight Steal</t>
-  </si>
-  <si>
-    <t>http://www.midnightsteal.com/</t>
-  </si>
-  <si>
-    <t>http://feeds.feedburner.com/midnightsteal/FcPh?format=xml</t>
-  </si>
-  <si>
-    <t>Mikasa</t>
-  </si>
-  <si>
-    <t>http://www.mikasa.com/</t>
-  </si>
-  <si>
-    <t>Image only</t>
-  </si>
-  <si>
-    <t>http://www.mikasa.com/Affiliate-Program/MIKASA_AFFILIATE_PROGRAM,default,pg.html</t>
-  </si>
-  <si>
-    <t>Mono Price</t>
-  </si>
-  <si>
-    <t>http://www.monoprice.com/home/index.asp</t>
-  </si>
-  <si>
-    <t>Montred</t>
-  </si>
-  <si>
-    <t>http://now.montred.com/</t>
-  </si>
-  <si>
-    <t>Fatal error: ...</t>
-  </si>
-  <si>
-    <t>http://now.montred.com/feed/</t>
-  </si>
-  <si>
-    <t>http://www.montred.com/affiliates/</t>
-  </si>
-  <si>
-    <t>Moonlight Special</t>
-  </si>
-  <si>
-    <t>http://www.moonlightspecial.com/</t>
-  </si>
-  <si>
-    <t>http://www.moonlightspecial.com/rssfeed.cfm</t>
-  </si>
-  <si>
-    <t>More Beer!</t>
-  </si>
-  <si>
-    <t>http://morebeer.com/</t>
-  </si>
-  <si>
-    <t>http://feeds.feedburner.com/MoreBeerDealFeed</t>
-  </si>
-  <si>
-    <t>http://moreflavor.postaffiliatepro.com/affiliates/</t>
-  </si>
-  <si>
-    <t>Moshells.com</t>
-  </si>
-  <si>
-    <t>http://www.moshells.com/</t>
-  </si>
-  <si>
-    <t>Mountain Gear</t>
-  </si>
-  <si>
-    <t>http://www.mountaingear.com/pages/product/dod.asp?&amp;N=0</t>
-  </si>
-  <si>
-    <t>http://www.mountaingear.com/deals.xml</t>
-  </si>
-  <si>
-    <t>Mr. Watch</t>
-  </si>
-  <si>
-    <t>http://www.mrwatch.com/Hot_Deal_of_the_Day-6_sale.html</t>
-  </si>
-  <si>
-    <t>http://www.mrwatch.com/rss_text.xml</t>
-  </si>
-  <si>
-    <t>http://www.mrwatch.com/affiliate_program-13-info.html</t>
-  </si>
-  <si>
-    <t>Muscle &amp; Strength</t>
-  </si>
-  <si>
-    <t>http://www.muscleandstrength.com/store/deal.html</t>
-  </si>
-  <si>
-    <t>Health / Beauty</t>
-  </si>
-  <si>
-    <t>http://feeds.feedburner.com/muscleandstrengthstore?format=xml</t>
-  </si>
-  <si>
-    <t>http://www.muscleandstrength.com/affiliate-program.html</t>
-  </si>
-  <si>
-    <t>Musician's Friend</t>
-  </si>
-  <si>
-    <t>http://www.musiciansfriend.com/stupid</t>
-  </si>
-  <si>
-    <t>http://feeds.feedburner.com/Musicians-Friend-Stupid-Deal?format=xml</t>
-  </si>
-  <si>
-    <t>https://signup.cj.com/member/brandedPublisherSignUp.do?air_refmerchantid=1496477</t>
-  </si>
-  <si>
-    <t>My Bling Spot</t>
-  </si>
-  <si>
-    <t>http://myblingspot.dodshops.com/</t>
-  </si>
-  <si>
-    <t>My Jewelry Box</t>
-  </si>
-  <si>
-    <t>http://www.myjewelrybox.com/</t>
-  </si>
-  <si>
-    <t>http://www.myjewelrybox.com/media/rss/MyJewelryBoxcomBargainofTheDay.xml</t>
-  </si>
-  <si>
-    <t>http://www.myjewelrybox.com/?section=becomeAffiliate</t>
-  </si>
-  <si>
-    <t>My Safety Shield</t>
-  </si>
-  <si>
-    <t>http://www.mysafetyshield.com/</t>
-  </si>
-  <si>
-    <t>Account suspended</t>
-  </si>
-  <si>
-    <t>http://www.mysafetyshield.com/todaydeal_rss.asp</t>
-  </si>
-  <si>
-    <t>Nerdy Shirts</t>
-  </si>
-  <si>
-    <t>http://www.nerdyshirts.com/dailydeal</t>
-  </si>
-  <si>
-    <t>http://nerdyshirts.disqus.com/admiral_ackbars_its_a_trap_funny_t_shirt/latest.rss</t>
-  </si>
-  <si>
-    <t>http://www.nerdyshirts.com/help/affiliates</t>
-  </si>
-  <si>
-    <t>Netaya</t>
-  </si>
-  <si>
-    <t>http://deal.netaya.com/</t>
-  </si>
-  <si>
-    <t>http://www.netaya.com/affiliate.html</t>
-  </si>
-  <si>
-    <t>New Day New Deal</t>
-  </si>
-  <si>
-    <t>https://www.newdaynewdeal.com/</t>
-  </si>
-  <si>
-    <t>NewDaVincis</t>
-  </si>
-  <si>
-    <t>http://www.newdavincis.com/specials.html</t>
-  </si>
-  <si>
-    <t>NewDaVincis 30 Minute</t>
-  </si>
-  <si>
-    <t>NewEgg</t>
-  </si>
-  <si>
-    <t>http://www.newegg.com/Special/ShellShocker.aspx</t>
-  </si>
-  <si>
-    <t>http://www.newegg.com/Product/RSS.aspx?Submit=ShellShocker</t>
-  </si>
-  <si>
-    <t>http://www.newegg.com/Info/Affiliates.aspx</t>
-  </si>
-  <si>
-    <t>NewEgg Daily Deals</t>
-  </si>
-  <si>
-    <t>http://www.newegg.com/DailyDeal.aspx?name=DailyDeal</t>
-  </si>
-  <si>
-    <t>http://www.newegg.com/Product/RSS.aspx?Submit=RSSDailyDeals</t>
-  </si>
-  <si>
-    <t>48 deals - list them all</t>
-  </si>
-  <si>
-    <t>NewEgg Mall</t>
-  </si>
-  <si>
-    <t>http://www.neweggmall.com/Default.aspx</t>
-  </si>
-  <si>
-    <t>Next Day Watches</t>
-  </si>
-  <si>
-    <t>http://www.nextdaywatches.com/</t>
-  </si>
-  <si>
-    <t>Noon Day Deal</t>
-  </si>
-  <si>
-    <t>http://www.noondaydeal.com/</t>
-  </si>
-  <si>
-    <t>http://www.noondaydeal.com/rss/</t>
-  </si>
-  <si>
-    <t>Nothing But Software</t>
-  </si>
-  <si>
-    <t>http://www.nothingbutsoftware.com/dailydeal.asp</t>
-  </si>
-  <si>
-    <t>nycloseout</t>
-  </si>
-  <si>
-    <t>http://nycloseout.dodshops.com/</t>
-  </si>
-  <si>
-    <t>Oh Buy It!</t>
-  </si>
-  <si>
-    <t>http://ohbuyit.com/</t>
-  </si>
-  <si>
-    <t>Oh Loot</t>
-  </si>
-  <si>
-    <t>http://www.ohloot.com/</t>
-  </si>
-  <si>
-    <t>http://www.ohloot.com/data/deals.xml</t>
-  </si>
-  <si>
-    <t>Two deals on site - see site</t>
-  </si>
-  <si>
-    <t>Oh Loot Bonus</t>
-  </si>
-  <si>
-    <t>http://www.ohloot.com/bonusdeal/</t>
-  </si>
-  <si>
-    <t>Omaha Steaks</t>
-  </si>
-  <si>
-    <t>http://www.omahasteaks.com/servlet/OnlineShopping?Dsp=237</t>
-  </si>
-  <si>
-    <t>On Your Eyes</t>
-  </si>
-  <si>
-    <t>http://www.onyoureyes.com/</t>
-  </si>
-  <si>
-    <t>http://feeds.feedburner.com/OnYourEyes</t>
-  </si>
-  <si>
-    <t>One A Day Deal</t>
-  </si>
-  <si>
-    <t>http://www.oneadaydeal.com/</t>
-  </si>
-  <si>
-    <t>http://feeds.feedburner.com/OneADayDeal</t>
-  </si>
-  <si>
-    <t>One Call</t>
-  </si>
-  <si>
-    <t>http://www.onecall.com/</t>
-  </si>
-  <si>
-    <t>http://affiliates.onecall.com/</t>
-  </si>
-  <si>
-    <t>One Small Store</t>
-  </si>
-  <si>
-    <t>http://www.onesmallstore.com/catalog/193/1/Deal_of_the_Day!.html</t>
-  </si>
-  <si>
-    <t>STORE IS SUSPENDED</t>
-  </si>
-  <si>
-    <t>One Tool A Day</t>
-  </si>
-  <si>
-    <t>http://www.onetooladay.com/</t>
-  </si>
-  <si>
-    <t>Orange Onions</t>
-  </si>
-  <si>
-    <t>http://www.orangeonions.com/category/peel_of_the_day/</t>
-  </si>
-  <si>
-    <t>http://static.zoovy.com/rss/orangeonions/RSSDOD.xml</t>
-  </si>
-  <si>
-    <t>Organize.com</t>
-  </si>
-  <si>
-    <t>http://www.organize.com/</t>
-  </si>
-  <si>
-    <t>https://signup.cj.com/member/brandedPublisherSignUp.do?air_refmerchantid=1530314</t>
-  </si>
-  <si>
-    <t>Orion</t>
-  </si>
-  <si>
-    <t>http://www.telescope.com/control/product/~category_id=HP_DealDayZone/~pcategory=HOMEPAGE/~product_id=09925</t>
-  </si>
-  <si>
-    <t>http://www.telescope.com/rsc/img/catalog/affiliate/affiliate-imaginova.html</t>
-  </si>
-  <si>
-    <t>ORS Direct</t>
-  </si>
-  <si>
-    <t>http://www.orsdirect.com/</t>
-  </si>
-  <si>
-    <t>Out In Style</t>
-  </si>
-  <si>
-    <t>http://www.outinstyle.com/</t>
-  </si>
-  <si>
-    <t>http://www.outinstyle.com/info/affiliate.html</t>
-  </si>
-  <si>
-    <t>Outdoor Daily</t>
-  </si>
-  <si>
-    <t>http://www.outdoordaily.com/</t>
-  </si>
-  <si>
-    <t>http://www.outdoordaily.com/rss.php</t>
-  </si>
-  <si>
-    <t>Overstock.com</t>
-  </si>
-  <si>
-    <t>OverstockDrugstore</t>
-  </si>
-  <si>
-    <t>http://www.overstockdrugstore.com/index.php</t>
-  </si>
-  <si>
-    <t>PacificGeek</t>
-  </si>
-  <si>
-    <t>http://www.pacificgeek.com/nooner.asp</t>
-  </si>
-  <si>
-    <t>http://www.pacificgeek.com/rss/nooner-rss.asp</t>
-  </si>
-  <si>
-    <t>https://www.connectcommerce.com/secure/partner_app_alt.html?ccmid=21000000000237615</t>
-  </si>
-  <si>
-    <t>PacSun Mens</t>
-  </si>
-  <si>
-    <t>http://shop.pacsun.com/content.jsp?pageName=sale</t>
-  </si>
-  <si>
-    <t>http://feeds.pacsun.com/PacsunDailyDeals?format=xml</t>
-  </si>
-  <si>
-    <t>http://shop.pacsun.com/affiliates</t>
-  </si>
-  <si>
-    <t>PacSun Womens</t>
-  </si>
-  <si>
-    <t>Paws 4 Deals</t>
-  </si>
-  <si>
-    <t>http://www.paws4deals.com/</t>
-  </si>
-  <si>
-    <t>http://www.paws4deals.com/index.php?main_page=rss_feed&amp;feed=products&amp;products_id=271&amp;zenid=fa4ff92666ab22351fd99a229a0bdd5f</t>
-  </si>
-  <si>
-    <t>http://www.shareasale.com/shareasale.cfm?merchantID=21349</t>
-  </si>
-  <si>
-    <t>Paws Choice</t>
-  </si>
-  <si>
-    <t>http://www.pawschoice.com/deal-of-the-day.aspx</t>
-  </si>
-  <si>
-    <t>http://www.linkconnector.com/affiliateprogram.htm?mid=20809&amp;asid=54171&amp;lct=s</t>
-  </si>
-  <si>
-    <t>Peachy Cheap</t>
-  </si>
-  <si>
-    <t>http://www.peachycheap.com/</t>
-  </si>
-  <si>
-    <t>http://peachycheap.com/index.php?main_page=rss_feed&amp;feed=specials</t>
-  </si>
-  <si>
-    <t>Pennywise</t>
-  </si>
-  <si>
-    <t>http://www.pennywise.biz/</t>
-  </si>
-  <si>
-    <t>http://www.pennywise.biz/rss.php?PHPSESSID=scgps0n25p08rgrg5lghf6ts35</t>
-  </si>
-  <si>
-    <t>Performance Bicycle</t>
-  </si>
-  <si>
-    <t>http://www.performancebike.com/</t>
-  </si>
-  <si>
-    <t>http://www.performancebike.com/bikes/Content_10052_10551_-1_Affiliate</t>
-  </si>
-  <si>
-    <t>Perfume A Day</t>
-  </si>
-  <si>
-    <t>http://www.perfumeaday.org/</t>
-  </si>
-  <si>
-    <t>http://www.perfumeaday.org/rss/</t>
-  </si>
-  <si>
-    <t>Pet Simply</t>
-  </si>
-  <si>
-    <t>http://petsimply.com/deal/</t>
-  </si>
-  <si>
-    <t>http://petsimply.com/affiliate/</t>
-  </si>
-  <si>
-    <t>Pfaltzgraff</t>
-  </si>
-  <si>
-    <t>http://www.pfaltzgraff.com/</t>
-  </si>
-  <si>
-    <t>http://www.pfaltzgraff.com/dinnerware-cookware/AFFILIATE_PROGRAM,default,pg.html</t>
-  </si>
-  <si>
-    <t>Price Plunge</t>
-  </si>
-  <si>
-    <t>http://www.priceplunge.com/</t>
-  </si>
-  <si>
-    <t>http://feeds.feedburner.com/PricePlungeDailyDeals</t>
-  </si>
-  <si>
-    <t>http://www.priceplunge.com/Forms/13-Affiliate-Program</t>
-  </si>
-  <si>
-    <t>ProHealth</t>
-  </si>
-  <si>
-    <t>http://www.prohealth.com/index.cfm</t>
-  </si>
-  <si>
-    <t>http://feeds.prohealth.com/Prohealth_DealOfTheDay?format=xml</t>
-  </si>
-  <si>
-    <t>http://www.prohealth.com/affiliates/index.cfm</t>
-  </si>
-  <si>
-    <t>Projector People</t>
-  </si>
-  <si>
-    <t>http://www.projectorpeople.com/deal/default.asp</t>
-  </si>
-  <si>
-    <t>http://www.projectorpeople.com/deal/xmlfeed.asp</t>
-  </si>
-  <si>
-    <t>Property Room</t>
-  </si>
-  <si>
-    <t>http://propertyroom.com/Catalog.aspx?Category=Steal%20of%20the%20Day&amp;CategoryId=355</t>
-  </si>
-  <si>
-    <t>PulseTV</t>
-  </si>
-  <si>
-    <t>http://deal.pulsetv.com/</t>
-  </si>
-  <si>
-    <t>http://www2.pulsetv.com/dod.asp</t>
-  </si>
-  <si>
-    <t>PulseTV 2</t>
-  </si>
-  <si>
-    <t>http://www2.pulsetv.com/deals.asp</t>
   </si>
   <si>
     <t>QLIQO</t>
@@ -3909,19 +3909,20 @@
   </sheetPr>
   <dimension ref="A1:I444"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A14" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A17" activeCellId="0" pane="topLeft" sqref="A17"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C312" activeCellId="0" pane="topLeft" sqref="C312"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6509803921569"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.0705882352941"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.321568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2352941176471"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.7882352941176"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.721568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.4156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.5019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2980392156863"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.8470588235294"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="1">
@@ -9416,7 +9417,7 @@
         <v>703</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>704</v>
+        <v>15</v>
       </c>
       <c r="D247" s="0" t="s">
         <v>16</v>
@@ -9425,7 +9426,7 @@
         <v>19</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G247" s="0" t="s">
         <v>19</v>
@@ -9436,10 +9437,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="248">
       <c r="A248" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="B248" s="0" t="s">
         <v>706</v>
-      </c>
-      <c r="B248" s="0" t="s">
-        <v>707</v>
       </c>
       <c r="C248" s="0" t="s">
         <v>15</v>
@@ -9454,15 +9455,15 @@
         <v>19</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="249">
       <c r="A249" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="B249" s="0" t="s">
         <v>709</v>
-      </c>
-      <c r="B249" s="0" t="s">
-        <v>710</v>
       </c>
       <c r="C249" s="0" t="s">
         <v>54</v>
@@ -9474,7 +9475,7 @@
         <v>19</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G249" s="0" t="s">
         <v>12</v>
@@ -9482,22 +9483,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="250">
       <c r="A250" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="B250" s="0" t="s">
         <v>712</v>
       </c>
-      <c r="B250" s="0" t="s">
+      <c r="C250" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D250" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E250" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F250" s="0" t="s">
         <v>713</v>
-      </c>
-      <c r="C250" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D250" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E250" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F250" s="0" t="s">
-        <v>714</v>
       </c>
       <c r="G250" s="0" t="s">
         <v>12</v>
@@ -9505,22 +9506,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="251">
       <c r="A251" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="C251" s="0" t="s">
         <v>715</v>
       </c>
-      <c r="B251" s="0" t="s">
+      <c r="D251" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E251" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F251" s="0" t="s">
         <v>713</v>
-      </c>
-      <c r="C251" s="0" t="s">
-        <v>716</v>
-      </c>
-      <c r="D251" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E251" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F251" s="0" t="s">
-        <v>714</v>
       </c>
       <c r="G251" s="0" t="s">
         <v>12</v>
@@ -9528,22 +9529,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="252">
       <c r="A252" s="0" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B252" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="C252" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="D252" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E252" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F252" s="0" t="s">
         <v>713</v>
-      </c>
-      <c r="C252" s="0" t="s">
-        <v>716</v>
-      </c>
-      <c r="D252" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E252" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F252" s="0" t="s">
-        <v>714</v>
       </c>
       <c r="G252" s="0" t="s">
         <v>12</v>
@@ -9551,22 +9552,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="253">
       <c r="A253" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="B253" s="0" t="s">
         <v>718</v>
       </c>
-      <c r="B253" s="0" t="s">
+      <c r="C253" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D253" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E253" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F253" s="0" t="s">
         <v>719</v>
-      </c>
-      <c r="C253" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D253" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E253" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F253" s="0" t="s">
-        <v>720</v>
       </c>
       <c r="G253" s="0" t="s">
         <v>12</v>
@@ -9574,13 +9575,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="254">
       <c r="A254" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="B254" s="0" t="s">
         <v>721</v>
       </c>
-      <c r="B254" s="0" t="s">
+      <c r="C254" s="0" t="s">
         <v>722</v>
-      </c>
-      <c r="C254" s="0" t="s">
-        <v>723</v>
       </c>
       <c r="D254" s="0" t="s">
         <v>36</v>
@@ -9592,15 +9593,15 @@
         <v>19</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="255">
       <c r="A255" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="B255" s="0" t="s">
         <v>725</v>
-      </c>
-      <c r="B255" s="0" t="s">
-        <v>726</v>
       </c>
       <c r="C255" s="0" t="s">
         <v>15</v>
@@ -9617,13 +9618,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="256">
       <c r="A256" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="B256" s="0" t="s">
         <v>727</v>
       </c>
-      <c r="B256" s="0" t="s">
+      <c r="C256" s="2" t="s">
         <v>728</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>729</v>
       </c>
       <c r="D256" s="0" t="s">
         <v>25</v>
@@ -9632,33 +9633,33 @@
         <v>19</v>
       </c>
       <c r="F256" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="G256" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H256" s="0" t="s">
         <v>730</v>
-      </c>
-      <c r="G256" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H256" s="0" t="s">
-        <v>731</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="257">
       <c r="A257" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="B257" s="0" t="s">
         <v>732</v>
       </c>
-      <c r="B257" s="0" t="s">
+      <c r="C257" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D257" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E257" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F257" s="0" t="s">
         <v>733</v>
-      </c>
-      <c r="C257" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D257" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E257" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F257" s="0" t="s">
-        <v>734</v>
       </c>
       <c r="G257" s="0" t="s">
         <v>12</v>
@@ -9666,10 +9667,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="258">
       <c r="A258" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="B258" s="0" t="s">
         <v>735</v>
-      </c>
-      <c r="B258" s="0" t="s">
-        <v>736</v>
       </c>
       <c r="C258" s="0" t="s">
         <v>15</v>
@@ -9681,21 +9682,21 @@
         <v>19</v>
       </c>
       <c r="F258" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="G258" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H258" s="0" t="s">
         <v>737</v>
-      </c>
-      <c r="G258" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H258" s="0" t="s">
-        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="259">
       <c r="A259" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="B259" s="0" t="s">
         <v>739</v>
-      </c>
-      <c r="B259" s="0" t="s">
-        <v>740</v>
       </c>
       <c r="C259" s="0" t="s">
         <v>15</v>
@@ -9712,10 +9713,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="260">
       <c r="A260" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="B260" s="0" t="s">
         <v>741</v>
-      </c>
-      <c r="B260" s="0" t="s">
-        <v>742</v>
       </c>
       <c r="C260" s="0" t="s">
         <v>15</v>
@@ -9727,7 +9728,7 @@
         <v>19</v>
       </c>
       <c r="F260" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G260" s="0" t="s">
         <v>12</v>
@@ -9735,10 +9736,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="261">
       <c r="A261" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="B261" s="0" t="s">
         <v>744</v>
-      </c>
-      <c r="B261" s="0" t="s">
-        <v>745</v>
       </c>
       <c r="C261" s="0" t="s">
         <v>15</v>
@@ -9750,47 +9751,47 @@
         <v>19</v>
       </c>
       <c r="F261" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="G261" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H261" s="0" t="s">
         <v>746</v>
-      </c>
-      <c r="G261" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H261" s="0" t="s">
-        <v>747</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="262">
       <c r="A262" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="B262" s="0" t="s">
         <v>748</v>
       </c>
-      <c r="B262" s="0" t="s">
+      <c r="C262" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D262" s="0" t="s">
         <v>749</v>
       </c>
-      <c r="C262" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D262" s="0" t="s">
+      <c r="E262" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F262" s="0" t="s">
         <v>750</v>
       </c>
-      <c r="E262" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F262" s="0" t="s">
+      <c r="G262" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H262" s="0" t="s">
         <v>751</v>
-      </c>
-      <c r="G262" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H262" s="0" t="s">
-        <v>752</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="263">
       <c r="A263" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="B263" s="0" t="s">
         <v>753</v>
-      </c>
-      <c r="B263" s="0" t="s">
-        <v>754</v>
       </c>
       <c r="C263" s="0" t="s">
         <v>15</v>
@@ -9802,21 +9803,21 @@
         <v>19</v>
       </c>
       <c r="F263" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="G263" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H263" s="0" t="s">
         <v>755</v>
-      </c>
-      <c r="G263" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H263" s="0" t="s">
-        <v>756</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="264">
       <c r="A264" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="B264" s="0" t="s">
         <v>757</v>
-      </c>
-      <c r="B264" s="0" t="s">
-        <v>758</v>
       </c>
       <c r="C264" s="0" t="s">
         <v>15</v>
@@ -9833,10 +9834,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="265">
       <c r="A265" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="B265" s="0" t="s">
         <v>759</v>
-      </c>
-      <c r="B265" s="0" t="s">
-        <v>760</v>
       </c>
       <c r="C265" s="0" t="s">
         <v>15</v>
@@ -9848,33 +9849,33 @@
         <v>19</v>
       </c>
       <c r="F265" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="G265" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H265" s="0" t="s">
         <v>761</v>
-      </c>
-      <c r="G265" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H265" s="0" t="s">
-        <v>762</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="266">
       <c r="A266" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="B266" s="0" t="s">
         <v>763</v>
       </c>
-      <c r="B266" s="0" t="s">
+      <c r="C266" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="D266" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E266" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F266" s="0" t="s">
         <v>765</v>
-      </c>
-      <c r="D266" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E266" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F266" s="0" t="s">
-        <v>766</v>
       </c>
       <c r="G266" s="0" t="s">
         <v>12</v>
@@ -9882,10 +9883,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="267">
       <c r="A267" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="B267" s="0" t="s">
         <v>767</v>
-      </c>
-      <c r="B267" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="C267" s="0" t="s">
         <v>15</v>
@@ -9897,21 +9898,21 @@
         <v>19</v>
       </c>
       <c r="F267" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="G267" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H267" s="0" t="s">
         <v>769</v>
-      </c>
-      <c r="G267" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H267" s="0" t="s">
-        <v>770</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="268">
       <c r="A268" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="B268" s="0" t="s">
         <v>771</v>
-      </c>
-      <c r="B268" s="0" t="s">
-        <v>772</v>
       </c>
       <c r="C268" s="0" t="s">
         <v>15</v>
@@ -9926,15 +9927,15 @@
         <v>19</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="269">
       <c r="A269" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="B269" s="0" t="s">
         <v>774</v>
-      </c>
-      <c r="B269" s="0" t="s">
-        <v>775</v>
       </c>
       <c r="C269" s="0" t="s">
         <v>15</v>
@@ -9942,10 +9943,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="270">
       <c r="A270" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="B270" s="0" t="s">
         <v>776</v>
-      </c>
-      <c r="B270" s="0" t="s">
-        <v>777</v>
       </c>
       <c r="C270" s="0" t="s">
         <v>54</v>
@@ -9962,10 +9963,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="271">
       <c r="A271" s="0" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C271" s="0" t="s">
         <v>15</v>
@@ -9982,10 +9983,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="272">
       <c r="A272" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="B272" s="0" t="s">
         <v>779</v>
-      </c>
-      <c r="B272" s="0" t="s">
-        <v>780</v>
       </c>
       <c r="C272" s="0" t="s">
         <v>15</v>
@@ -9997,21 +9998,21 @@
         <v>19</v>
       </c>
       <c r="F272" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="G272" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H272" s="0" t="s">
         <v>781</v>
-      </c>
-      <c r="G272" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H272" s="0" t="s">
-        <v>782</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="273">
       <c r="A273" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="B273" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="B273" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="C273" s="0" t="s">
         <v>15</v>
@@ -10023,24 +10024,24 @@
         <v>19</v>
       </c>
       <c r="F273" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="G273" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H273" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="I273" s="0" t="s">
         <v>785</v>
-      </c>
-      <c r="G273" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H273" s="0" t="s">
-        <v>782</v>
-      </c>
-      <c r="I273" s="0" t="s">
-        <v>786</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="274">
       <c r="A274" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="B274" s="0" t="s">
         <v>787</v>
-      </c>
-      <c r="B274" s="0" t="s">
-        <v>788</v>
       </c>
       <c r="C274" s="0" t="s">
         <v>111</v>
@@ -10055,15 +10056,15 @@
         <v>19</v>
       </c>
       <c r="H274" s="0" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="275">
       <c r="A275" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="B275" s="0" t="s">
         <v>789</v>
-      </c>
-      <c r="B275" s="0" t="s">
-        <v>790</v>
       </c>
       <c r="C275" s="0" t="s">
         <v>15</v>
@@ -10080,22 +10081,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="276">
       <c r="A276" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="B276" s="0" t="s">
         <v>791</v>
       </c>
-      <c r="B276" s="0" t="s">
+      <c r="C276" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D276" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E276" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F276" s="0" t="s">
         <v>792</v>
-      </c>
-      <c r="C276" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D276" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E276" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F276" s="0" t="s">
-        <v>793</v>
       </c>
       <c r="G276" s="0" t="s">
         <v>12</v>
@@ -10103,10 +10104,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="277">
       <c r="A277" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B277" s="0" t="s">
         <v>794</v>
-      </c>
-      <c r="B277" s="0" t="s">
-        <v>795</v>
       </c>
       <c r="C277" s="0" t="s">
         <v>15</v>
@@ -10123,10 +10124,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="278">
       <c r="A278" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="B278" s="0" t="s">
         <v>796</v>
-      </c>
-      <c r="B278" s="0" t="s">
-        <v>797</v>
       </c>
       <c r="C278" s="0" t="s">
         <v>15</v>
@@ -10143,10 +10144,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="279">
       <c r="A279" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="B279" s="0" t="s">
         <v>798</v>
-      </c>
-      <c r="B279" s="0" t="s">
-        <v>799</v>
       </c>
       <c r="C279" s="0" t="s">
         <v>194</v>
@@ -10163,10 +10164,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="280">
       <c r="A280" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="B280" s="0" t="s">
         <v>800</v>
-      </c>
-      <c r="B280" s="0" t="s">
-        <v>801</v>
       </c>
       <c r="C280" s="0" t="s">
         <v>15</v>
@@ -10178,21 +10179,21 @@
         <v>19</v>
       </c>
       <c r="F280" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="G280" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I280" s="0" t="s">
         <v>802</v>
-      </c>
-      <c r="G280" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I280" s="0" t="s">
-        <v>803</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="281">
       <c r="A281" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="B281" s="0" t="s">
         <v>804</v>
-      </c>
-      <c r="B281" s="0" t="s">
-        <v>805</v>
       </c>
       <c r="C281" s="0" t="s">
         <v>15</v>
@@ -10204,7 +10205,7 @@
         <v>19</v>
       </c>
       <c r="F281" s="0" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G281" s="0" t="s">
         <v>12</v>
@@ -10212,10 +10213,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="282">
       <c r="A282" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="B282" s="0" t="s">
         <v>806</v>
-      </c>
-      <c r="B282" s="0" t="s">
-        <v>807</v>
       </c>
       <c r="C282" s="0" t="s">
         <v>15</v>
@@ -10230,15 +10231,15 @@
         <v>19</v>
       </c>
       <c r="H282" s="0" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="283">
       <c r="A283" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="B283" s="0" t="s">
         <v>808</v>
-      </c>
-      <c r="B283" s="0" t="s">
-        <v>809</v>
       </c>
       <c r="C283" s="0" t="s">
         <v>15</v>
@@ -10250,7 +10251,7 @@
         <v>19</v>
       </c>
       <c r="F283" s="0" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G283" s="0" t="s">
         <v>12</v>
@@ -10258,22 +10259,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="284">
       <c r="A284" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="B284" s="0" t="s">
         <v>811</v>
       </c>
-      <c r="B284" s="0" t="s">
+      <c r="C284" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D284" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E284" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F284" s="0" t="s">
         <v>812</v>
-      </c>
-      <c r="C284" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D284" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E284" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F284" s="0" t="s">
-        <v>813</v>
       </c>
       <c r="G284" s="0" t="s">
         <v>12</v>
@@ -10281,10 +10282,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="285">
       <c r="A285" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="B285" s="0" t="s">
         <v>814</v>
-      </c>
-      <c r="B285" s="0" t="s">
-        <v>815</v>
       </c>
       <c r="C285" s="0" t="s">
         <v>54</v>
@@ -10299,18 +10300,18 @@
         <v>19</v>
       </c>
       <c r="H285" s="0" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="286">
       <c r="A286" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="B286" s="0" t="s">
         <v>817</v>
       </c>
-      <c r="B286" s="0" t="s">
+      <c r="C286" s="2" t="s">
         <v>818</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>819</v>
       </c>
       <c r="D286" s="0" t="s">
         <v>30</v>
@@ -10324,10 +10325,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="287">
       <c r="A287" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="B287" s="0" t="s">
         <v>820</v>
-      </c>
-      <c r="B287" s="0" t="s">
-        <v>821</v>
       </c>
       <c r="C287" s="0" t="s">
         <v>15</v>
@@ -10344,10 +10345,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="288">
       <c r="A288" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="B288" s="0" t="s">
         <v>822</v>
-      </c>
-      <c r="B288" s="0" t="s">
-        <v>823</v>
       </c>
       <c r="C288" s="0" t="s">
         <v>15</v>
@@ -10359,7 +10360,7 @@
         <v>19</v>
       </c>
       <c r="F288" s="0" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G288" s="0" t="s">
         <v>12</v>
@@ -10367,10 +10368,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="289">
       <c r="A289" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="B289" s="0" t="s">
         <v>825</v>
-      </c>
-      <c r="B289" s="0" t="s">
-        <v>826</v>
       </c>
       <c r="C289" s="0" t="s">
         <v>15</v>
@@ -10385,15 +10386,15 @@
         <v>19</v>
       </c>
       <c r="H289" s="0" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="290">
       <c r="A290" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="B290" s="0" t="s">
         <v>828</v>
-      </c>
-      <c r="B290" s="0" t="s">
-        <v>829</v>
       </c>
       <c r="C290" s="0" t="s">
         <v>108</v>
@@ -10408,15 +10409,15 @@
         <v>19</v>
       </c>
       <c r="H290" s="0" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="291">
       <c r="A291" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="B291" s="0" t="s">
         <v>831</v>
-      </c>
-      <c r="B291" s="0" t="s">
-        <v>832</v>
       </c>
       <c r="C291" s="0" t="s">
         <v>15</v>
@@ -10433,10 +10434,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="292">
       <c r="A292" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="B292" s="0" t="s">
         <v>833</v>
-      </c>
-      <c r="B292" s="0" t="s">
-        <v>834</v>
       </c>
       <c r="C292" s="0" t="s">
         <v>54</v>
@@ -10451,15 +10452,15 @@
         <v>19</v>
       </c>
       <c r="H292" s="0" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="293">
       <c r="A293" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="B293" s="0" t="s">
         <v>836</v>
-      </c>
-      <c r="B293" s="0" t="s">
-        <v>837</v>
       </c>
       <c r="C293" s="0" t="s">
         <v>15</v>
@@ -10471,7 +10472,7 @@
         <v>19</v>
       </c>
       <c r="F293" s="0" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G293" s="0" t="s">
         <v>12</v>
@@ -10479,7 +10480,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="294">
       <c r="A294" s="0" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B294" s="0" t="s">
         <v>11</v>
@@ -10502,10 +10503,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="295">
       <c r="A295" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="B295" s="0" t="s">
         <v>840</v>
-      </c>
-      <c r="B295" s="0" t="s">
-        <v>841</v>
       </c>
       <c r="C295" s="0" t="s">
         <v>15</v>
@@ -10522,10 +10523,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="296">
       <c r="A296" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="B296" s="0" t="s">
         <v>842</v>
-      </c>
-      <c r="B296" s="0" t="s">
-        <v>843</v>
       </c>
       <c r="C296" s="0" t="s">
         <v>15</v>
@@ -10537,21 +10538,21 @@
         <v>19</v>
       </c>
       <c r="F296" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="G296" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H296" s="0" t="s">
         <v>844</v>
-      </c>
-      <c r="G296" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H296" s="0" t="s">
-        <v>845</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="297">
       <c r="A297" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="B297" s="0" t="s">
         <v>846</v>
-      </c>
-      <c r="B297" s="0" t="s">
-        <v>847</v>
       </c>
       <c r="C297" s="0" t="s">
         <v>15</v>
@@ -10563,21 +10564,21 @@
         <v>19</v>
       </c>
       <c r="F297" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="G297" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H297" s="0" t="s">
         <v>848</v>
-      </c>
-      <c r="G297" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H297" s="0" t="s">
-        <v>849</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="298">
       <c r="A298" s="0" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C298" s="0" t="s">
         <v>15</v>
@@ -10589,21 +10590,21 @@
         <v>19</v>
       </c>
       <c r="F298" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="G298" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H298" s="0" t="s">
         <v>848</v>
-      </c>
-      <c r="G298" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H298" s="0" t="s">
-        <v>849</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="299">
       <c r="A299" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="B299" s="0" t="s">
         <v>851</v>
-      </c>
-      <c r="B299" s="0" t="s">
-        <v>852</v>
       </c>
       <c r="C299" s="0" t="s">
         <v>111</v>
@@ -10615,21 +10616,21 @@
         <v>19</v>
       </c>
       <c r="F299" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="G299" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H299" s="0" t="s">
         <v>853</v>
-      </c>
-      <c r="G299" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H299" s="0" t="s">
-        <v>854</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="300">
       <c r="A300" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="B300" s="0" t="s">
         <v>855</v>
-      </c>
-      <c r="B300" s="0" t="s">
-        <v>856</v>
       </c>
       <c r="C300" s="0" t="s">
         <v>15</v>
@@ -10644,27 +10645,27 @@
         <v>19</v>
       </c>
       <c r="H300" s="0" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="301">
       <c r="A301" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="B301" s="0" t="s">
         <v>858</v>
       </c>
-      <c r="B301" s="0" t="s">
+      <c r="C301" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D301" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E301" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F301" s="0" t="s">
         <v>859</v>
-      </c>
-      <c r="C301" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D301" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E301" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F301" s="0" t="s">
-        <v>860</v>
       </c>
       <c r="G301" s="0" t="s">
         <v>12</v>
@@ -10672,10 +10673,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="302">
       <c r="A302" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="B302" s="0" t="s">
         <v>861</v>
-      </c>
-      <c r="B302" s="0" t="s">
-        <v>862</v>
       </c>
       <c r="C302" s="0" t="s">
         <v>194</v>
@@ -10687,7 +10688,7 @@
         <v>19</v>
       </c>
       <c r="F302" s="0" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G302" s="0" t="s">
         <v>12</v>
@@ -10695,10 +10696,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="303">
       <c r="A303" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="B303" s="0" t="s">
         <v>864</v>
-      </c>
-      <c r="B303" s="0" t="s">
-        <v>865</v>
       </c>
       <c r="C303" s="0" t="s">
         <v>384</v>
@@ -10713,15 +10714,15 @@
         <v>19</v>
       </c>
       <c r="H303" s="0" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="304">
       <c r="A304" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="B304" s="0" t="s">
         <v>867</v>
-      </c>
-      <c r="B304" s="0" t="s">
-        <v>868</v>
       </c>
       <c r="C304" s="0" t="s">
         <v>194</v>
@@ -10733,38 +10734,38 @@
         <v>19</v>
       </c>
       <c r="F304" s="0" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="305">
       <c r="A305" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="B305" s="0" t="s">
         <v>870</v>
       </c>
-      <c r="B305" s="0" t="s">
+      <c r="C305" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D305" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E305" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G305" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H305" s="0" t="s">
         <v>871</v>
-      </c>
-      <c r="C305" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D305" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E305" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G305" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H305" s="0" t="s">
-        <v>872</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="306">
       <c r="A306" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="B306" s="0" t="s">
         <v>873</v>
-      </c>
-      <c r="B306" s="0" t="s">
-        <v>874</v>
       </c>
       <c r="C306" s="0" t="s">
         <v>108</v>
@@ -10779,41 +10780,41 @@
         <v>19</v>
       </c>
       <c r="H306" s="0" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="307">
+      <c r="A307" s="0" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="307">
-      <c r="A307" s="0" t="s">
+      <c r="B307" s="0" t="s">
         <v>876</v>
       </c>
-      <c r="B307" s="0" t="s">
+      <c r="C307" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D307" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E307" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F307" s="0" t="s">
         <v>877</v>
       </c>
-      <c r="C307" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D307" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E307" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F307" s="0" t="s">
+      <c r="G307" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H307" s="0" t="s">
         <v>878</v>
-      </c>
-      <c r="G307" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H307" s="0" t="s">
-        <v>879</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="308">
       <c r="A308" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="B308" s="0" t="s">
         <v>880</v>
-      </c>
-      <c r="B308" s="0" t="s">
-        <v>881</v>
       </c>
       <c r="C308" s="0" t="s">
         <v>54</v>
@@ -10825,21 +10826,21 @@
         <v>19</v>
       </c>
       <c r="F308" s="0" t="s">
+        <v>881</v>
+      </c>
+      <c r="G308" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H308" s="0" t="s">
         <v>882</v>
-      </c>
-      <c r="G308" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H308" s="0" t="s">
-        <v>883</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="309">
       <c r="A309" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="B309" s="0" t="s">
         <v>884</v>
-      </c>
-      <c r="B309" s="0" t="s">
-        <v>885</v>
       </c>
       <c r="C309" s="0" t="s">
         <v>15</v>
@@ -10851,7 +10852,7 @@
         <v>19</v>
       </c>
       <c r="F309" s="0" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G309" s="0" t="s">
         <v>12</v>
@@ -10859,10 +10860,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="310">
       <c r="A310" s="0" t="s">
+        <v>886</v>
+      </c>
+      <c r="B310" s="0" t="s">
         <v>887</v>
-      </c>
-      <c r="B310" s="0" t="s">
-        <v>888</v>
       </c>
       <c r="C310" s="0" t="s">
         <v>15</v>
@@ -10879,37 +10880,37 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="311">
       <c r="A311" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="B311" s="0" t="s">
         <v>889</v>
       </c>
-      <c r="B311" s="0" t="s">
+      <c r="C311" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D311" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E311" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G311" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H311" s="0" t="s">
         <v>890</v>
-      </c>
-      <c r="C311" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D311" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E311" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G311" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H311" s="0" t="s">
-        <v>891</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="312">
       <c r="A312" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="B312" s="0" t="s">
         <v>892</v>
       </c>
-      <c r="B312" s="0" t="s">
+      <c r="C312" s="0" t="s">
         <v>893</v>
       </c>
-      <c r="C312" s="0" t="s">
-        <v>704</v>
-      </c>
       <c r="D312" s="0" t="s">
         <v>11</v>
       </c>
@@ -10920,7 +10921,7 @@
         <v>19</v>
       </c>
       <c r="H312" s="0" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="313">
@@ -11629,7 +11630,7 @@
         <v>15</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E344" s="0" t="s">
         <v>12</v>
@@ -12648,7 +12649,7 @@
         <v>15</v>
       </c>
       <c r="D389" s="0" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E389" s="0" t="s">
         <v>12</v>
@@ -13017,7 +13018,7 @@
         <v>1132</v>
       </c>
       <c r="C406" s="0" t="s">
-        <v>704</v>
+        <v>893</v>
       </c>
       <c r="D406" s="0" t="s">
         <v>16</v>
@@ -13192,7 +13193,7 @@
         <v>15</v>
       </c>
       <c r="D414" s="0" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E414" s="0" t="s">
         <v>12</v>
@@ -13275,7 +13276,7 @@
         <v>1163</v>
       </c>
       <c r="C418" s="0" t="s">
-        <v>704</v>
+        <v>893</v>
       </c>
       <c r="D418" s="2" t="s">
         <v>25</v>
@@ -13387,7 +13388,7 @@
         <v>15</v>
       </c>
       <c r="D423" s="0" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E423" s="0" t="s">
         <v>19</v>
@@ -13407,10 +13408,10 @@
         <v>1179</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>704</v>
+        <v>893</v>
       </c>
       <c r="D424" s="0" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E424" s="0" t="s">
         <v>19</v>
@@ -13746,7 +13747,7 @@
         <v>1220</v>
       </c>
       <c r="C439" s="0" t="s">
-        <v>704</v>
+        <v>893</v>
       </c>
       <c r="D439" s="0" t="s">
         <v>11</v>
@@ -13769,7 +13770,7 @@
         <v>1223</v>
       </c>
       <c r="C440" s="0" t="s">
-        <v>704</v>
+        <v>893</v>
       </c>
       <c r="D440" s="0" t="s">
         <v>25</v>
@@ -13795,7 +13796,7 @@
         <v>1226</v>
       </c>
       <c r="C441" s="0" t="s">
-        <v>704</v>
+        <v>893</v>
       </c>
       <c r="D441" s="0" t="s">
         <v>11</v>
@@ -13928,7 +13929,8 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.72156862745098"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13953,7 +13955,8 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.72156862745098"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/oiadsites.xlsx
+++ b/oiadsites.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3023" uniqueCount="1238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3023" uniqueCount="1237">
   <si>
     <t>Site Name</t>
   </si>
@@ -341,9 +341,6 @@
   </si>
   <si>
     <t>https://www.theanimalrescuesite.com/store/item.do?siteId=310&amp;ddSourceId=31841&amp;ddSourceClass=Item</t>
-  </si>
-  <si>
-    <t>Daily item link always changing</t>
   </si>
   <si>
     <t>AnimeBug</t>
@@ -3909,20 +3906,20 @@
   </sheetPr>
   <dimension ref="A1:I444"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C312" activeCellId="0" pane="topLeft" sqref="C312"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A6" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B34" activeCellId="0" pane="topLeft" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.721568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.4156862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.5019607843137"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.64705882352941"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2980392156863"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.64705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.8470588235294"/>
-    <col collapsed="false" hidden="false" max="257" min="8" style="0" width="8.64705882352941"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7882352941176"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.7686274509804"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.6901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3647058823529"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.9058823529412"/>
+    <col collapsed="false" hidden="false" max="257" min="8" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="1">
@@ -4677,7 +4674,7 @@
         <v>107</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>36</v>
@@ -4691,13 +4688,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
       <c r="A35" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="C35" s="0" t="s">
         <v>110</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>111</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>25</v>
@@ -4706,7 +4703,7 @@
         <v>19</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>12</v>
@@ -4714,10 +4711,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="36">
       <c r="A36" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>15</v>
@@ -4734,10 +4731,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="37">
       <c r="A37" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>116</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>15</v>
@@ -4749,7 +4746,7 @@
         <v>19</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>12</v>
@@ -4757,10 +4754,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="38">
       <c r="A38" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>15</v>
@@ -4777,10 +4774,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="39">
       <c r="A39" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>121</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>15</v>
@@ -4797,10 +4794,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="40">
       <c r="A40" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="0" t="s">
         <v>122</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>123</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>15</v>
@@ -4815,7 +4812,7 @@
         <v>19</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I40" s="0" t="s">
         <v>33</v>
@@ -4823,13 +4820,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="41">
       <c r="A41" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="C41" s="0" t="s">
         <v>126</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>127</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>11</v>
@@ -4843,13 +4840,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="42">
       <c r="A42" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>129</v>
-      </c>
       <c r="C42" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>11</v>
@@ -4863,10 +4860,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="43">
       <c r="A43" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="0" t="s">
         <v>130</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>131</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>15</v>
@@ -4881,15 +4878,15 @@
         <v>19</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="44">
       <c r="A44" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>134</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>15</v>
@@ -4906,10 +4903,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="45">
       <c r="A45" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="0" t="s">
         <v>135</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>136</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>15</v>
@@ -4924,15 +4921,15 @@
         <v>19</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="46">
       <c r="A46" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="0" t="s">
         <v>138</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>139</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>15</v>
@@ -4949,10 +4946,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="47">
       <c r="A47" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>141</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>15</v>
@@ -4964,7 +4961,7 @@
         <v>19</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>12</v>
@@ -4972,10 +4969,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="48">
       <c r="A48" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>144</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>15</v>
@@ -4990,15 +4987,15 @@
         <v>19</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="49">
       <c r="A49" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>147</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>15</v>
@@ -5010,33 +5007,33 @@
         <v>19</v>
       </c>
       <c r="F49" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="0" t="s">
         <v>148</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>149</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="50">
       <c r="A50" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="C50" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="0" t="s">
         <v>151</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>152</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>12</v>
@@ -5044,10 +5041,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="51">
       <c r="A51" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="0" t="s">
         <v>153</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>154</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>15</v>
@@ -5062,15 +5059,15 @@
         <v>19</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="52">
       <c r="A52" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="0" t="s">
         <v>156</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>157</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>15</v>
@@ -5085,15 +5082,15 @@
         <v>19</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="53">
       <c r="A53" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="0" t="s">
         <v>159</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>160</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>15</v>
@@ -5105,15 +5102,15 @@
         <v>19</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="54">
       <c r="A54" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" s="0" t="s">
         <v>162</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>163</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>15</v>
@@ -5130,22 +5127,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="55">
       <c r="A55" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="C55" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="0" t="s">
         <v>165</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" s="0" t="s">
-        <v>166</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>12</v>
@@ -5153,11 +5150,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="56">
       <c r="A56" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>168</v>
-      </c>
       <c r="C56" s="0" t="s">
         <v>15</v>
       </c>
@@ -5168,7 +5165,7 @@
         <v>19</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>12</v>
@@ -5176,36 +5173,36 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="57">
       <c r="A57" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="C57" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="0" t="s">
         <v>170</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="58">
       <c r="A58" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>25</v>
@@ -5219,13 +5216,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="59">
       <c r="A59" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="C59" s="0" t="s">
         <v>176</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>177</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>16</v>
@@ -5242,10 +5239,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="60">
       <c r="A60" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>179</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>15</v>
@@ -5262,10 +5259,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="61">
       <c r="A61" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>181</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>15</v>
@@ -5277,7 +5274,7 @@
         <v>19</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G61" s="0" t="s">
         <v>12</v>
@@ -5285,10 +5282,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="62">
       <c r="A62" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B62" s="0" t="s">
         <v>183</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>184</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>54</v>
@@ -5305,13 +5302,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="63">
       <c r="A63" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>186</v>
-      </c>
       <c r="C63" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>25</v>
@@ -5325,13 +5322,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="64">
       <c r="A64" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B64" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="C64" s="0" t="s">
         <v>188</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>189</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>30</v>
@@ -5340,24 +5337,24 @@
         <v>19</v>
       </c>
       <c r="F64" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" s="0" t="s">
         <v>190</v>
-      </c>
-      <c r="G64" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" s="0" t="s">
-        <v>191</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="65">
       <c r="A65" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="C65" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>25</v>
@@ -5366,7 +5363,7 @@
         <v>19</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>12</v>
@@ -5374,10 +5371,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="66">
       <c r="A66" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" s="0" t="s">
         <v>196</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>197</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>15</v>
@@ -5389,7 +5386,7 @@
         <v>19</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>12</v>
@@ -5397,13 +5394,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="67">
       <c r="A67" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>200</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>16</v>
@@ -5415,27 +5412,27 @@
         <v>19</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="68">
       <c r="A68" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="C68" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="0" t="s">
         <v>203</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" s="0" t="s">
-        <v>204</v>
       </c>
       <c r="G68" s="0" t="s">
         <v>12</v>
@@ -5443,10 +5440,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="69">
       <c r="A69" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B69" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>206</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>15</v>
@@ -5458,21 +5455,21 @@
         <v>19</v>
       </c>
       <c r="F69" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" s="0" t="s">
         <v>207</v>
-      </c>
-      <c r="G69" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H69" s="0" t="s">
-        <v>208</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="70">
       <c r="A70" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" s="0" t="s">
         <v>209</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>210</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>15</v>
@@ -5489,13 +5486,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="71">
       <c r="A71" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>212</v>
-      </c>
       <c r="C71" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>25</v>
@@ -5509,39 +5506,39 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="72">
       <c r="A72" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B72" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="C72" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F72" s="0" t="s">
+      <c r="G72" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="G72" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H72" s="0" t="s">
-        <v>216</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="73">
       <c r="A73" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B73" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>25</v>
@@ -5550,7 +5547,7 @@
         <v>19</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G73" s="0" t="s">
         <v>12</v>
@@ -5558,33 +5555,33 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="74">
       <c r="A74" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B74" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="C74" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="0" t="s">
         <v>221</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="75">
       <c r="A75" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B75" s="0" t="s">
         <v>223</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>224</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>15</v>
@@ -5596,7 +5593,7 @@
         <v>19</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>12</v>
@@ -5604,10 +5601,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="76">
       <c r="A76" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B76" s="0" t="s">
         <v>226</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>227</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>15</v>
@@ -5619,7 +5616,7 @@
         <v>19</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G76" s="0" t="s">
         <v>12</v>
@@ -5627,10 +5624,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="77">
       <c r="A77" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B77" s="0" t="s">
         <v>229</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>230</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>15</v>
@@ -5642,7 +5639,7 @@
         <v>19</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G77" s="0" t="s">
         <v>12</v>
@@ -5650,36 +5647,36 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="78">
       <c r="A78" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B78" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="C78" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C78" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78" s="0" t="s">
+      <c r="E78" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" s="0" t="s">
         <v>234</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" s="0" t="s">
-        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="79">
       <c r="A79" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B79" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="C79" s="0" t="s">
         <v>237</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>238</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>30</v>
@@ -5693,13 +5690,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="80">
       <c r="A80" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B80" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="C80" s="0" t="s">
         <v>240</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>241</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>30</v>
@@ -5708,7 +5705,7 @@
         <v>19</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G80" s="0" t="s">
         <v>12</v>
@@ -5716,10 +5713,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="81">
       <c r="A81" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B81" s="0" t="s">
         <v>243</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>244</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>15</v>
@@ -5731,24 +5728,24 @@
         <v>19</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G81" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="82">
       <c r="A82" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B82" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="B82" s="0" t="s">
-        <v>247</v>
-      </c>
       <c r="C82" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>11</v>
@@ -5762,10 +5759,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="83">
       <c r="A83" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B83" s="0" t="s">
         <v>248</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>249</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>15</v>
@@ -5777,7 +5774,7 @@
         <v>19</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>19</v>
@@ -5785,22 +5782,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="84">
       <c r="A84" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="C84" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" s="0" t="s">
         <v>252</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F84" s="0" t="s">
-        <v>253</v>
       </c>
       <c r="G84" s="0" t="s">
         <v>12</v>
@@ -5808,10 +5805,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="85">
       <c r="A85" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B85" s="0" t="s">
         <v>254</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>255</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>15</v>
@@ -5828,10 +5825,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="86">
       <c r="A86" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B86" s="0" t="s">
         <v>256</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>257</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>15</v>
@@ -5846,15 +5843,15 @@
         <v>19</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="87">
       <c r="A87" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B87" s="0" t="s">
         <v>259</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>260</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>54</v>
@@ -5869,15 +5866,15 @@
         <v>19</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="88">
       <c r="A88" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B88" s="0" t="s">
         <v>262</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>263</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>15</v>
@@ -5889,7 +5886,7 @@
         <v>19</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>12</v>
@@ -5897,10 +5894,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="89">
       <c r="A89" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B89" s="0" t="s">
         <v>265</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>266</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>15</v>
@@ -5912,21 +5909,21 @@
         <v>19</v>
       </c>
       <c r="F89" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="G89" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89" s="0" t="s">
         <v>267</v>
-      </c>
-      <c r="G89" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H89" s="0" t="s">
-        <v>268</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="90">
       <c r="A90" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B90" s="0" t="s">
         <v>269</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>270</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>15</v>
@@ -5943,10 +5940,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="91">
       <c r="A91" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B91" s="0" t="s">
         <v>271</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>272</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>54</v>
@@ -5963,10 +5960,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="92">
       <c r="A92" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B92" s="0" t="s">
         <v>273</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>274</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>15</v>
@@ -5978,7 +5975,7 @@
         <v>19</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>12</v>
@@ -5986,10 +5983,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="93">
       <c r="A93" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B93" s="0" t="s">
         <v>276</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>277</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>54</v>
@@ -6006,10 +6003,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="94">
       <c r="A94" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B94" s="0" t="s">
         <v>278</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>279</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>15</v>
@@ -6021,33 +6018,33 @@
         <v>19</v>
       </c>
       <c r="F94" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="G94" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="0" t="s">
         <v>280</v>
-      </c>
-      <c r="G94" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I94" s="0" t="s">
-        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="95">
       <c r="A95" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B95" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="C95" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" s="0" t="s">
         <v>283</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95" s="0" t="s">
-        <v>284</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>12</v>
@@ -6055,13 +6052,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="96">
       <c r="A96" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B96" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="C96" s="0" t="s">
         <v>286</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>287</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>25</v>
@@ -6073,38 +6070,38 @@
         <v>19</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="97">
       <c r="A97" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="B97" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="C97" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" s="0" t="s">
         <v>290</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H97" s="0" t="s">
-        <v>291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="98">
       <c r="A98" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B98" s="0" t="s">
         <v>292</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>293</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>15</v>
@@ -6116,7 +6113,7 @@
         <v>19</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>12</v>
@@ -6124,10 +6121,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="99">
       <c r="A99" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B99" s="0" t="s">
         <v>295</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>296</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>15</v>
@@ -6144,10 +6141,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="100">
       <c r="A100" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B100" s="0" t="s">
         <v>297</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>298</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>15</v>
@@ -6164,10 +6161,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="101">
       <c r="A101" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B101" s="0" t="s">
         <v>299</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>300</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>15</v>
@@ -6184,10 +6181,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="102">
       <c r="A102" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B102" s="0" t="s">
         <v>301</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>302</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>15</v>
@@ -6204,22 +6201,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="103">
       <c r="A103" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B103" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="C103" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" s="0" t="s">
         <v>304</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F103" s="0" t="s">
-        <v>305</v>
       </c>
       <c r="G103" s="0" t="s">
         <v>12</v>
@@ -6227,10 +6224,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="104">
       <c r="A104" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B104" s="0" t="s">
         <v>306</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>307</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>15</v>
@@ -6242,7 +6239,7 @@
         <v>19</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>12</v>
@@ -6250,10 +6247,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="105">
       <c r="A105" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B105" s="0" t="s">
         <v>309</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>310</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>15</v>
@@ -6265,7 +6262,7 @@
         <v>19</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G105" s="0" t="s">
         <v>12</v>
@@ -6273,10 +6270,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="106">
       <c r="A106" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B106" s="0" t="s">
         <v>312</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>313</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>15</v>
@@ -6288,7 +6285,7 @@
         <v>19</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G106" s="0" t="s">
         <v>12</v>
@@ -6296,10 +6293,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="107">
       <c r="A107" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B107" s="0" t="s">
         <v>315</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>316</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>15</v>
@@ -6311,27 +6308,27 @@
         <v>19</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="108">
       <c r="A108" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B108" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="C108" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F108" s="0" t="s">
         <v>319</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F108" s="0" t="s">
-        <v>320</v>
       </c>
       <c r="G108" s="0" t="s">
         <v>12</v>
@@ -6339,10 +6336,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="109">
       <c r="A109" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B109" s="0" t="s">
         <v>321</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>322</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>15</v>
@@ -6359,10 +6356,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="110">
       <c r="A110" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="B110" s="0" t="s">
         <v>323</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>324</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>15</v>
@@ -6379,10 +6376,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="111">
       <c r="A111" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B111" s="0" t="s">
         <v>325</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>326</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>15</v>
@@ -6397,15 +6394,15 @@
         <v>12</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="112">
       <c r="A112" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="B112" s="0" t="s">
         <v>328</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>329</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>15</v>
@@ -6420,15 +6417,15 @@
         <v>12</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="113">
       <c r="A113" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B113" s="0" t="s">
         <v>330</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>331</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>15</v>
@@ -6440,7 +6437,7 @@
         <v>19</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G113" s="0" t="s">
         <v>12</v>
@@ -6448,10 +6445,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="114">
       <c r="A114" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="B114" s="0" t="s">
         <v>333</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>334</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>15</v>
@@ -6468,36 +6465,36 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="115">
       <c r="A115" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="B115" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="C115" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F115" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="C115" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E115" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F115" s="0" t="s">
+      <c r="G115" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H115" s="0" t="s">
         <v>337</v>
-      </c>
-      <c r="G115" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H115" s="0" t="s">
-        <v>338</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="116">
       <c r="A116" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="B116" s="0" t="s">
         <v>339</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>340</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>15</v>
@@ -6509,33 +6506,33 @@
         <v>19</v>
       </c>
       <c r="F116" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="G116" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H116" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="G116" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H116" s="0" t="s">
+      <c r="I116" s="0" t="s">
         <v>342</v>
-      </c>
-      <c r="I116" s="0" t="s">
-        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="117">
       <c r="A117" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B117" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="C117" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F117" s="0" t="s">
         <v>345</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E117" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F117" s="0" t="s">
-        <v>346</v>
       </c>
       <c r="G117" s="0" t="s">
         <v>12</v>
@@ -6543,36 +6540,36 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="118">
       <c r="A118" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B118" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="C118" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F118" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="C118" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D118" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E118" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F118" s="0" t="s">
+      <c r="G118" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" s="0" t="s">
         <v>349</v>
-      </c>
-      <c r="G118" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H118" s="0" t="s">
-        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="119">
       <c r="A119" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="B119" s="0" t="s">
         <v>351</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>352</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>15</v>
@@ -6589,10 +6586,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="120">
       <c r="A120" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B120" s="0" t="s">
         <v>353</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>354</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>15</v>
@@ -6609,10 +6606,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="121">
       <c r="A121" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="B121" s="0" t="s">
         <v>355</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>356</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>15</v>
@@ -6629,13 +6626,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="122">
       <c r="A122" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="B122" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="B122" s="0" t="s">
-        <v>358</v>
-      </c>
       <c r="C122" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>25</v>
@@ -6644,7 +6641,7 @@
         <v>19</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G122" s="0" t="s">
         <v>12</v>
@@ -6652,10 +6649,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="123">
       <c r="A123" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="B123" s="0" t="s">
         <v>360</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>361</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>54</v>
@@ -6672,10 +6669,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="124">
       <c r="A124" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B124" s="0" t="s">
         <v>362</v>
-      </c>
-      <c r="B124" s="0" t="s">
-        <v>363</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>54</v>
@@ -6690,38 +6687,38 @@
         <v>19</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="125">
       <c r="A125" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B125" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="C125" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" s="0" t="s">
         <v>366</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I125" s="0" t="s">
-        <v>367</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="126">
       <c r="A126" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B126" s="0" t="s">
         <v>368</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>369</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>54</v>
@@ -6733,7 +6730,7 @@
         <v>19</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G126" s="0" t="s">
         <v>12</v>
@@ -6741,10 +6738,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="127">
       <c r="A127" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B127" s="0" t="s">
         <v>371</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>372</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>54</v>
@@ -6761,10 +6758,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="128">
       <c r="A128" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="B128" s="0" t="s">
         <v>373</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>374</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>15</v>
@@ -6776,7 +6773,7 @@
         <v>19</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G128" s="0" t="s">
         <v>19</v>
@@ -6784,59 +6781,59 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="129">
       <c r="A129" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B129" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="C129" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H129" s="0" t="s">
         <v>377</v>
-      </c>
-      <c r="C129" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E129" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G129" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H129" s="0" t="s">
-        <v>378</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="130">
       <c r="A130" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B130" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="C130" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I130" s="0" t="s">
         <v>380</v>
-      </c>
-      <c r="C130" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E130" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I130" s="0" t="s">
-        <v>381</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="131">
       <c r="A131" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B131" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="C131" s="0" t="s">
         <v>383</v>
-      </c>
-      <c r="C131" s="0" t="s">
-        <v>384</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>30</v>
@@ -6850,13 +6847,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="132">
       <c r="A132" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B132" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="B132" s="0" t="s">
-        <v>386</v>
-      </c>
       <c r="C132" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>25</v>
@@ -6868,15 +6865,15 @@
         <v>19</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="133">
       <c r="A133" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="B133" s="0" t="s">
         <v>388</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>389</v>
       </c>
       <c r="C133" s="0" t="s">
         <v>15</v>
@@ -6893,10 +6890,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="134">
       <c r="A134" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B134" s="0" t="s">
         <v>390</v>
-      </c>
-      <c r="B134" s="0" t="s">
-        <v>391</v>
       </c>
       <c r="C134" s="0" t="s">
         <v>15</v>
@@ -6913,10 +6910,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="135">
       <c r="A135" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B135" s="0" t="s">
         <v>392</v>
-      </c>
-      <c r="B135" s="0" t="s">
-        <v>393</v>
       </c>
       <c r="C135" s="0" t="s">
         <v>15</v>
@@ -6933,10 +6930,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="136">
       <c r="A136" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B136" s="0" t="s">
         <v>394</v>
-      </c>
-      <c r="B136" s="0" t="s">
-        <v>395</v>
       </c>
       <c r="C136" s="0" t="s">
         <v>15</v>
@@ -6948,7 +6945,7 @@
         <v>19</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G136" s="0" t="s">
         <v>12</v>
@@ -6956,10 +6953,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="137">
       <c r="A137" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B137" s="0" t="s">
         <v>397</v>
-      </c>
-      <c r="B137" s="0" t="s">
-        <v>398</v>
       </c>
       <c r="C137" s="0" t="s">
         <v>15</v>
@@ -6976,10 +6973,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="138">
       <c r="A138" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="B138" s="0" t="s">
         <v>399</v>
-      </c>
-      <c r="B138" s="0" t="s">
-        <v>400</v>
       </c>
       <c r="C138" s="0" t="s">
         <v>15</v>
@@ -6996,10 +6993,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="139">
       <c r="A139" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B139" s="0" t="s">
         <v>401</v>
-      </c>
-      <c r="B139" s="0" t="s">
-        <v>402</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>54</v>
@@ -7011,36 +7008,36 @@
         <v>19</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G139" s="0" t="s">
         <v>12</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="140">
       <c r="A140" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B140" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="C140" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H140" s="0" t="s">
         <v>405</v>
-      </c>
-      <c r="C140" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D140" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E140" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H140" s="0" t="s">
-        <v>406</v>
       </c>
       <c r="I140" s="0" t="s">
         <v>33</v>
@@ -7048,10 +7045,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="141">
       <c r="A141" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B141" s="0" t="s">
         <v>407</v>
-      </c>
-      <c r="B141" s="0" t="s">
-        <v>408</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>54</v>
@@ -7068,22 +7065,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="142">
       <c r="A142" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="B142" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="C142" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F142" s="0" t="s">
         <v>410</v>
-      </c>
-      <c r="C142" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E142" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F142" s="0" t="s">
-        <v>411</v>
       </c>
       <c r="G142" s="0" t="s">
         <v>12</v>
@@ -7094,10 +7091,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="143">
       <c r="A143" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B143" s="0" t="s">
         <v>412</v>
-      </c>
-      <c r="B143" s="0" t="s">
-        <v>413</v>
       </c>
       <c r="C143" s="0" t="s">
         <v>15</v>
@@ -7109,7 +7106,7 @@
         <v>19</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G143" s="0" t="s">
         <v>12</v>
@@ -7117,10 +7114,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="144">
       <c r="A144" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="B144" s="0" t="s">
         <v>415</v>
-      </c>
-      <c r="B144" s="0" t="s">
-        <v>416</v>
       </c>
       <c r="C144" s="0" t="s">
         <v>15</v>
@@ -7132,13 +7129,13 @@
         <v>19</v>
       </c>
       <c r="F144" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="G144" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H144" s="0" t="s">
         <v>417</v>
-      </c>
-      <c r="G144" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H144" s="0" t="s">
-        <v>418</v>
       </c>
       <c r="I144" s="0" t="s">
         <v>33</v>
@@ -7146,13 +7143,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="145">
       <c r="A145" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B145" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="C145" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="D145" s="0" t="s">
         <v>36</v>
@@ -7161,7 +7158,7 @@
         <v>19</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G145" s="0" t="s">
         <v>12</v>
@@ -7169,10 +7166,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="146">
       <c r="A146" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="B146" s="0" t="s">
         <v>423</v>
-      </c>
-      <c r="B146" s="0" t="s">
-        <v>424</v>
       </c>
       <c r="C146" s="0" t="s">
         <v>15</v>
@@ -7184,7 +7181,7 @@
         <v>19</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G146" s="0" t="s">
         <v>12</v>
@@ -7192,10 +7189,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="147">
       <c r="A147" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="B147" s="0" t="s">
         <v>426</v>
-      </c>
-      <c r="B147" s="0" t="s">
-        <v>427</v>
       </c>
       <c r="C147" s="0" t="s">
         <v>15</v>
@@ -7212,10 +7209,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="148">
       <c r="A148" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="B148" s="0" t="s">
         <v>428</v>
-      </c>
-      <c r="B148" s="0" t="s">
-        <v>429</v>
       </c>
       <c r="C148" s="0" t="s">
         <v>15</v>
@@ -7232,10 +7229,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="149">
       <c r="A149" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B149" s="0" t="s">
         <v>430</v>
-      </c>
-      <c r="B149" s="0" t="s">
-        <v>431</v>
       </c>
       <c r="C149" s="0" t="s">
         <v>15</v>
@@ -7250,15 +7247,15 @@
         <v>19</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="150">
       <c r="A150" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B150" s="0" t="s">
         <v>433</v>
-      </c>
-      <c r="B150" s="0" t="s">
-        <v>434</v>
       </c>
       <c r="C150" s="0" t="s">
         <v>15</v>
@@ -7273,15 +7270,15 @@
         <v>19</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="151">
       <c r="A151" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="B151" s="0" t="s">
         <v>435</v>
-      </c>
-      <c r="B151" s="0" t="s">
-        <v>436</v>
       </c>
       <c r="C151" s="0" t="s">
         <v>54</v>
@@ -7301,10 +7298,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="152">
       <c r="A152" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B152" s="0" t="s">
         <v>437</v>
-      </c>
-      <c r="B152" s="0" t="s">
-        <v>438</v>
       </c>
       <c r="C152" s="0" t="s">
         <v>15</v>
@@ -7319,15 +7316,15 @@
         <v>19</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="153">
       <c r="A153" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B153" s="0" t="s">
         <v>440</v>
-      </c>
-      <c r="B153" s="0" t="s">
-        <v>441</v>
       </c>
       <c r="C153" s="0" t="s">
         <v>15</v>
@@ -7344,10 +7341,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="154">
       <c r="A154" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="B154" s="0" t="s">
         <v>442</v>
-      </c>
-      <c r="B154" s="0" t="s">
-        <v>443</v>
       </c>
       <c r="C154" s="0" t="s">
         <v>15</v>
@@ -7362,15 +7359,15 @@
         <v>19</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="155">
       <c r="A155" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="B155" s="0" t="s">
         <v>445</v>
-      </c>
-      <c r="B155" s="0" t="s">
-        <v>446</v>
       </c>
       <c r="C155" s="0" t="s">
         <v>15</v>
@@ -7387,10 +7384,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="156">
       <c r="A156" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="B156" s="0" t="s">
         <v>447</v>
-      </c>
-      <c r="B156" s="0" t="s">
-        <v>448</v>
       </c>
       <c r="C156" s="0" t="s">
         <v>15</v>
@@ -7402,7 +7399,7 @@
         <v>19</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G156" s="0" t="s">
         <v>12</v>
@@ -7410,10 +7407,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="157">
       <c r="A157" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="B157" s="0" t="s">
         <v>450</v>
-      </c>
-      <c r="B157" s="0" t="s">
-        <v>451</v>
       </c>
       <c r="C157" s="0" t="s">
         <v>15</v>
@@ -7425,21 +7422,21 @@
         <v>19</v>
       </c>
       <c r="F157" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="G157" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H157" s="0" t="s">
         <v>452</v>
-      </c>
-      <c r="G157" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H157" s="0" t="s">
-        <v>453</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="158">
       <c r="A158" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B158" s="0" t="s">
         <v>454</v>
-      </c>
-      <c r="B158" s="0" t="s">
-        <v>455</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>54</v>
@@ -7451,7 +7448,7 @@
         <v>19</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G158" s="0" t="s">
         <v>12</v>
@@ -7459,13 +7456,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="159">
       <c r="A159" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="B159" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="B159" s="0" t="s">
-        <v>458</v>
-      </c>
       <c r="C159" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D159" s="0" t="s">
         <v>11</v>
@@ -7479,10 +7476,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="160">
       <c r="A160" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="B160" s="0" t="s">
         <v>459</v>
-      </c>
-      <c r="B160" s="0" t="s">
-        <v>460</v>
       </c>
       <c r="C160" s="0" t="s">
         <v>15</v>
@@ -7499,10 +7496,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="161">
       <c r="A161" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="B161" s="0" t="s">
         <v>461</v>
-      </c>
-      <c r="B161" s="0" t="s">
-        <v>462</v>
       </c>
       <c r="C161" s="0" t="s">
         <v>15</v>
@@ -7519,10 +7516,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="162">
       <c r="A162" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="B162" s="0" t="s">
         <v>463</v>
-      </c>
-      <c r="B162" s="0" t="s">
-        <v>464</v>
       </c>
       <c r="C162" s="0" t="s">
         <v>15</v>
@@ -7539,10 +7536,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="163">
       <c r="A163" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="B163" s="0" t="s">
         <v>465</v>
-      </c>
-      <c r="B163" s="0" t="s">
-        <v>466</v>
       </c>
       <c r="C163" s="0" t="s">
         <v>15</v>
@@ -7559,10 +7556,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="164">
       <c r="A164" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="B164" s="0" t="s">
         <v>467</v>
-      </c>
-      <c r="B164" s="0" t="s">
-        <v>468</v>
       </c>
       <c r="C164" s="0" t="s">
         <v>15</v>
@@ -7577,15 +7574,15 @@
         <v>19</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="165">
       <c r="A165" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="B165" s="0" t="s">
         <v>470</v>
-      </c>
-      <c r="B165" s="0" t="s">
-        <v>471</v>
       </c>
       <c r="C165" s="0" t="s">
         <v>15</v>
@@ -7597,7 +7594,7 @@
         <v>19</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G165" s="0" t="s">
         <v>12</v>
@@ -7605,10 +7602,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="166">
       <c r="A166" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B166" s="0" t="s">
         <v>473</v>
-      </c>
-      <c r="B166" s="0" t="s">
-        <v>474</v>
       </c>
       <c r="C166" s="0" t="s">
         <v>15</v>
@@ -7620,7 +7617,7 @@
         <v>19</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G166" s="0" t="s">
         <v>12</v>
@@ -7628,10 +7625,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="167">
       <c r="A167" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="B167" s="0" t="s">
         <v>476</v>
-      </c>
-      <c r="B167" s="0" t="s">
-        <v>477</v>
       </c>
       <c r="C167" s="0" t="s">
         <v>15</v>
@@ -7643,7 +7640,7 @@
         <v>19</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G167" s="0" t="s">
         <v>12</v>
@@ -7651,10 +7648,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="168">
       <c r="A168" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="B168" s="0" t="s">
         <v>479</v>
-      </c>
-      <c r="B168" s="0" t="s">
-        <v>480</v>
       </c>
       <c r="C168" s="0" t="s">
         <v>15</v>
@@ -7669,15 +7666,15 @@
         <v>19</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="169">
       <c r="A169" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="B169" s="0" t="s">
         <v>482</v>
-      </c>
-      <c r="B169" s="0" t="s">
-        <v>483</v>
       </c>
       <c r="C169" s="0" t="s">
         <v>15</v>
@@ -7692,18 +7689,18 @@
         <v>19</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="170">
       <c r="A170" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="B170" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="B170" s="0" t="s">
-        <v>486</v>
-      </c>
       <c r="C170" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D170" s="0" t="s">
         <v>30</v>
@@ -7712,7 +7709,7 @@
         <v>19</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G170" s="0" t="s">
         <v>12</v>
@@ -7723,10 +7720,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="171">
       <c r="A171" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B171" s="0" t="s">
         <v>488</v>
-      </c>
-      <c r="B171" s="0" t="s">
-        <v>489</v>
       </c>
       <c r="C171" s="0" t="s">
         <v>15</v>
@@ -7738,21 +7735,21 @@
         <v>19</v>
       </c>
       <c r="F171" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="G171" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H171" s="0" t="s">
         <v>490</v>
-      </c>
-      <c r="G171" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H171" s="0" t="s">
-        <v>491</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="172">
       <c r="A172" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="B172" s="0" t="s">
         <v>492</v>
-      </c>
-      <c r="B172" s="0" t="s">
-        <v>493</v>
       </c>
       <c r="C172" s="0" t="s">
         <v>15</v>
@@ -7764,7 +7761,7 @@
         <v>19</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G172" s="0" t="s">
         <v>12</v>
@@ -7772,10 +7769,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="173">
       <c r="A173" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="B173" s="0" t="s">
         <v>495</v>
-      </c>
-      <c r="B173" s="0" t="s">
-        <v>496</v>
       </c>
       <c r="C173" s="0" t="s">
         <v>15</v>
@@ -7787,7 +7784,7 @@
         <v>19</v>
       </c>
       <c r="F173" s="0" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G173" s="0" t="s">
         <v>12</v>
@@ -7795,13 +7792,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="174">
       <c r="A174" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="B174" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="B174" s="0" t="s">
+      <c r="C174" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>500</v>
       </c>
       <c r="D174" s="0" t="s">
         <v>25</v>
@@ -7815,13 +7812,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="175">
       <c r="A175" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="B175" s="0" t="s">
         <v>501</v>
       </c>
-      <c r="B175" s="0" t="s">
-        <v>502</v>
-      </c>
       <c r="C175" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D175" s="0" t="s">
         <v>25</v>
@@ -7833,15 +7830,15 @@
         <v>19</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="176">
       <c r="A176" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B176" s="0" t="s">
         <v>504</v>
-      </c>
-      <c r="B176" s="0" t="s">
-        <v>505</v>
       </c>
       <c r="C176" s="0" t="s">
         <v>15</v>
@@ -7856,15 +7853,15 @@
         <v>19</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="177">
       <c r="A177" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="B177" s="0" t="s">
         <v>507</v>
-      </c>
-      <c r="B177" s="0" t="s">
-        <v>508</v>
       </c>
       <c r="C177" s="0" t="s">
         <v>15</v>
@@ -7881,10 +7878,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="178">
       <c r="A178" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="B178" s="0" t="s">
         <v>509</v>
-      </c>
-      <c r="B178" s="0" t="s">
-        <v>510</v>
       </c>
       <c r="C178" s="0" t="s">
         <v>15</v>
@@ -7896,7 +7893,7 @@
         <v>19</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G178" s="0" t="s">
         <v>12</v>
@@ -7904,33 +7901,33 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="179">
       <c r="A179" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="B179" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="B179" s="0" t="s">
+      <c r="C179" s="0" t="s">
         <v>513</v>
-      </c>
-      <c r="C179" s="0" t="s">
-        <v>514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="180">
       <c r="A180" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="B180" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="B180" s="0" t="s">
+      <c r="C180" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F180" s="0" t="s">
         <v>516</v>
-      </c>
-      <c r="C180" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D180" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E180" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F180" s="0" t="s">
-        <v>517</v>
       </c>
       <c r="G180" s="0" t="s">
         <v>12</v>
@@ -7938,10 +7935,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="181">
       <c r="A181" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="B181" s="0" t="s">
         <v>518</v>
-      </c>
-      <c r="B181" s="0" t="s">
-        <v>519</v>
       </c>
       <c r="C181" s="0" t="s">
         <v>15</v>
@@ -7956,18 +7953,18 @@
         <v>19</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="182">
       <c r="A182" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="B182" s="0" t="s">
         <v>521</v>
       </c>
-      <c r="B182" s="0" t="s">
-        <v>522</v>
-      </c>
       <c r="C182" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D182" s="0" t="s">
         <v>16</v>
@@ -7981,10 +7978,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="183">
       <c r="A183" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="B183" s="0" t="s">
         <v>523</v>
-      </c>
-      <c r="B183" s="0" t="s">
-        <v>524</v>
       </c>
       <c r="C183" s="0" t="s">
         <v>15</v>
@@ -7999,18 +7996,18 @@
         <v>19</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="184">
       <c r="A184" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="B184" s="0" t="s">
         <v>526</v>
       </c>
-      <c r="B184" s="0" t="s">
+      <c r="C184" s="0" t="s">
         <v>527</v>
-      </c>
-      <c r="C184" s="0" t="s">
-        <v>528</v>
       </c>
       <c r="D184" s="0" t="s">
         <v>30</v>
@@ -8024,10 +8021,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="185">
       <c r="A185" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="B185" s="0" t="s">
         <v>529</v>
-      </c>
-      <c r="B185" s="0" t="s">
-        <v>530</v>
       </c>
       <c r="C185" s="0" t="s">
         <v>15</v>
@@ -8044,22 +8041,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="186">
       <c r="A186" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="B186" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="B186" s="0" t="s">
+      <c r="C186" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E186" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F186" s="0" t="s">
         <v>532</v>
-      </c>
-      <c r="C186" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D186" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E186" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F186" s="0" t="s">
-        <v>533</v>
       </c>
       <c r="G186" s="0" t="s">
         <v>12</v>
@@ -8067,10 +8064,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="187">
       <c r="A187" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="B187" s="0" t="s">
         <v>534</v>
-      </c>
-      <c r="B187" s="0" t="s">
-        <v>535</v>
       </c>
       <c r="C187" s="0" t="s">
         <v>15</v>
@@ -8087,10 +8084,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="188">
       <c r="A188" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="B188" s="0" t="s">
         <v>536</v>
-      </c>
-      <c r="B188" s="0" t="s">
-        <v>537</v>
       </c>
       <c r="C188" s="0" t="s">
         <v>15</v>
@@ -8102,7 +8099,7 @@
         <v>19</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G188" s="0" t="s">
         <v>12</v>
@@ -8110,10 +8107,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="189">
       <c r="A189" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="B189" s="0" t="s">
         <v>539</v>
-      </c>
-      <c r="B189" s="0" t="s">
-        <v>540</v>
       </c>
       <c r="C189" s="0" t="s">
         <v>15</v>
@@ -8125,7 +8122,7 @@
         <v>19</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G189" s="0" t="s">
         <v>12</v>
@@ -8133,13 +8130,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="190">
       <c r="A190" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="B190" s="0" t="s">
         <v>542</v>
       </c>
-      <c r="B190" s="0" t="s">
+      <c r="C190" s="0" t="s">
         <v>543</v>
-      </c>
-      <c r="C190" s="0" t="s">
-        <v>544</v>
       </c>
       <c r="D190" s="0" t="s">
         <v>36</v>
@@ -8153,10 +8150,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="191">
       <c r="A191" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="B191" s="0" t="s">
         <v>545</v>
-      </c>
-      <c r="B191" s="0" t="s">
-        <v>546</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>15</v>
@@ -8173,10 +8170,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="192">
       <c r="A192" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="B192" s="0" t="s">
         <v>547</v>
-      </c>
-      <c r="B192" s="0" t="s">
-        <v>548</v>
       </c>
       <c r="C192" s="0" t="s">
         <v>15</v>
@@ -8191,15 +8188,15 @@
         <v>12</v>
       </c>
       <c r="I192" s="0" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="193">
       <c r="A193" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="B193" s="0" t="s">
         <v>550</v>
-      </c>
-      <c r="B193" s="0" t="s">
-        <v>551</v>
       </c>
       <c r="C193" s="0" t="s">
         <v>15</v>
@@ -8211,7 +8208,7 @@
         <v>19</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G193" s="0" t="s">
         <v>12</v>
@@ -8219,22 +8216,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="194">
       <c r="A194" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="B194" s="0" t="s">
         <v>553</v>
       </c>
-      <c r="B194" s="0" t="s">
+      <c r="C194" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E194" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F194" s="0" t="s">
         <v>554</v>
-      </c>
-      <c r="C194" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D194" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E194" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F194" s="0" t="s">
-        <v>555</v>
       </c>
       <c r="G194" s="0" t="s">
         <v>12</v>
@@ -8242,10 +8239,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="195">
       <c r="A195" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="B195" s="0" t="s">
         <v>556</v>
-      </c>
-      <c r="B195" s="0" t="s">
-        <v>557</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>54</v>
@@ -8260,15 +8257,15 @@
         <v>19</v>
       </c>
       <c r="H195" s="0" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="196">
       <c r="A196" s="0" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>54</v>
@@ -8283,15 +8280,15 @@
         <v>19</v>
       </c>
       <c r="H196" s="0" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="197">
       <c r="A197" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="B197" s="0" t="s">
         <v>560</v>
-      </c>
-      <c r="B197" s="0" t="s">
-        <v>561</v>
       </c>
       <c r="C197" s="0" t="s">
         <v>15</v>
@@ -8303,7 +8300,7 @@
         <v>19</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G197" s="0" t="s">
         <v>12</v>
@@ -8311,36 +8308,36 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="198">
       <c r="A198" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B198" s="0" t="s">
         <v>563</v>
       </c>
-      <c r="B198" s="0" t="s">
+      <c r="C198" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E198" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F198" s="0" t="s">
         <v>564</v>
       </c>
-      <c r="C198" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D198" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E198" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F198" s="0" t="s">
+      <c r="G198" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H198" s="0" t="s">
         <v>565</v>
-      </c>
-      <c r="G198" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H198" s="0" t="s">
-        <v>566</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="199">
       <c r="A199" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B199" s="0" t="s">
         <v>567</v>
-      </c>
-      <c r="B199" s="0" t="s">
-        <v>568</v>
       </c>
       <c r="C199" s="0" t="s">
         <v>15</v>
@@ -8357,10 +8354,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="200">
       <c r="A200" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="B200" s="0" t="s">
         <v>569</v>
-      </c>
-      <c r="B200" s="0" t="s">
-        <v>570</v>
       </c>
       <c r="C200" s="0" t="s">
         <v>15</v>
@@ -8372,47 +8369,47 @@
         <v>19</v>
       </c>
       <c r="F200" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="G200" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H200" s="0" t="s">
         <v>571</v>
-      </c>
-      <c r="G200" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H200" s="0" t="s">
-        <v>572</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="201">
       <c r="A201" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B201" s="0" t="s">
         <v>573</v>
       </c>
-      <c r="B201" s="0" t="s">
+      <c r="C201" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D201" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E201" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F201" s="0" t="s">
         <v>574</v>
       </c>
-      <c r="C201" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D201" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E201" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F201" s="0" t="s">
+      <c r="G201" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H201" s="0" t="s">
         <v>575</v>
-      </c>
-      <c r="G201" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H201" s="0" t="s">
-        <v>576</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="202">
       <c r="A202" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="B202" s="0" t="s">
         <v>577</v>
-      </c>
-      <c r="B202" s="0" t="s">
-        <v>578</v>
       </c>
       <c r="C202" s="0" t="s">
         <v>15</v>
@@ -8429,10 +8426,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="203">
       <c r="A203" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="B203" s="0" t="s">
         <v>579</v>
-      </c>
-      <c r="B203" s="0" t="s">
-        <v>580</v>
       </c>
       <c r="C203" s="0" t="s">
         <v>15</v>
@@ -8449,13 +8446,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="204">
       <c r="A204" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="B204" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B204" s="0" t="s">
-        <v>582</v>
-      </c>
       <c r="C204" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D204" s="0" t="s">
         <v>25</v>
@@ -8464,7 +8461,7 @@
         <v>19</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G204" s="0" t="s">
         <v>12</v>
@@ -8472,10 +8469,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="205">
       <c r="A205" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="B205" s="0" t="s">
         <v>584</v>
-      </c>
-      <c r="B205" s="0" t="s">
-        <v>585</v>
       </c>
       <c r="C205" s="0" t="s">
         <v>15</v>
@@ -8490,15 +8487,15 @@
         <v>19</v>
       </c>
       <c r="H205" s="0" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="206">
       <c r="A206" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="B206" s="0" t="s">
         <v>587</v>
-      </c>
-      <c r="B206" s="0" t="s">
-        <v>588</v>
       </c>
       <c r="C206" s="0" t="s">
         <v>15</v>
@@ -8510,7 +8507,7 @@
         <v>19</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G206" s="0" t="s">
         <v>19</v>
@@ -8518,10 +8515,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="207">
       <c r="A207" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="B207" s="0" t="s">
         <v>590</v>
-      </c>
-      <c r="B207" s="0" t="s">
-        <v>591</v>
       </c>
       <c r="C207" s="0" t="s">
         <v>15</v>
@@ -8536,15 +8533,15 @@
         <v>19</v>
       </c>
       <c r="H207" s="0" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="208">
       <c r="A208" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="B208" s="0" t="s">
         <v>593</v>
-      </c>
-      <c r="B208" s="0" t="s">
-        <v>594</v>
       </c>
       <c r="C208" s="0" t="s">
         <v>15</v>
@@ -8559,15 +8556,15 @@
         <v>19</v>
       </c>
       <c r="H208" s="0" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="209">
       <c r="A209" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="B209" s="0" t="s">
         <v>596</v>
-      </c>
-      <c r="B209" s="0" t="s">
-        <v>597</v>
       </c>
       <c r="C209" s="0" t="s">
         <v>15</v>
@@ -8584,10 +8581,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="210">
       <c r="A210" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="B210" s="0" t="s">
         <v>598</v>
-      </c>
-      <c r="B210" s="0" t="s">
-        <v>599</v>
       </c>
       <c r="C210" s="0" t="s">
         <v>15</v>
@@ -8602,15 +8599,15 @@
         <v>19</v>
       </c>
       <c r="H210" s="0" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="211">
       <c r="A211" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="B211" s="0" t="s">
         <v>601</v>
-      </c>
-      <c r="B211" s="0" t="s">
-        <v>602</v>
       </c>
       <c r="C211" s="0" t="s">
         <v>15</v>
@@ -8627,10 +8624,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="212">
       <c r="A212" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B212" s="0" t="s">
         <v>603</v>
-      </c>
-      <c r="B212" s="0" t="s">
-        <v>604</v>
       </c>
       <c r="C212" s="0" t="s">
         <v>15</v>
@@ -8647,10 +8644,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="213">
       <c r="A213" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="B213" s="0" t="s">
         <v>605</v>
-      </c>
-      <c r="B213" s="0" t="s">
-        <v>606</v>
       </c>
       <c r="C213" s="0" t="s">
         <v>15</v>
@@ -8667,10 +8664,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="214">
       <c r="A214" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="B214" s="0" t="s">
         <v>607</v>
-      </c>
-      <c r="B214" s="0" t="s">
-        <v>608</v>
       </c>
       <c r="C214" s="0" t="s">
         <v>15</v>
@@ -8687,10 +8684,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="215">
       <c r="A215" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="B215" s="0" t="s">
         <v>609</v>
-      </c>
-      <c r="B215" s="0" t="s">
-        <v>610</v>
       </c>
       <c r="C215" s="0" t="s">
         <v>15</v>
@@ -8707,10 +8704,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="216">
       <c r="A216" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="B216" s="0" t="s">
         <v>611</v>
-      </c>
-      <c r="B216" s="0" t="s">
-        <v>612</v>
       </c>
       <c r="C216" s="0" t="s">
         <v>15</v>
@@ -8727,10 +8724,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="217">
       <c r="A217" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="B217" s="0" t="s">
         <v>613</v>
-      </c>
-      <c r="B217" s="0" t="s">
-        <v>614</v>
       </c>
       <c r="C217" s="0" t="s">
         <v>15</v>
@@ -8747,22 +8744,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="218">
       <c r="A218" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="B218" s="0" t="s">
         <v>615</v>
       </c>
-      <c r="B218" s="0" t="s">
+      <c r="C218" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D218" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E218" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F218" s="0" t="s">
         <v>616</v>
-      </c>
-      <c r="C218" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D218" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E218" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F218" s="0" t="s">
-        <v>617</v>
       </c>
       <c r="G218" s="0" t="s">
         <v>12</v>
@@ -8770,10 +8767,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="219">
       <c r="A219" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="B219" s="0" t="s">
         <v>618</v>
-      </c>
-      <c r="B219" s="0" t="s">
-        <v>619</v>
       </c>
       <c r="C219" s="0" t="s">
         <v>15</v>
@@ -8785,21 +8782,21 @@
         <v>19</v>
       </c>
       <c r="F219" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="G219" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H219" s="0" t="s">
         <v>620</v>
-      </c>
-      <c r="G219" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H219" s="0" t="s">
-        <v>621</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="220">
       <c r="A220" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="B220" s="0" t="s">
         <v>622</v>
-      </c>
-      <c r="B220" s="0" t="s">
-        <v>623</v>
       </c>
       <c r="C220" s="0" t="s">
         <v>15</v>
@@ -8811,21 +8808,21 @@
         <v>19</v>
       </c>
       <c r="F220" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="G220" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H220" s="0" t="s">
         <v>624</v>
-      </c>
-      <c r="G220" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H220" s="0" t="s">
-        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="221">
       <c r="A221" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="B221" s="0" t="s">
         <v>626</v>
-      </c>
-      <c r="B221" s="0" t="s">
-        <v>627</v>
       </c>
       <c r="C221" s="0" t="s">
         <v>15</v>
@@ -8837,21 +8834,21 @@
         <v>19</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G221" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H221" s="0" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="222">
       <c r="A222" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="B222" s="0" t="s">
         <v>629</v>
-      </c>
-      <c r="B222" s="0" t="s">
-        <v>630</v>
       </c>
       <c r="C222" s="0" t="s">
         <v>15</v>
@@ -8863,21 +8860,21 @@
         <v>19</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G222" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H222" s="0" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="223">
       <c r="A223" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="B223" s="0" t="s">
         <v>632</v>
-      </c>
-      <c r="B223" s="0" t="s">
-        <v>633</v>
       </c>
       <c r="C223" s="0" t="s">
         <v>15</v>
@@ -8889,21 +8886,21 @@
         <v>19</v>
       </c>
       <c r="F223" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="G223" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H223" s="0" t="s">
         <v>634</v>
-      </c>
-      <c r="G223" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H223" s="0" t="s">
-        <v>635</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="224">
       <c r="A224" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="B224" s="0" t="s">
         <v>636</v>
-      </c>
-      <c r="B224" s="0" t="s">
-        <v>637</v>
       </c>
       <c r="C224" s="0" t="s">
         <v>15</v>
@@ -8915,7 +8912,7 @@
         <v>19</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G224" s="0" t="s">
         <v>12</v>
@@ -8923,36 +8920,36 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="225">
       <c r="A225" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="B225" s="0" t="s">
         <v>639</v>
       </c>
-      <c r="B225" s="0" t="s">
+      <c r="C225" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D225" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E225" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F225" s="0" t="s">
         <v>640</v>
       </c>
-      <c r="C225" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D225" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E225" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F225" s="0" t="s">
+      <c r="G225" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H225" s="0" t="s">
         <v>641</v>
-      </c>
-      <c r="G225" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H225" s="0" t="s">
-        <v>642</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="226">
       <c r="A226" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="B226" s="0" t="s">
         <v>643</v>
-      </c>
-      <c r="B226" s="0" t="s">
-        <v>644</v>
       </c>
       <c r="C226" s="0" t="s">
         <v>15</v>
@@ -8964,7 +8961,7 @@
         <v>19</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G226" s="0" t="s">
         <v>12</v>
@@ -8972,53 +8969,53 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="227">
       <c r="A227" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="B227" s="0" t="s">
         <v>646</v>
       </c>
-      <c r="B227" s="0" t="s">
+      <c r="C227" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D227" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E227" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F227" s="0" t="s">
         <v>647</v>
-      </c>
-      <c r="C227" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D227" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E227" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F227" s="0" t="s">
-        <v>648</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="228">
       <c r="A228" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="B228" s="0" t="s">
         <v>649</v>
       </c>
-      <c r="B228" s="0" t="s">
+      <c r="C228" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D228" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E228" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G228" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I228" s="0" t="s">
         <v>650</v>
-      </c>
-      <c r="C228" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="D228" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E228" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G228" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I228" s="0" t="s">
-        <v>651</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="229">
       <c r="A229" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="B229" s="0" t="s">
         <v>652</v>
-      </c>
-      <c r="B229" s="0" t="s">
-        <v>653</v>
       </c>
       <c r="C229" s="0" t="s">
         <v>15</v>
@@ -9030,7 +9027,7 @@
         <v>19</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G229" s="0" t="s">
         <v>12</v>
@@ -9038,22 +9035,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="230">
       <c r="A230" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="B230" s="0" t="s">
         <v>655</v>
       </c>
-      <c r="B230" s="0" t="s">
+      <c r="C230" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D230" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E230" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F230" s="0" t="s">
         <v>656</v>
-      </c>
-      <c r="C230" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D230" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E230" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F230" s="0" t="s">
-        <v>657</v>
       </c>
       <c r="G230" s="0" t="s">
         <v>12</v>
@@ -9061,10 +9058,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="231">
       <c r="A231" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="B231" s="0" t="s">
         <v>658</v>
-      </c>
-      <c r="B231" s="0" t="s">
-        <v>659</v>
       </c>
       <c r="C231" s="0" t="s">
         <v>15</v>
@@ -9076,7 +9073,7 @@
         <v>19</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G231" s="0" t="s">
         <v>12</v>
@@ -9084,10 +9081,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="232">
       <c r="A232" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="B232" s="0" t="s">
         <v>661</v>
-      </c>
-      <c r="B232" s="0" t="s">
-        <v>662</v>
       </c>
       <c r="C232" s="0" t="s">
         <v>54</v>
@@ -9104,10 +9101,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="233">
       <c r="A233" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="B233" s="0" t="s">
         <v>663</v>
-      </c>
-      <c r="B233" s="0" t="s">
-        <v>664</v>
       </c>
       <c r="C233" s="0" t="s">
         <v>15</v>
@@ -9122,18 +9119,18 @@
         <v>19</v>
       </c>
       <c r="H233" s="0" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="234">
       <c r="A234" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="B234" s="0" t="s">
         <v>666</v>
       </c>
-      <c r="B234" s="0" t="s">
+      <c r="C234" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>668</v>
       </c>
       <c r="D234" s="0" t="s">
         <v>25</v>
@@ -9142,21 +9139,21 @@
         <v>19</v>
       </c>
       <c r="F234" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="G234" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H234" s="0" t="s">
         <v>669</v>
-      </c>
-      <c r="G234" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H234" s="0" t="s">
-        <v>670</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="235">
       <c r="A235" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="B235" s="0" t="s">
         <v>671</v>
-      </c>
-      <c r="B235" s="0" t="s">
-        <v>672</v>
       </c>
       <c r="C235" s="0" t="s">
         <v>15</v>
@@ -9168,7 +9165,7 @@
         <v>19</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G235" s="0" t="s">
         <v>12</v>
@@ -9176,10 +9173,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="236">
       <c r="A236" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="B236" s="0" t="s">
         <v>674</v>
-      </c>
-      <c r="B236" s="0" t="s">
-        <v>675</v>
       </c>
       <c r="C236" s="0" t="s">
         <v>15</v>
@@ -9196,10 +9193,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="237">
       <c r="A237" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="B237" s="0" t="s">
         <v>676</v>
-      </c>
-      <c r="B237" s="0" t="s">
-        <v>677</v>
       </c>
       <c r="C237" s="0" t="s">
         <v>15</v>
@@ -9216,10 +9213,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="238">
       <c r="A238" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="B238" s="0" t="s">
         <v>678</v>
-      </c>
-      <c r="B238" s="0" t="s">
-        <v>679</v>
       </c>
       <c r="C238" s="0" t="s">
         <v>15</v>
@@ -9236,10 +9233,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="239">
       <c r="A239" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="B239" s="0" t="s">
         <v>680</v>
-      </c>
-      <c r="B239" s="0" t="s">
-        <v>681</v>
       </c>
       <c r="C239" s="0" t="s">
         <v>15</v>
@@ -9256,10 +9253,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="240">
       <c r="A240" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="B240" s="0" t="s">
         <v>682</v>
-      </c>
-      <c r="B240" s="0" t="s">
-        <v>683</v>
       </c>
       <c r="C240" s="0" t="s">
         <v>15</v>
@@ -9276,10 +9273,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="241">
       <c r="A241" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="B241" s="0" t="s">
         <v>684</v>
-      </c>
-      <c r="B241" s="0" t="s">
-        <v>685</v>
       </c>
       <c r="C241" s="0" t="s">
         <v>54</v>
@@ -9296,10 +9293,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="242">
       <c r="A242" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="B242" s="0" t="s">
         <v>686</v>
-      </c>
-      <c r="B242" s="0" t="s">
-        <v>687</v>
       </c>
       <c r="C242" s="0" t="s">
         <v>54</v>
@@ -9314,18 +9311,18 @@
         <v>19</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="243">
       <c r="A243" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="B243" s="0" t="s">
         <v>689</v>
       </c>
-      <c r="B243" s="0" t="s">
+      <c r="C243" s="0" t="s">
         <v>690</v>
-      </c>
-      <c r="C243" s="0" t="s">
-        <v>691</v>
       </c>
       <c r="D243" s="0" t="s">
         <v>30</v>
@@ -9337,15 +9334,15 @@
         <v>19</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="244">
       <c r="A244" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="B244" s="0" t="s">
         <v>693</v>
-      </c>
-      <c r="B244" s="0" t="s">
-        <v>694</v>
       </c>
       <c r="C244" s="0" t="s">
         <v>15</v>
@@ -9357,21 +9354,21 @@
         <v>19</v>
       </c>
       <c r="F244" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="G244" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H244" s="0" t="s">
         <v>695</v>
-      </c>
-      <c r="G244" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H244" s="0" t="s">
-        <v>696</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="245">
       <c r="A245" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="B245" s="0" t="s">
         <v>697</v>
-      </c>
-      <c r="B245" s="0" t="s">
-        <v>698</v>
       </c>
       <c r="C245" s="0" t="s">
         <v>15</v>
@@ -9388,10 +9385,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="246">
       <c r="A246" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="B246" s="0" t="s">
         <v>699</v>
-      </c>
-      <c r="B246" s="0" t="s">
-        <v>700</v>
       </c>
       <c r="C246" s="0" t="s">
         <v>15</v>
@@ -9403,18 +9400,18 @@
         <v>19</v>
       </c>
       <c r="F246" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="G246" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="247">
+      <c r="A247" s="0" t="s">
         <v>701</v>
       </c>
-      <c r="G246" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="247">
-      <c r="A247" s="0" t="s">
+      <c r="B247" s="0" t="s">
         <v>702</v>
-      </c>
-      <c r="B247" s="0" t="s">
-        <v>703</v>
       </c>
       <c r="C247" s="0" t="s">
         <v>15</v>
@@ -9426,21 +9423,21 @@
         <v>19</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G247" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="248">
       <c r="A248" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="B248" s="0" t="s">
         <v>705</v>
-      </c>
-      <c r="B248" s="0" t="s">
-        <v>706</v>
       </c>
       <c r="C248" s="0" t="s">
         <v>15</v>
@@ -9455,15 +9452,15 @@
         <v>19</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="249">
       <c r="A249" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="B249" s="0" t="s">
         <v>708</v>
-      </c>
-      <c r="B249" s="0" t="s">
-        <v>709</v>
       </c>
       <c r="C249" s="0" t="s">
         <v>54</v>
@@ -9475,7 +9472,7 @@
         <v>19</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G249" s="0" t="s">
         <v>12</v>
@@ -9483,22 +9480,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="250">
       <c r="A250" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="B250" s="0" t="s">
         <v>711</v>
       </c>
-      <c r="B250" s="0" t="s">
+      <c r="C250" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D250" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E250" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F250" s="0" t="s">
         <v>712</v>
-      </c>
-      <c r="C250" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D250" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E250" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F250" s="0" t="s">
-        <v>713</v>
       </c>
       <c r="G250" s="0" t="s">
         <v>12</v>
@@ -9506,22 +9503,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="251">
       <c r="A251" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="C251" s="0" t="s">
         <v>714</v>
       </c>
-      <c r="B251" s="0" t="s">
+      <c r="D251" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E251" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F251" s="0" t="s">
         <v>712</v>
-      </c>
-      <c r="C251" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="D251" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E251" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F251" s="0" t="s">
-        <v>713</v>
       </c>
       <c r="G251" s="0" t="s">
         <v>12</v>
@@ -9529,22 +9526,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="252">
       <c r="A252" s="0" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B252" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="C252" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="D252" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E252" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F252" s="0" t="s">
         <v>712</v>
-      </c>
-      <c r="C252" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="D252" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E252" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F252" s="0" t="s">
-        <v>713</v>
       </c>
       <c r="G252" s="0" t="s">
         <v>12</v>
@@ -9552,22 +9549,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="253">
       <c r="A253" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="B253" s="0" t="s">
         <v>717</v>
       </c>
-      <c r="B253" s="0" t="s">
+      <c r="C253" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D253" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E253" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F253" s="0" t="s">
         <v>718</v>
-      </c>
-      <c r="C253" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D253" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E253" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F253" s="0" t="s">
-        <v>719</v>
       </c>
       <c r="G253" s="0" t="s">
         <v>12</v>
@@ -9575,13 +9572,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="254">
       <c r="A254" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="B254" s="0" t="s">
         <v>720</v>
       </c>
-      <c r="B254" s="0" t="s">
+      <c r="C254" s="0" t="s">
         <v>721</v>
-      </c>
-      <c r="C254" s="0" t="s">
-        <v>722</v>
       </c>
       <c r="D254" s="0" t="s">
         <v>36</v>
@@ -9593,15 +9590,15 @@
         <v>19</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="255">
       <c r="A255" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="B255" s="0" t="s">
         <v>724</v>
-      </c>
-      <c r="B255" s="0" t="s">
-        <v>725</v>
       </c>
       <c r="C255" s="0" t="s">
         <v>15</v>
@@ -9618,13 +9615,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="256">
       <c r="A256" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="B256" s="0" t="s">
         <v>726</v>
       </c>
-      <c r="B256" s="0" t="s">
+      <c r="C256" s="2" t="s">
         <v>727</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>728</v>
       </c>
       <c r="D256" s="0" t="s">
         <v>25</v>
@@ -9633,33 +9630,33 @@
         <v>19</v>
       </c>
       <c r="F256" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="G256" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H256" s="0" t="s">
         <v>729</v>
-      </c>
-      <c r="G256" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H256" s="0" t="s">
-        <v>730</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="257">
       <c r="A257" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="B257" s="0" t="s">
         <v>731</v>
       </c>
-      <c r="B257" s="0" t="s">
+      <c r="C257" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D257" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E257" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F257" s="0" t="s">
         <v>732</v>
-      </c>
-      <c r="C257" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D257" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E257" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F257" s="0" t="s">
-        <v>733</v>
       </c>
       <c r="G257" s="0" t="s">
         <v>12</v>
@@ -9667,36 +9664,36 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="258">
       <c r="A258" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="B258" s="0" t="s">
         <v>734</v>
       </c>
-      <c r="B258" s="0" t="s">
+      <c r="C258" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D258" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E258" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F258" s="0" t="s">
         <v>735</v>
       </c>
-      <c r="C258" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D258" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="E258" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F258" s="0" t="s">
+      <c r="G258" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H258" s="0" t="s">
         <v>736</v>
-      </c>
-      <c r="G258" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H258" s="0" t="s">
-        <v>737</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="259">
       <c r="A259" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="B259" s="0" t="s">
         <v>738</v>
-      </c>
-      <c r="B259" s="0" t="s">
-        <v>739</v>
       </c>
       <c r="C259" s="0" t="s">
         <v>15</v>
@@ -9713,10 +9710,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="260">
       <c r="A260" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="B260" s="0" t="s">
         <v>740</v>
-      </c>
-      <c r="B260" s="0" t="s">
-        <v>741</v>
       </c>
       <c r="C260" s="0" t="s">
         <v>15</v>
@@ -9728,7 +9725,7 @@
         <v>19</v>
       </c>
       <c r="F260" s="0" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G260" s="0" t="s">
         <v>12</v>
@@ -9736,10 +9733,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="261">
       <c r="A261" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="B261" s="0" t="s">
         <v>743</v>
-      </c>
-      <c r="B261" s="0" t="s">
-        <v>744</v>
       </c>
       <c r="C261" s="0" t="s">
         <v>15</v>
@@ -9751,47 +9748,47 @@
         <v>19</v>
       </c>
       <c r="F261" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="G261" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H261" s="0" t="s">
         <v>745</v>
-      </c>
-      <c r="G261" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H261" s="0" t="s">
-        <v>746</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="262">
       <c r="A262" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="B262" s="0" t="s">
         <v>747</v>
       </c>
-      <c r="B262" s="0" t="s">
+      <c r="C262" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D262" s="0" t="s">
         <v>748</v>
       </c>
-      <c r="C262" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D262" s="0" t="s">
+      <c r="E262" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F262" s="0" t="s">
         <v>749</v>
       </c>
-      <c r="E262" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F262" s="0" t="s">
+      <c r="G262" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H262" s="0" t="s">
         <v>750</v>
-      </c>
-      <c r="G262" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H262" s="0" t="s">
-        <v>751</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="263">
       <c r="A263" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="B263" s="0" t="s">
         <v>752</v>
-      </c>
-      <c r="B263" s="0" t="s">
-        <v>753</v>
       </c>
       <c r="C263" s="0" t="s">
         <v>15</v>
@@ -9803,21 +9800,21 @@
         <v>19</v>
       </c>
       <c r="F263" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="G263" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H263" s="0" t="s">
         <v>754</v>
-      </c>
-      <c r="G263" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H263" s="0" t="s">
-        <v>755</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="264">
       <c r="A264" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="B264" s="0" t="s">
         <v>756</v>
-      </c>
-      <c r="B264" s="0" t="s">
-        <v>757</v>
       </c>
       <c r="C264" s="0" t="s">
         <v>15</v>
@@ -9834,10 +9831,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="265">
       <c r="A265" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="B265" s="0" t="s">
         <v>758</v>
-      </c>
-      <c r="B265" s="0" t="s">
-        <v>759</v>
       </c>
       <c r="C265" s="0" t="s">
         <v>15</v>
@@ -9849,33 +9846,33 @@
         <v>19</v>
       </c>
       <c r="F265" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="G265" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H265" s="0" t="s">
         <v>760</v>
-      </c>
-      <c r="G265" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H265" s="0" t="s">
-        <v>761</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="266">
       <c r="A266" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="B266" s="0" t="s">
         <v>762</v>
       </c>
-      <c r="B266" s="0" t="s">
+      <c r="C266" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="D266" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E266" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F266" s="0" t="s">
         <v>764</v>
-      </c>
-      <c r="D266" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E266" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F266" s="0" t="s">
-        <v>765</v>
       </c>
       <c r="G266" s="0" t="s">
         <v>12</v>
@@ -9883,10 +9880,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="267">
       <c r="A267" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="B267" s="0" t="s">
         <v>766</v>
-      </c>
-      <c r="B267" s="0" t="s">
-        <v>767</v>
       </c>
       <c r="C267" s="0" t="s">
         <v>15</v>
@@ -9898,21 +9895,21 @@
         <v>19</v>
       </c>
       <c r="F267" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="G267" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H267" s="0" t="s">
         <v>768</v>
-      </c>
-      <c r="G267" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H267" s="0" t="s">
-        <v>769</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="268">
       <c r="A268" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="B268" s="0" t="s">
         <v>770</v>
-      </c>
-      <c r="B268" s="0" t="s">
-        <v>771</v>
       </c>
       <c r="C268" s="0" t="s">
         <v>15</v>
@@ -9927,15 +9924,15 @@
         <v>19</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="269">
       <c r="A269" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="B269" s="0" t="s">
         <v>773</v>
-      </c>
-      <c r="B269" s="0" t="s">
-        <v>774</v>
       </c>
       <c r="C269" s="0" t="s">
         <v>15</v>
@@ -9943,10 +9940,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="270">
       <c r="A270" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="B270" s="0" t="s">
         <v>775</v>
-      </c>
-      <c r="B270" s="0" t="s">
-        <v>776</v>
       </c>
       <c r="C270" s="0" t="s">
         <v>54</v>
@@ -9963,10 +9960,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="271">
       <c r="A271" s="0" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C271" s="0" t="s">
         <v>15</v>
@@ -9983,10 +9980,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="272">
       <c r="A272" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="B272" s="0" t="s">
         <v>778</v>
-      </c>
-      <c r="B272" s="0" t="s">
-        <v>779</v>
       </c>
       <c r="C272" s="0" t="s">
         <v>15</v>
@@ -9998,21 +9995,21 @@
         <v>19</v>
       </c>
       <c r="F272" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="G272" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H272" s="0" t="s">
         <v>780</v>
-      </c>
-      <c r="G272" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H272" s="0" t="s">
-        <v>781</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="273">
       <c r="A273" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="B273" s="0" t="s">
         <v>782</v>
-      </c>
-      <c r="B273" s="0" t="s">
-        <v>783</v>
       </c>
       <c r="C273" s="0" t="s">
         <v>15</v>
@@ -10024,27 +10021,27 @@
         <v>19</v>
       </c>
       <c r="F273" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="G273" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H273" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="I273" s="0" t="s">
         <v>784</v>
-      </c>
-      <c r="G273" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H273" s="0" t="s">
-        <v>781</v>
-      </c>
-      <c r="I273" s="0" t="s">
-        <v>785</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="274">
       <c r="A274" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="B274" s="0" t="s">
         <v>786</v>
       </c>
-      <c r="B274" s="0" t="s">
-        <v>787</v>
-      </c>
       <c r="C274" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D274" s="0" t="s">
         <v>11</v>
@@ -10056,15 +10053,15 @@
         <v>19</v>
       </c>
       <c r="H274" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="275">
       <c r="A275" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="B275" s="0" t="s">
         <v>788</v>
-      </c>
-      <c r="B275" s="0" t="s">
-        <v>789</v>
       </c>
       <c r="C275" s="0" t="s">
         <v>15</v>
@@ -10081,22 +10078,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="276">
       <c r="A276" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="B276" s="0" t="s">
         <v>790</v>
       </c>
-      <c r="B276" s="0" t="s">
+      <c r="C276" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D276" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E276" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F276" s="0" t="s">
         <v>791</v>
-      </c>
-      <c r="C276" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D276" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E276" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F276" s="0" t="s">
-        <v>792</v>
       </c>
       <c r="G276" s="0" t="s">
         <v>12</v>
@@ -10104,10 +10101,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="277">
       <c r="A277" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="B277" s="0" t="s">
         <v>793</v>
-      </c>
-      <c r="B277" s="0" t="s">
-        <v>794</v>
       </c>
       <c r="C277" s="0" t="s">
         <v>15</v>
@@ -10124,10 +10121,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="278">
       <c r="A278" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="B278" s="0" t="s">
         <v>795</v>
-      </c>
-      <c r="B278" s="0" t="s">
-        <v>796</v>
       </c>
       <c r="C278" s="0" t="s">
         <v>15</v>
@@ -10144,13 +10141,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="279">
       <c r="A279" s="0" t="s">
+        <v>796</v>
+      </c>
+      <c r="B279" s="0" t="s">
         <v>797</v>
       </c>
-      <c r="B279" s="0" t="s">
-        <v>798</v>
-      </c>
       <c r="C279" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D279" s="0" t="s">
         <v>11</v>
@@ -10164,10 +10161,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="280">
       <c r="A280" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="B280" s="0" t="s">
         <v>799</v>
-      </c>
-      <c r="B280" s="0" t="s">
-        <v>800</v>
       </c>
       <c r="C280" s="0" t="s">
         <v>15</v>
@@ -10179,21 +10176,21 @@
         <v>19</v>
       </c>
       <c r="F280" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="G280" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I280" s="0" t="s">
         <v>801</v>
-      </c>
-      <c r="G280" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I280" s="0" t="s">
-        <v>802</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="281">
       <c r="A281" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="B281" s="0" t="s">
         <v>803</v>
-      </c>
-      <c r="B281" s="0" t="s">
-        <v>804</v>
       </c>
       <c r="C281" s="0" t="s">
         <v>15</v>
@@ -10205,7 +10202,7 @@
         <v>19</v>
       </c>
       <c r="F281" s="0" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G281" s="0" t="s">
         <v>12</v>
@@ -10213,10 +10210,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="282">
       <c r="A282" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="B282" s="0" t="s">
         <v>805</v>
-      </c>
-      <c r="B282" s="0" t="s">
-        <v>806</v>
       </c>
       <c r="C282" s="0" t="s">
         <v>15</v>
@@ -10231,15 +10228,15 @@
         <v>19</v>
       </c>
       <c r="H282" s="0" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="283">
       <c r="A283" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="B283" s="0" t="s">
         <v>807</v>
-      </c>
-      <c r="B283" s="0" t="s">
-        <v>808</v>
       </c>
       <c r="C283" s="0" t="s">
         <v>15</v>
@@ -10251,7 +10248,7 @@
         <v>19</v>
       </c>
       <c r="F283" s="0" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G283" s="0" t="s">
         <v>12</v>
@@ -10259,22 +10256,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="284">
       <c r="A284" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="B284" s="0" t="s">
         <v>810</v>
       </c>
-      <c r="B284" s="0" t="s">
+      <c r="C284" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D284" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E284" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F284" s="0" t="s">
         <v>811</v>
-      </c>
-      <c r="C284" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D284" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E284" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F284" s="0" t="s">
-        <v>812</v>
       </c>
       <c r="G284" s="0" t="s">
         <v>12</v>
@@ -10282,10 +10279,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="285">
       <c r="A285" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="B285" s="0" t="s">
         <v>813</v>
-      </c>
-      <c r="B285" s="0" t="s">
-        <v>814</v>
       </c>
       <c r="C285" s="0" t="s">
         <v>54</v>
@@ -10300,18 +10297,18 @@
         <v>19</v>
       </c>
       <c r="H285" s="0" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="286">
       <c r="A286" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="B286" s="0" t="s">
         <v>816</v>
       </c>
-      <c r="B286" s="0" t="s">
+      <c r="C286" s="2" t="s">
         <v>817</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>818</v>
       </c>
       <c r="D286" s="0" t="s">
         <v>30</v>
@@ -10325,10 +10322,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="287">
       <c r="A287" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="B287" s="0" t="s">
         <v>819</v>
-      </c>
-      <c r="B287" s="0" t="s">
-        <v>820</v>
       </c>
       <c r="C287" s="0" t="s">
         <v>15</v>
@@ -10345,10 +10342,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="288">
       <c r="A288" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="B288" s="0" t="s">
         <v>821</v>
-      </c>
-      <c r="B288" s="0" t="s">
-        <v>822</v>
       </c>
       <c r="C288" s="0" t="s">
         <v>15</v>
@@ -10360,7 +10357,7 @@
         <v>19</v>
       </c>
       <c r="F288" s="0" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G288" s="0" t="s">
         <v>12</v>
@@ -10368,10 +10365,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="289">
       <c r="A289" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="B289" s="0" t="s">
         <v>824</v>
-      </c>
-      <c r="B289" s="0" t="s">
-        <v>825</v>
       </c>
       <c r="C289" s="0" t="s">
         <v>15</v>
@@ -10386,18 +10383,18 @@
         <v>19</v>
       </c>
       <c r="H289" s="0" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="290">
       <c r="A290" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="B290" s="0" t="s">
         <v>827</v>
       </c>
-      <c r="B290" s="0" t="s">
-        <v>828</v>
-      </c>
       <c r="C290" s="0" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="D290" s="0" t="s">
         <v>16</v>
@@ -10409,15 +10406,15 @@
         <v>19</v>
       </c>
       <c r="H290" s="0" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="291">
       <c r="A291" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="B291" s="0" t="s">
         <v>830</v>
-      </c>
-      <c r="B291" s="0" t="s">
-        <v>831</v>
       </c>
       <c r="C291" s="0" t="s">
         <v>15</v>
@@ -10434,10 +10431,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="292">
       <c r="A292" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="B292" s="0" t="s">
         <v>832</v>
-      </c>
-      <c r="B292" s="0" t="s">
-        <v>833</v>
       </c>
       <c r="C292" s="0" t="s">
         <v>54</v>
@@ -10452,15 +10449,15 @@
         <v>19</v>
       </c>
       <c r="H292" s="0" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="293">
       <c r="A293" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="B293" s="0" t="s">
         <v>835</v>
-      </c>
-      <c r="B293" s="0" t="s">
-        <v>836</v>
       </c>
       <c r="C293" s="0" t="s">
         <v>15</v>
@@ -10472,7 +10469,7 @@
         <v>19</v>
       </c>
       <c r="F293" s="0" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G293" s="0" t="s">
         <v>12</v>
@@ -10480,7 +10477,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="294">
       <c r="A294" s="0" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B294" s="0" t="s">
         <v>11</v>
@@ -10503,10 +10500,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="295">
       <c r="A295" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="B295" s="0" t="s">
         <v>839</v>
-      </c>
-      <c r="B295" s="0" t="s">
-        <v>840</v>
       </c>
       <c r="C295" s="0" t="s">
         <v>15</v>
@@ -10523,10 +10520,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="296">
       <c r="A296" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="B296" s="0" t="s">
         <v>841</v>
-      </c>
-      <c r="B296" s="0" t="s">
-        <v>842</v>
       </c>
       <c r="C296" s="0" t="s">
         <v>15</v>
@@ -10538,21 +10535,21 @@
         <v>19</v>
       </c>
       <c r="F296" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="G296" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H296" s="0" t="s">
         <v>843</v>
-      </c>
-      <c r="G296" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H296" s="0" t="s">
-        <v>844</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="297">
       <c r="A297" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="B297" s="0" t="s">
         <v>845</v>
-      </c>
-      <c r="B297" s="0" t="s">
-        <v>846</v>
       </c>
       <c r="C297" s="0" t="s">
         <v>15</v>
@@ -10564,21 +10561,21 @@
         <v>19</v>
       </c>
       <c r="F297" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="G297" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H297" s="0" t="s">
         <v>847</v>
-      </c>
-      <c r="G297" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H297" s="0" t="s">
-        <v>848</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="298">
       <c r="A298" s="0" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C298" s="0" t="s">
         <v>15</v>
@@ -10590,24 +10587,24 @@
         <v>19</v>
       </c>
       <c r="F298" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="G298" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H298" s="0" t="s">
         <v>847</v>
-      </c>
-      <c r="G298" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H298" s="0" t="s">
-        <v>848</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="299">
       <c r="A299" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="B299" s="0" t="s">
         <v>850</v>
       </c>
-      <c r="B299" s="0" t="s">
-        <v>851</v>
-      </c>
       <c r="C299" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D299" s="0" t="s">
         <v>36</v>
@@ -10616,21 +10613,21 @@
         <v>19</v>
       </c>
       <c r="F299" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="G299" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H299" s="0" t="s">
         <v>852</v>
-      </c>
-      <c r="G299" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H299" s="0" t="s">
-        <v>853</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="300">
       <c r="A300" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="B300" s="0" t="s">
         <v>854</v>
-      </c>
-      <c r="B300" s="0" t="s">
-        <v>855</v>
       </c>
       <c r="C300" s="0" t="s">
         <v>15</v>
@@ -10645,27 +10642,27 @@
         <v>19</v>
       </c>
       <c r="H300" s="0" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="301">
       <c r="A301" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="B301" s="0" t="s">
         <v>857</v>
       </c>
-      <c r="B301" s="0" t="s">
+      <c r="C301" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D301" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E301" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F301" s="0" t="s">
         <v>858</v>
-      </c>
-      <c r="C301" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D301" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E301" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F301" s="0" t="s">
-        <v>859</v>
       </c>
       <c r="G301" s="0" t="s">
         <v>12</v>
@@ -10673,22 +10670,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="302">
       <c r="A302" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="B302" s="0" t="s">
         <v>860</v>
       </c>
-      <c r="B302" s="0" t="s">
+      <c r="C302" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D302" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E302" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F302" s="0" t="s">
         <v>861</v>
-      </c>
-      <c r="C302" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="D302" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E302" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F302" s="0" t="s">
-        <v>862</v>
       </c>
       <c r="G302" s="0" t="s">
         <v>12</v>
@@ -10696,13 +10693,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="303">
       <c r="A303" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="B303" s="0" t="s">
         <v>863</v>
       </c>
-      <c r="B303" s="0" t="s">
-        <v>864</v>
-      </c>
       <c r="C303" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D303" s="0" t="s">
         <v>16</v>
@@ -10714,18 +10711,18 @@
         <v>19</v>
       </c>
       <c r="H303" s="0" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="304">
       <c r="A304" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="B304" s="0" t="s">
         <v>866</v>
       </c>
-      <c r="B304" s="0" t="s">
-        <v>867</v>
-      </c>
       <c r="C304" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D304" s="0" t="s">
         <v>36</v>
@@ -10734,41 +10731,41 @@
         <v>19</v>
       </c>
       <c r="F304" s="0" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="305">
       <c r="A305" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="B305" s="0" t="s">
         <v>869</v>
       </c>
-      <c r="B305" s="0" t="s">
+      <c r="C305" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D305" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E305" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G305" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H305" s="0" t="s">
         <v>870</v>
       </c>
-      <c r="C305" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D305" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E305" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G305" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H305" s="0" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="306">
+      <c r="A306" s="0" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="306">
-      <c r="A306" s="0" t="s">
+      <c r="B306" s="0" t="s">
         <v>872</v>
       </c>
-      <c r="B306" s="0" t="s">
-        <v>873</v>
-      </c>
       <c r="C306" s="0" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="D306" s="0" t="s">
         <v>36</v>
@@ -10780,41 +10777,41 @@
         <v>19</v>
       </c>
       <c r="H306" s="0" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="307">
       <c r="A307" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="B307" s="0" t="s">
         <v>875</v>
       </c>
-      <c r="B307" s="0" t="s">
+      <c r="C307" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D307" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E307" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F307" s="0" t="s">
         <v>876</v>
       </c>
-      <c r="C307" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D307" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E307" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F307" s="0" t="s">
+      <c r="G307" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H307" s="0" t="s">
         <v>877</v>
-      </c>
-      <c r="G307" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H307" s="0" t="s">
-        <v>878</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="308">
       <c r="A308" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="B308" s="0" t="s">
         <v>879</v>
-      </c>
-      <c r="B308" s="0" t="s">
-        <v>880</v>
       </c>
       <c r="C308" s="0" t="s">
         <v>54</v>
@@ -10826,21 +10823,21 @@
         <v>19</v>
       </c>
       <c r="F308" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="G308" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H308" s="0" t="s">
         <v>881</v>
-      </c>
-      <c r="G308" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H308" s="0" t="s">
-        <v>882</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="309">
       <c r="A309" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="B309" s="0" t="s">
         <v>883</v>
-      </c>
-      <c r="B309" s="0" t="s">
-        <v>884</v>
       </c>
       <c r="C309" s="0" t="s">
         <v>15</v>
@@ -10852,7 +10849,7 @@
         <v>19</v>
       </c>
       <c r="F309" s="0" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G309" s="0" t="s">
         <v>12</v>
@@ -10860,10 +10857,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="310">
       <c r="A310" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="B310" s="0" t="s">
         <v>886</v>
-      </c>
-      <c r="B310" s="0" t="s">
-        <v>887</v>
       </c>
       <c r="C310" s="0" t="s">
         <v>15</v>
@@ -10880,37 +10877,37 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="311">
       <c r="A311" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="B311" s="0" t="s">
         <v>888</v>
       </c>
-      <c r="B311" s="0" t="s">
+      <c r="C311" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D311" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E311" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G311" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H311" s="0" t="s">
         <v>889</v>
-      </c>
-      <c r="C311" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D311" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E311" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G311" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H311" s="0" t="s">
-        <v>890</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="312">
       <c r="A312" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B312" s="0" t="s">
         <v>891</v>
       </c>
-      <c r="B312" s="0" t="s">
+      <c r="C312" s="0" t="s">
         <v>892</v>
       </c>
-      <c r="C312" s="0" t="s">
-        <v>893</v>
-      </c>
       <c r="D312" s="0" t="s">
         <v>11</v>
       </c>
@@ -10921,15 +10918,15 @@
         <v>19</v>
       </c>
       <c r="H312" s="0" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="313">
       <c r="A313" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="B313" s="0" t="s">
         <v>894</v>
-      </c>
-      <c r="B313" s="0" t="s">
-        <v>895</v>
       </c>
       <c r="C313" s="0" t="s">
         <v>15</v>
@@ -10949,10 +10946,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="314">
       <c r="A314" s="0" t="s">
+        <v>895</v>
+      </c>
+      <c r="B314" s="0" t="s">
         <v>896</v>
-      </c>
-      <c r="B314" s="0" t="s">
-        <v>897</v>
       </c>
       <c r="C314" s="0" t="s">
         <v>15</v>
@@ -10969,10 +10966,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="315">
       <c r="A315" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="B315" s="0" t="s">
         <v>898</v>
-      </c>
-      <c r="B315" s="0" t="s">
-        <v>899</v>
       </c>
       <c r="C315" s="0" t="s">
         <v>15</v>
@@ -10984,21 +10981,21 @@
         <v>19</v>
       </c>
       <c r="F315" s="0" t="s">
+        <v>899</v>
+      </c>
+      <c r="G315" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H315" s="0" t="s">
         <v>900</v>
-      </c>
-      <c r="G315" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H315" s="0" t="s">
-        <v>901</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="316">
       <c r="A316" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="B316" s="0" t="s">
         <v>902</v>
-      </c>
-      <c r="B316" s="0" t="s">
-        <v>903</v>
       </c>
       <c r="C316" s="0" t="s">
         <v>15</v>
@@ -11018,13 +11015,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="317">
       <c r="A317" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="B317" s="0" t="s">
         <v>904</v>
       </c>
-      <c r="B317" s="0" t="s">
-        <v>905</v>
-      </c>
       <c r="C317" s="0" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D317" s="0" t="s">
         <v>25</v>
@@ -11033,21 +11030,21 @@
         <v>19</v>
       </c>
       <c r="F317" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="G317" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H317" s="0" t="s">
         <v>906</v>
-      </c>
-      <c r="G317" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H317" s="0" t="s">
-        <v>907</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="318">
       <c r="A318" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="B318" s="0" t="s">
         <v>908</v>
-      </c>
-      <c r="B318" s="0" t="s">
-        <v>909</v>
       </c>
       <c r="C318" s="0" t="s">
         <v>15</v>
@@ -11059,7 +11056,7 @@
         <v>19</v>
       </c>
       <c r="F318" s="0" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G318" s="0" t="s">
         <v>19</v>
@@ -11070,10 +11067,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="319">
       <c r="A319" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="B319" s="0" t="s">
         <v>911</v>
-      </c>
-      <c r="B319" s="0" t="s">
-        <v>912</v>
       </c>
       <c r="C319" s="0" t="s">
         <v>15</v>
@@ -11090,10 +11087,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="320">
       <c r="A320" s="0" t="s">
+        <v>912</v>
+      </c>
+      <c r="B320" s="0" t="s">
         <v>913</v>
-      </c>
-      <c r="B320" s="0" t="s">
-        <v>914</v>
       </c>
       <c r="C320" s="0" t="s">
         <v>15</v>
@@ -11105,21 +11102,21 @@
         <v>19</v>
       </c>
       <c r="F320" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="G320" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H320" s="0" t="s">
         <v>915</v>
-      </c>
-      <c r="G320" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H320" s="0" t="s">
-        <v>916</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="321">
       <c r="A321" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="B321" s="0" t="s">
         <v>917</v>
-      </c>
-      <c r="B321" s="0" t="s">
-        <v>918</v>
       </c>
       <c r="C321" s="0" t="s">
         <v>15</v>
@@ -11131,33 +11128,33 @@
         <v>19</v>
       </c>
       <c r="F321" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="G321" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H321" s="0" t="s">
         <v>919</v>
-      </c>
-      <c r="G321" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H321" s="0" t="s">
-        <v>920</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="322">
       <c r="A322" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="B322" s="0" t="s">
         <v>921</v>
       </c>
-      <c r="B322" s="0" t="s">
+      <c r="C322" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D322" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E322" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F322" s="0" t="s">
         <v>922</v>
-      </c>
-      <c r="C322" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D322" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E322" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F322" s="0" t="s">
-        <v>923</v>
       </c>
       <c r="G322" s="0" t="s">
         <v>12</v>
@@ -11165,10 +11162,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="323">
       <c r="A323" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="B323" s="0" t="s">
         <v>924</v>
-      </c>
-      <c r="B323" s="0" t="s">
-        <v>925</v>
       </c>
       <c r="C323" s="0" t="s">
         <v>15</v>
@@ -11183,41 +11180,41 @@
         <v>19</v>
       </c>
       <c r="H323" s="0" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="324">
       <c r="A324" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="B324" s="0" t="s">
         <v>927</v>
       </c>
-      <c r="B324" s="0" t="s">
+      <c r="C324" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D324" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E324" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G324" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H324" s="0" t="s">
         <v>928</v>
       </c>
-      <c r="C324" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D324" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E324" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G324" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H324" s="0" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="325">
+      <c r="A325" s="0" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="325">
-      <c r="A325" s="0" t="s">
+      <c r="B325" s="0" t="s">
         <v>930</v>
       </c>
-      <c r="B325" s="0" t="s">
-        <v>931</v>
-      </c>
       <c r="C325" s="0" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="D325" s="0" t="s">
         <v>25</v>
@@ -11231,10 +11228,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="326">
       <c r="A326" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="B326" s="0" t="s">
         <v>932</v>
-      </c>
-      <c r="B326" s="0" t="s">
-        <v>933</v>
       </c>
       <c r="C326" s="0" t="s">
         <v>15</v>
@@ -11251,10 +11248,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="327">
       <c r="A327" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="B327" s="0" t="s">
         <v>934</v>
-      </c>
-      <c r="B327" s="0" t="s">
-        <v>935</v>
       </c>
       <c r="C327" s="0" t="s">
         <v>15</v>
@@ -11266,7 +11263,7 @@
         <v>19</v>
       </c>
       <c r="F327" s="0" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G327" s="0" t="s">
         <v>12</v>
@@ -11274,13 +11271,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="328">
       <c r="A328" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="B328" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="B328" s="0" t="s">
-        <v>938</v>
-      </c>
       <c r="C328" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D328" s="0" t="s">
         <v>16</v>
@@ -11289,15 +11286,15 @@
         <v>19</v>
       </c>
       <c r="F328" s="0" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="329">
       <c r="A329" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="B329" s="0" t="s">
         <v>940</v>
-      </c>
-      <c r="B329" s="0" t="s">
-        <v>941</v>
       </c>
       <c r="C329" s="0" t="s">
         <v>15</v>
@@ -11309,7 +11306,7 @@
         <v>19</v>
       </c>
       <c r="F329" s="0" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G329" s="0" t="s">
         <v>12</v>
@@ -11317,10 +11314,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="330">
       <c r="A330" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="B330" s="0" t="s">
         <v>943</v>
-      </c>
-      <c r="B330" s="0" t="s">
-        <v>944</v>
       </c>
       <c r="C330" s="0" t="s">
         <v>15</v>
@@ -11337,13 +11334,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="331">
       <c r="A331" s="0" t="s">
+        <v>944</v>
+      </c>
+      <c r="B331" s="0" t="s">
         <v>945</v>
       </c>
-      <c r="B331" s="0" t="s">
-        <v>946</v>
-      </c>
       <c r="C331" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D331" s="0" t="s">
         <v>36</v>
@@ -11357,10 +11354,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="332">
       <c r="A332" s="0" t="s">
+        <v>946</v>
+      </c>
+      <c r="B332" s="0" t="s">
         <v>947</v>
-      </c>
-      <c r="B332" s="0" t="s">
-        <v>948</v>
       </c>
       <c r="C332" s="0" t="s">
         <v>15</v>
@@ -11377,10 +11374,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="333">
       <c r="A333" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="B333" s="0" t="s">
         <v>949</v>
-      </c>
-      <c r="B333" s="0" t="s">
-        <v>950</v>
       </c>
       <c r="C333" s="0" t="s">
         <v>15</v>
@@ -11397,22 +11394,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="334">
       <c r="A334" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="B334" s="0" t="s">
         <v>951</v>
       </c>
-      <c r="B334" s="0" t="s">
+      <c r="C334" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D334" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E334" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F334" s="0" t="s">
         <v>952</v>
-      </c>
-      <c r="C334" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D334" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E334" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F334" s="0" t="s">
-        <v>953</v>
       </c>
       <c r="G334" s="0" t="s">
         <v>12</v>
@@ -11420,10 +11417,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="335">
       <c r="A335" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="B335" s="0" t="s">
         <v>954</v>
-      </c>
-      <c r="B335" s="0" t="s">
-        <v>955</v>
       </c>
       <c r="C335" s="0" t="s">
         <v>15</v>
@@ -11435,7 +11432,7 @@
         <v>19</v>
       </c>
       <c r="F335" s="0" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G335" s="0" t="s">
         <v>12</v>
@@ -11443,10 +11440,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="336">
       <c r="A336" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="B336" s="0" t="s">
         <v>957</v>
-      </c>
-      <c r="B336" s="0" t="s">
-        <v>958</v>
       </c>
       <c r="C336" s="0" t="s">
         <v>15</v>
@@ -11463,10 +11460,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="337">
       <c r="A337" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="B337" s="0" t="s">
         <v>959</v>
-      </c>
-      <c r="B337" s="0" t="s">
-        <v>960</v>
       </c>
       <c r="C337" s="0" t="s">
         <v>58</v>
@@ -11478,7 +11475,7 @@
         <v>19</v>
       </c>
       <c r="F337" s="0" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G337" s="0" t="s">
         <v>19</v>
@@ -11486,10 +11483,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="338">
       <c r="A338" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="B338" s="0" t="s">
         <v>962</v>
-      </c>
-      <c r="B338" s="0" t="s">
-        <v>963</v>
       </c>
       <c r="C338" s="0" t="s">
         <v>15</v>
@@ -11506,10 +11503,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="339">
       <c r="A339" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="B339" s="0" t="s">
         <v>964</v>
-      </c>
-      <c r="B339" s="0" t="s">
-        <v>965</v>
       </c>
       <c r="C339" s="0" t="s">
         <v>15</v>
@@ -11521,7 +11518,7 @@
         <v>19</v>
       </c>
       <c r="F339" s="0" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G339" s="0" t="s">
         <v>12</v>
@@ -11529,10 +11526,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="340">
       <c r="A340" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="B340" s="0" t="s">
         <v>967</v>
-      </c>
-      <c r="B340" s="0" t="s">
-        <v>968</v>
       </c>
       <c r="C340" s="0" t="s">
         <v>15</v>
@@ -11544,7 +11541,7 @@
         <v>19</v>
       </c>
       <c r="F340" s="0" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="G340" s="0" t="s">
         <v>12</v>
@@ -11552,22 +11549,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="341">
       <c r="A341" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="B341" s="0" t="s">
         <v>970</v>
       </c>
-      <c r="B341" s="0" t="s">
+      <c r="C341" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D341" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E341" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F341" s="0" t="s">
         <v>971</v>
-      </c>
-      <c r="C341" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="D341" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E341" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F341" s="0" t="s">
-        <v>972</v>
       </c>
       <c r="G341" s="0" t="s">
         <v>12</v>
@@ -11575,10 +11572,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="342">
       <c r="A342" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="B342" s="0" t="s">
         <v>973</v>
-      </c>
-      <c r="B342" s="0" t="s">
-        <v>974</v>
       </c>
       <c r="C342" s="0" t="s">
         <v>54</v>
@@ -11595,71 +11592,71 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="343">
       <c r="A343" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="B343" s="0" t="s">
         <v>975</v>
       </c>
-      <c r="B343" s="0" t="s">
+      <c r="C343" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D343" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E343" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F343" s="0" t="s">
         <v>976</v>
       </c>
-      <c r="C343" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D343" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E343" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F343" s="0" t="s">
+      <c r="G343" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H343" s="0" t="s">
         <v>977</v>
-      </c>
-      <c r="G343" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H343" s="0" t="s">
-        <v>978</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="344">
       <c r="A344" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="B344" s="0" t="s">
         <v>979</v>
       </c>
-      <c r="B344" s="0" t="s">
+      <c r="C344" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D344" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="E344" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G344" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H344" s="0" t="s">
         <v>980</v>
-      </c>
-      <c r="C344" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D344" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="E344" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G344" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H344" s="0" t="s">
-        <v>981</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="345">
       <c r="A345" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="B345" s="0" t="s">
         <v>982</v>
       </c>
-      <c r="B345" s="0" t="s">
+      <c r="C345" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D345" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E345" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F345" s="0" t="s">
         <v>983</v>
-      </c>
-      <c r="C345" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D345" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E345" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F345" s="0" t="s">
-        <v>984</v>
       </c>
       <c r="G345" s="0" t="s">
         <v>12</v>
@@ -11667,10 +11664,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="346">
       <c r="A346" s="0" t="s">
+        <v>984</v>
+      </c>
+      <c r="B346" s="0" t="s">
         <v>985</v>
-      </c>
-      <c r="B346" s="0" t="s">
-        <v>986</v>
       </c>
       <c r="C346" s="0" t="s">
         <v>54</v>
@@ -11687,10 +11684,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="347">
       <c r="A347" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="B347" s="0" t="s">
         <v>987</v>
-      </c>
-      <c r="B347" s="0" t="s">
-        <v>988</v>
       </c>
       <c r="C347" s="0" t="s">
         <v>15</v>
@@ -11705,15 +11702,15 @@
         <v>19</v>
       </c>
       <c r="H347" s="0" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="348">
       <c r="A348" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="B348" s="0" t="s">
         <v>990</v>
-      </c>
-      <c r="B348" s="0" t="s">
-        <v>991</v>
       </c>
       <c r="C348" s="0" t="s">
         <v>15</v>
@@ -11725,7 +11722,7 @@
         <v>19</v>
       </c>
       <c r="F348" s="0" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G348" s="0" t="s">
         <v>12</v>
@@ -11733,56 +11730,56 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="349">
       <c r="A349" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="B349" s="0" t="s">
         <v>993</v>
       </c>
-      <c r="B349" s="0" t="s">
+      <c r="C349" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D349" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E349" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G349" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H349" s="0" t="s">
         <v>994</v>
-      </c>
-      <c r="C349" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D349" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E349" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G349" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H349" s="0" t="s">
-        <v>995</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="350">
       <c r="A350" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="B350" s="0" t="s">
         <v>993</v>
       </c>
-      <c r="B350" s="0" t="s">
+      <c r="C350" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D350" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E350" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G350" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H350" s="0" t="s">
         <v>994</v>
-      </c>
-      <c r="C350" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D350" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E350" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G350" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H350" s="0" t="s">
-        <v>995</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="351">
       <c r="A351" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="B351" s="0" t="s">
         <v>996</v>
-      </c>
-      <c r="B351" s="0" t="s">
-        <v>997</v>
       </c>
       <c r="C351" s="0" t="s">
         <v>15</v>
@@ -11797,18 +11794,18 @@
         <v>19</v>
       </c>
       <c r="H351" s="0" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="352">
       <c r="A352" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="B352" s="0" t="s">
         <v>999</v>
       </c>
-      <c r="B352" s="0" t="s">
-        <v>1000</v>
-      </c>
       <c r="C352" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D352" s="0" t="s">
         <v>25</v>
@@ -11822,10 +11819,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="353">
       <c r="A353" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B353" s="0" t="s">
         <v>1001</v>
-      </c>
-      <c r="B353" s="0" t="s">
-        <v>1002</v>
       </c>
       <c r="C353" s="0" t="s">
         <v>15</v>
@@ -11837,21 +11834,21 @@
         <v>19</v>
       </c>
       <c r="F353" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G353" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H353" s="0" t="s">
         <v>1003</v>
-      </c>
-      <c r="G353" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H353" s="0" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="354">
       <c r="A354" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B354" s="0" t="s">
         <v>1005</v>
-      </c>
-      <c r="B354" s="0" t="s">
-        <v>1006</v>
       </c>
       <c r="C354" s="0" t="s">
         <v>15</v>
@@ -11868,33 +11865,33 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="355">
       <c r="A355" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B355" s="0" t="s">
         <v>1007</v>
       </c>
-      <c r="B355" s="0" t="s">
+      <c r="C355" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D355" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E355" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G355" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H355" s="0" t="s">
         <v>1008</v>
-      </c>
-      <c r="C355" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D355" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E355" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G355" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H355" s="0" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="356">
       <c r="A356" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B356" s="0" t="s">
         <v>1010</v>
-      </c>
-      <c r="B356" s="0" t="s">
-        <v>1011</v>
       </c>
       <c r="C356" s="0" t="s">
         <v>15</v>
@@ -11911,10 +11908,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="357">
       <c r="A357" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B357" s="0" t="s">
         <v>1012</v>
-      </c>
-      <c r="B357" s="0" t="s">
-        <v>1013</v>
       </c>
       <c r="C357" s="0" t="s">
         <v>15</v>
@@ -11931,10 +11928,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="358">
       <c r="A358" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B358" s="0" t="s">
         <v>1014</v>
-      </c>
-      <c r="B358" s="0" t="s">
-        <v>1015</v>
       </c>
       <c r="C358" s="0" t="s">
         <v>15</v>
@@ -11951,10 +11948,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="359">
       <c r="A359" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B359" s="0" t="s">
         <v>1016</v>
-      </c>
-      <c r="B359" s="0" t="s">
-        <v>1017</v>
       </c>
       <c r="C359" s="0" t="s">
         <v>15</v>
@@ -11971,10 +11968,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="360">
       <c r="A360" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B360" s="0" t="s">
         <v>1018</v>
-      </c>
-      <c r="B360" s="0" t="s">
-        <v>1019</v>
       </c>
       <c r="C360" s="0" t="s">
         <v>15</v>
@@ -11986,21 +11983,21 @@
         <v>19</v>
       </c>
       <c r="F360" s="0" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G360" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H360" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="361">
       <c r="A361" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B361" s="0" t="s">
         <v>1021</v>
-      </c>
-      <c r="B361" s="0" t="s">
-        <v>1022</v>
       </c>
       <c r="C361" s="0" t="s">
         <v>15</v>
@@ -12015,15 +12012,15 @@
         <v>19</v>
       </c>
       <c r="H361" s="0" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="362">
       <c r="A362" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B362" s="0" t="s">
         <v>1024</v>
-      </c>
-      <c r="B362" s="0" t="s">
-        <v>1025</v>
       </c>
       <c r="C362" s="0" t="s">
         <v>15</v>
@@ -12040,10 +12037,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="363">
       <c r="A363" s="0" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B363" s="0" t="s">
         <v>1026</v>
-      </c>
-      <c r="B363" s="0" t="s">
-        <v>1027</v>
       </c>
       <c r="C363" s="0" t="s">
         <v>15</v>
@@ -12058,15 +12055,15 @@
         <v>19</v>
       </c>
       <c r="H363" s="0" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="364">
       <c r="A364" s="0" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B364" s="0" t="s">
         <v>1029</v>
-      </c>
-      <c r="B364" s="0" t="s">
-        <v>1030</v>
       </c>
       <c r="C364" s="0" t="s">
         <v>15</v>
@@ -12081,7 +12078,7 @@
         <v>19</v>
       </c>
       <c r="H364" s="0" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="I364" s="0" t="s">
         <v>33</v>
@@ -12089,10 +12086,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="365">
       <c r="A365" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B365" s="0" t="s">
         <v>1032</v>
-      </c>
-      <c r="B365" s="0" t="s">
-        <v>1033</v>
       </c>
       <c r="C365" s="0" t="s">
         <v>15</v>
@@ -12107,15 +12104,15 @@
         <v>19</v>
       </c>
       <c r="H365" s="0" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="366">
       <c r="A366" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B366" s="0" t="s">
         <v>1035</v>
-      </c>
-      <c r="B366" s="0" t="s">
-        <v>1036</v>
       </c>
       <c r="C366" s="0" t="s">
         <v>15</v>
@@ -12132,10 +12129,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="367">
       <c r="A367" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B367" s="0" t="s">
         <v>1037</v>
-      </c>
-      <c r="B367" s="0" t="s">
-        <v>1038</v>
       </c>
       <c r="C367" s="0" t="s">
         <v>15</v>
@@ -12152,10 +12149,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="368">
       <c r="A368" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B368" s="2" t="s">
         <v>1039</v>
-      </c>
-      <c r="B368" s="2" t="s">
-        <v>1040</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>15</v>
@@ -12172,10 +12169,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="369">
       <c r="A369" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B369" s="0" t="s">
         <v>1041</v>
-      </c>
-      <c r="B369" s="0" t="s">
-        <v>1042</v>
       </c>
       <c r="C369" s="0" t="s">
         <v>15</v>
@@ -12190,91 +12187,91 @@
         <v>19</v>
       </c>
       <c r="H369" s="0" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="370">
       <c r="A370" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B370" s="0" t="s">
         <v>1044</v>
       </c>
-      <c r="B370" s="0" t="s">
+      <c r="C370" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D370" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E370" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G370" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H370" s="0" t="s">
         <v>1045</v>
-      </c>
-      <c r="C370" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D370" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E370" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G370" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H370" s="0" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="371">
       <c r="A371" s="0" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B371" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="B371" s="2" t="s">
+      <c r="C371" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D371" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E371" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F371" s="0" t="s">
         <v>1048</v>
       </c>
-      <c r="C371" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D371" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E371" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F371" s="0" t="s">
+      <c r="G371" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H371" s="0" t="s">
         <v>1049</v>
-      </c>
-      <c r="G371" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H371" s="0" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="372">
       <c r="A372" s="0" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B372" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D372" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E372" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F372" s="0" t="s">
         <v>1048</v>
       </c>
-      <c r="C372" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D372" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E372" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F372" s="0" t="s">
+      <c r="G372" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H372" s="0" t="s">
         <v>1049</v>
-      </c>
-      <c r="G372" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H372" s="0" t="s">
-        <v>1050</v>
       </c>
       <c r="I372" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="373">
       <c r="A373" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>15</v>
@@ -12286,73 +12283,73 @@
         <v>19</v>
       </c>
       <c r="F373" s="0" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G373" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H373" s="0" t="s">
         <v>1049</v>
-      </c>
-      <c r="G373" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H373" s="0" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="374">
       <c r="A374" s="0" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B374" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D374" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E374" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F374" s="0" t="s">
         <v>1048</v>
       </c>
-      <c r="C374" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D374" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E374" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F374" s="0" t="s">
+      <c r="G374" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H374" s="0" t="s">
         <v>1049</v>
-      </c>
-      <c r="G374" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H374" s="0" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="375">
       <c r="A375" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B375" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D375" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E375" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F375" s="0" t="s">
         <v>1048</v>
       </c>
-      <c r="C375" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D375" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E375" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F375" s="0" t="s">
+      <c r="G375" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H375" s="0" t="s">
         <v>1049</v>
-      </c>
-      <c r="G375" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H375" s="0" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="376">
       <c r="A376" s="0" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>15</v>
@@ -12364,21 +12361,21 @@
         <v>19</v>
       </c>
       <c r="F376" s="0" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G376" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H376" s="0" t="s">
         <v>1049</v>
-      </c>
-      <c r="G376" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H376" s="0" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="377">
       <c r="A377" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B377" s="0" t="s">
         <v>1056</v>
-      </c>
-      <c r="B377" s="0" t="s">
-        <v>1057</v>
       </c>
       <c r="C377" s="0" t="s">
         <v>15</v>
@@ -12395,33 +12392,33 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="378">
       <c r="A378" s="0" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B378" s="0" t="s">
         <v>1058</v>
       </c>
-      <c r="B378" s="0" t="s">
+      <c r="C378" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D378" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E378" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G378" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H378" s="0" t="s">
         <v>1059</v>
-      </c>
-      <c r="C378" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D378" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E378" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G378" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H378" s="0" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="379">
       <c r="A379" s="0" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B379" s="2" t="s">
         <v>1061</v>
-      </c>
-      <c r="B379" s="2" t="s">
-        <v>1062</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>15</v>
@@ -12433,21 +12430,21 @@
         <v>19</v>
       </c>
       <c r="F379" s="0" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G379" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H379" s="0" t="s">
         <v>1063</v>
-      </c>
-      <c r="G379" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H379" s="0" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="380">
       <c r="A380" s="0" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B380" s="0" t="s">
         <v>1065</v>
-      </c>
-      <c r="B380" s="0" t="s">
-        <v>1066</v>
       </c>
       <c r="C380" s="0" t="s">
         <v>15</v>
@@ -12464,10 +12461,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="381">
       <c r="A381" s="0" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B381" s="0" t="s">
         <v>1067</v>
-      </c>
-      <c r="B381" s="0" t="s">
-        <v>1068</v>
       </c>
       <c r="C381" s="0" t="s">
         <v>15</v>
@@ -12479,7 +12476,7 @@
         <v>19</v>
       </c>
       <c r="F381" s="0" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G381" s="2" t="s">
         <v>12</v>
@@ -12488,10 +12485,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="382">
       <c r="A382" s="0" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B382" s="0" t="s">
         <v>1070</v>
-      </c>
-      <c r="B382" s="0" t="s">
-        <v>1071</v>
       </c>
       <c r="C382" s="0" t="s">
         <v>54</v>
@@ -12508,10 +12505,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="383">
       <c r="A383" s="0" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B383" s="0" t="s">
         <v>1072</v>
-      </c>
-      <c r="B383" s="0" t="s">
-        <v>1073</v>
       </c>
       <c r="C383" s="0" t="s">
         <v>15</v>
@@ -12528,10 +12525,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="384">
       <c r="A384" s="0" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B384" s="0" t="s">
         <v>1074</v>
-      </c>
-      <c r="B384" s="0" t="s">
-        <v>1075</v>
       </c>
       <c r="C384" s="0" t="s">
         <v>15</v>
@@ -12546,7 +12543,7 @@
         <v>19</v>
       </c>
       <c r="H384" s="0" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I384" s="2" t="s">
         <v>33</v>
@@ -12554,13 +12551,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="385">
       <c r="A385" s="0" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B385" s="0" t="s">
         <v>1077</v>
       </c>
-      <c r="B385" s="0" t="s">
-        <v>1078</v>
-      </c>
       <c r="C385" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D385" s="0" t="s">
         <v>11</v>
@@ -12574,10 +12571,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="386">
       <c r="A386" s="0" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B386" s="0" t="s">
         <v>1079</v>
-      </c>
-      <c r="B386" s="0" t="s">
-        <v>1080</v>
       </c>
       <c r="C386" s="0" t="s">
         <v>15</v>
@@ -12592,27 +12589,27 @@
         <v>19</v>
       </c>
       <c r="H386" s="0" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="387">
       <c r="A387" s="0" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B387" s="0" t="s">
         <v>1082</v>
       </c>
-      <c r="B387" s="0" t="s">
+      <c r="C387" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D387" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E387" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F387" s="0" t="s">
         <v>1083</v>
-      </c>
-      <c r="C387" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D387" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E387" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F387" s="0" t="s">
-        <v>1084</v>
       </c>
       <c r="G387" s="0" t="s">
         <v>12</v>
@@ -12620,10 +12617,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="388">
       <c r="A388" s="0" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B388" s="0" t="s">
         <v>1085</v>
-      </c>
-      <c r="B388" s="0" t="s">
-        <v>1086</v>
       </c>
       <c r="C388" s="0" t="s">
         <v>15</v>
@@ -12640,45 +12637,45 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="389">
       <c r="A389" s="0" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B389" s="0" t="s">
         <v>1087</v>
       </c>
-      <c r="B389" s="0" t="s">
+      <c r="C389" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D389" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="E389" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G389" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H389" s="0" t="s">
         <v>1088</v>
-      </c>
-      <c r="C389" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D389" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="E389" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G389" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H389" s="0" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="390">
       <c r="A390" s="0" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B390" s="0" t="s">
         <v>1090</v>
       </c>
-      <c r="B390" s="0" t="s">
+      <c r="C390" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D390" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E390" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F390" s="0" t="s">
         <v>1091</v>
-      </c>
-      <c r="C390" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D390" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E390" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F390" s="0" t="s">
-        <v>1092</v>
       </c>
       <c r="G390" s="0" t="s">
         <v>12</v>
@@ -12686,10 +12683,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="391">
       <c r="A391" s="0" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B391" s="0" t="s">
         <v>1093</v>
-      </c>
-      <c r="B391" s="0" t="s">
-        <v>1094</v>
       </c>
       <c r="C391" s="0" t="s">
         <v>15</v>
@@ -12706,10 +12703,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="392">
       <c r="A392" s="0" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B392" s="0" t="s">
         <v>1095</v>
-      </c>
-      <c r="B392" s="0" t="s">
-        <v>1096</v>
       </c>
       <c r="C392" s="0" t="s">
         <v>15</v>
@@ -12721,7 +12718,7 @@
         <v>19</v>
       </c>
       <c r="F392" s="0" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G392" s="0" t="s">
         <v>12</v>
@@ -12729,13 +12726,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="393">
       <c r="A393" s="0" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B393" s="0" t="s">
         <v>1098</v>
       </c>
-      <c r="B393" s="0" t="s">
-        <v>1099</v>
-      </c>
       <c r="C393" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D393" s="0" t="s">
         <v>25</v>
@@ -12744,7 +12741,7 @@
         <v>19</v>
       </c>
       <c r="F393" s="0" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G393" s="0" t="s">
         <v>12</v>
@@ -12752,10 +12749,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="394">
       <c r="A394" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B394" s="0" t="s">
         <v>1101</v>
-      </c>
-      <c r="B394" s="0" t="s">
-        <v>1102</v>
       </c>
       <c r="C394" s="0" t="s">
         <v>15</v>
@@ -12767,21 +12764,21 @@
         <v>19</v>
       </c>
       <c r="F394" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G394" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H394" s="0" t="s">
         <v>1103</v>
-      </c>
-      <c r="G394" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H394" s="0" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="395">
       <c r="A395" s="0" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B395" s="0" t="s">
         <v>1105</v>
-      </c>
-      <c r="B395" s="0" t="s">
-        <v>1106</v>
       </c>
       <c r="C395" s="0" t="s">
         <v>15</v>
@@ -12793,7 +12790,7 @@
         <v>19</v>
       </c>
       <c r="F395" s="0" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G395" s="0" t="s">
         <v>12</v>
@@ -12801,10 +12798,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="396">
       <c r="A396" s="0" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B396" s="0" t="s">
         <v>1108</v>
-      </c>
-      <c r="B396" s="0" t="s">
-        <v>1109</v>
       </c>
       <c r="C396" s="0" t="s">
         <v>15</v>
@@ -12821,10 +12818,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="397">
       <c r="A397" s="0" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B397" s="2" t="s">
         <v>1110</v>
-      </c>
-      <c r="B397" s="2" t="s">
-        <v>1111</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>15</v>
@@ -12836,7 +12833,7 @@
         <v>19</v>
       </c>
       <c r="F397" s="0" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G397" s="2" t="s">
         <v>12</v>
@@ -12844,33 +12841,33 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="398">
       <c r="A398" s="0" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B398" s="0" t="s">
         <v>1113</v>
       </c>
-      <c r="B398" s="0" t="s">
+      <c r="C398" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D398" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E398" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G398" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H398" s="0" t="s">
         <v>1114</v>
-      </c>
-      <c r="C398" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D398" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E398" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G398" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H398" s="0" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="399">
       <c r="A399" s="0" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B399" s="0" t="s">
         <v>1116</v>
-      </c>
-      <c r="B399" s="0" t="s">
-        <v>1117</v>
       </c>
       <c r="C399" s="0" t="s">
         <v>15</v>
@@ -12887,22 +12884,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="400">
       <c r="A400" s="0" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B400" s="0" t="s">
         <v>1118</v>
       </c>
-      <c r="B400" s="0" t="s">
+      <c r="C400" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D400" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E400" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F400" s="0" t="s">
         <v>1119</v>
-      </c>
-      <c r="C400" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D400" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E400" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F400" s="0" t="s">
-        <v>1120</v>
       </c>
       <c r="G400" s="0" t="s">
         <v>12</v>
@@ -12911,10 +12908,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="401">
       <c r="A401" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B401" s="0" t="s">
         <v>1121</v>
-      </c>
-      <c r="B401" s="0" t="s">
-        <v>1122</v>
       </c>
       <c r="C401" s="0" t="s">
         <v>15</v>
@@ -12932,10 +12929,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="402">
       <c r="A402" s="0" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B402" s="0" t="s">
         <v>1123</v>
-      </c>
-      <c r="B402" s="0" t="s">
-        <v>1124</v>
       </c>
       <c r="C402" s="0" t="s">
         <v>15</v>
@@ -12952,10 +12949,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="403">
       <c r="A403" s="0" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B403" s="0" t="s">
         <v>1125</v>
-      </c>
-      <c r="B403" s="0" t="s">
-        <v>1126</v>
       </c>
       <c r="C403" s="0" t="s">
         <v>15</v>
@@ -12972,10 +12969,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="404">
       <c r="A404" s="0" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B404" s="0" t="s">
         <v>1127</v>
-      </c>
-      <c r="B404" s="0" t="s">
-        <v>1128</v>
       </c>
       <c r="C404" s="0" t="s">
         <v>15</v>
@@ -12992,10 +12989,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="405">
       <c r="A405" s="0" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B405" s="0" t="s">
         <v>1129</v>
-      </c>
-      <c r="B405" s="0" t="s">
-        <v>1130</v>
       </c>
       <c r="C405" s="0" t="s">
         <v>15</v>
@@ -13012,13 +13009,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="406">
       <c r="A406" s="0" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B406" s="0" t="s">
         <v>1131</v>
       </c>
-      <c r="B406" s="0" t="s">
-        <v>1132</v>
-      </c>
       <c r="C406" s="0" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D406" s="0" t="s">
         <v>16</v>
@@ -13030,15 +13027,15 @@
         <v>19</v>
       </c>
       <c r="H406" s="0" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="407">
       <c r="A407" s="0" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B407" s="0" t="s">
         <v>1134</v>
-      </c>
-      <c r="B407" s="0" t="s">
-        <v>1135</v>
       </c>
       <c r="C407" s="0" t="s">
         <v>15</v>
@@ -13055,22 +13052,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="408">
       <c r="A408" s="0" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B408" s="0" t="s">
         <v>1136</v>
       </c>
-      <c r="B408" s="0" t="s">
+      <c r="C408" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D408" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E408" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F408" s="0" t="s">
         <v>1137</v>
-      </c>
-      <c r="C408" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D408" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E408" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F408" s="0" t="s">
-        <v>1138</v>
       </c>
       <c r="G408" s="2" t="s">
         <v>12</v>
@@ -13078,10 +13075,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="409">
       <c r="A409" s="0" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B409" s="0" t="s">
         <v>1139</v>
-      </c>
-      <c r="B409" s="0" t="s">
-        <v>1140</v>
       </c>
       <c r="C409" s="0" t="s">
         <v>15</v>
@@ -13098,10 +13095,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="410">
       <c r="A410" s="0" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B410" s="2" t="s">
         <v>1141</v>
-      </c>
-      <c r="B410" s="2" t="s">
-        <v>1142</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>15</v>
@@ -13118,10 +13115,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="411">
       <c r="A411" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B411" s="0" t="s">
         <v>1143</v>
-      </c>
-      <c r="B411" s="0" t="s">
-        <v>1144</v>
       </c>
       <c r="C411" s="0" t="s">
         <v>15</v>
@@ -13133,7 +13130,7 @@
         <v>19</v>
       </c>
       <c r="F411" s="0" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G411" s="0" t="s">
         <v>12</v>
@@ -13141,10 +13138,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="412">
       <c r="A412" s="0" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B412" s="0" t="s">
         <v>1146</v>
-      </c>
-      <c r="B412" s="0" t="s">
-        <v>1147</v>
       </c>
       <c r="C412" s="0" t="s">
         <v>15</v>
@@ -13161,10 +13158,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="413">
       <c r="A413" s="0" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B413" s="0" t="s">
         <v>1148</v>
-      </c>
-      <c r="B413" s="0" t="s">
-        <v>1149</v>
       </c>
       <c r="C413" s="0" t="s">
         <v>15</v>
@@ -13179,41 +13176,41 @@
         <v>19</v>
       </c>
       <c r="H413" s="0" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="414">
       <c r="A414" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B414" s="0" t="s">
         <v>1151</v>
       </c>
-      <c r="B414" s="0" t="s">
+      <c r="C414" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D414" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="E414" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G414" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H414" s="0" t="s">
         <v>1152</v>
-      </c>
-      <c r="C414" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D414" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="E414" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G414" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H414" s="0" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="415">
       <c r="A415" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B415" s="0" t="s">
         <v>1154</v>
       </c>
-      <c r="B415" s="0" t="s">
+      <c r="C415" s="0" t="s">
         <v>1155</v>
-      </c>
-      <c r="C415" s="0" t="s">
-        <v>1156</v>
       </c>
       <c r="D415" s="0" t="s">
         <v>11</v>
@@ -13227,10 +13224,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="416">
       <c r="A416" s="0" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B416" s="0" t="s">
         <v>1157</v>
-      </c>
-      <c r="B416" s="0" t="s">
-        <v>1158</v>
       </c>
       <c r="C416" s="0" t="s">
         <v>15</v>
@@ -13247,10 +13244,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="417">
       <c r="A417" s="0" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B417" s="0" t="s">
         <v>1159</v>
-      </c>
-      <c r="B417" s="0" t="s">
-        <v>1160</v>
       </c>
       <c r="C417" s="0" t="s">
         <v>15</v>
@@ -13265,18 +13262,18 @@
         <v>19</v>
       </c>
       <c r="H417" s="0" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="418">
       <c r="A418" s="0" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B418" s="0" t="s">
         <v>1162</v>
       </c>
-      <c r="B418" s="0" t="s">
-        <v>1163</v>
-      </c>
       <c r="C418" s="0" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D418" s="2" t="s">
         <v>25</v>
@@ -13285,7 +13282,7 @@
         <v>19</v>
       </c>
       <c r="F418" s="0" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G418" s="0" t="s">
         <v>12</v>
@@ -13293,10 +13290,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="419">
       <c r="A419" s="0" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B419" s="0" t="s">
         <v>1165</v>
-      </c>
-      <c r="B419" s="0" t="s">
-        <v>1166</v>
       </c>
       <c r="C419" s="0" t="s">
         <v>15</v>
@@ -13313,10 +13310,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="420">
       <c r="A420" s="0" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B420" s="0" t="s">
         <v>1167</v>
-      </c>
-      <c r="B420" s="0" t="s">
-        <v>1168</v>
       </c>
       <c r="C420" s="0" t="s">
         <v>15</v>
@@ -13333,10 +13330,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="421">
       <c r="A421" s="0" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B421" s="0" t="s">
         <v>1169</v>
-      </c>
-      <c r="B421" s="0" t="s">
-        <v>1170</v>
       </c>
       <c r="C421" s="0" t="s">
         <v>15</v>
@@ -13348,7 +13345,7 @@
         <v>19</v>
       </c>
       <c r="F421" s="0" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="G421" s="0" t="s">
         <v>12</v>
@@ -13356,10 +13353,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="422">
       <c r="A422" s="0" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B422" s="0" t="s">
         <v>1172</v>
-      </c>
-      <c r="B422" s="0" t="s">
-        <v>1173</v>
       </c>
       <c r="C422" s="0" t="s">
         <v>15</v>
@@ -13371,7 +13368,7 @@
         <v>19</v>
       </c>
       <c r="F422" s="0" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G422" s="0" t="s">
         <v>12</v>
@@ -13379,22 +13376,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="423">
       <c r="A423" s="0" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B423" s="0" t="s">
         <v>1175</v>
       </c>
-      <c r="B423" s="0" t="s">
+      <c r="C423" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D423" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="E423" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F423" s="0" t="s">
         <v>1176</v>
-      </c>
-      <c r="C423" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D423" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="E423" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F423" s="0" t="s">
-        <v>1177</v>
       </c>
       <c r="G423" s="0" t="s">
         <v>12</v>
@@ -13402,22 +13399,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="424">
       <c r="A424" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B424" s="2" t="s">
         <v>1178</v>
       </c>
-      <c r="B424" s="2" t="s">
+      <c r="C424" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="D424" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="E424" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F424" s="0" t="s">
         <v>1179</v>
-      </c>
-      <c r="C424" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="D424" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="E424" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F424" s="0" t="s">
-        <v>1180</v>
       </c>
       <c r="G424" s="0" t="s">
         <v>12</v>
@@ -13425,10 +13422,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="425">
       <c r="A425" s="0" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B425" s="0" t="s">
         <v>1181</v>
-      </c>
-      <c r="B425" s="0" t="s">
-        <v>1182</v>
       </c>
       <c r="C425" s="0" t="s">
         <v>15</v>
@@ -13440,21 +13437,21 @@
         <v>19</v>
       </c>
       <c r="F425" s="0" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G425" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H425" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="426">
       <c r="A426" s="0" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B426" s="0" t="s">
         <v>1184</v>
-      </c>
-      <c r="B426" s="0" t="s">
-        <v>1185</v>
       </c>
       <c r="C426" s="0" t="s">
         <v>15</v>
@@ -13471,16 +13468,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="427">
       <c r="A427" s="0" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B427" s="0" t="s">
         <v>1186</v>
       </c>
-      <c r="B427" s="0" t="s">
-        <v>1187</v>
-      </c>
       <c r="C427" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D427" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E427" s="0" t="s">
         <v>12</v>
@@ -13491,45 +13488,45 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="428">
       <c r="A428" s="0" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B428" s="0" t="s">
         <v>1188</v>
       </c>
-      <c r="B428" s="0" t="s">
+      <c r="C428" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D428" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E428" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G428" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H428" s="0" t="s">
         <v>1189</v>
-      </c>
-      <c r="C428" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D428" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="E428" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G428" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H428" s="0" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="429">
       <c r="A429" s="0" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B429" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="B429" s="2" t="s">
+      <c r="C429" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D429" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E429" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F429" s="0" t="s">
         <v>1192</v>
-      </c>
-      <c r="C429" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D429" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="E429" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F429" s="0" t="s">
-        <v>1193</v>
       </c>
       <c r="G429" s="0" t="s">
         <v>12</v>
@@ -13537,33 +13534,33 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="430">
       <c r="A430" s="0" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B430" s="0" t="s">
         <v>1194</v>
       </c>
-      <c r="B430" s="0" t="s">
+      <c r="C430" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D430" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E430" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G430" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H430" s="0" t="s">
         <v>1195</v>
-      </c>
-      <c r="C430" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D430" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="E430" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G430" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H430" s="0" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="431">
       <c r="A431" s="0" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B431" s="0" t="s">
         <v>1197</v>
-      </c>
-      <c r="B431" s="0" t="s">
-        <v>1198</v>
       </c>
       <c r="C431" s="0" t="s">
         <v>15</v>
@@ -13578,15 +13575,15 @@
         <v>19</v>
       </c>
       <c r="H431" s="0" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="432">
       <c r="A432" s="0" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B432" s="0" t="s">
         <v>1200</v>
-      </c>
-      <c r="B432" s="0" t="s">
-        <v>1201</v>
       </c>
       <c r="C432" s="0" t="s">
         <v>15</v>
@@ -13598,7 +13595,7 @@
         <v>19</v>
       </c>
       <c r="F432" s="0" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="G432" s="0" t="s">
         <v>12</v>
@@ -13606,10 +13603,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="433">
       <c r="A433" s="0" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B433" s="0" t="s">
         <v>1203</v>
-      </c>
-      <c r="B433" s="0" t="s">
-        <v>1204</v>
       </c>
       <c r="C433" s="0" t="s">
         <v>15</v>
@@ -13626,10 +13623,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="434">
       <c r="A434" s="0" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B434" s="0" t="s">
         <v>1205</v>
-      </c>
-      <c r="B434" s="0" t="s">
-        <v>1206</v>
       </c>
       <c r="C434" s="0" t="s">
         <v>15</v>
@@ -13644,15 +13641,15 @@
         <v>19</v>
       </c>
       <c r="H434" s="0" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="435">
       <c r="A435" s="0" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B435" s="0" t="s">
         <v>1208</v>
-      </c>
-      <c r="B435" s="0" t="s">
-        <v>1209</v>
       </c>
       <c r="C435" s="0" t="s">
         <v>15</v>
@@ -13667,27 +13664,27 @@
         <v>19</v>
       </c>
       <c r="H435" s="0" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="436">
       <c r="A436" s="0" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B436" s="0" t="s">
         <v>1210</v>
       </c>
-      <c r="B436" s="0" t="s">
+      <c r="C436" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D436" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E436" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F436" s="0" t="s">
         <v>1211</v>
-      </c>
-      <c r="C436" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D436" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E436" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F436" s="0" t="s">
-        <v>1212</v>
       </c>
       <c r="G436" s="2" t="s">
         <v>12</v>
@@ -13695,33 +13692,33 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="437">
       <c r="A437" s="0" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B437" s="0" t="s">
         <v>1213</v>
       </c>
-      <c r="B437" s="0" t="s">
+      <c r="C437" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D437" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E437" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G437" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H437" s="0" t="s">
         <v>1214</v>
-      </c>
-      <c r="C437" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D437" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E437" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G437" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H437" s="0" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="438">
       <c r="A438" s="0" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B438" s="0" t="s">
         <v>1216</v>
-      </c>
-      <c r="B438" s="0" t="s">
-        <v>1217</v>
       </c>
       <c r="C438" s="0" t="s">
         <v>15</v>
@@ -13733,7 +13730,7 @@
         <v>19</v>
       </c>
       <c r="F438" s="0" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G438" s="2" t="s">
         <v>12</v>
@@ -13741,36 +13738,36 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="439">
       <c r="A439" s="0" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B439" s="0" t="s">
         <v>1219</v>
       </c>
-      <c r="B439" s="0" t="s">
+      <c r="C439" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="D439" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E439" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G439" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H439" s="0" t="s">
         <v>1220</v>
-      </c>
-      <c r="C439" s="0" t="s">
-        <v>893</v>
-      </c>
-      <c r="D439" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E439" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G439" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H439" s="0" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="440">
       <c r="A440" s="0" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B440" s="0" t="s">
         <v>1222</v>
       </c>
-      <c r="B440" s="0" t="s">
-        <v>1223</v>
-      </c>
       <c r="C440" s="0" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D440" s="0" t="s">
         <v>25</v>
@@ -13779,73 +13776,73 @@
         <v>19</v>
       </c>
       <c r="F440" s="0" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G440" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H440" s="0" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="441">
       <c r="A441" s="0" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B441" s="0" t="s">
         <v>1225</v>
       </c>
-      <c r="B441" s="0" t="s">
+      <c r="C441" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="D441" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E441" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F441" s="0" t="s">
         <v>1226</v>
       </c>
-      <c r="C441" s="0" t="s">
-        <v>893</v>
-      </c>
-      <c r="D441" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E441" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F441" s="0" t="s">
-        <v>1227</v>
-      </c>
       <c r="G441" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H441" s="0" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="442">
       <c r="A442" s="0" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B442" s="0" t="s">
         <v>1228</v>
       </c>
-      <c r="B442" s="0" t="s">
+      <c r="C442" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D442" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E442" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G442" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H442" s="0" t="s">
         <v>1229</v>
-      </c>
-      <c r="C442" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D442" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E442" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G442" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H442" s="0" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="443">
       <c r="A443" s="0" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B443" s="0" t="s">
         <v>1231</v>
       </c>
-      <c r="B443" s="0" t="s">
-        <v>1232</v>
-      </c>
       <c r="C443" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D443" s="0" t="s">
         <v>30</v>
@@ -13854,33 +13851,33 @@
         <v>19</v>
       </c>
       <c r="F443" s="0" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G443" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H443" s="0" t="s">
         <v>1233</v>
-      </c>
-      <c r="G443" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H443" s="0" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="444">
       <c r="A444" s="0" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B444" s="0" t="s">
         <v>1235</v>
       </c>
-      <c r="B444" s="0" t="s">
+      <c r="C444" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D444" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E444" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F444" s="0" t="s">
         <v>1236</v>
-      </c>
-      <c r="C444" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="D444" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E444" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F444" s="0" t="s">
-        <v>1237</v>
       </c>
       <c r="G444" s="0" t="s">
         <v>12</v>
@@ -13905,7 +13902,8 @@
     <hyperlink display="http://www.augasonfarms.com/dealofday" ref="B41" r:id="rId15"/>
     <hyperlink display="http://www.cigarmonster.com" ref="B84" r:id="rId16"/>
     <hyperlink display="http://www.dodhero.com/index.php?main_page=index&amp;cPath=9" ref="B135" r:id="rId17"/>
-    <hyperlink display="http://www.worldofwatches.com/cust/dailydealsteal.asp" ref="B434" r:id="rId18"/>
+    <hyperlink display="http://www.pfaltzgraff.com/" ref="B306" r:id="rId18"/>
+    <hyperlink display="http://www.worldofwatches.com/cust/dailydealsteal.asp" ref="B434" r:id="rId19"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -13929,8 +13927,8 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.72156862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13955,8 +13953,8 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.72156862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
